--- a/SYK_Model.xlsx
+++ b/SYK_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE24BE0-7249-487F-8062-E5DC2E5A7D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291A7FA-1CE0-4ED4-B65A-647B35CBDBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -562,17 +562,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="13.9">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -661,14 +661,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78130D12-B16F-4BC5-8728-6B07C0E66DA0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.1328125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -679,16 +679,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B64CFE4-27B0-47D1-98A8-2BD6EC88FF38}">
   <dimension ref="A2:B93"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="39" width="9.140625" style="2"/>
-    <col min="40" max="40" width="3.42578125" style="2" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.265625" style="2" customWidth="1"/>
+    <col min="2" max="39" width="9.1328125" style="2"/>
+    <col min="40" max="40" width="3.3984375" style="2" customWidth="1"/>
+    <col min="41" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -857,12 +857,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.9296875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SYK_Model.xlsx
+++ b/SYK_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291A7FA-1CE0-4ED4-B65A-647B35CBDBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F623892-9D44-43DA-9E3D-DEFECC6E2C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="498">
   <si>
     <t xml:space="preserve">Price </t>
   </si>
@@ -159,6 +159,1380 @@
   </si>
   <si>
     <t>1990s</t>
+  </si>
+  <si>
+    <t>17.15%</t>
+  </si>
+  <si>
+    <t>1.33%</t>
+  </si>
+  <si>
+    <t>3.41%</t>
+  </si>
+  <si>
+    <t>-9.84%</t>
+  </si>
+  <si>
+    <t>18.46%</t>
+  </si>
+  <si>
+    <t>-1.74%</t>
+  </si>
+  <si>
+    <t>4.56%</t>
+  </si>
+  <si>
+    <t>-8.15%</t>
+  </si>
+  <si>
+    <t>16.14%</t>
+  </si>
+  <si>
+    <t>-0.31%</t>
+  </si>
+  <si>
+    <t>5.10%</t>
+  </si>
+  <si>
+    <t>-9.06%</t>
+  </si>
+  <si>
+    <t>13.00%</t>
+  </si>
+  <si>
+    <t>-3.12%</t>
+  </si>
+  <si>
+    <t>8.63%</t>
+  </si>
+  <si>
+    <t>-7.25%</t>
+  </si>
+  <si>
+    <t>14.05%</t>
+  </si>
+  <si>
+    <t>35.20%</t>
+  </si>
+  <si>
+    <t>-22.97%</t>
+  </si>
+  <si>
+    <t>-13.14%</t>
+  </si>
+  <si>
+    <t>15.17%</t>
+  </si>
+  <si>
+    <t>-1.73%</t>
+  </si>
+  <si>
+    <t>3.81%</t>
+  </si>
+  <si>
+    <t>-7.38%</t>
+  </si>
+  <si>
+    <t>17.09%</t>
+  </si>
+  <si>
+    <t>-2.41%</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>-6.63%</t>
+  </si>
+  <si>
+    <t>15.47%</t>
+  </si>
+  <si>
+    <t>-0.20%</t>
+  </si>
+  <si>
+    <t>1.93%</t>
+  </si>
+  <si>
+    <t>-6.40%</t>
+  </si>
+  <si>
+    <t>11.44%</t>
+  </si>
+  <si>
+    <t>-0.25%</t>
+  </si>
+  <si>
+    <t>13.83%</t>
+  </si>
+  <si>
+    <t>-8.10%</t>
+  </si>
+  <si>
+    <t>12.19%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>2.23%</t>
+  </si>
+  <si>
+    <t>-9.13%</t>
+  </si>
+  <si>
+    <t>9.59%</t>
+  </si>
+  <si>
+    <t>1.10%</t>
+  </si>
+  <si>
+    <t>2.52%</t>
+  </si>
+  <si>
+    <t>-6.60%</t>
+  </si>
+  <si>
+    <t>14.74%</t>
+  </si>
+  <si>
+    <t>-2.76%</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>-6.33%</t>
+  </si>
+  <si>
+    <t>13.94%</t>
+  </si>
+  <si>
+    <t>-2.56%</t>
+  </si>
+  <si>
+    <t>-2.55%</t>
+  </si>
+  <si>
+    <t>-2.44%</t>
+  </si>
+  <si>
+    <t>9.06%</t>
+  </si>
+  <si>
+    <t>-0.73%</t>
+  </si>
+  <si>
+    <t>1.54%</t>
+  </si>
+  <si>
+    <t>1.02%</t>
+  </si>
+  <si>
+    <t>12.82%</t>
+  </si>
+  <si>
+    <t>0.56%</t>
+  </si>
+  <si>
+    <t>-2.27%</t>
+  </si>
+  <si>
+    <t>-1.91%</t>
+  </si>
+  <si>
+    <t>10.94%</t>
+  </si>
+  <si>
+    <t>1.16%</t>
+  </si>
+  <si>
+    <t>2.06%</t>
+  </si>
+  <si>
+    <t>-3.13%</t>
+  </si>
+  <si>
+    <t>-3.48%</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Revenue QoQ Growth</t>
+  </si>
+  <si>
+    <t>32.66%</t>
+  </si>
+  <si>
+    <t>34.51%</t>
+  </si>
+  <si>
+    <t>34.06%</t>
+  </si>
+  <si>
+    <t>35.09%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>34.83%</t>
+  </si>
+  <si>
+    <t>34.21%</t>
+  </si>
+  <si>
+    <t>37.28%</t>
+  </si>
+  <si>
+    <t>33.66%</t>
+  </si>
+  <si>
+    <t>32.48%</t>
+  </si>
+  <si>
+    <t>34.25%</t>
+  </si>
+  <si>
+    <t>40.00%</t>
+  </si>
+  <si>
+    <t>37.12%</t>
+  </si>
+  <si>
+    <t>38.51%</t>
+  </si>
+  <si>
+    <t>35.05%</t>
+  </si>
+  <si>
+    <t>39.84%</t>
+  </si>
+  <si>
+    <t>36.65%</t>
+  </si>
+  <si>
+    <t>33.29%</t>
+  </si>
+  <si>
+    <t>44.32%</t>
+  </si>
+  <si>
+    <t>37.07%</t>
+  </si>
+  <si>
+    <t>33.41%</t>
+  </si>
+  <si>
+    <t>35.99%</t>
+  </si>
+  <si>
+    <t>35.12%</t>
+  </si>
+  <si>
+    <t>39.90%</t>
+  </si>
+  <si>
+    <t>37.70%</t>
+  </si>
+  <si>
+    <t>38.31%</t>
+  </si>
+  <si>
+    <t>35.82%</t>
+  </si>
+  <si>
+    <t>38.14%</t>
+  </si>
+  <si>
+    <t>35.06%</t>
+  </si>
+  <si>
+    <t>36.69%</t>
+  </si>
+  <si>
+    <t>37.52%</t>
+  </si>
+  <si>
+    <t>37.29%</t>
+  </si>
+  <si>
+    <t>34.62%</t>
+  </si>
+  <si>
+    <t>37.31%</t>
+  </si>
+  <si>
+    <t>36.73%</t>
+  </si>
+  <si>
+    <t>37.84%</t>
+  </si>
+  <si>
+    <t>35.73%</t>
+  </si>
+  <si>
+    <t>35.40%</t>
+  </si>
+  <si>
+    <t>37.49%</t>
+  </si>
+  <si>
+    <t>35.91%</t>
+  </si>
+  <si>
+    <t>36.75%</t>
+  </si>
+  <si>
+    <t>36.82%</t>
+  </si>
+  <si>
+    <t>37.27%</t>
+  </si>
+  <si>
+    <t>16.21%</t>
+  </si>
+  <si>
+    <t>52.81%</t>
+  </si>
+  <si>
+    <t>45.89%</t>
+  </si>
+  <si>
+    <t>41.83%</t>
+  </si>
+  <si>
+    <t>39.95%</t>
+  </si>
+  <si>
+    <t>38.55%</t>
+  </si>
+  <si>
+    <t>39.08%</t>
+  </si>
+  <si>
+    <t>37.90%</t>
+  </si>
+  <si>
+    <t>37.65%</t>
+  </si>
+  <si>
+    <t>37.67%</t>
+  </si>
+  <si>
+    <t>38.42%</t>
+  </si>
+  <si>
+    <t>37.97%</t>
+  </si>
+  <si>
+    <t>36.37%</t>
+  </si>
+  <si>
+    <t>37.64%</t>
+  </si>
+  <si>
+    <t>34.26%</t>
+  </si>
+  <si>
+    <t>38.95%</t>
+  </si>
+  <si>
+    <t>37.76%</t>
+  </si>
+  <si>
+    <t>39.01%</t>
+  </si>
+  <si>
+    <t>39.60%</t>
+  </si>
+  <si>
+    <t>SG&amp;A as % of Revenue</t>
+  </si>
+  <si>
+    <t>5.56%</t>
+  </si>
+  <si>
+    <t>6.86%</t>
+  </si>
+  <si>
+    <t>6.69%</t>
+  </si>
+  <si>
+    <t>7.02%</t>
+  </si>
+  <si>
+    <t>6.02%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>6.93%</t>
+  </si>
+  <si>
+    <t>7.10%</t>
+  </si>
+  <si>
+    <t>6.27%</t>
+  </si>
+  <si>
+    <t>8.13%</t>
+  </si>
+  <si>
+    <t>7.81%</t>
+  </si>
+  <si>
+    <t>9.66%</t>
+  </si>
+  <si>
+    <t>7.04%</t>
+  </si>
+  <si>
+    <t>7.36%</t>
+  </si>
+  <si>
+    <t>7.22%</t>
+  </si>
+  <si>
+    <t>7.29%</t>
+  </si>
+  <si>
+    <t>5.98%</t>
+  </si>
+  <si>
+    <t>6.48%</t>
+  </si>
+  <si>
+    <t>8.43%</t>
+  </si>
+  <si>
+    <t>7.08%</t>
+  </si>
+  <si>
+    <t>6.15%</t>
+  </si>
+  <si>
+    <t>6.74%</t>
+  </si>
+  <si>
+    <t>6.40%</t>
+  </si>
+  <si>
+    <t>5.82%</t>
+  </si>
+  <si>
+    <t>6.82%</t>
+  </si>
+  <si>
+    <t>6.50%</t>
+  </si>
+  <si>
+    <t>6.29%</t>
+  </si>
+  <si>
+    <t>5.91%</t>
+  </si>
+  <si>
+    <t>6.59%</t>
+  </si>
+  <si>
+    <t>6.37%</t>
+  </si>
+  <si>
+    <t>5.99%</t>
+  </si>
+  <si>
+    <t>6.49%</t>
+  </si>
+  <si>
+    <t>6.44%</t>
+  </si>
+  <si>
+    <t>6.04%</t>
+  </si>
+  <si>
+    <t>6.33%</t>
+  </si>
+  <si>
+    <t>6.39%</t>
+  </si>
+  <si>
+    <t>5.84%</t>
+  </si>
+  <si>
+    <t>6.51%</t>
+  </si>
+  <si>
+    <t>5.63%</t>
+  </si>
+  <si>
+    <t>6.32%</t>
+  </si>
+  <si>
+    <t>5.97%</t>
+  </si>
+  <si>
+    <t>5.89%</t>
+  </si>
+  <si>
+    <t>5.52%</t>
+  </si>
+  <si>
+    <t>5.51%</t>
+  </si>
+  <si>
+    <t>5.18%</t>
+  </si>
+  <si>
+    <t>5.19%</t>
+  </si>
+  <si>
+    <t>6.01%</t>
+  </si>
+  <si>
+    <t>5.57%</t>
+  </si>
+  <si>
+    <t>5.53%</t>
+  </si>
+  <si>
+    <t>5.60%</t>
+  </si>
+  <si>
+    <t>5.38%</t>
+  </si>
+  <si>
+    <t>5.00%</t>
+  </si>
+  <si>
+    <t>4.87%</t>
+  </si>
+  <si>
+    <t>5.06%</t>
+  </si>
+  <si>
+    <t>5.05%</t>
+  </si>
+  <si>
+    <t>5.02%</t>
+  </si>
+  <si>
+    <t>5.27%</t>
+  </si>
+  <si>
+    <t>R&amp;D as % of Revenue</t>
+  </si>
+  <si>
+    <t>8.48%</t>
+  </si>
+  <si>
+    <t>15.18%</t>
+  </si>
+  <si>
+    <t>15.22%</t>
+  </si>
+  <si>
+    <t>15.03%</t>
+  </si>
+  <si>
+    <t>19.66%</t>
+  </si>
+  <si>
+    <t>14.10%</t>
+  </si>
+  <si>
+    <t>14.77%</t>
+  </si>
+  <si>
+    <t>12.39%</t>
+  </si>
+  <si>
+    <t>10.82%</t>
+  </si>
+  <si>
+    <t>18.22%</t>
+  </si>
+  <si>
+    <t>14.60%</t>
+  </si>
+  <si>
+    <t>7.56%</t>
+  </si>
+  <si>
+    <t>14.08%</t>
+  </si>
+  <si>
+    <t>10.53%</t>
+  </si>
+  <si>
+    <t>13.79%</t>
+  </si>
+  <si>
+    <t>7.64%</t>
+  </si>
+  <si>
+    <t>13.33%</t>
+  </si>
+  <si>
+    <t>16.62%</t>
+  </si>
+  <si>
+    <t>-3.00%</t>
+  </si>
+  <si>
+    <t>13.74%</t>
+  </si>
+  <si>
+    <t>17.55%</t>
+  </si>
+  <si>
+    <t>12.99%</t>
+  </si>
+  <si>
+    <t>13.15%</t>
+  </si>
+  <si>
+    <t>11.72%</t>
+  </si>
+  <si>
+    <t>54.48%</t>
+  </si>
+  <si>
+    <t>18.20%</t>
+  </si>
+  <si>
+    <t>13.61%</t>
+  </si>
+  <si>
+    <t>13.67%</t>
+  </si>
+  <si>
+    <t>-7.17%</t>
+  </si>
+  <si>
+    <t>14.44%</t>
+  </si>
+  <si>
+    <t>12.98%</t>
+  </si>
+  <si>
+    <t>16.15%</t>
+  </si>
+  <si>
+    <t>12.53%</t>
+  </si>
+  <si>
+    <t>13.38%</t>
+  </si>
+  <si>
+    <t>16.11%</t>
+  </si>
+  <si>
+    <t>19.23%</t>
+  </si>
+  <si>
+    <t>12.44%</t>
+  </si>
+  <si>
+    <t>16.12%</t>
+  </si>
+  <si>
+    <t>9.42%</t>
+  </si>
+  <si>
+    <t>9.93%</t>
+  </si>
+  <si>
+    <t>2.39%</t>
+  </si>
+  <si>
+    <t>5.42%</t>
+  </si>
+  <si>
+    <t>3.04%</t>
+  </si>
+  <si>
+    <t>15.64%</t>
+  </si>
+  <si>
+    <t>4.79%</t>
+  </si>
+  <si>
+    <t>9.63%</t>
+  </si>
+  <si>
+    <t>13.88%</t>
+  </si>
+  <si>
+    <t>11.55%</t>
+  </si>
+  <si>
+    <t>17.20%</t>
+  </si>
+  <si>
+    <t>15.43%</t>
+  </si>
+  <si>
+    <t>16.20%</t>
+  </si>
+  <si>
+    <t>18.10%</t>
+  </si>
+  <si>
+    <t>16.10%</t>
+  </si>
+  <si>
+    <t>15.15%</t>
+  </si>
+  <si>
+    <t>15.24%</t>
+  </si>
+  <si>
+    <t>14.80%</t>
+  </si>
+  <si>
+    <t>19.06%</t>
+  </si>
+  <si>
+    <t>18.14%</t>
+  </si>
+  <si>
+    <t>17.88%</t>
+  </si>
+  <si>
+    <t>16.66%</t>
+  </si>
+  <si>
+    <t>13.85%</t>
+  </si>
+  <si>
+    <t>17.82%</t>
+  </si>
+  <si>
+    <t>16.56%</t>
+  </si>
+  <si>
+    <t>17.86%</t>
+  </si>
+  <si>
+    <t>Net Profit Margin</t>
+  </si>
+  <si>
+    <t>9.03%</t>
+  </si>
+  <si>
+    <t>19.75%</t>
+  </si>
+  <si>
+    <t>19.38%</t>
+  </si>
+  <si>
+    <t>18.54%</t>
+  </si>
+  <si>
+    <t>21.62%</t>
+  </si>
+  <si>
+    <t>18.97%</t>
+  </si>
+  <si>
+    <t>19.32%</t>
+  </si>
+  <si>
+    <t>15.38%</t>
+  </si>
+  <si>
+    <t>15.65%</t>
+  </si>
+  <si>
+    <t>18.04%</t>
+  </si>
+  <si>
+    <t>17.18%</t>
+  </si>
+  <si>
+    <t>10.46%</t>
+  </si>
+  <si>
+    <t>17.42%</t>
+  </si>
+  <si>
+    <t>13.80%</t>
+  </si>
+  <si>
+    <t>17.05%</t>
+  </si>
+  <si>
+    <t>11.61%</t>
+  </si>
+  <si>
+    <t>17.57%</t>
+  </si>
+  <si>
+    <t>22.99%</t>
+  </si>
+  <si>
+    <t>-0.72%</t>
+  </si>
+  <si>
+    <t>17.70%</t>
+  </si>
+  <si>
+    <t>22.85%</t>
+  </si>
+  <si>
+    <t>17.51%</t>
+  </si>
+  <si>
+    <t>16.79%</t>
+  </si>
+  <si>
+    <t>15.02%</t>
+  </si>
+  <si>
+    <t>18.39%</t>
+  </si>
+  <si>
+    <t>17.77%</t>
+  </si>
+  <si>
+    <t>20.23%</t>
+  </si>
+  <si>
+    <t>18.24%</t>
+  </si>
+  <si>
+    <t>20.57%</t>
+  </si>
+  <si>
+    <t>17.47%</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>18.82%</t>
+  </si>
+  <si>
+    <t>21.22%</t>
+  </si>
+  <si>
+    <t>17.61%</t>
+  </si>
+  <si>
+    <t>20.80%</t>
+  </si>
+  <si>
+    <t>23.87%</t>
+  </si>
+  <si>
+    <t>15.62%</t>
+  </si>
+  <si>
+    <t>17.64%</t>
+  </si>
+  <si>
+    <t>17.07%</t>
+  </si>
+  <si>
+    <t>18.84%</t>
+  </si>
+  <si>
+    <t>8.34%</t>
+  </si>
+  <si>
+    <t>5.68%</t>
+  </si>
+  <si>
+    <t>6.97%</t>
+  </si>
+  <si>
+    <t>13.11%</t>
+  </si>
+  <si>
+    <t>17.63%</t>
+  </si>
+  <si>
+    <t>15.83%</t>
+  </si>
+  <si>
+    <t>21.93%</t>
+  </si>
+  <si>
+    <t>21.13%</t>
+  </si>
+  <si>
+    <t>22.03%</t>
+  </si>
+  <si>
+    <t>18.87%</t>
+  </si>
+  <si>
+    <t>21.86%</t>
+  </si>
+  <si>
+    <t>19.60%</t>
+  </si>
+  <si>
+    <t>20.99%</t>
+  </si>
+  <si>
+    <t>19.33%</t>
+  </si>
+  <si>
+    <t>26.64%</t>
+  </si>
+  <si>
+    <t>25.49%</t>
+  </si>
+  <si>
+    <t>24.81%</t>
+  </si>
+  <si>
+    <t>28.00%</t>
+  </si>
+  <si>
+    <t>23.85%</t>
+  </si>
+  <si>
+    <t>23.68%</t>
+  </si>
+  <si>
+    <t>23.41%</t>
+  </si>
+  <si>
+    <t>Operating Profit Margin</t>
+  </si>
+  <si>
+    <t>64.85%</t>
+  </si>
+  <si>
+    <t>64.02%</t>
+  </si>
+  <si>
+    <t>63.00%</t>
+  </si>
+  <si>
+    <t>63.57%</t>
+  </si>
+  <si>
+    <t>63.68%</t>
+  </si>
+  <si>
+    <t>64.33%</t>
+  </si>
+  <si>
+    <t>63.67%</t>
+  </si>
+  <si>
+    <t>63.12%</t>
+  </si>
+  <si>
+    <t>62.21%</t>
+  </si>
+  <si>
+    <t>62.11%</t>
+  </si>
+  <si>
+    <t>62.90%</t>
+  </si>
+  <si>
+    <t>63.95%</t>
+  </si>
+  <si>
+    <t>64.77%</t>
+  </si>
+  <si>
+    <t>63.51%</t>
+  </si>
+  <si>
+    <t>64.56%</t>
+  </si>
+  <si>
+    <t>63.47%</t>
+  </si>
+  <si>
+    <t>63.75%</t>
+  </si>
+  <si>
+    <t>65.85%</t>
+  </si>
+  <si>
+    <t>56.01%</t>
+  </si>
+  <si>
+    <t>64.97%</t>
+  </si>
+  <si>
+    <t>65.43%</t>
+  </si>
+  <si>
+    <t>64.96%</t>
+  </si>
+  <si>
+    <t>65.21%</t>
+  </si>
+  <si>
+    <t>64.93%</t>
+  </si>
+  <si>
+    <t>64.70%</t>
+  </si>
+  <si>
+    <t>66.47%</t>
+  </si>
+  <si>
+    <t>65.92%</t>
+  </si>
+  <si>
+    <t>65.94%</t>
+  </si>
+  <si>
+    <t>66.00%</t>
+  </si>
+  <si>
+    <t>66.10%</t>
+  </si>
+  <si>
+    <t>66.46%</t>
+  </si>
+  <si>
+    <t>66.36%</t>
+  </si>
+  <si>
+    <t>66.11%</t>
+  </si>
+  <si>
+    <t>64.86%</t>
+  </si>
+  <si>
+    <t>67.90%</t>
+  </si>
+  <si>
+    <t>67.03%</t>
+  </si>
+  <si>
+    <t>67.11%</t>
+  </si>
+  <si>
+    <t>65.28%</t>
+  </si>
+  <si>
+    <t>65.66%</t>
+  </si>
+  <si>
+    <t>65.30%</t>
+  </si>
+  <si>
+    <t>65.51%</t>
+  </si>
+  <si>
+    <t>66.33%</t>
+  </si>
+  <si>
+    <t>64.47%</t>
+  </si>
+  <si>
+    <t>68.29%</t>
+  </si>
+  <si>
+    <t>67.00%</t>
+  </si>
+  <si>
+    <t>67.44%</t>
+  </si>
+  <si>
+    <t>68.14%</t>
+  </si>
+  <si>
+    <t>68.08%</t>
+  </si>
+  <si>
+    <t>68.09%</t>
+  </si>
+  <si>
+    <t>67.19%</t>
+  </si>
+  <si>
+    <t>66.59%</t>
+  </si>
+  <si>
+    <t>67.06%</t>
+  </si>
+  <si>
+    <t>65.15%</t>
+  </si>
+  <si>
+    <t>65.81%</t>
+  </si>
+  <si>
+    <t>68.70%</t>
+  </si>
+  <si>
+    <t>69.40%</t>
+  </si>
+  <si>
+    <t>69.33%</t>
+  </si>
+  <si>
+    <t>67.68%</t>
+  </si>
+  <si>
+    <t>67.64%</t>
+  </si>
+  <si>
+    <t>67.42%</t>
+  </si>
+  <si>
+    <t>67.18%</t>
+  </si>
+  <si>
+    <t>67.81%</t>
+  </si>
+  <si>
+    <t>67.23%</t>
+  </si>
+  <si>
+    <t>68.87%</t>
+  </si>
+  <si>
+    <t>Gross Profit Margin</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Income Taxes</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>R&amp;D Expense</t>
+  </si>
+  <si>
+    <t>SG&amp;A Expense</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q4 2024</t>
+  </si>
+  <si>
+    <t>Q3 2024</t>
+  </si>
+  <si>
+    <t>Q2 2024</t>
+  </si>
+  <si>
+    <t>Q1 2024</t>
+  </si>
+  <si>
+    <t>Q4 2023</t>
+  </si>
+  <si>
+    <t>Q3 2023</t>
+  </si>
+  <si>
+    <t>Q2 2023</t>
+  </si>
+  <si>
+    <t>Q1 2023</t>
+  </si>
+  <si>
+    <t>Q4 2022</t>
+  </si>
+  <si>
+    <t>Q3 2022</t>
+  </si>
+  <si>
+    <t>Q2 2022</t>
+  </si>
+  <si>
+    <t>Q1 2022</t>
+  </si>
+  <si>
+    <t>Q4 2021</t>
+  </si>
+  <si>
+    <t>Q3 2021</t>
+  </si>
+  <si>
+    <t>Q2 2021</t>
+  </si>
+  <si>
+    <t>Q1 2021</t>
+  </si>
+  <si>
+    <t>Q4 2020</t>
+  </si>
+  <si>
+    <t>Q3 2020</t>
+  </si>
+  <si>
+    <t>Q2 2020</t>
+  </si>
+  <si>
+    <t>Q1 2020</t>
+  </si>
+  <si>
+    <t>Q4 2019</t>
+  </si>
+  <si>
+    <t>Q3 2019</t>
+  </si>
+  <si>
+    <t>Q2 2019</t>
+  </si>
+  <si>
+    <t>Q1 2019</t>
+  </si>
+  <si>
+    <t>Q4 2018</t>
+  </si>
+  <si>
+    <t>Q3 2018</t>
+  </si>
+  <si>
+    <t>Q2 2018</t>
+  </si>
+  <si>
+    <t>Q1 2018</t>
+  </si>
+  <si>
+    <t>Q4 2017</t>
+  </si>
+  <si>
+    <t>Q3 2017</t>
+  </si>
+  <si>
+    <t>Q2 2017</t>
+  </si>
+  <si>
+    <t>Q1 2017</t>
+  </si>
+  <si>
+    <t>Q4 2016</t>
+  </si>
+  <si>
+    <t>Q3 2016</t>
+  </si>
+  <si>
+    <t>Q2 2016</t>
+  </si>
+  <si>
+    <t>Q1 2016</t>
+  </si>
+  <si>
+    <t>Q4 2015</t>
+  </si>
+  <si>
+    <t>Q3 2015</t>
+  </si>
+  <si>
+    <t>Q2 2015</t>
+  </si>
+  <si>
+    <t>Q1 2015</t>
+  </si>
+  <si>
+    <t>Q4 2014</t>
+  </si>
+  <si>
+    <t>Q3 2014</t>
+  </si>
+  <si>
+    <t>Q2 2014</t>
+  </si>
+  <si>
+    <t>Q1 2014</t>
+  </si>
+  <si>
+    <t>Q4 2013</t>
+  </si>
+  <si>
+    <t>Q3 2013</t>
+  </si>
+  <si>
+    <t>Q2 2013</t>
+  </si>
+  <si>
+    <t>Q1 2013</t>
+  </si>
+  <si>
+    <t>Q4 2012</t>
+  </si>
+  <si>
+    <t>Q3 2012</t>
+  </si>
+  <si>
+    <t>Q2 2012</t>
+  </si>
+  <si>
+    <t>Q1 2012</t>
+  </si>
+  <si>
+    <t>Q4 2011</t>
+  </si>
+  <si>
+    <t>Q3 2011</t>
+  </si>
+  <si>
+    <t>Q2 2011</t>
+  </si>
+  <si>
+    <t>Q1 2011</t>
+  </si>
+  <si>
+    <t>Q4 2010</t>
+  </si>
+  <si>
+    <t>Q3 2010</t>
+  </si>
+  <si>
+    <t>Q2 2010</t>
+  </si>
+  <si>
+    <t>Q1 2010</t>
+  </si>
+  <si>
+    <t>Q4 2009</t>
+  </si>
+  <si>
+    <t>Q3 2009</t>
+  </si>
+  <si>
+    <t>Q2 2009</t>
+  </si>
+  <si>
+    <t>Q1 2009</t>
+  </si>
+  <si>
+    <t>Q3 2008</t>
+  </si>
+  <si>
+    <t>Q2 2008</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
   </si>
 </sst>
 </file>
@@ -168,7 +1542,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,10 +1570,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibre"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,13 +1602,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -563,24 +1944,24 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.9">
+    <row r="2" spans="1:4" ht="15">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -659,18 +2040,4331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78130D12-B16F-4BC5-8728-6B07C0E66DA0}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:EE55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AY16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="BW38" sqref="BW38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:135" s="7" customFormat="1" ht="12.75">
+      <c r="B2" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="BI2" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="BL2" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="BP2" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="BU2" s="7">
+        <v>2008</v>
+      </c>
+      <c r="BV2" s="7">
+        <f>BU2+1</f>
+        <v>2009</v>
+      </c>
+      <c r="BW2" s="7">
+        <f t="shared" ref="BW2:EE2" si="0">BV2+1</f>
+        <v>2010</v>
+      </c>
+      <c r="BX2" s="7">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="BY2" s="7">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="BZ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="CA2" s="7">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="CB2" s="7">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="CC2" s="7">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="CD2" s="7">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="CE2" s="7">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="CF2" s="7">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="CG2" s="7">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="CH2" s="7">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="CI2" s="7">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="CJ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="CK2" s="7">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="CL2" s="7">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="CM2" s="7">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="CN2" s="7">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="CO2" s="7">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="CP2" s="7">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="CQ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="CR2" s="7">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="CS2" s="7">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="CT2" s="7">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="CU2" s="7">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="CV2" s="7">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="CW2" s="7">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="CX2" s="7">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="CY2" s="7">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="CZ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="DA2" s="7">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="DB2" s="7">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="DC2" s="7">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="DD2" s="7">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="DE2" s="7">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="DF2" s="7">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="DG2" s="7">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="DH2" s="7">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="DI2" s="7">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="DJ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="DK2" s="7">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="DL2" s="7">
+        <f t="shared" si="0"/>
+        <v>2051</v>
+      </c>
+      <c r="DM2" s="7">
+        <f t="shared" si="0"/>
+        <v>2052</v>
+      </c>
+      <c r="DN2" s="7">
+        <f t="shared" si="0"/>
+        <v>2053</v>
+      </c>
+      <c r="DO2" s="7">
+        <f t="shared" si="0"/>
+        <v>2054</v>
+      </c>
+      <c r="DP2" s="7">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
+      <c r="DQ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2056</v>
+      </c>
+      <c r="DR2" s="7">
+        <f t="shared" si="0"/>
+        <v>2057</v>
+      </c>
+      <c r="DS2" s="7">
+        <f t="shared" si="0"/>
+        <v>2058</v>
+      </c>
+      <c r="DT2" s="7">
+        <f t="shared" si="0"/>
+        <v>2059</v>
+      </c>
+      <c r="DU2" s="7">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="DV2" s="7">
+        <f t="shared" si="0"/>
+        <v>2061</v>
+      </c>
+      <c r="DW2" s="7">
+        <f t="shared" si="0"/>
+        <v>2062</v>
+      </c>
+      <c r="DX2" s="7">
+        <f t="shared" si="0"/>
+        <v>2063</v>
+      </c>
+      <c r="DY2" s="7">
+        <f t="shared" si="0"/>
+        <v>2064</v>
+      </c>
+      <c r="DZ2" s="7">
+        <f t="shared" si="0"/>
+        <v>2065</v>
+      </c>
+      <c r="EA2" s="7">
+        <f t="shared" si="0"/>
+        <v>2066</v>
+      </c>
+      <c r="EB2" s="7">
+        <f t="shared" si="0"/>
+        <v>2067</v>
+      </c>
+      <c r="EC2" s="7">
+        <f t="shared" si="0"/>
+        <v>2068</v>
+      </c>
+      <c r="ED2" s="7">
+        <f t="shared" si="0"/>
+        <v>2069</v>
+      </c>
+      <c r="EE2" s="7">
+        <f t="shared" si="0"/>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="3" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="4" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="5" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="6" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="7" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="8" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="9" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="10" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="11" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="12" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="13" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="14" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="15" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="16" spans="2:135" s="6" customFormat="1" ht="12.75"/>
+    <row r="17" spans="1:67" s="6" customFormat="1" ht="12.75"/>
+    <row r="18" spans="1:67" s="6" customFormat="1" ht="12.75"/>
+    <row r="19" spans="1:67" s="6" customFormat="1" ht="12.75"/>
+    <row r="20" spans="1:67" customFormat="1" ht="15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="6"/>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="6"/>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="6"/>
+      <c r="BF20" s="6"/>
+      <c r="BG20" s="6"/>
+      <c r="BH20" s="6"/>
+      <c r="BI20" s="6"/>
+      <c r="BJ20" s="6"/>
+      <c r="BK20" s="6"/>
+      <c r="BL20" s="6"/>
+      <c r="BM20" s="6"/>
+      <c r="BN20" s="6"/>
+      <c r="BO20" s="6"/>
+    </row>
+    <row r="21" spans="1:67" customFormat="1" ht="15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6"/>
+      <c r="AY21" s="6"/>
+      <c r="AZ21" s="6"/>
+      <c r="BA21" s="6"/>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="6"/>
+      <c r="BD21" s="6"/>
+      <c r="BE21" s="6"/>
+      <c r="BF21" s="6"/>
+      <c r="BG21" s="6"/>
+      <c r="BH21" s="6"/>
+      <c r="BI21" s="6"/>
+      <c r="BJ21" s="6"/>
+      <c r="BK21" s="6"/>
+      <c r="BL21" s="6"/>
+      <c r="BM21" s="6"/>
+      <c r="BN21" s="6"/>
+      <c r="BO21" s="6"/>
+    </row>
+    <row r="38" spans="2:89">
+      <c r="B38" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1712.6</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1653</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1601.3</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1634.3</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1653.3</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1834.1</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1799.1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1758.2</v>
+      </c>
+      <c r="K38" s="7">
+        <v>1768</v>
+      </c>
+      <c r="L38" s="7">
+        <v>1994.7</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2015</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2046</v>
+      </c>
+      <c r="O38" s="7">
+        <v>2031</v>
+      </c>
+      <c r="P38" s="7">
+        <v>2215</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>2161</v>
+      </c>
+      <c r="R38" s="7">
+        <v>2106</v>
+      </c>
+      <c r="S38" s="7">
+        <v>2052</v>
+      </c>
+      <c r="T38" s="7">
+        <v>2338</v>
+      </c>
+      <c r="U38" s="7">
+        <v>2190</v>
+      </c>
+      <c r="V38" s="7">
+        <v>2212</v>
+      </c>
+      <c r="W38" s="7">
+        <v>2151</v>
+      </c>
+      <c r="X38" s="7">
+        <v>2468</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>2305</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>2363</v>
+      </c>
+      <c r="AA38" s="7">
+        <v>2389</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>2618</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>2379</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>2432</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>2420</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>2715</v>
+      </c>
+      <c r="AG38" s="7">
+        <v>2495</v>
+      </c>
+      <c r="AH38" s="7">
+        <v>2840</v>
+      </c>
+      <c r="AI38" s="7">
+        <v>2833</v>
+      </c>
+      <c r="AJ38" s="7">
+        <v>3157</v>
+      </c>
+      <c r="AK38" s="7">
+        <v>2955</v>
+      </c>
+      <c r="AL38" s="7">
+        <v>3012</v>
+      </c>
+      <c r="AM38" s="7">
+        <v>3006</v>
+      </c>
+      <c r="AN38" s="7">
+        <v>3471</v>
+      </c>
+      <c r="AO38" s="7">
+        <v>3241</v>
+      </c>
+      <c r="AP38" s="7">
+        <v>3322</v>
+      </c>
+      <c r="AQ38" s="7">
+        <v>3242</v>
+      </c>
+      <c r="AR38" s="7">
+        <v>3796</v>
+      </c>
+      <c r="AS38" s="7">
+        <v>3516</v>
+      </c>
+      <c r="AT38" s="7">
+        <v>3650</v>
+      </c>
+      <c r="AU38" s="7">
+        <v>3587</v>
+      </c>
+      <c r="AV38" s="7">
+        <v>4131</v>
+      </c>
+      <c r="AW38" s="7">
+        <v>3588</v>
+      </c>
+      <c r="AX38" s="7">
+        <v>2764</v>
+      </c>
+      <c r="AY38" s="7">
+        <v>3737</v>
+      </c>
+      <c r="AZ38" s="7">
+        <v>4262</v>
+      </c>
+      <c r="BA38" s="7">
+        <v>3953</v>
+      </c>
+      <c r="BB38" s="7">
+        <v>4294</v>
+      </c>
+      <c r="BC38" s="7">
+        <v>4160</v>
+      </c>
+      <c r="BD38" s="7">
+        <v>4701</v>
+      </c>
+      <c r="BE38" s="7">
+        <v>4275</v>
+      </c>
+      <c r="BF38" s="7">
+        <v>4493</v>
+      </c>
+      <c r="BG38" s="7">
+        <v>4479</v>
+      </c>
+      <c r="BH38" s="7">
+        <v>5202</v>
+      </c>
+      <c r="BI38" s="7">
+        <v>4778</v>
+      </c>
+      <c r="BJ38" s="7">
+        <v>4996</v>
+      </c>
+      <c r="BK38" s="7">
+        <v>4909</v>
+      </c>
+      <c r="BL38" s="7">
+        <v>5815</v>
+      </c>
+      <c r="BM38" s="7">
+        <v>5243</v>
+      </c>
+      <c r="BN38" s="7">
+        <v>5422</v>
+      </c>
+      <c r="BO38" s="7">
+        <v>5494</v>
+      </c>
+      <c r="BP38" s="7">
+        <v>6436</v>
+      </c>
+      <c r="BV38" s="6">
+        <f>SUM($C38:$F38)</f>
+        <v>6601.2</v>
+      </c>
+      <c r="BW38" s="6"/>
+      <c r="BX38" s="6"/>
+      <c r="BY38" s="6"/>
+      <c r="BZ38" s="6"/>
+      <c r="CA38" s="6"/>
+      <c r="CB38" s="6"/>
+      <c r="CC38" s="6"/>
+      <c r="CD38" s="6"/>
+      <c r="CE38" s="6"/>
+      <c r="CF38" s="6"/>
+      <c r="CG38" s="6"/>
+      <c r="CH38" s="6"/>
+      <c r="CI38" s="6"/>
+      <c r="CJ38" s="6"/>
+      <c r="CK38" s="6"/>
+    </row>
+    <row r="39" spans="2:89">
+      <c r="B39" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C39" s="6">
+        <v>533.20000000000005</v>
+      </c>
+      <c r="D39" s="6">
+        <v>541.70000000000005</v>
+      </c>
+      <c r="E39" s="6">
+        <v>515.5</v>
+      </c>
+      <c r="F39" s="6">
+        <v>536.29999999999995</v>
+      </c>
+      <c r="G39" s="6">
+        <v>538.70000000000005</v>
+      </c>
+      <c r="H39" s="6">
+        <v>593.5</v>
+      </c>
+      <c r="I39" s="6">
+        <v>581.4</v>
+      </c>
+      <c r="J39" s="6">
+        <v>539.29999999999995</v>
+      </c>
+      <c r="K39" s="6">
+        <v>541</v>
+      </c>
+      <c r="L39" s="6">
+        <v>624.29999999999995</v>
+      </c>
+      <c r="M39" s="6">
+        <v>689</v>
+      </c>
+      <c r="N39" s="6">
+        <v>713</v>
+      </c>
+      <c r="O39" s="6">
+        <v>669</v>
+      </c>
+      <c r="P39" s="6">
+        <v>740</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>709</v>
+      </c>
+      <c r="R39" s="6">
+        <v>672</v>
+      </c>
+      <c r="S39" s="6">
+        <v>655</v>
+      </c>
+      <c r="T39" s="6">
+        <v>745</v>
+      </c>
+      <c r="U39" s="6">
+        <v>713</v>
+      </c>
+      <c r="V39" s="6">
+        <v>730</v>
+      </c>
+      <c r="W39" s="6">
+        <v>682</v>
+      </c>
+      <c r="X39" s="6">
+        <v>877</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>776</v>
+      </c>
+      <c r="Z39" s="6">
+        <v>815</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>829</v>
+      </c>
+      <c r="AB39" s="6">
+        <v>899</v>
+      </c>
+      <c r="AC39" s="6">
+        <v>826</v>
+      </c>
+      <c r="AD39" s="6">
+        <v>827</v>
+      </c>
+      <c r="AE39" s="6">
+        <v>796</v>
+      </c>
+      <c r="AF39" s="6">
+        <v>895</v>
+      </c>
+      <c r="AG39" s="6">
+        <v>801</v>
+      </c>
+      <c r="AH39" s="6">
+        <v>998</v>
+      </c>
+      <c r="AI39" s="6">
+        <v>960</v>
+      </c>
+      <c r="AJ39" s="6">
+        <v>1062</v>
+      </c>
+      <c r="AK39" s="6">
+        <v>991</v>
+      </c>
+      <c r="AL39" s="6">
+        <v>1021</v>
+      </c>
+      <c r="AM39" s="6">
+        <v>1022</v>
+      </c>
+      <c r="AN39" s="6">
+        <v>1230</v>
+      </c>
+      <c r="AO39" s="6">
+        <v>1104</v>
+      </c>
+      <c r="AP39" s="6">
+        <v>1132</v>
+      </c>
+      <c r="AQ39" s="6">
+        <v>1087</v>
+      </c>
+      <c r="AR39" s="6">
+        <v>1340</v>
+      </c>
+      <c r="AS39" s="6">
+        <v>1233</v>
+      </c>
+      <c r="AT39" s="6">
+        <v>1270</v>
+      </c>
+      <c r="AU39" s="6">
+        <v>1257</v>
+      </c>
+      <c r="AV39" s="6">
+        <v>1428</v>
+      </c>
+      <c r="AW39" s="6">
+        <v>1257</v>
+      </c>
+      <c r="AX39" s="6">
+        <v>1216</v>
+      </c>
+      <c r="AY39" s="6">
+        <v>1276</v>
+      </c>
+      <c r="AZ39" s="6">
+        <v>1545</v>
+      </c>
+      <c r="BA39" s="6">
+        <v>1444</v>
+      </c>
+      <c r="BB39" s="6">
+        <v>1522</v>
+      </c>
+      <c r="BC39" s="6">
+        <v>1518</v>
+      </c>
+      <c r="BD39" s="6">
+        <v>1656</v>
+      </c>
+      <c r="BE39" s="6">
+        <v>1541</v>
+      </c>
+      <c r="BF39" s="6">
+        <v>1667</v>
+      </c>
+      <c r="BG39" s="6">
+        <v>1697</v>
+      </c>
+      <c r="BH39" s="6">
+        <v>1966</v>
+      </c>
+      <c r="BI39" s="6">
+        <v>1762</v>
+      </c>
+      <c r="BJ39" s="6">
+        <v>1815</v>
+      </c>
+      <c r="BK39" s="6">
+        <v>1751</v>
+      </c>
+      <c r="BL39" s="6">
+        <v>2112</v>
+      </c>
+      <c r="BM39" s="6">
+        <v>1910</v>
+      </c>
+      <c r="BN39" s="6">
+        <v>2006</v>
+      </c>
+      <c r="BO39" s="6">
+        <v>1977</v>
+      </c>
+      <c r="BP39" s="6">
+        <v>2262</v>
+      </c>
+      <c r="BV39" s="6"/>
+      <c r="BW39" s="6"/>
+      <c r="BX39" s="6"/>
+      <c r="BY39" s="6"/>
+      <c r="BZ39" s="6"/>
+      <c r="CA39" s="6"/>
+      <c r="CB39" s="6"/>
+      <c r="CC39" s="6"/>
+      <c r="CD39" s="6"/>
+      <c r="CE39" s="6"/>
+      <c r="CF39" s="6"/>
+      <c r="CG39" s="6"/>
+      <c r="CH39" s="6"/>
+      <c r="CI39" s="6"/>
+      <c r="CJ39" s="6"/>
+      <c r="CK39" s="6"/>
+    </row>
+    <row r="40" spans="2:89">
+      <c r="B40" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1179.4000000000001</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1111.3</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1085.8</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1098</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1114.5999999999999</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1240.5999999999999</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1217.7</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1218.9000000000001</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1227</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1370.4</v>
+      </c>
+      <c r="M40" s="6">
+        <v>1326</v>
+      </c>
+      <c r="N40" s="6">
+        <v>1333</v>
+      </c>
+      <c r="O40" s="6">
+        <v>1362</v>
+      </c>
+      <c r="P40" s="6">
+        <v>1475</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>1452</v>
+      </c>
+      <c r="R40" s="6">
+        <v>1434</v>
+      </c>
+      <c r="S40" s="6">
+        <v>1397</v>
+      </c>
+      <c r="T40" s="6">
+        <v>1593</v>
+      </c>
+      <c r="U40" s="6">
+        <v>1477</v>
+      </c>
+      <c r="V40" s="6">
+        <v>1482</v>
+      </c>
+      <c r="W40" s="6">
+        <v>1469</v>
+      </c>
+      <c r="X40" s="6">
+        <v>1591</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>1529</v>
+      </c>
+      <c r="Z40" s="6">
+        <v>1548</v>
+      </c>
+      <c r="AA40" s="6">
+        <v>1560</v>
+      </c>
+      <c r="AB40" s="6">
+        <v>1719</v>
+      </c>
+      <c r="AC40" s="6">
+        <v>1553</v>
+      </c>
+      <c r="AD40" s="6">
+        <v>1605</v>
+      </c>
+      <c r="AE40" s="6">
+        <v>1624</v>
+      </c>
+      <c r="AF40" s="6">
+        <v>1820</v>
+      </c>
+      <c r="AG40" s="6">
+        <v>1694</v>
+      </c>
+      <c r="AH40" s="6">
+        <v>1842</v>
+      </c>
+      <c r="AI40" s="6">
+        <v>1873</v>
+      </c>
+      <c r="AJ40" s="6">
+        <v>2095</v>
+      </c>
+      <c r="AK40" s="6">
+        <v>1964</v>
+      </c>
+      <c r="AL40" s="6">
+        <v>1991</v>
+      </c>
+      <c r="AM40" s="6">
+        <v>1984</v>
+      </c>
+      <c r="AN40" s="6">
+        <v>2241</v>
+      </c>
+      <c r="AO40" s="6">
+        <v>2137</v>
+      </c>
+      <c r="AP40" s="6">
+        <v>2190</v>
+      </c>
+      <c r="AQ40" s="6">
+        <v>2155</v>
+      </c>
+      <c r="AR40" s="6">
+        <v>2456</v>
+      </c>
+      <c r="AS40" s="6">
+        <v>2283</v>
+      </c>
+      <c r="AT40" s="6">
+        <v>2380</v>
+      </c>
+      <c r="AU40" s="6">
+        <v>2330</v>
+      </c>
+      <c r="AV40" s="6">
+        <v>2703</v>
+      </c>
+      <c r="AW40" s="6">
+        <v>2331</v>
+      </c>
+      <c r="AX40" s="6">
+        <v>1548</v>
+      </c>
+      <c r="AY40" s="6">
+        <v>2461</v>
+      </c>
+      <c r="AZ40" s="6">
+        <v>2717</v>
+      </c>
+      <c r="BA40" s="6">
+        <v>2509</v>
+      </c>
+      <c r="BB40" s="6">
+        <v>2772</v>
+      </c>
+      <c r="BC40" s="6">
+        <v>2642</v>
+      </c>
+      <c r="BD40" s="6">
+        <v>3045</v>
+      </c>
+      <c r="BE40" s="6">
+        <v>2734</v>
+      </c>
+      <c r="BF40" s="6">
+        <v>2826</v>
+      </c>
+      <c r="BG40" s="6">
+        <v>2782</v>
+      </c>
+      <c r="BH40" s="6">
+        <v>3236</v>
+      </c>
+      <c r="BI40" s="6">
+        <v>3016</v>
+      </c>
+      <c r="BJ40" s="6">
+        <v>3181</v>
+      </c>
+      <c r="BK40" s="6">
+        <v>3158</v>
+      </c>
+      <c r="BL40" s="6">
+        <v>3703</v>
+      </c>
+      <c r="BM40" s="6">
+        <v>3333</v>
+      </c>
+      <c r="BN40" s="6">
+        <v>3416</v>
+      </c>
+      <c r="BO40" s="6">
+        <v>3517</v>
+      </c>
+      <c r="BP40" s="6">
+        <v>4174</v>
+      </c>
+      <c r="BV40" s="6"/>
+      <c r="BW40" s="6"/>
+      <c r="BX40" s="6"/>
+      <c r="BY40" s="6"/>
+      <c r="BZ40" s="6"/>
+      <c r="CA40" s="6"/>
+      <c r="CB40" s="6"/>
+      <c r="CC40" s="6"/>
+      <c r="CD40" s="6"/>
+      <c r="CE40" s="6"/>
+      <c r="CF40" s="6"/>
+      <c r="CG40" s="6"/>
+      <c r="CH40" s="6"/>
+      <c r="CI40" s="6"/>
+      <c r="CJ40" s="6"/>
+      <c r="CK40" s="6"/>
+    </row>
+    <row r="41" spans="2:89">
+      <c r="B41" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C41" s="6">
+        <v>678.2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>644.79999999999995</v>
+      </c>
+      <c r="E41" s="6">
+        <v>616.6</v>
+      </c>
+      <c r="F41" s="6">
+        <v>617.1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>643.9</v>
+      </c>
+      <c r="H41" s="6">
+        <v>628.4</v>
+      </c>
+      <c r="I41" s="6">
+        <v>667.8</v>
+      </c>
+      <c r="J41" s="6">
+        <v>661.8</v>
+      </c>
+      <c r="K41" s="6">
+        <v>643</v>
+      </c>
+      <c r="L41" s="6">
+        <v>734.4</v>
+      </c>
+      <c r="M41" s="6">
+        <v>765</v>
+      </c>
+      <c r="N41" s="6">
+        <v>786</v>
+      </c>
+      <c r="O41" s="6">
+        <v>765</v>
+      </c>
+      <c r="P41" s="6">
+        <v>834</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>819</v>
+      </c>
+      <c r="R41" s="6">
+        <v>823</v>
+      </c>
+      <c r="S41" s="6">
+        <v>791</v>
+      </c>
+      <c r="T41" s="6">
+        <v>934</v>
+      </c>
+      <c r="U41" s="6">
+        <v>916</v>
+      </c>
+      <c r="V41" s="6">
+        <v>1015</v>
+      </c>
+      <c r="W41" s="6">
+        <v>1136</v>
+      </c>
+      <c r="X41" s="6">
+        <v>400</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>859</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>870</v>
+      </c>
+      <c r="AA41" s="6">
+        <v>878</v>
+      </c>
+      <c r="AB41" s="6">
+        <v>940</v>
+      </c>
+      <c r="AC41" s="6">
+        <v>892</v>
+      </c>
+      <c r="AD41" s="6">
+        <v>861</v>
+      </c>
+      <c r="AE41" s="6">
+        <v>887</v>
+      </c>
+      <c r="AF41" s="6">
+        <v>970</v>
+      </c>
+      <c r="AG41" s="6">
+        <v>944</v>
+      </c>
+      <c r="AH41" s="6">
+        <v>1043</v>
+      </c>
+      <c r="AI41" s="6">
+        <v>1057</v>
+      </c>
+      <c r="AJ41" s="6">
+        <v>1093</v>
+      </c>
+      <c r="AK41" s="6">
+        <v>1102</v>
+      </c>
+      <c r="AL41" s="6">
+        <v>1130</v>
+      </c>
+      <c r="AM41" s="6">
+        <v>1103</v>
+      </c>
+      <c r="AN41" s="6">
+        <v>1217</v>
+      </c>
+      <c r="AO41" s="6">
+        <v>1236</v>
+      </c>
+      <c r="AP41" s="6">
+        <v>1190</v>
+      </c>
+      <c r="AQ41" s="6">
+        <v>1242</v>
+      </c>
+      <c r="AR41" s="6">
+        <v>1431</v>
+      </c>
+      <c r="AS41" s="6">
+        <v>1403</v>
+      </c>
+      <c r="AT41" s="6">
+        <v>1282</v>
+      </c>
+      <c r="AU41" s="6">
+        <v>1291</v>
+      </c>
+      <c r="AV41" s="6">
+        <v>1380</v>
+      </c>
+      <c r="AW41" s="6">
+        <v>1330</v>
+      </c>
+      <c r="AX41" s="6">
+        <v>1225</v>
+      </c>
+      <c r="AY41" s="6">
+        <v>1244</v>
+      </c>
+      <c r="AZ41" s="6">
+        <v>1562</v>
+      </c>
+      <c r="BA41" s="6">
+        <v>1575</v>
+      </c>
+      <c r="BB41" s="6">
+        <v>1505</v>
+      </c>
+      <c r="BC41" s="6">
+        <v>1602</v>
+      </c>
+      <c r="BD41" s="6">
+        <v>1745</v>
+      </c>
+      <c r="BE41" s="6">
+        <v>1710</v>
+      </c>
+      <c r="BF41" s="6">
+        <v>1539</v>
+      </c>
+      <c r="BG41" s="6">
+        <v>1455</v>
+      </c>
+      <c r="BH41" s="6">
+        <v>1751</v>
+      </c>
+      <c r="BI41" s="6">
+        <v>1781</v>
+      </c>
+      <c r="BJ41" s="6">
+        <v>1709</v>
+      </c>
+      <c r="BK41" s="6">
+        <v>1710</v>
+      </c>
+      <c r="BL41" s="6">
+        <v>1938</v>
+      </c>
+      <c r="BM41" s="6">
+        <v>1840</v>
+      </c>
+      <c r="BN41" s="6">
+        <v>1847</v>
+      </c>
+      <c r="BO41" s="6">
+        <v>1896</v>
+      </c>
+      <c r="BP41" s="6">
+        <v>2102</v>
+      </c>
+      <c r="BV41" s="6"/>
+      <c r="BW41" s="6"/>
+      <c r="BX41" s="6"/>
+      <c r="BY41" s="6"/>
+      <c r="BZ41" s="6"/>
+      <c r="CA41" s="6"/>
+      <c r="CB41" s="6"/>
+      <c r="CC41" s="6"/>
+      <c r="CD41" s="6"/>
+      <c r="CE41" s="6"/>
+      <c r="CF41" s="6"/>
+      <c r="CG41" s="6"/>
+      <c r="CH41" s="6"/>
+      <c r="CI41" s="6"/>
+      <c r="CJ41" s="6"/>
+      <c r="CK41" s="6"/>
+    </row>
+    <row r="42" spans="2:89">
+      <c r="B42" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C42" s="6">
+        <v>90.3</v>
+      </c>
+      <c r="D42" s="6">
+        <v>92.6</v>
+      </c>
+      <c r="E42" s="6">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="F42" s="6">
+        <v>82.6</v>
+      </c>
+      <c r="G42" s="6">
+        <v>83.7</v>
+      </c>
+      <c r="H42" s="6">
+        <v>89.3</v>
+      </c>
+      <c r="I42" s="6">
+        <v>90</v>
+      </c>
+      <c r="J42" s="6">
+        <v>94.6</v>
+      </c>
+      <c r="K42" s="6">
+        <v>99</v>
+      </c>
+      <c r="L42" s="6">
+        <v>110.4</v>
+      </c>
+      <c r="M42" s="6">
+        <v>111</v>
+      </c>
+      <c r="N42" s="6">
+        <v>114</v>
+      </c>
+      <c r="O42" s="6">
+        <v>122</v>
+      </c>
+      <c r="P42" s="6">
+        <v>115</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>112</v>
+      </c>
+      <c r="R42" s="6">
+        <v>116</v>
+      </c>
+      <c r="S42" s="6">
+        <v>114</v>
+      </c>
+      <c r="T42" s="6">
+        <v>129</v>
+      </c>
+      <c r="U42" s="6">
+        <v>129</v>
+      </c>
+      <c r="V42" s="6">
+        <v>132</v>
+      </c>
+      <c r="W42" s="6">
+        <v>136</v>
+      </c>
+      <c r="X42" s="6">
+        <v>139</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>150</v>
+      </c>
+      <c r="Z42" s="6">
+        <v>158</v>
+      </c>
+      <c r="AA42" s="6">
+        <v>153</v>
+      </c>
+      <c r="AB42" s="6">
+        <v>153</v>
+      </c>
+      <c r="AC42" s="6">
+        <v>152</v>
+      </c>
+      <c r="AD42" s="6">
+        <v>154</v>
+      </c>
+      <c r="AE42" s="6">
+        <v>155</v>
+      </c>
+      <c r="AF42" s="6">
+        <v>164</v>
+      </c>
+      <c r="AG42" s="6">
+        <v>159</v>
+      </c>
+      <c r="AH42" s="6">
+        <v>183</v>
+      </c>
+      <c r="AI42" s="6">
+        <v>184</v>
+      </c>
+      <c r="AJ42" s="6">
+        <v>189</v>
+      </c>
+      <c r="AK42" s="6">
+        <v>192</v>
+      </c>
+      <c r="AL42" s="6">
+        <v>192</v>
+      </c>
+      <c r="AM42" s="6">
+        <v>198</v>
+      </c>
+      <c r="AN42" s="6">
+        <v>205</v>
+      </c>
+      <c r="AO42" s="6">
+        <v>204</v>
+      </c>
+      <c r="AP42" s="6">
+        <v>216</v>
+      </c>
+      <c r="AQ42" s="6">
+        <v>221</v>
+      </c>
+      <c r="AR42" s="6">
+        <v>221</v>
+      </c>
+      <c r="AS42" s="6">
+        <v>225</v>
+      </c>
+      <c r="AT42" s="6">
+        <v>246</v>
+      </c>
+      <c r="AU42" s="6">
+        <v>246</v>
+      </c>
+      <c r="AV42" s="6">
+        <v>254</v>
+      </c>
+      <c r="AW42" s="6">
+        <v>254</v>
+      </c>
+      <c r="AX42" s="6">
+        <v>233</v>
+      </c>
+      <c r="AY42" s="6">
+        <v>242</v>
+      </c>
+      <c r="AZ42" s="6">
+        <v>255</v>
+      </c>
+      <c r="BA42" s="6">
+        <v>288</v>
+      </c>
+      <c r="BB42" s="6">
+        <v>310</v>
+      </c>
+      <c r="BC42" s="6">
+        <v>306</v>
+      </c>
+      <c r="BD42" s="6">
+        <v>331</v>
+      </c>
+      <c r="BE42" s="6">
+        <v>413</v>
+      </c>
+      <c r="BF42" s="6">
+        <v>351</v>
+      </c>
+      <c r="BG42" s="6">
+        <v>364</v>
+      </c>
+      <c r="BH42" s="6">
+        <v>326</v>
+      </c>
+      <c r="BI42" s="6">
+        <v>339</v>
+      </c>
+      <c r="BJ42" s="6">
+        <v>346</v>
+      </c>
+      <c r="BK42" s="6">
+        <v>353</v>
+      </c>
+      <c r="BL42" s="6">
+        <v>350</v>
+      </c>
+      <c r="BM42" s="6">
+        <v>368</v>
+      </c>
+      <c r="BN42" s="6">
+        <v>363</v>
+      </c>
+      <c r="BO42" s="6">
+        <v>377</v>
+      </c>
+      <c r="BP42" s="6">
+        <v>358</v>
+      </c>
+      <c r="BV42" s="6"/>
+      <c r="BW42" s="6"/>
+      <c r="BX42" s="6"/>
+      <c r="BY42" s="6"/>
+      <c r="BZ42" s="6"/>
+      <c r="CA42" s="6"/>
+      <c r="CB42" s="6"/>
+      <c r="CC42" s="6"/>
+      <c r="CD42" s="6"/>
+      <c r="CE42" s="6"/>
+      <c r="CF42" s="6"/>
+      <c r="CG42" s="6"/>
+      <c r="CH42" s="6"/>
+      <c r="CI42" s="6"/>
+      <c r="CJ42" s="6"/>
+      <c r="CK42" s="6"/>
+    </row>
+    <row r="43" spans="2:89">
+      <c r="B43" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C43" s="6">
+        <v>778.5</v>
+      </c>
+      <c r="D43" s="6">
+        <v>747.2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>706.6</v>
+      </c>
+      <c r="F43" s="6">
+        <v>708.2</v>
+      </c>
+      <c r="G43" s="6">
+        <v>803.2</v>
+      </c>
+      <c r="H43" s="6">
+        <v>727</v>
+      </c>
+      <c r="I43" s="6">
+        <v>771.3</v>
+      </c>
+      <c r="J43" s="6">
+        <v>770.8</v>
+      </c>
+      <c r="K43" s="6">
+        <v>756</v>
+      </c>
+      <c r="L43" s="6">
+        <v>984.9</v>
+      </c>
+      <c r="M43" s="6">
+        <v>903</v>
+      </c>
+      <c r="N43" s="6">
+        <v>932</v>
+      </c>
+      <c r="O43" s="6">
+        <v>918</v>
+      </c>
+      <c r="P43" s="6">
+        <v>1057</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>976</v>
+      </c>
+      <c r="R43" s="6">
+        <v>989</v>
+      </c>
+      <c r="S43" s="6">
+        <v>947</v>
+      </c>
+      <c r="T43" s="6">
+        <v>1223</v>
+      </c>
+      <c r="U43" s="6">
+        <v>1091</v>
+      </c>
+      <c r="V43" s="6">
+        <v>1192</v>
+      </c>
+      <c r="W43" s="6">
+        <v>1319</v>
+      </c>
+      <c r="X43" s="6">
+        <v>1161</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>1398</v>
+      </c>
+      <c r="Z43" s="6">
+        <v>1351</v>
+      </c>
+      <c r="AA43" s="6">
+        <v>1110</v>
+      </c>
+      <c r="AB43" s="6">
+        <v>1251</v>
+      </c>
+      <c r="AC43" s="6">
+        <v>1147</v>
+      </c>
+      <c r="AD43" s="6">
+        <v>1176</v>
+      </c>
+      <c r="AE43" s="6">
+        <v>1246</v>
+      </c>
+      <c r="AF43" s="6">
+        <v>1172</v>
+      </c>
+      <c r="AG43" s="6">
+        <v>1175</v>
+      </c>
+      <c r="AH43" s="6">
+        <v>1342</v>
+      </c>
+      <c r="AI43" s="6">
+        <v>1387</v>
+      </c>
+      <c r="AJ43" s="6">
+        <v>1425</v>
+      </c>
+      <c r="AK43" s="6">
+        <v>1408</v>
+      </c>
+      <c r="AL43" s="6">
+        <v>1489</v>
+      </c>
+      <c r="AM43" s="6">
+        <v>1459</v>
+      </c>
+      <c r="AN43" s="6">
+        <v>1527</v>
+      </c>
+      <c r="AO43" s="6">
+        <v>1546</v>
+      </c>
+      <c r="AP43" s="6">
+        <v>1518</v>
+      </c>
+      <c r="AQ43" s="6">
+        <v>1579</v>
+      </c>
+      <c r="AR43" s="6">
+        <v>1758</v>
+      </c>
+      <c r="AS43" s="6">
+        <v>1755</v>
+      </c>
+      <c r="AT43" s="6">
+        <v>1767</v>
+      </c>
+      <c r="AU43" s="6">
+        <v>1702</v>
+      </c>
+      <c r="AV43" s="6">
+        <v>1759</v>
+      </c>
+      <c r="AW43" s="6">
+        <v>1696</v>
+      </c>
+      <c r="AX43" s="6">
+        <v>1568</v>
+      </c>
+      <c r="AY43" s="6">
+        <v>1602</v>
+      </c>
+      <c r="AZ43" s="6">
+        <v>1968</v>
+      </c>
+      <c r="BA43" s="6">
+        <v>2050</v>
+      </c>
+      <c r="BB43" s="6">
+        <v>2040</v>
+      </c>
+      <c r="BC43" s="6">
+        <v>2068</v>
+      </c>
+      <c r="BD43" s="6">
+        <v>2226</v>
+      </c>
+      <c r="BE43" s="6">
+        <v>2287</v>
+      </c>
+      <c r="BF43" s="6">
+        <v>2054</v>
+      </c>
+      <c r="BG43" s="6">
+        <v>1974</v>
+      </c>
+      <c r="BH43" s="6">
+        <v>2422</v>
+      </c>
+      <c r="BI43" s="6">
+        <v>2281</v>
+      </c>
+      <c r="BJ43" s="6">
+        <v>2216</v>
+      </c>
+      <c r="BK43" s="6">
+        <v>2227</v>
+      </c>
+      <c r="BL43" s="6">
+        <v>2446</v>
+      </c>
+      <c r="BM43" s="6">
+        <v>2361</v>
+      </c>
+      <c r="BN43" s="6">
+        <v>2365</v>
+      </c>
+      <c r="BO43" s="6">
+        <v>2432</v>
+      </c>
+      <c r="BP43" s="6">
+        <v>3593</v>
+      </c>
+      <c r="BV43" s="6"/>
+      <c r="BW43" s="6"/>
+      <c r="BX43" s="6"/>
+      <c r="BY43" s="6"/>
+      <c r="BZ43" s="6"/>
+      <c r="CA43" s="6"/>
+      <c r="CB43" s="6"/>
+      <c r="CC43" s="6"/>
+      <c r="CD43" s="6"/>
+      <c r="CE43" s="6"/>
+      <c r="CF43" s="6"/>
+      <c r="CG43" s="6"/>
+      <c r="CH43" s="6"/>
+      <c r="CI43" s="6"/>
+      <c r="CJ43" s="6"/>
+      <c r="CK43" s="6"/>
+    </row>
+    <row r="44" spans="2:89">
+      <c r="B44" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C44" s="6">
+        <v>400.9</v>
+      </c>
+      <c r="D44" s="6">
+        <v>364.1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>379.2</v>
+      </c>
+      <c r="F44" s="6">
+        <v>389.8</v>
+      </c>
+      <c r="G44" s="6">
+        <v>311.39999999999998</v>
+      </c>
+      <c r="H44" s="6">
+        <v>513.6</v>
+      </c>
+      <c r="I44" s="6">
+        <v>446.4</v>
+      </c>
+      <c r="J44" s="6">
+        <v>448.1</v>
+      </c>
+      <c r="K44" s="6">
+        <v>471</v>
+      </c>
+      <c r="L44" s="6">
+        <v>385.5</v>
+      </c>
+      <c r="M44" s="6">
+        <v>423</v>
+      </c>
+      <c r="N44" s="6">
+        <v>401</v>
+      </c>
+      <c r="O44" s="6">
+        <v>444</v>
+      </c>
+      <c r="P44" s="6">
+        <v>418</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>476</v>
+      </c>
+      <c r="R44" s="6">
+        <v>445</v>
+      </c>
+      <c r="S44" s="6">
+        <v>450</v>
+      </c>
+      <c r="T44" s="6">
+        <v>370</v>
+      </c>
+      <c r="U44" s="6">
+        <v>386</v>
+      </c>
+      <c r="V44" s="6">
+        <v>290</v>
+      </c>
+      <c r="W44" s="6">
+        <v>150</v>
+      </c>
+      <c r="X44" s="6">
+        <v>430</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>131</v>
+      </c>
+      <c r="Z44" s="6">
+        <v>197</v>
+      </c>
+      <c r="AA44" s="6">
+        <v>450</v>
+      </c>
+      <c r="AB44" s="6">
+        <v>468</v>
+      </c>
+      <c r="AC44" s="6">
+        <v>406</v>
+      </c>
+      <c r="AD44" s="6">
+        <v>429</v>
+      </c>
+      <c r="AE44" s="6">
+        <v>378</v>
+      </c>
+      <c r="AF44" s="6">
+        <v>648</v>
+      </c>
+      <c r="AG44" s="6">
+        <v>519</v>
+      </c>
+      <c r="AH44" s="6">
+        <v>500</v>
+      </c>
+      <c r="AI44" s="6">
+        <v>486</v>
+      </c>
+      <c r="AJ44" s="6">
+        <v>670</v>
+      </c>
+      <c r="AK44" s="6">
+        <v>556</v>
+      </c>
+      <c r="AL44" s="6">
+        <v>502</v>
+      </c>
+      <c r="AM44" s="6">
+        <v>525</v>
+      </c>
+      <c r="AN44" s="6">
+        <v>714</v>
+      </c>
+      <c r="AO44" s="6">
+        <v>591</v>
+      </c>
+      <c r="AP44" s="6">
+        <v>672</v>
+      </c>
+      <c r="AQ44" s="6">
+        <v>576</v>
+      </c>
+      <c r="AR44" s="6">
+        <v>698</v>
+      </c>
+      <c r="AS44" s="6">
+        <v>528</v>
+      </c>
+      <c r="AT44" s="6">
+        <v>613</v>
+      </c>
+      <c r="AU44" s="6">
+        <v>628</v>
+      </c>
+      <c r="AV44" s="6">
+        <v>944</v>
+      </c>
+      <c r="AW44" s="6">
+        <v>635</v>
+      </c>
+      <c r="AX44" s="6">
+        <v>-20</v>
+      </c>
+      <c r="AY44" s="6">
+        <v>859</v>
+      </c>
+      <c r="AZ44" s="6">
+        <v>749</v>
+      </c>
+      <c r="BA44" s="6">
+        <v>459</v>
+      </c>
+      <c r="BB44" s="6">
+        <v>732</v>
+      </c>
+      <c r="BC44" s="6">
+        <v>574</v>
+      </c>
+      <c r="BD44" s="6">
+        <v>819</v>
+      </c>
+      <c r="BE44" s="6">
+        <v>447</v>
+      </c>
+      <c r="BF44" s="6">
+        <v>772</v>
+      </c>
+      <c r="BG44" s="6">
+        <v>808</v>
+      </c>
+      <c r="BH44" s="6">
+        <v>814</v>
+      </c>
+      <c r="BI44" s="6">
+        <v>735</v>
+      </c>
+      <c r="BJ44" s="6">
+        <v>965</v>
+      </c>
+      <c r="BK44" s="6">
+        <v>931</v>
+      </c>
+      <c r="BL44" s="6">
+        <v>1257</v>
+      </c>
+      <c r="BM44" s="6">
+        <v>972</v>
+      </c>
+      <c r="BN44" s="6">
+        <v>1051</v>
+      </c>
+      <c r="BO44" s="6">
+        <v>1085</v>
+      </c>
+      <c r="BP44" s="6">
+        <v>581</v>
+      </c>
+      <c r="BV44" s="6"/>
+      <c r="BW44" s="6"/>
+      <c r="BX44" s="6"/>
+      <c r="BY44" s="6"/>
+      <c r="BZ44" s="6"/>
+      <c r="CA44" s="6"/>
+      <c r="CB44" s="6"/>
+      <c r="CC44" s="6"/>
+      <c r="CD44" s="6"/>
+      <c r="CE44" s="6"/>
+      <c r="CF44" s="6"/>
+      <c r="CG44" s="6"/>
+      <c r="CH44" s="6"/>
+      <c r="CI44" s="6"/>
+      <c r="CJ44" s="6"/>
+      <c r="CK44" s="6"/>
+    </row>
+    <row r="45" spans="2:89">
+      <c r="B45" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C45" s="6">
+        <v>19.2</v>
+      </c>
+      <c r="D45" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="E45" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G45" s="6">
+        <v>3</v>
+      </c>
+      <c r="H45" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="I45" s="6">
+        <v>-0.6</v>
+      </c>
+      <c r="J45" s="6">
+        <v>-5.5</v>
+      </c>
+      <c r="K45" s="6">
+        <v>-9</v>
+      </c>
+      <c r="L45" s="6">
+        <v>-6.9</v>
+      </c>
+      <c r="M45" s="6">
+        <v>-12</v>
+      </c>
+      <c r="N45" s="6">
+        <v>10</v>
+      </c>
+      <c r="O45" s="6">
+        <v>-13</v>
+      </c>
+      <c r="P45" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>-8</v>
+      </c>
+      <c r="R45" s="6">
+        <v>-10</v>
+      </c>
+      <c r="S45" s="6">
+        <v>-6</v>
+      </c>
+      <c r="T45" s="6">
+        <v>-12</v>
+      </c>
+      <c r="U45" s="6">
+        <v>-11</v>
+      </c>
+      <c r="V45" s="6">
+        <v>-21</v>
+      </c>
+      <c r="W45" s="6">
+        <v>-13</v>
+      </c>
+      <c r="X45" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>-24</v>
+      </c>
+      <c r="Z45" s="6">
+        <v>-30</v>
+      </c>
+      <c r="AA45" s="6">
+        <v>-25</v>
+      </c>
+      <c r="AB45" s="6">
+        <v>-7</v>
+      </c>
+      <c r="AC45" s="6">
+        <v>-29</v>
+      </c>
+      <c r="AD45" s="6">
+        <v>-28</v>
+      </c>
+      <c r="AE45" s="6">
+        <v>-33</v>
+      </c>
+      <c r="AF45" s="6">
+        <v>-36</v>
+      </c>
+      <c r="AG45" s="6">
+        <v>-38</v>
+      </c>
+      <c r="AH45" s="6">
+        <v>-67</v>
+      </c>
+      <c r="AI45" s="6">
+        <v>-67</v>
+      </c>
+      <c r="AJ45" s="6">
+        <v>-82</v>
+      </c>
+      <c r="AK45" s="6">
+        <v>-57</v>
+      </c>
+      <c r="AL45" s="6">
+        <v>-58</v>
+      </c>
+      <c r="AM45" s="6">
+        <v>-54</v>
+      </c>
+      <c r="AN45" s="6">
+        <v>-65</v>
+      </c>
+      <c r="AO45" s="6">
+        <v>-49</v>
+      </c>
+      <c r="AP45" s="6">
+        <v>-49</v>
+      </c>
+      <c r="AQ45" s="6">
+        <v>-42</v>
+      </c>
+      <c r="AR45" s="6">
+        <v>-41</v>
+      </c>
+      <c r="AS45" s="6">
+        <v>-48</v>
+      </c>
+      <c r="AT45" s="6">
+        <v>-48</v>
+      </c>
+      <c r="AU45" s="6">
+        <v>-47</v>
+      </c>
+      <c r="AV45" s="6">
+        <v>-8</v>
+      </c>
+      <c r="AW45" s="6">
+        <v>-45</v>
+      </c>
+      <c r="AX45" s="6">
+        <v>-67</v>
+      </c>
+      <c r="AY45" s="6">
+        <v>-79</v>
+      </c>
+      <c r="AZ45" s="6">
+        <v>-78</v>
+      </c>
+      <c r="BA45" s="6">
+        <v>-92</v>
+      </c>
+      <c r="BB45" s="6">
+        <v>-70</v>
+      </c>
+      <c r="BC45" s="6">
+        <v>-79</v>
+      </c>
+      <c r="BD45" s="6">
+        <v>-62</v>
+      </c>
+      <c r="BE45" s="6">
+        <v>-61</v>
+      </c>
+      <c r="BF45" s="6">
+        <v>-52</v>
+      </c>
+      <c r="BG45" s="6">
+        <v>8</v>
+      </c>
+      <c r="BH45" s="6">
+        <v>-53</v>
+      </c>
+      <c r="BI45" s="6">
+        <v>-56</v>
+      </c>
+      <c r="BJ45" s="6">
+        <v>-66</v>
+      </c>
+      <c r="BK45" s="6">
+        <v>-62</v>
+      </c>
+      <c r="BL45" s="6">
+        <v>-31</v>
+      </c>
+      <c r="BM45" s="6">
+        <v>-49</v>
+      </c>
+      <c r="BN45" s="6">
+        <v>-53</v>
+      </c>
+      <c r="BO45" s="6">
+        <v>-42</v>
+      </c>
+      <c r="BP45" s="6">
+        <v>-53</v>
+      </c>
+      <c r="BV45" s="6"/>
+      <c r="BW45" s="6"/>
+      <c r="BX45" s="6"/>
+      <c r="BY45" s="6"/>
+      <c r="BZ45" s="6"/>
+      <c r="CA45" s="6"/>
+      <c r="CB45" s="6"/>
+      <c r="CC45" s="6"/>
+      <c r="CD45" s="6"/>
+      <c r="CE45" s="6"/>
+      <c r="CF45" s="6"/>
+      <c r="CG45" s="6"/>
+      <c r="CH45" s="6"/>
+      <c r="CI45" s="6"/>
+      <c r="CJ45" s="6"/>
+      <c r="CK45" s="6"/>
+    </row>
+    <row r="46" spans="2:89">
+      <c r="B46" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C46" s="6">
+        <v>420.1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>376</v>
+      </c>
+      <c r="E46" s="6">
+        <v>386.4</v>
+      </c>
+      <c r="F46" s="6">
+        <v>400</v>
+      </c>
+      <c r="G46" s="6">
+        <v>314.39999999999998</v>
+      </c>
+      <c r="H46" s="6">
+        <v>523.20000000000005</v>
+      </c>
+      <c r="I46" s="6">
+        <v>445.8</v>
+      </c>
+      <c r="J46" s="6">
+        <v>442.6</v>
+      </c>
+      <c r="K46" s="6">
+        <v>462</v>
+      </c>
+      <c r="L46" s="6">
+        <v>378.6</v>
+      </c>
+      <c r="M46" s="6">
+        <v>411</v>
+      </c>
+      <c r="N46" s="6">
+        <v>411</v>
+      </c>
+      <c r="O46" s="6">
+        <v>431</v>
+      </c>
+      <c r="P46" s="6">
+        <v>433</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>468</v>
+      </c>
+      <c r="R46" s="6">
+        <v>435</v>
+      </c>
+      <c r="S46" s="6">
+        <v>444</v>
+      </c>
+      <c r="T46" s="6">
+        <v>358</v>
+      </c>
+      <c r="U46" s="6">
+        <v>375</v>
+      </c>
+      <c r="V46" s="6">
+        <v>269</v>
+      </c>
+      <c r="W46" s="6">
+        <v>137</v>
+      </c>
+      <c r="X46" s="6">
+        <v>431</v>
+      </c>
+      <c r="Y46" s="6">
+        <v>107</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>167</v>
+      </c>
+      <c r="AA46" s="6">
+        <v>425</v>
+      </c>
+      <c r="AB46" s="6">
+        <v>461</v>
+      </c>
+      <c r="AC46" s="6">
+        <v>377</v>
+      </c>
+      <c r="AD46" s="6">
+        <v>401</v>
+      </c>
+      <c r="AE46" s="6">
+        <v>345</v>
+      </c>
+      <c r="AF46" s="6">
+        <v>612</v>
+      </c>
+      <c r="AG46" s="6">
+        <v>481</v>
+      </c>
+      <c r="AH46" s="6">
+        <v>433</v>
+      </c>
+      <c r="AI46" s="6">
+        <v>419</v>
+      </c>
+      <c r="AJ46" s="6">
+        <v>588</v>
+      </c>
+      <c r="AK46" s="6">
+        <v>499</v>
+      </c>
+      <c r="AL46" s="6">
+        <v>444</v>
+      </c>
+      <c r="AM46" s="6">
+        <v>471</v>
+      </c>
+      <c r="AN46" s="6">
+        <v>649</v>
+      </c>
+      <c r="AO46" s="6">
+        <v>542</v>
+      </c>
+      <c r="AP46" s="6">
+        <v>623</v>
+      </c>
+      <c r="AQ46" s="6">
+        <v>534</v>
+      </c>
+      <c r="AR46" s="6">
+        <v>657</v>
+      </c>
+      <c r="AS46" s="6">
+        <v>480</v>
+      </c>
+      <c r="AT46" s="6">
+        <v>565</v>
+      </c>
+      <c r="AU46" s="6">
+        <v>581</v>
+      </c>
+      <c r="AV46" s="6">
+        <v>936</v>
+      </c>
+      <c r="AW46" s="6">
+        <v>590</v>
+      </c>
+      <c r="AX46" s="6">
+        <v>-87</v>
+      </c>
+      <c r="AY46" s="6">
+        <v>780</v>
+      </c>
+      <c r="AZ46" s="6">
+        <v>671</v>
+      </c>
+      <c r="BA46" s="6">
+        <v>367</v>
+      </c>
+      <c r="BB46" s="6">
+        <v>662</v>
+      </c>
+      <c r="BC46" s="6">
+        <v>495</v>
+      </c>
+      <c r="BD46" s="6">
+        <v>757</v>
+      </c>
+      <c r="BE46" s="6">
+        <v>386</v>
+      </c>
+      <c r="BF46" s="6">
+        <v>720</v>
+      </c>
+      <c r="BG46" s="6">
+        <v>816</v>
+      </c>
+      <c r="BH46" s="6">
+        <v>761</v>
+      </c>
+      <c r="BI46" s="6">
+        <v>679</v>
+      </c>
+      <c r="BJ46" s="6">
+        <v>899</v>
+      </c>
+      <c r="BK46" s="6">
+        <v>869</v>
+      </c>
+      <c r="BL46" s="6">
+        <v>1226</v>
+      </c>
+      <c r="BM46" s="6">
+        <v>923</v>
+      </c>
+      <c r="BN46" s="6">
+        <v>998</v>
+      </c>
+      <c r="BO46" s="6">
+        <v>1043</v>
+      </c>
+      <c r="BP46" s="6">
+        <v>528</v>
+      </c>
+      <c r="BV46" s="6"/>
+      <c r="BW46" s="6"/>
+      <c r="BX46" s="6"/>
+      <c r="BY46" s="6"/>
+      <c r="BZ46" s="6"/>
+      <c r="CA46" s="6"/>
+      <c r="CB46" s="6"/>
+      <c r="CC46" s="6"/>
+      <c r="CD46" s="6"/>
+      <c r="CE46" s="6"/>
+      <c r="CF46" s="6"/>
+      <c r="CG46" s="6"/>
+      <c r="CH46" s="6"/>
+      <c r="CI46" s="6"/>
+      <c r="CJ46" s="6"/>
+      <c r="CK46" s="6"/>
+    </row>
+    <row r="47" spans="2:89">
+      <c r="B47" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C47" s="6">
+        <v>114.3</v>
+      </c>
+      <c r="D47" s="6">
+        <v>102.2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>105.3</v>
+      </c>
+      <c r="F47" s="6">
+        <v>108.7</v>
+      </c>
+      <c r="G47" s="6">
+        <v>85.4</v>
+      </c>
+      <c r="H47" s="6">
+        <v>217.6</v>
+      </c>
+      <c r="I47" s="6">
+        <v>124.1</v>
+      </c>
+      <c r="J47" s="6">
+        <v>123.6</v>
+      </c>
+      <c r="K47" s="6">
+        <v>125</v>
+      </c>
+      <c r="L47" s="6">
+        <v>83.3</v>
+      </c>
+      <c r="M47" s="6">
+        <v>104</v>
+      </c>
+      <c r="N47" s="6">
+        <v>101</v>
+      </c>
+      <c r="O47" s="6">
+        <v>104</v>
+      </c>
+      <c r="P47" s="6">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>118</v>
+      </c>
+      <c r="R47" s="6">
+        <v>110</v>
+      </c>
+      <c r="S47" s="6">
+        <v>91</v>
+      </c>
+      <c r="T47" s="6">
+        <v>88</v>
+      </c>
+      <c r="U47" s="6">
+        <v>71</v>
+      </c>
+      <c r="V47" s="6">
+        <v>56</v>
+      </c>
+      <c r="W47" s="6">
+        <v>34</v>
+      </c>
+      <c r="X47" s="6">
+        <v>45</v>
+      </c>
+      <c r="Y47" s="6">
+        <v>37</v>
+      </c>
+      <c r="Z47" s="6">
+        <v>39</v>
+      </c>
+      <c r="AA47" s="6">
+        <v>368</v>
+      </c>
+      <c r="AB47" s="6">
+        <v>201</v>
+      </c>
+      <c r="AC47" s="6">
+        <v>153</v>
+      </c>
+      <c r="AD47" s="6">
+        <v>9</v>
+      </c>
+      <c r="AE47" s="6">
+        <v>44</v>
+      </c>
+      <c r="AF47" s="6">
+        <v>90</v>
+      </c>
+      <c r="AG47" s="6">
+        <v>79</v>
+      </c>
+      <c r="AH47" s="6">
+        <v>53</v>
+      </c>
+      <c r="AI47" s="6">
+        <v>64</v>
+      </c>
+      <c r="AJ47" s="6">
+        <v>78</v>
+      </c>
+      <c r="AK47" s="6">
+        <v>55</v>
+      </c>
+      <c r="AL47" s="6">
+        <v>53</v>
+      </c>
+      <c r="AM47" s="6">
+        <v>37</v>
+      </c>
+      <c r="AN47" s="6">
+        <v>898</v>
+      </c>
+      <c r="AO47" s="6">
+        <v>99</v>
+      </c>
+      <c r="AP47" s="6">
+        <v>171</v>
+      </c>
+      <c r="AQ47" s="6">
+        <v>-56</v>
+      </c>
+      <c r="AR47" s="6">
+        <v>-1411</v>
+      </c>
+      <c r="AS47" s="6">
+        <v>68</v>
+      </c>
+      <c r="AT47" s="6">
+        <v>85</v>
+      </c>
+      <c r="AU47" s="6">
+        <v>115</v>
+      </c>
+      <c r="AV47" s="6">
+        <v>211</v>
+      </c>
+      <c r="AW47" s="6">
+        <v>97</v>
+      </c>
+      <c r="AX47" s="6">
+        <v>-4</v>
+      </c>
+      <c r="AY47" s="6">
+        <v>159</v>
+      </c>
+      <c r="AZ47" s="6">
+        <v>103</v>
+      </c>
+      <c r="BA47" s="6">
+        <v>65</v>
+      </c>
+      <c r="BB47" s="6">
+        <v>70</v>
+      </c>
+      <c r="BC47" s="6">
+        <v>57</v>
+      </c>
+      <c r="BD47" s="6">
+        <v>95</v>
+      </c>
+      <c r="BE47" s="6">
+        <v>63</v>
+      </c>
+      <c r="BF47" s="6">
+        <v>64</v>
+      </c>
+      <c r="BG47" s="6">
+        <v>0</v>
+      </c>
+      <c r="BH47" s="6">
+        <v>198</v>
+      </c>
+      <c r="BI47" s="6">
+        <v>87</v>
+      </c>
+      <c r="BJ47" s="6">
+        <v>161</v>
+      </c>
+      <c r="BK47" s="6">
+        <v>177</v>
+      </c>
+      <c r="BL47" s="6">
+        <v>83</v>
+      </c>
+      <c r="BM47" s="6">
+        <v>135</v>
+      </c>
+      <c r="BN47" s="6">
+        <v>173</v>
+      </c>
+      <c r="BO47" s="6">
+        <v>209</v>
+      </c>
+      <c r="BP47" s="6">
+        <v>-18</v>
+      </c>
+      <c r="BV47" s="6"/>
+      <c r="BW47" s="6"/>
+      <c r="BX47" s="6"/>
+      <c r="BY47" s="6"/>
+      <c r="BZ47" s="6"/>
+      <c r="CA47" s="6"/>
+      <c r="CB47" s="6"/>
+      <c r="CC47" s="6"/>
+      <c r="CD47" s="6"/>
+      <c r="CE47" s="6"/>
+      <c r="CF47" s="6"/>
+      <c r="CG47" s="6"/>
+      <c r="CH47" s="6"/>
+      <c r="CI47" s="6"/>
+      <c r="CJ47" s="6"/>
+      <c r="CK47" s="6"/>
+    </row>
+    <row r="48" spans="2:89">
+      <c r="B48" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C48" s="7">
+        <v>305.8</v>
+      </c>
+      <c r="D48" s="7">
+        <v>273.8</v>
+      </c>
+      <c r="E48" s="7">
+        <v>281.10000000000002</v>
+      </c>
+      <c r="F48" s="7">
+        <v>291.3</v>
+      </c>
+      <c r="G48" s="7">
+        <v>229</v>
+      </c>
+      <c r="H48" s="7">
+        <v>305.60000000000002</v>
+      </c>
+      <c r="I48" s="7">
+        <v>321.7</v>
+      </c>
+      <c r="J48" s="7">
+        <v>319</v>
+      </c>
+      <c r="K48" s="7">
+        <v>337</v>
+      </c>
+      <c r="L48" s="7">
+        <v>295.3</v>
+      </c>
+      <c r="M48" s="7">
+        <v>307</v>
+      </c>
+      <c r="N48" s="7">
+        <v>310</v>
+      </c>
+      <c r="O48" s="7">
+        <v>327</v>
+      </c>
+      <c r="P48" s="7">
+        <v>401</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>350</v>
+      </c>
+      <c r="R48" s="7">
+        <v>325</v>
+      </c>
+      <c r="S48" s="7">
+        <v>353</v>
+      </c>
+      <c r="T48" s="7">
+        <v>270</v>
+      </c>
+      <c r="U48" s="7">
+        <v>304</v>
+      </c>
+      <c r="V48" s="7">
+        <v>213</v>
+      </c>
+      <c r="W48" s="7">
+        <v>103</v>
+      </c>
+      <c r="X48" s="7">
+        <v>386</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>70</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>128</v>
+      </c>
+      <c r="AA48" s="7">
+        <v>57</v>
+      </c>
+      <c r="AB48" s="7">
+        <v>260</v>
+      </c>
+      <c r="AC48" s="7">
+        <v>224</v>
+      </c>
+      <c r="AD48" s="7">
+        <v>392</v>
+      </c>
+      <c r="AE48" s="7">
+        <v>301</v>
+      </c>
+      <c r="AF48" s="7">
+        <v>522</v>
+      </c>
+      <c r="AG48" s="7">
+        <v>402</v>
+      </c>
+      <c r="AH48" s="7">
+        <v>380</v>
+      </c>
+      <c r="AI48" s="7">
+        <v>355</v>
+      </c>
+      <c r="AJ48" s="7">
+        <v>510</v>
+      </c>
+      <c r="AK48" s="7">
+        <v>444</v>
+      </c>
+      <c r="AL48" s="7">
+        <v>391</v>
+      </c>
+      <c r="AM48" s="7">
+        <v>434</v>
+      </c>
+      <c r="AN48" s="7">
+        <v>-249</v>
+      </c>
+      <c r="AO48" s="7">
+        <v>443</v>
+      </c>
+      <c r="AP48" s="7">
+        <v>452</v>
+      </c>
+      <c r="AQ48" s="7">
+        <v>590</v>
+      </c>
+      <c r="AR48" s="7">
+        <v>2068</v>
+      </c>
+      <c r="AS48" s="7">
+        <v>412</v>
+      </c>
+      <c r="AT48" s="7">
+        <v>480</v>
+      </c>
+      <c r="AU48" s="7">
+        <v>466</v>
+      </c>
+      <c r="AV48" s="7">
+        <v>725</v>
+      </c>
+      <c r="AW48" s="7">
+        <v>493</v>
+      </c>
+      <c r="AX48" s="7">
+        <v>-83</v>
+      </c>
+      <c r="AY48" s="7">
+        <v>621</v>
+      </c>
+      <c r="AZ48" s="7">
+        <v>568</v>
+      </c>
+      <c r="BA48" s="7">
+        <v>302</v>
+      </c>
+      <c r="BB48" s="7">
+        <v>592</v>
+      </c>
+      <c r="BC48" s="7">
+        <v>438</v>
+      </c>
+      <c r="BD48" s="7">
+        <v>662</v>
+      </c>
+      <c r="BE48" s="7">
+        <v>323</v>
+      </c>
+      <c r="BF48" s="7">
+        <v>656</v>
+      </c>
+      <c r="BG48" s="7">
+        <v>816</v>
+      </c>
+      <c r="BH48" s="7">
+        <v>563</v>
+      </c>
+      <c r="BI48" s="7">
+        <v>592</v>
+      </c>
+      <c r="BJ48" s="7">
+        <v>738</v>
+      </c>
+      <c r="BK48" s="7">
+        <v>692</v>
+      </c>
+      <c r="BL48" s="7">
+        <v>1143</v>
+      </c>
+      <c r="BM48" s="7">
+        <v>788</v>
+      </c>
+      <c r="BN48" s="7">
+        <v>825</v>
+      </c>
+      <c r="BO48" s="7">
+        <v>834</v>
+      </c>
+      <c r="BP48" s="7">
+        <v>546</v>
+      </c>
+      <c r="BV48" s="6"/>
+      <c r="BW48" s="6"/>
+      <c r="BX48" s="6"/>
+      <c r="BY48" s="6"/>
+      <c r="BZ48" s="6"/>
+      <c r="CA48" s="6"/>
+      <c r="CB48" s="6"/>
+      <c r="CC48" s="6"/>
+      <c r="CD48" s="6"/>
+      <c r="CE48" s="6"/>
+      <c r="CF48" s="6"/>
+      <c r="CG48" s="6"/>
+      <c r="CH48" s="6"/>
+      <c r="CI48" s="6"/>
+      <c r="CJ48" s="6"/>
+      <c r="CK48" s="6"/>
+    </row>
+    <row r="49" spans="2:68">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="7"/>
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="7"/>
+      <c r="AS49" s="7"/>
+      <c r="AT49" s="7"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="7"/>
+      <c r="AW49" s="7"/>
+      <c r="AX49" s="7"/>
+      <c r="AY49" s="7"/>
+      <c r="AZ49" s="7"/>
+      <c r="BA49" s="7"/>
+      <c r="BB49" s="7"/>
+      <c r="BC49" s="7"/>
+      <c r="BD49" s="7"/>
+      <c r="BE49" s="7"/>
+      <c r="BF49" s="7"/>
+      <c r="BG49" s="7"/>
+      <c r="BH49" s="7"/>
+      <c r="BI49" s="7"/>
+      <c r="BJ49" s="7"/>
+      <c r="BK49" s="7"/>
+      <c r="BL49" s="7"/>
+      <c r="BM49" s="7"/>
+      <c r="BN49" s="7"/>
+      <c r="BO49" s="7"/>
+      <c r="BP49" s="7"/>
+    </row>
+    <row r="50" spans="2:68">
+      <c r="B50" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="U50" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="V50" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="W50" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="X50" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y50" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z50" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB50" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC50" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD50" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE50" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AF50" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG50" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH50" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AI50" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ50" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK50" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AL50" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM50" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AN50" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="AO50" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP50" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ50" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR50" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AS50" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT50" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU50" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AV50" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="AW50" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX50" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY50" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="AZ50" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="BA50" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="BB50" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="BC50" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="BD50" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="BE50" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="BF50" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="BG50" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="BH50" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="BI50" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="BJ50" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="BK50" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="BL50" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="BM50" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="BN50" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="BO50" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="BP50" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="2:68">
+      <c r="B51" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="U51" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="V51" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="W51" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="X51" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y51" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z51" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE51" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF51" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG51" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH51" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AI51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ51" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK51" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AL51" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM51" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AN51" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="AO51" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP51" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AQ51" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AR51" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AS51" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AT51" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU51" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV51" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW51" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AX51" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AY51" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ51" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="BA51" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="BB51" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="BC51" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="BD51" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="BE51" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF51" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="BG51" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH51" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="BI51" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="BJ51" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="BK51" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BL51" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM51" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="BN51" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="BO51" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="BP51" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="2:68">
+      <c r="B52" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="S52" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="U52" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="V52" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="W52" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="X52" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y52" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z52" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE52" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF52" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG52" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH52" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI52" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ52" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK52" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL52" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM52" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN52" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO52" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP52" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AQ52" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR52" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS52" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AT52" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU52" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV52" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AW52" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AX52" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY52" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ52" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="BA52" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="BB52" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="BC52" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD52" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="BE52" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="BF52" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="BG52" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH52" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI52" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="BJ52" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="BK52" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="BL52" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="BM52" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN52" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO52" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="BP52" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="2:68">
+      <c r="B53" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="S53" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="V53" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="W53" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="X53" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y53" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z53" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE53" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF53" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH53" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI53" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ53" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK53" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM53" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN53" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO53" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP53" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ53" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR53" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS53" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT53" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU53" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV53" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW53" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX53" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY53" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ53" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA53" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB53" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD53" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE53" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF53" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="BG53" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="BH53" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI53" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="BJ53" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="BK53" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL53" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BM53" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="BN53" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO53" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BP53" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="2:68">
+      <c r="B54" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="V54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="W54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="X54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y54" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z54" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA54" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE54" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF54" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG54" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH54" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI54" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ54" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK54" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL54" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM54" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP54" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ54" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR54" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS54" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT54" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU54" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV54" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW54" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX54" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY54" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ54" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA54" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB54" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC54" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD54" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="BE54" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG54" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH54" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BI54" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK54" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM54" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN54" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO54" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP54" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="2:68">
+      <c r="B55" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="W55" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X55" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y55" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z55" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE55" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG55" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH55" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI55" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ55" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK55" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL55" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM55" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN55" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP55" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT55" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW55" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX55" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY55" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ55" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC55" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD55" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE55" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF55" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH55" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI55" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ55" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK55" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL55" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN55" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BP55" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -683,12 +6377,12 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.265625" style="2" customWidth="1"/>
-    <col min="2" max="39" width="9.1328125" style="2"/>
-    <col min="40" max="40" width="3.3984375" style="2" customWidth="1"/>
-    <col min="41" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2" max="39" width="9.140625" style="2"/>
+    <col min="40" max="40" width="3.42578125" style="2" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -860,10 +6554,10 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.9296875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SYK_Model.xlsx
+++ b/SYK_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F623892-9D44-43DA-9E3D-DEFECC6E2C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA681FC-DB46-48F8-BDED-D5B07844E2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2043,7 +2043,7 @@
   <dimension ref="A2:EE55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AY16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AY28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="BW38" sqref="BW38"/>

--- a/SYK_Model.xlsx
+++ b/SYK_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE173C4D-45AC-4ACC-8FC4-86B584033D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98097FA7-8411-4E89-993C-467FF10E5E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14046,7 +14046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -15516,11 +15516,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78130D12-B16F-4BC5-8728-6B07C0E66DA0}">
   <dimension ref="B1:EQ108"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="CV72" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="CV51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DB75" sqref="DB75"/>
+      <selection pane="bottomRight" activeCell="CX9" sqref="CX9:DG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -33526,7 +33526,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="CV48:CW57 CS9 BD9" formula="1"/>
+    <ignoredError sqref="CV48:CW57 CS9 BD9 CX9:DG9" formula="1"/>
     <ignoredError sqref="AV95:BQ101 AZ47:AZ56 CH46:CU47 CS59:CU59" formulaRange="1"/>
     <ignoredError sqref="CH48:CU57 CV58:CW58 CH58:CM58 CS58:CU58" formula="1" formulaRange="1"/>
   </ignoredErrors>
@@ -33539,7 +33539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B64CFE4-27B0-47D1-98A8-2BD6EC88FF38}">
   <dimension ref="A1:GG1192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T219" sqref="T219"/>
     </sheetView>
   </sheetViews>
@@ -35992,7 +35992,7 @@
         <v>-4.1000000000000002E-2</v>
       </c>
       <c r="M236" s="2">
-        <f>_xlfn.NORM.DIST(L236,$K$226,$K$228,FALSE)</f>
+        <f t="shared" ref="M236:M267" si="2">_xlfn.NORM.DIST(L236,$K$226,$K$228,FALSE)</f>
         <v>0.24330261971412301</v>
       </c>
       <c r="O236" s="2" t="s">
@@ -36039,7 +36039,7 @@
         <v>-0.04</v>
       </c>
       <c r="M237" s="2">
-        <f>_xlfn.NORM.DIST(L237,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.30633285338385041</v>
       </c>
       <c r="P237" s="16">
@@ -36083,7 +36083,7 @@
         <v>-3.9E-2</v>
       </c>
       <c r="M238" s="2">
-        <f>_xlfn.NORM.DIST(L238,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.38351958154803484</v>
       </c>
       <c r="O238" s="17" t="s">
@@ -36130,7 +36130,7 @@
         <v>-3.7999999999999999E-2</v>
       </c>
       <c r="M239" s="2">
-        <f>_xlfn.NORM.DIST(L239,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.47745086551047328</v>
       </c>
       <c r="O239" s="18"/>
@@ -36175,7 +36175,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
       <c r="M240" s="2">
-        <f>_xlfn.NORM.DIST(L240,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.59104017531798669</v>
       </c>
       <c r="O240" s="17" t="s">
@@ -36222,7 +36222,7 @@
         <v>-3.5999999999999997E-2</v>
       </c>
       <c r="M241" s="2">
-        <f>_xlfn.NORM.DIST(L241,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.72753266253923077</v>
       </c>
       <c r="O241" s="18"/>
@@ -36267,7 +36267,7 @@
         <v>-3.4999999999999996E-2</v>
       </c>
       <c r="M242" s="2">
-        <f>_xlfn.NORM.DIST(L242,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0.89050254374147597</v>
       </c>
       <c r="O242" s="19" t="s">
@@ -36314,7 +36314,7 @@
         <v>-3.3999999999999996E-2</v>
       </c>
       <c r="M243" s="2">
-        <f>_xlfn.NORM.DIST(L243,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.0838395846539897</v>
       </c>
       <c r="P243" s="16">
@@ -36358,7 +36358,7 @@
         <v>-3.2999999999999995E-2</v>
       </c>
       <c r="M244" s="2">
-        <f>_xlfn.NORM.DIST(L244,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.3117226816436751</v>
       </c>
       <c r="O244" s="2" t="s">
@@ -36405,7 +36405,7 @@
         <v>-3.1999999999999994E-2</v>
       </c>
       <c r="M245" s="2">
-        <f>_xlfn.NORM.DIST(L245,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.578578645060458</v>
       </c>
       <c r="P245" s="16">
@@ -36449,7 +36449,7 @@
         <v>-3.0999999999999993E-2</v>
       </c>
       <c r="M246" s="2">
-        <f>_xlfn.NORM.DIST(L246,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1.8890245151375733</v>
       </c>
       <c r="O246" s="20" t="s">
@@ -36499,7 +36499,7 @@
         <v>-2.9999999999999992E-2</v>
       </c>
       <c r="M247" s="2">
-        <f>_xlfn.NORM.DIST(L247,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2.2477920988013178</v>
       </c>
       <c r="P247" s="16">
@@ -36546,7 +36546,7 @@
         <v>-2.8999999999999991E-2</v>
       </c>
       <c r="M248" s="2">
-        <f>_xlfn.NORM.DIST(L248,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>2.6596339130588227</v>
       </c>
       <c r="O248" s="20" t="s">
@@ -36596,7 +36596,7 @@
         <v>-2.799999999999999E-2</v>
       </c>
       <c r="M249" s="2">
-        <f>_xlfn.NORM.DIST(L249,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3.1292103587889639</v>
       </c>
       <c r="O249" s="20"/>
@@ -36644,7 +36644,7 @@
         <v>-2.6999999999999989E-2</v>
       </c>
       <c r="M250" s="2">
-        <f>_xlfn.NORM.DIST(L250,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>3.6609587205509038</v>
       </c>
       <c r="AJ250" s="2" t="s">
@@ -36684,7 +36684,7 @@
         <v>-2.5999999999999988E-2</v>
       </c>
       <c r="M251" s="2">
-        <f>_xlfn.NORM.DIST(L251,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>4.258945476645092</v>
       </c>
     </row>
@@ -36721,7 +36721,7 @@
         <v>-2.4999999999999988E-2</v>
       </c>
       <c r="M252" s="2">
-        <f>_xlfn.NORM.DIST(L252,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>4.9267043820016658</v>
       </c>
     </row>
@@ -36758,7 +36758,7 @@
         <v>-2.3999999999999987E-2</v>
       </c>
       <c r="M253" s="2">
-        <f>_xlfn.NORM.DIST(L253,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>5.6670638170172571</v>
       </c>
     </row>
@@ -36795,7 +36795,7 @@
         <v>-2.2999999999999986E-2</v>
       </c>
       <c r="M254" s="2">
-        <f>_xlfn.NORM.DIST(L254,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>6.4819679309391072</v>
       </c>
     </row>
@@ -36832,7 +36832,7 @@
         <v>-2.1999999999999985E-2</v>
       </c>
       <c r="M255" s="2">
-        <f>_xlfn.NORM.DIST(L255,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>7.3722970932413006</v>
       </c>
     </row>
@@ -36869,7 +36869,7 @@
         <v>-2.0999999999999984E-2</v>
       </c>
       <c r="M256" s="2">
-        <f>_xlfn.NORM.DIST(L256,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>8.3376940391129448</v>
       </c>
     </row>
@@ -36906,7 +36906,7 @@
         <v>-1.9999999999999983E-2</v>
       </c>
       <c r="M257" s="2">
-        <f>_xlfn.NORM.DIST(L257,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>9.3764027912942609</v>
       </c>
     </row>
@@ -36943,7 +36943,7 @@
         <v>-1.8999999999999982E-2</v>
       </c>
       <c r="M258" s="2">
-        <f>_xlfn.NORM.DIST(L258,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>10.485127896633797</v>
       </c>
     </row>
@@ -36980,7 +36980,7 @@
         <v>-1.7999999999999981E-2</v>
       </c>
       <c r="M259" s="2">
-        <f>_xlfn.NORM.DIST(L259,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>11.658921673763489</v>
       </c>
     </row>
@@ -37017,7 +37017,7 @@
         <v>-1.699999999999998E-2</v>
       </c>
       <c r="M260" s="2">
-        <f>_xlfn.NORM.DIST(L260,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>12.891106979905215</v>
       </c>
     </row>
@@ -37054,7 +37054,7 @@
         <v>-1.599999999999998E-2</v>
       </c>
       <c r="M261" s="2">
-        <f>_xlfn.NORM.DIST(L261,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>14.173242436056498</v>
       </c>
     </row>
@@ -37091,7 +37091,7 @@
         <v>-1.4999999999999979E-2</v>
       </c>
       <c r="M262" s="2">
-        <f>_xlfn.NORM.DIST(L262,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>15.495136085031207</v>
       </c>
     </row>
@@ -37128,7 +37128,7 @@
         <v>-1.3999999999999978E-2</v>
       </c>
       <c r="M263" s="2">
-        <f>_xlfn.NORM.DIST(L263,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>16.844912102018611</v>
       </c>
     </row>
@@ -37165,7 +37165,7 @@
         <v>-1.2999999999999977E-2</v>
       </c>
       <c r="M264" s="2">
-        <f>_xlfn.NORM.DIST(L264,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>18.209133462105321</v>
       </c>
     </row>
@@ -37202,7 +37202,7 @@
         <v>-1.1999999999999976E-2</v>
       </c>
       <c r="M265" s="2">
-        <f>_xlfn.NORM.DIST(L265,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>19.572981447529923</v>
       </c>
     </row>
@@ -37239,7 +37239,7 @@
         <v>-1.0999999999999975E-2</v>
       </c>
       <c r="M266" s="2">
-        <f>_xlfn.NORM.DIST(L266,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>20.920490626570793</v>
       </c>
     </row>
@@ -37276,7 +37276,7 @@
         <v>-9.9999999999999742E-3</v>
       </c>
       <c r="M267" s="2">
-        <f>_xlfn.NORM.DIST(L267,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>22.234835553740457</v>
       </c>
     </row>
@@ -37313,7 +37313,7 @@
         <v>-8.9999999999999733E-3</v>
       </c>
       <c r="M268" s="2">
-        <f>_xlfn.NORM.DIST(L268,$K$226,$K$228,FALSE)</f>
+        <f t="shared" ref="M268:M299" si="3">_xlfn.NORM.DIST(L268,$K$226,$K$228,FALSE)</f>
         <v>23.49866304135163</v>
       </c>
     </row>
@@ -37350,7 +37350,7 @@
         <v>-7.9999999999999724E-3</v>
       </c>
       <c r="M269" s="2">
-        <f>_xlfn.NORM.DIST(L269,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>24.694461559704717</v>
       </c>
     </row>
@@ -37387,7 +37387,7 @@
         <v>-6.9999999999999724E-3</v>
       </c>
       <c r="M270" s="2">
-        <f>_xlfn.NORM.DIST(L270,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>25.804957264360048</v>
       </c>
     </row>
@@ -37424,7 +37424,7 @@
         <v>-5.9999999999999724E-3</v>
       </c>
       <c r="M271" s="2">
-        <f>_xlfn.NORM.DIST(L271,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>26.81352444662306</v>
       </c>
     </row>
@@ -37461,7 +37461,7 @@
         <v>-4.9999999999999723E-3</v>
       </c>
       <c r="M272" s="2">
-        <f>_xlfn.NORM.DIST(L272,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>27.704596967012165</v>
       </c>
     </row>
@@ -37498,7 +37498,7 @@
         <v>-3.9999999999999723E-3</v>
       </c>
       <c r="M273" s="2">
-        <f>_xlfn.NORM.DIST(L273,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>28.464066550027482</v>
       </c>
     </row>
@@ -37535,7 +37535,7 @@
         <v>-2.9999999999999723E-3</v>
       </c>
       <c r="M274" s="2">
-        <f>_xlfn.NORM.DIST(L274,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>29.079653753616999</v>
       </c>
     </row>
@@ -37572,7 +37572,7 @@
         <v>-1.9999999999999723E-3</v>
       </c>
       <c r="M275" s="2">
-        <f>_xlfn.NORM.DIST(L275,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>29.541238007479279</v>
       </c>
     </row>
@@ -37609,7 +37609,7 @@
         <v>-9.9999999999997227E-4</v>
       </c>
       <c r="M276" s="2">
-        <f>_xlfn.NORM.DIST(L276,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>29.84113433421124</v>
       </c>
     </row>
@@ -37646,7 +37646,7 @@
         <v>2.7755575615628914E-17</v>
       </c>
       <c r="M277" s="2">
-        <f>_xlfn.NORM.DIST(L277,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>29.974306183221255</v>
       </c>
     </row>
@@ -37683,7 +37683,7 @@
         <v>1.0000000000000278E-3</v>
       </c>
       <c r="M278" s="2">
-        <f>_xlfn.NORM.DIST(L278,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>29.938506141234956</v>
       </c>
     </row>
@@ -37720,7 +37720,7 @@
         <v>2.0000000000000278E-3</v>
       </c>
       <c r="M279" s="2">
-        <f>_xlfn.NORM.DIST(L279,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>29.734339026119326</v>
       </c>
     </row>
@@ -37757,7 +37757,7 @@
         <v>3.0000000000000278E-3</v>
       </c>
       <c r="M280" s="2">
-        <f>_xlfn.NORM.DIST(L280,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>29.365244888858772</v>
       </c>
     </row>
@@ -37794,7 +37794,7 @@
         <v>4.0000000000000278E-3</v>
       </c>
       <c r="M281" s="2">
-        <f>_xlfn.NORM.DIST(L281,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>28.837402591235453</v>
       </c>
     </row>
@@ -37831,7 +37831,7 @@
         <v>5.0000000000000279E-3</v>
       </c>
       <c r="M282" s="2">
-        <f>_xlfn.NORM.DIST(L282,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>28.159557735840721</v>
       </c>
     </row>
@@ -37868,7 +37868,7 @@
         <v>6.0000000000000279E-3</v>
       </c>
       <c r="M283" s="2">
-        <f>_xlfn.NORM.DIST(L283,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>27.342781644290781</v>
       </c>
     </row>
@@ -37905,7 +37905,7 @@
         <v>7.0000000000000279E-3</v>
       </c>
       <c r="M284" s="2">
-        <f>_xlfn.NORM.DIST(L284,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>26.400170664392089</v>
       </c>
     </row>
@@ -37942,7 +37942,7 @@
         <v>8.0000000000000279E-3</v>
       </c>
       <c r="M285" s="2">
-        <f>_xlfn.NORM.DIST(L285,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>25.346497213325758</v>
       </c>
     </row>
@@ -37979,7 +37979,7 @@
         <v>9.0000000000000288E-3</v>
       </c>
       <c r="M286" s="2">
-        <f>_xlfn.NORM.DIST(L286,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>24.197825535155634</v>
       </c>
     </row>
@@ -38016,7 +38016,7 @@
         <v>1.000000000000003E-2</v>
       </c>
       <c r="M287" s="2">
-        <f>_xlfn.NORM.DIST(L287,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>22.971106103509396</v>
       </c>
     </row>
@@ -38053,7 +38053,7 @@
         <v>1.1000000000000031E-2</v>
       </c>
       <c r="M288" s="2">
-        <f>_xlfn.NORM.DIST(L288,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>21.683762906467617</v>
       </c>
     </row>
@@ -38090,7 +38090,7 @@
         <v>1.2000000000000031E-2</v>
       </c>
       <c r="M289" s="2">
-        <f>_xlfn.NORM.DIST(L289,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>20.353287519327644</v>
       </c>
     </row>
@@ -38127,7 +38127,7 @@
         <v>1.3000000000000032E-2</v>
       </c>
       <c r="M290" s="2">
-        <f>_xlfn.NORM.DIST(L290,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>18.996852945382901</v>
       </c>
     </row>
@@ -38164,7 +38164,7 @@
         <v>1.4000000000000033E-2</v>
       </c>
       <c r="M291" s="2">
-        <f>_xlfn.NORM.DIST(L291,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>17.630958759087321</v>
       </c>
     </row>
@@ -38201,7 +38201,7 @@
         <v>1.5000000000000034E-2</v>
       </c>
       <c r="M292" s="2">
-        <f>_xlfn.NORM.DIST(L292,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>16.271117218493135</v>
       </c>
     </row>
@@ -38238,7 +38238,7 @@
         <v>1.6000000000000035E-2</v>
       </c>
       <c r="M293" s="2">
-        <f>_xlfn.NORM.DIST(L293,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>14.931587840618413</v>
       </c>
     </row>
@@ -38275,7 +38275,7 @@
         <v>1.7000000000000036E-2</v>
       </c>
       <c r="M294" s="2">
-        <f>_xlfn.NORM.DIST(L294,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>13.625165579865037</v>
       </c>
     </row>
@@ -38299,7 +38299,7 @@
         <v>992</v>
       </c>
       <c r="G295" s="9">
-        <f t="shared" ref="G295:G358" si="2">A295/D295-1</f>
+        <f t="shared" ref="G295:G358" si="4">A295/D295-1</f>
         <v>-1.581629578978494E-2</v>
       </c>
       <c r="I295" s="13">
@@ -38312,7 +38312,7 @@
         <v>1.8000000000000037E-2</v>
       </c>
       <c r="M295" s="2">
-        <f>_xlfn.NORM.DIST(L295,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>12.363025342638814</v>
       </c>
     </row>
@@ -38336,7 +38336,7 @@
         <v>991</v>
       </c>
       <c r="G296" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.2620143278922025E-2</v>
       </c>
       <c r="I296" s="13">
@@ -38349,7 +38349,7 @@
         <v>1.9000000000000038E-2</v>
       </c>
       <c r="M296" s="2">
-        <f>_xlfn.NORM.DIST(L296,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>11.154623231589555</v>
       </c>
     </row>
@@ -38373,7 +38373,7 @@
         <v>990</v>
       </c>
       <c r="G297" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.0577276559854436E-3</v>
       </c>
       <c r="I297" s="13">
@@ -38386,7 +38386,7 @@
         <v>2.0000000000000039E-2</v>
       </c>
       <c r="M297" s="2">
-        <f>_xlfn.NORM.DIST(L297,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>10.007652748181465</v>
       </c>
     </row>
@@ -38410,7 +38410,7 @@
         <v>989</v>
       </c>
       <c r="G298" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-9.8275759477761682E-4</v>
       </c>
       <c r="I298" s="13">
@@ -38423,7 +38423,7 @@
         <v>2.1000000000000039E-2</v>
       </c>
       <c r="M298" s="2">
-        <f>_xlfn.NORM.DIST(L298,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>8.9280522821969779</v>
       </c>
     </row>
@@ -38447,7 +38447,7 @@
         <v>988</v>
       </c>
       <c r="G299" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.440828799537778E-4</v>
       </c>
       <c r="I299" s="13">
@@ -38460,7 +38460,7 @@
         <v>2.200000000000004E-2</v>
       </c>
       <c r="M299" s="2">
-        <f>_xlfn.NORM.DIST(L299,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>7.9200586489003983</v>
       </c>
     </row>
@@ -38484,7 +38484,7 @@
         <v>987</v>
       </c>
       <c r="G300" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3286827553631539E-2</v>
       </c>
       <c r="I300" s="13">
@@ -38497,7 +38497,7 @@
         <v>2.3000000000000041E-2</v>
       </c>
       <c r="M300" s="2">
-        <f>_xlfn.NORM.DIST(L300,$K$226,$K$228,FALSE)</f>
+        <f t="shared" ref="M300:M318" si="5">_xlfn.NORM.DIST(L300,$K$226,$K$228,FALSE)</f>
         <v>6.9863002426241483</v>
       </c>
     </row>
@@ -38521,7 +38521,7 @@
         <v>986</v>
       </c>
       <c r="G301" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.9424163042980389E-3</v>
       </c>
       <c r="I301" s="13">
@@ -38534,7 +38534,7 @@
         <v>2.4000000000000042E-2</v>
       </c>
       <c r="M301" s="2">
-        <f>_xlfn.NORM.DIST(L301,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>6.1279225789406535</v>
       </c>
     </row>
@@ -38558,7 +38558,7 @@
         <v>985</v>
       </c>
       <c r="G302" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.1475044500820548E-3</v>
       </c>
       <c r="I302" s="13">
@@ -38571,7 +38571,7 @@
         <v>2.5000000000000043E-2</v>
       </c>
       <c r="M302" s="2">
-        <f>_xlfn.NORM.DIST(L302,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>5.3447385928472428</v>
       </c>
     </row>
@@ -38595,7 +38595,7 @@
         <v>984</v>
       </c>
       <c r="G303" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.1165145940206234E-4</v>
       </c>
       <c r="I303" s="13">
@@ -38608,7 +38608,7 @@
         <v>2.6000000000000044E-2</v>
       </c>
       <c r="M303" s="2">
-        <f>_xlfn.NORM.DIST(L303,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4.6353960236808662</v>
       </c>
     </row>
@@ -38632,7 +38632,7 @@
         <v>983</v>
       </c>
       <c r="G304" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.8626908441309382E-3</v>
       </c>
       <c r="I304" s="13">
@@ -38645,7 +38645,7 @@
         <v>2.7000000000000045E-2</v>
       </c>
       <c r="M304" s="2">
-        <f>_xlfn.NORM.DIST(L304,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>3.9975545082321977</v>
       </c>
     </row>
@@ -38669,7 +38669,7 @@
         <v>982</v>
       </c>
       <c r="G305" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6903412547975005E-3</v>
       </c>
       <c r="I305" s="13">
@@ -38682,7 +38682,7 @@
         <v>2.8000000000000046E-2</v>
       </c>
       <c r="M305" s="2">
-        <f>_xlfn.NORM.DIST(L305,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>3.4280655687282566</v>
       </c>
     </row>
@@ -38706,7 +38706,7 @@
         <v>981</v>
       </c>
       <c r="G306" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.5913438000727558E-3</v>
       </c>
       <c r="I306" s="13">
@@ -38719,7 +38719,7 @@
         <v>2.9000000000000047E-2</v>
       </c>
       <c r="M306" s="2">
-        <f>_xlfn.NORM.DIST(L306,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2.9231494610784972</v>
       </c>
     </row>
@@ -38743,7 +38743,7 @@
         <v>980</v>
       </c>
       <c r="G307" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.3820208302177743E-3</v>
       </c>
       <c r="I307" s="13">
@@ -38756,7 +38756,7 @@
         <v>3.0000000000000047E-2</v>
       </c>
       <c r="M307" s="2">
-        <f>_xlfn.NORM.DIST(L307,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2.4785637766983237</v>
       </c>
     </row>
@@ -38780,7 +38780,7 @@
         <v>979</v>
       </c>
       <c r="G308" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.4809768662033047E-3</v>
       </c>
       <c r="I308" s="13">
@@ -38793,7 +38793,7 @@
         <v>3.1000000000000048E-2</v>
       </c>
       <c r="M308" s="2">
-        <f>_xlfn.NORM.DIST(L308,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>2.089759704725016</v>
       </c>
     </row>
@@ -38817,7 +38817,7 @@
         <v>978</v>
       </c>
       <c r="G309" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.3631870307306393E-2</v>
       </c>
       <c r="I309" s="13">
@@ -38830,7 +38830,7 @@
         <v>3.2000000000000049E-2</v>
       </c>
       <c r="M309" s="2">
-        <f>_xlfn.NORM.DIST(L309,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1.7520229011767259</v>
       </c>
     </row>
@@ -38854,7 +38854,7 @@
         <v>977</v>
       </c>
       <c r="G310" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.3201933957059948E-3</v>
       </c>
       <c r="I310" s="13">
@@ -38867,7 +38867,7 @@
         <v>3.300000000000005E-2</v>
       </c>
       <c r="M310" s="2">
-        <f>_xlfn.NORM.DIST(L310,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1.4605969252869571</v>
       </c>
     </row>
@@ -38891,7 +38891,7 @@
         <v>976</v>
       </c>
       <c r="G311" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-9.3537648436458065E-3</v>
       </c>
       <c r="I311" s="13">
@@ -38904,7 +38904,7 @@
         <v>3.4000000000000051E-2</v>
       </c>
       <c r="M311" s="2">
-        <f>_xlfn.NORM.DIST(L311,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>1.210788147600123</v>
       </c>
     </row>
@@ -38928,7 +38928,7 @@
         <v>975</v>
       </c>
       <c r="G312" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2256215880853709E-4</v>
       </c>
       <c r="I312" s="13">
@@ -38941,7 +38941,7 @@
         <v>3.5000000000000052E-2</v>
       </c>
       <c r="M312" s="2">
-        <f>_xlfn.NORM.DIST(L312,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0.99805187629411873</v>
       </c>
     </row>
@@ -38965,7 +38965,7 @@
         <v>974</v>
       </c>
       <c r="G313" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.2220442381347563E-2</v>
       </c>
       <c r="I313" s="13">
@@ -38978,7 +38978,7 @@
         <v>3.6000000000000053E-2</v>
       </c>
       <c r="M313" s="2">
-        <f>_xlfn.NORM.DIST(L313,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0.81806016490533739</v>
       </c>
     </row>
@@ -39002,7 +39002,7 @@
         <v>973</v>
       </c>
       <c r="G314" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0526115919025134E-3</v>
       </c>
       <c r="I314" s="13">
@@ -39015,7 +39015,7 @@
         <v>3.7000000000000054E-2</v>
       </c>
       <c r="M314" s="2">
-        <f>_xlfn.NORM.DIST(L314,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0.66675234354585899</v>
       </c>
     </row>
@@ -39039,7 +39039,7 @@
         <v>972</v>
       </c>
       <c r="G315" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.4932443190423026E-3</v>
       </c>
       <c r="I315" s="13">
@@ -39052,7 +39052,7 @@
         <v>3.8000000000000055E-2</v>
       </c>
       <c r="M315" s="2">
-        <f>_xlfn.NORM.DIST(L315,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0.54036975333680215</v>
       </c>
     </row>
@@ -39076,7 +39076,7 @@
         <v>971</v>
       </c>
       <c r="G316" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.7956866804884619E-3</v>
       </c>
       <c r="I316" s="13">
@@ -39089,7 +39089,7 @@
         <v>3.9000000000000055E-2</v>
       </c>
       <c r="M316" s="2">
-        <f>_xlfn.NORM.DIST(L316,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0.43547646445183286</v>
       </c>
     </row>
@@ -39113,7 +39113,7 @@
         <v>970</v>
       </c>
       <c r="G317" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.0350917845687535E-2</v>
       </c>
       <c r="I317" s="14" t="s">
@@ -39126,7 +39126,7 @@
         <v>4.0000000000000056E-2</v>
       </c>
       <c r="M317" s="2">
-        <f>_xlfn.NORM.DIST(L317,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0.34896793239983337</v>
       </c>
     </row>
@@ -39150,14 +39150,14 @@
         <v>969</v>
       </c>
       <c r="G318" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.2501039733519681E-2</v>
       </c>
       <c r="L318" s="13">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="M318" s="2">
-        <f>_xlfn.NORM.DIST(L318,$K$226,$K$228,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>0.27806961002886771</v>
       </c>
     </row>
@@ -39181,7 +39181,7 @@
         <v>968</v>
       </c>
       <c r="G319" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.1834259023523206E-4</v>
       </c>
     </row>
@@ -39205,7 +39205,7 @@
         <v>967</v>
       </c>
       <c r="G320" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.7323241397425591E-5</v>
       </c>
     </row>
@@ -39229,7 +39229,7 @@
         <v>966</v>
       </c>
       <c r="G321" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.6136880399556519E-3</v>
       </c>
     </row>
@@ -39253,7 +39253,7 @@
         <v>965</v>
       </c>
       <c r="G322" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.9291555195978276E-3</v>
       </c>
     </row>
@@ -39277,7 +39277,7 @@
         <v>964</v>
       </c>
       <c r="G323" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.9504664789936621E-2</v>
       </c>
     </row>
@@ -39301,7 +39301,7 @@
         <v>963</v>
       </c>
       <c r="G324" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.788207198158088E-3</v>
       </c>
     </row>
@@ -39325,7 +39325,7 @@
         <v>962</v>
       </c>
       <c r="G325" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0479646675785119E-3</v>
       </c>
     </row>
@@ -39349,7 +39349,7 @@
         <v>961</v>
       </c>
       <c r="G326" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.3417711599822439E-3</v>
       </c>
     </row>
@@ -39373,7 +39373,7 @@
         <v>960</v>
       </c>
       <c r="G327" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3238034635669784E-3</v>
       </c>
     </row>
@@ -39397,7 +39397,7 @@
         <v>959</v>
       </c>
       <c r="G328" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4636657580812127E-4</v>
       </c>
     </row>
@@ -39421,7 +39421,7 @@
         <v>958</v>
       </c>
       <c r="G329" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.3185641394440921E-3</v>
       </c>
     </row>
@@ -39445,7 +39445,7 @@
         <v>957</v>
       </c>
       <c r="G330" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.9703939325305164E-4</v>
       </c>
     </row>
@@ -39469,7 +39469,7 @@
         <v>956</v>
       </c>
       <c r="G331" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.451639213312041E-3</v>
       </c>
     </row>
@@ -39493,7 +39493,7 @@
         <v>955</v>
       </c>
       <c r="G332" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.276091699426555E-4</v>
       </c>
     </row>
@@ -39517,7 +39517,7 @@
         <v>954</v>
       </c>
       <c r="G333" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.1667266995840642E-3</v>
       </c>
     </row>
@@ -39541,7 +39541,7 @@
         <v>953</v>
       </c>
       <c r="G334" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5081955080296101E-3</v>
       </c>
     </row>
@@ -39565,7 +39565,7 @@
         <v>952</v>
       </c>
       <c r="G335" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.0046551363169787E-3</v>
       </c>
     </row>
@@ -39589,7 +39589,7 @@
         <v>951</v>
       </c>
       <c r="G336" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-8.1597608264745158E-3</v>
       </c>
     </row>
@@ -39613,7 +39613,7 @@
         <v>950</v>
       </c>
       <c r="G337" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0456689463254287E-2</v>
       </c>
     </row>
@@ -39637,7 +39637,7 @@
         <v>949</v>
       </c>
       <c r="G338" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1496562913758677E-3</v>
       </c>
     </row>
@@ -39661,7 +39661,7 @@
         <v>948</v>
       </c>
       <c r="G339" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2353501015038884E-3</v>
       </c>
     </row>
@@ -39685,7 +39685,7 @@
         <v>947</v>
       </c>
       <c r="G340" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.8794787709233187E-3</v>
       </c>
     </row>
@@ -39709,7 +39709,7 @@
         <v>946</v>
       </c>
       <c r="G341" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.8666308005683714E-3</v>
       </c>
     </row>
@@ -39733,7 +39733,7 @@
         <v>945</v>
       </c>
       <c r="G342" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0801805532816289E-3</v>
       </c>
     </row>
@@ -39757,7 +39757,7 @@
         <v>944</v>
       </c>
       <c r="G343" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2257739457441685E-2</v>
       </c>
     </row>
@@ -39781,7 +39781,7 @@
         <v>943</v>
       </c>
       <c r="G344" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0889914892322494E-2</v>
       </c>
     </row>
@@ -39805,7 +39805,7 @@
         <v>942</v>
       </c>
       <c r="G345" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.289182385164402E-4</v>
       </c>
     </row>
@@ -39829,7 +39829,7 @@
         <v>941</v>
       </c>
       <c r="G346" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0632476509662592E-2</v>
       </c>
     </row>
@@ -39853,7 +39853,7 @@
         <v>940</v>
       </c>
       <c r="G347" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.4505577342882674E-3</v>
       </c>
     </row>
@@ -39877,7 +39877,7 @@
         <v>939</v>
       </c>
       <c r="G348" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.8847374491098892E-3</v>
       </c>
     </row>
@@ -39901,7 +39901,7 @@
         <v>938</v>
       </c>
       <c r="G349" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.5297485875338577E-3</v>
       </c>
     </row>
@@ -39925,7 +39925,7 @@
         <v>937</v>
       </c>
       <c r="G350" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5735289734696734E-2</v>
       </c>
     </row>
@@ -39949,7 +39949,7 @@
         <v>936</v>
       </c>
       <c r="G351" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.2116613535363974E-2</v>
       </c>
     </row>
@@ -39973,7 +39973,7 @@
         <v>935</v>
       </c>
       <c r="G352" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5292109774461382E-2</v>
       </c>
     </row>
@@ -39997,7 +39997,7 @@
         <v>934</v>
       </c>
       <c r="G353" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.4719225430988496E-2</v>
       </c>
     </row>
@@ -40021,7 +40021,7 @@
         <v>933</v>
       </c>
       <c r="G354" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.3244230423837848E-3</v>
       </c>
     </row>
@@ -40045,7 +40045,7 @@
         <v>932</v>
       </c>
       <c r="G355" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.1778933939479224E-3</v>
       </c>
     </row>
@@ -40069,7 +40069,7 @@
         <v>931</v>
       </c>
       <c r="G356" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-9.2285204298153678E-3</v>
       </c>
     </row>
@@ -40093,7 +40093,7 @@
         <v>930</v>
       </c>
       <c r="G357" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-7.7224329354927956E-3</v>
       </c>
     </row>
@@ -40117,7 +40117,7 @@
         <v>929</v>
       </c>
       <c r="G358" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0700818688498277E-3</v>
       </c>
     </row>
@@ -40141,7 +40141,7 @@
         <v>928</v>
       </c>
       <c r="G359" s="9">
-        <f t="shared" ref="G359:G422" si="3">A359/D359-1</f>
+        <f t="shared" ref="G359:G422" si="6">A359/D359-1</f>
         <v>1.428130673294592E-2</v>
       </c>
     </row>
@@ -40165,7 +40165,7 @@
         <v>927</v>
       </c>
       <c r="G360" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.5494357625887485E-2</v>
       </c>
     </row>
@@ -40189,7 +40189,7 @@
         <v>926</v>
       </c>
       <c r="G361" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-4.998031158896854E-3</v>
       </c>
     </row>
@@ -40213,7 +40213,7 @@
         <v>925</v>
       </c>
       <c r="G362" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.2086196004512679E-3</v>
       </c>
     </row>
@@ -40237,7 +40237,7 @@
         <v>924</v>
       </c>
       <c r="G363" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.8932521523222832E-4</v>
       </c>
     </row>
@@ -40261,7 +40261,7 @@
         <v>923</v>
       </c>
       <c r="G364" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.2737370116072686E-2</v>
       </c>
     </row>
@@ -40285,7 +40285,7 @@
         <v>922</v>
       </c>
       <c r="G365" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.7623140176029679E-4</v>
       </c>
     </row>
@@ -40309,7 +40309,7 @@
         <v>921</v>
       </c>
       <c r="G366" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.4986196725030911E-3</v>
       </c>
     </row>
@@ -40333,7 +40333,7 @@
         <v>920</v>
       </c>
       <c r="G367" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3773280735407623E-2</v>
       </c>
     </row>
@@ -40357,7 +40357,7 @@
         <v>919</v>
       </c>
       <c r="G368" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2.9450797457842737E-2</v>
       </c>
     </row>
@@ -40381,7 +40381,7 @@
         <v>918</v>
       </c>
       <c r="G369" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.8452878470915941E-3</v>
       </c>
     </row>
@@ -40405,7 +40405,7 @@
         <v>917</v>
       </c>
       <c r="G370" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.4726020069368868E-3</v>
       </c>
     </row>
@@ -40429,7 +40429,7 @@
         <v>916</v>
       </c>
       <c r="G371" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.3910913995418568E-3</v>
       </c>
     </row>
@@ -40453,7 +40453,7 @@
         <v>915</v>
       </c>
       <c r="G372" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.6488927915695513E-4</v>
       </c>
     </row>
@@ -40477,7 +40477,7 @@
         <v>914</v>
       </c>
       <c r="G373" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.4235558527179215E-3</v>
       </c>
     </row>
@@ -40501,7 +40501,7 @@
         <v>913</v>
       </c>
       <c r="G374" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.035758031835206E-3</v>
       </c>
     </row>
@@ -40525,7 +40525,7 @@
         <v>912</v>
       </c>
       <c r="G375" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5.9282031741284547E-3</v>
       </c>
     </row>
@@ -40549,7 +40549,7 @@
         <v>911</v>
       </c>
       <c r="G376" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.3093209437929927E-3</v>
       </c>
     </row>
@@ -40573,7 +40573,7 @@
         <v>910</v>
       </c>
       <c r="G377" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.3774890798895933E-2</v>
       </c>
     </row>
@@ -40597,7 +40597,7 @@
         <v>909</v>
       </c>
       <c r="G378" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2.1994758344072718E-3</v>
       </c>
     </row>
@@ -40621,7 +40621,7 @@
         <v>908</v>
       </c>
       <c r="G379" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2.4313909602160511E-3</v>
       </c>
     </row>
@@ -40645,7 +40645,7 @@
         <v>907</v>
       </c>
       <c r="G380" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.9491616476951013E-3</v>
       </c>
     </row>
@@ -40669,7 +40669,7 @@
         <v>906</v>
       </c>
       <c r="G381" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-7.9475674384943407E-4</v>
       </c>
     </row>
@@ -40693,7 +40693,7 @@
         <v>905</v>
       </c>
       <c r="G382" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.1284933233901784E-2</v>
       </c>
     </row>
@@ -40717,7 +40717,7 @@
         <v>904</v>
       </c>
       <c r="G383" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.8645532319364611E-3</v>
       </c>
     </row>
@@ -40741,7 +40741,7 @@
         <v>903</v>
       </c>
       <c r="G384" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.9503667917570744E-2</v>
       </c>
     </row>
@@ -40765,7 +40765,7 @@
         <v>902</v>
       </c>
       <c r="G385" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.063774703493725E-2</v>
       </c>
     </row>
@@ -40789,7 +40789,7 @@
         <v>901</v>
       </c>
       <c r="G386" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.3415140074403169E-3</v>
       </c>
     </row>
@@ -40813,7 +40813,7 @@
         <v>900</v>
       </c>
       <c r="G387" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.9580358907740365E-3</v>
       </c>
     </row>
@@ -40837,7 +40837,7 @@
         <v>899</v>
       </c>
       <c r="G388" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.4016661053734047E-3</v>
       </c>
     </row>
@@ -40861,7 +40861,7 @@
         <v>898</v>
       </c>
       <c r="G389" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-4.7977463031083634E-3</v>
       </c>
     </row>
@@ -40885,7 +40885,7 @@
         <v>897</v>
       </c>
       <c r="G390" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-4.3688934553912651E-3</v>
       </c>
     </row>
@@ -40909,7 +40909,7 @@
         <v>896</v>
       </c>
       <c r="G391" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.2992104980845696E-4</v>
       </c>
     </row>
@@ -40933,7 +40933,7 @@
         <v>895</v>
       </c>
       <c r="G392" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.4006891217376305E-3</v>
       </c>
     </row>
@@ -40957,7 +40957,7 @@
         <v>894</v>
       </c>
       <c r="G393" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9.2080167543489022E-3</v>
       </c>
     </row>
@@ -40981,7 +40981,7 @@
         <v>893</v>
       </c>
       <c r="G394" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1666530920113605E-2</v>
       </c>
     </row>
@@ -41005,7 +41005,7 @@
         <v>892</v>
       </c>
       <c r="G395" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.8495100988614794E-3</v>
       </c>
     </row>
@@ -41029,7 +41029,7 @@
         <v>891</v>
       </c>
       <c r="G396" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.9440558026561092E-5</v>
       </c>
     </row>
@@ -41053,7 +41053,7 @@
         <v>890</v>
       </c>
       <c r="G397" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6739759863877435E-3</v>
       </c>
     </row>
@@ -41077,7 +41077,7 @@
         <v>889</v>
       </c>
       <c r="G398" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5.8976907725161176E-5</v>
       </c>
     </row>
@@ -41101,7 +41101,7 @@
         <v>888</v>
       </c>
       <c r="G399" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3217112193028235E-2</v>
       </c>
     </row>
@@ -41125,7 +41125,7 @@
         <v>887</v>
       </c>
       <c r="G400" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.8544882702838983E-3</v>
       </c>
     </row>
@@ -41149,7 +41149,7 @@
         <v>886</v>
       </c>
       <c r="G401" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4666404606720862E-2</v>
       </c>
     </row>
@@ -41173,7 +41173,7 @@
         <v>885</v>
       </c>
       <c r="G402" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.3948995968923517E-2</v>
       </c>
     </row>
@@ -41197,7 +41197,7 @@
         <v>884</v>
       </c>
       <c r="G403" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.5462098428509243E-3</v>
       </c>
     </row>
@@ -41221,7 +41221,7 @@
         <v>883</v>
       </c>
       <c r="G404" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.8453594074349127E-4</v>
       </c>
     </row>
@@ -41245,7 +41245,7 @@
         <v>882</v>
       </c>
       <c r="G405" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.558448289057468E-2</v>
       </c>
     </row>
@@ -41269,7 +41269,7 @@
         <v>881</v>
       </c>
       <c r="G406" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.3919072096845184E-4</v>
       </c>
     </row>
@@ -41293,7 +41293,7 @@
         <v>880</v>
       </c>
       <c r="G407" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.9639759921010782E-3</v>
       </c>
     </row>
@@ -41317,7 +41317,7 @@
         <v>879</v>
       </c>
       <c r="G408" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.8655461560329156E-2</v>
       </c>
     </row>
@@ -41341,7 +41341,7 @@
         <v>878</v>
       </c>
       <c r="G409" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.4773111933846828E-4</v>
       </c>
     </row>
@@ -41365,7 +41365,7 @@
         <v>877</v>
       </c>
       <c r="G410" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2.0403028347964036E-2</v>
       </c>
     </row>
@@ -41389,7 +41389,7 @@
         <v>876</v>
       </c>
       <c r="G411" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.6768440948752312E-3</v>
       </c>
     </row>
@@ -41413,7 +41413,7 @@
         <v>875</v>
       </c>
       <c r="G412" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3617078467726973E-3</v>
       </c>
     </row>
@@ -41437,7 +41437,7 @@
         <v>874</v>
       </c>
       <c r="G413" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-8.0137063353794558E-3</v>
       </c>
     </row>
@@ -41461,7 +41461,7 @@
         <v>873</v>
       </c>
       <c r="G414" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2838011890102807E-2</v>
       </c>
     </row>
@@ -41485,7 +41485,7 @@
         <v>872</v>
       </c>
       <c r="G415" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.453216570824456E-2</v>
       </c>
     </row>
@@ -41509,7 +41509,7 @@
         <v>871</v>
       </c>
       <c r="G416" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.0864926846926348E-4</v>
       </c>
     </row>
@@ -41533,7 +41533,7 @@
         <v>870</v>
       </c>
       <c r="G417" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.5225414456430109E-2</v>
       </c>
     </row>
@@ -41557,7 +41557,7 @@
         <v>869</v>
       </c>
       <c r="G418" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.6367651476943301E-2</v>
       </c>
     </row>
@@ -41581,7 +41581,7 @@
         <v>868</v>
       </c>
       <c r="G419" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.4057017556969882E-3</v>
       </c>
     </row>
@@ -41605,7 +41605,7 @@
         <v>867</v>
       </c>
       <c r="G420" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2549912712124245E-2</v>
       </c>
     </row>
@@ -41629,7 +41629,7 @@
         <v>866</v>
       </c>
       <c r="G421" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2528634297566121E-3</v>
       </c>
     </row>
@@ -41653,7 +41653,7 @@
         <v>865</v>
       </c>
       <c r="G422" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.9006717088909681E-3</v>
       </c>
     </row>
@@ -41677,7 +41677,7 @@
         <v>864</v>
       </c>
       <c r="G423" s="9">
-        <f t="shared" ref="G423:G486" si="4">A423/D423-1</f>
+        <f t="shared" ref="G423:G486" si="7">A423/D423-1</f>
         <v>4.6826028480917437E-3</v>
       </c>
     </row>
@@ -41701,7 +41701,7 @@
         <v>863</v>
       </c>
       <c r="G424" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.9357682619647321E-2</v>
       </c>
     </row>
@@ -41725,7 +41725,7 @@
         <v>862</v>
       </c>
       <c r="G425" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-9.1466879288626401E-5</v>
       </c>
     </row>
@@ -41749,7 +41749,7 @@
         <v>861</v>
       </c>
       <c r="G426" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.4982593724454207E-2</v>
       </c>
     </row>
@@ -41773,7 +41773,7 @@
         <v>860</v>
       </c>
       <c r="G427" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.5649334171393812E-2</v>
       </c>
     </row>
@@ -41797,7 +41797,7 @@
         <v>859</v>
       </c>
       <c r="G428" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-7.6191969307418672E-3</v>
       </c>
     </row>
@@ -41821,7 +41821,7 @@
         <v>858</v>
       </c>
       <c r="G429" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.0201035635432509E-2</v>
       </c>
     </row>
@@ -41845,7 +41845,7 @@
         <v>857</v>
       </c>
       <c r="G430" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.9260287062626724E-2</v>
       </c>
     </row>
@@ -41869,7 +41869,7 @@
         <v>856</v>
       </c>
       <c r="G431" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.478819514449393E-3</v>
       </c>
     </row>
@@ -41893,7 +41893,7 @@
         <v>855</v>
       </c>
       <c r="G432" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8.2197078747558994E-3</v>
       </c>
     </row>
@@ -41917,7 +41917,7 @@
         <v>854</v>
       </c>
       <c r="G433" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.240514344162392E-3</v>
       </c>
     </row>
@@ -41941,7 +41941,7 @@
         <v>853</v>
       </c>
       <c r="G434" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5.6942746526023047E-4</v>
       </c>
     </row>
@@ -41965,7 +41965,7 @@
         <v>852</v>
       </c>
       <c r="G435" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.0259220104980047E-3</v>
       </c>
     </row>
@@ -41989,7 +41989,7 @@
         <v>851</v>
       </c>
       <c r="G436" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.2890004095138572E-3</v>
       </c>
     </row>
@@ -42013,7 +42013,7 @@
         <v>850</v>
       </c>
       <c r="G437" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.9337595057562273E-2</v>
       </c>
     </row>
@@ -42037,7 +42037,7 @@
         <v>849</v>
       </c>
       <c r="G438" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.9896952528661878E-4</v>
       </c>
     </row>
@@ -42061,7 +42061,7 @@
         <v>848</v>
       </c>
       <c r="G439" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8.260125335720736E-3</v>
       </c>
     </row>
@@ -42085,7 +42085,7 @@
         <v>847</v>
       </c>
       <c r="G440" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.610147979232095E-3</v>
       </c>
     </row>
@@ -42109,7 +42109,7 @@
         <v>846</v>
       </c>
       <c r="G441" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.7026297718630863E-3</v>
       </c>
     </row>
@@ -42133,7 +42133,7 @@
         <v>845</v>
       </c>
       <c r="G442" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.9091348823979892E-2</v>
       </c>
     </row>
@@ -42157,7 +42157,7 @@
         <v>844</v>
       </c>
       <c r="G443" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.2496941596960029E-3</v>
       </c>
     </row>
@@ -42181,7 +42181,7 @@
         <v>843</v>
       </c>
       <c r="G444" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.2846742375605169E-3</v>
       </c>
     </row>
@@ -42205,7 +42205,7 @@
         <v>842</v>
       </c>
       <c r="G445" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.2351488825544941E-3</v>
       </c>
     </row>
@@ -42229,7 +42229,7 @@
         <v>841</v>
       </c>
       <c r="G446" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.2711607686863857E-3</v>
       </c>
     </row>
@@ -42253,7 +42253,7 @@
         <v>840</v>
       </c>
       <c r="G447" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.0422786776849269E-2</v>
       </c>
     </row>
@@ -42277,7 +42277,7 @@
         <v>839</v>
       </c>
       <c r="G448" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.4657360561602975E-3</v>
       </c>
     </row>
@@ -42301,7 +42301,7 @@
         <v>838</v>
       </c>
       <c r="G449" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.6944028701404434E-4</v>
       </c>
     </row>
@@ -42325,7 +42325,7 @@
         <v>837</v>
       </c>
       <c r="G450" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.226146269521335E-3</v>
       </c>
     </row>
@@ -42349,7 +42349,7 @@
         <v>836</v>
       </c>
       <c r="G451" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.5799554990302287E-3</v>
       </c>
     </row>
@@ -42373,7 +42373,7 @@
         <v>835</v>
       </c>
       <c r="G452" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-7.6189442163446808E-3</v>
       </c>
     </row>
@@ -42397,7 +42397,7 @@
         <v>834</v>
       </c>
       <c r="G453" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.0660375047777464E-3</v>
       </c>
     </row>
@@ -42421,7 +42421,7 @@
         <v>833</v>
       </c>
       <c r="G454" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.3711587198661546E-3</v>
       </c>
     </row>
@@ -42445,7 +42445,7 @@
         <v>832</v>
       </c>
       <c r="G455" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.1000429412612043E-3</v>
       </c>
     </row>
@@ -42469,7 +42469,7 @@
         <v>831</v>
       </c>
       <c r="G456" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.4739817163841344E-4</v>
       </c>
     </row>
@@ -42493,7 +42493,7 @@
         <v>830</v>
       </c>
       <c r="G457" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.6658587592994802E-3</v>
       </c>
     </row>
@@ -42517,7 +42517,7 @@
         <v>829</v>
       </c>
       <c r="G458" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.2940751125713912E-2</v>
       </c>
     </row>
@@ -42541,7 +42541,7 @@
         <v>828</v>
       </c>
       <c r="G459" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.0738200760299694E-3</v>
       </c>
     </row>
@@ -42565,7 +42565,7 @@
         <v>827</v>
       </c>
       <c r="G460" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2613851486159344E-2</v>
       </c>
     </row>
@@ -42589,7 +42589,7 @@
         <v>826</v>
       </c>
       <c r="G461" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-9.4214563830288256E-3</v>
       </c>
     </row>
@@ -42613,7 +42613,7 @@
         <v>825</v>
       </c>
       <c r="G462" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.4028659355620512E-4</v>
       </c>
     </row>
@@ -42637,7 +42637,7 @@
         <v>824</v>
       </c>
       <c r="G463" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5332084100906371E-3</v>
       </c>
     </row>
@@ -42661,7 +42661,7 @@
         <v>823</v>
       </c>
       <c r="G464" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8.1328677738601307E-3</v>
       </c>
     </row>
@@ -42685,7 +42685,7 @@
         <v>822</v>
       </c>
       <c r="G465" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.043934013158168E-3</v>
       </c>
     </row>
@@ -42709,7 +42709,7 @@
         <v>821</v>
       </c>
       <c r="G466" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.9999557805640062E-3</v>
       </c>
     </row>
@@ -42733,7 +42733,7 @@
         <v>820</v>
       </c>
       <c r="G467" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.8120708231034195E-3</v>
       </c>
     </row>
@@ -42757,7 +42757,7 @@
         <v>819</v>
       </c>
       <c r="G468" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.0321491775681424E-2</v>
       </c>
     </row>
@@ -42781,7 +42781,7 @@
         <v>818</v>
       </c>
       <c r="G469" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.0009960778890603E-3</v>
       </c>
     </row>
@@ -42805,7 +42805,7 @@
         <v>817</v>
       </c>
       <c r="G470" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.5229029122129134E-3</v>
       </c>
     </row>
@@ -42829,7 +42829,7 @@
         <v>816</v>
       </c>
       <c r="G471" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.3821308913806849E-2</v>
       </c>
     </row>
@@ -42853,7 +42853,7 @@
         <v>815</v>
       </c>
       <c r="G472" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.9433025878744523E-4</v>
       </c>
     </row>
@@ -42877,7 +42877,7 @@
         <v>814</v>
       </c>
       <c r="G473" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-7.6803256472200987E-3</v>
       </c>
     </row>
@@ -42901,7 +42901,7 @@
         <v>813</v>
       </c>
       <c r="G474" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.1483628263502315E-3</v>
       </c>
     </row>
@@ -42925,7 +42925,7 @@
         <v>812</v>
       </c>
       <c r="G475" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4.9601027468940684E-3</v>
       </c>
     </row>
@@ -42949,7 +42949,7 @@
         <v>811</v>
       </c>
       <c r="G476" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.8109381841930929E-3</v>
       </c>
     </row>
@@ -42973,7 +42973,7 @@
         <v>810</v>
       </c>
       <c r="G477" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.3701180368727917E-2</v>
       </c>
     </row>
@@ -42997,7 +42997,7 @@
         <v>809</v>
       </c>
       <c r="G478" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3434241779133327E-3</v>
       </c>
     </row>
@@ -43021,7 +43021,7 @@
         <v>808</v>
       </c>
       <c r="G479" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0791638794498422E-3</v>
       </c>
     </row>
@@ -43045,7 +43045,7 @@
         <v>807</v>
       </c>
       <c r="G480" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4870235864911097E-2</v>
       </c>
     </row>
@@ -43069,7 +43069,7 @@
         <v>806</v>
       </c>
       <c r="G481" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.0383218556053064E-2</v>
       </c>
     </row>
@@ -43093,7 +43093,7 @@
         <v>805</v>
       </c>
       <c r="G482" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.7279760731671061E-3</v>
       </c>
     </row>
@@ -43117,7 +43117,7 @@
         <v>804</v>
       </c>
       <c r="G483" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2099995377456763E-2</v>
       </c>
     </row>
@@ -43141,7 +43141,7 @@
         <v>803</v>
       </c>
       <c r="G484" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.0334903276536567E-3</v>
       </c>
     </row>
@@ -43165,7 +43165,7 @@
         <v>802</v>
       </c>
       <c r="G485" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.1886706554604736E-3</v>
       </c>
     </row>
@@ -43189,7 +43189,7 @@
         <v>801</v>
       </c>
       <c r="G486" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.3685275935985564E-2</v>
       </c>
     </row>
@@ -43213,7 +43213,7 @@
         <v>800</v>
       </c>
       <c r="G487" s="9">
-        <f t="shared" ref="G487:G550" si="5">A487/D487-1</f>
+        <f t="shared" ref="G487:G550" si="8">A487/D487-1</f>
         <v>-5.7961508687299768E-3</v>
       </c>
     </row>
@@ -43237,7 +43237,7 @@
         <v>799</v>
       </c>
       <c r="G488" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.104897217415346E-2</v>
       </c>
     </row>
@@ -43261,7 +43261,7 @@
         <v>798</v>
       </c>
       <c r="G489" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-9.5351042729396873E-5</v>
       </c>
     </row>
@@ -43285,7 +43285,7 @@
         <v>797</v>
       </c>
       <c r="G490" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3.5776760190339152E-3</v>
       </c>
     </row>
@@ -43309,7 +43309,7 @@
         <v>796</v>
       </c>
       <c r="G491" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.8452529099325385E-3</v>
       </c>
     </row>
@@ -43333,7 +43333,7 @@
         <v>795</v>
       </c>
       <c r="G492" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0871354660457966E-2</v>
       </c>
     </row>
@@ -43357,7 +43357,7 @@
         <v>794</v>
       </c>
       <c r="G493" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.2742914022129135E-3</v>
       </c>
     </row>
@@ -43381,7 +43381,7 @@
         <v>793</v>
       </c>
       <c r="G494" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6285090826017043E-3</v>
       </c>
     </row>
@@ -43405,7 +43405,7 @@
         <v>792</v>
       </c>
       <c r="G495" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.1146135625397307E-3</v>
       </c>
     </row>
@@ -43429,7 +43429,7 @@
         <v>791</v>
       </c>
       <c r="G496" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2520661743199435E-2</v>
       </c>
     </row>
@@ -43453,7 +43453,7 @@
         <v>790</v>
       </c>
       <c r="G497" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0033817302101955E-2</v>
       </c>
     </row>
@@ -43477,7 +43477,7 @@
         <v>789</v>
       </c>
       <c r="G498" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-7.2940829251407768E-3</v>
       </c>
     </row>
@@ -43501,7 +43501,7 @@
         <v>788</v>
       </c>
       <c r="G499" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5087550789655513E-2</v>
       </c>
     </row>
@@ -43525,7 +43525,7 @@
         <v>787</v>
       </c>
       <c r="G500" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3.8296299749879248E-3</v>
       </c>
     </row>
@@ -43549,7 +43549,7 @@
         <v>786</v>
       </c>
       <c r="G501" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-4.6036662777028114E-3</v>
       </c>
     </row>
@@ -43573,7 +43573,7 @@
         <v>785</v>
       </c>
       <c r="G502" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-5.0069668753527363E-4</v>
       </c>
     </row>
@@ -43597,7 +43597,7 @@
         <v>784</v>
       </c>
       <c r="G503" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.1556249230163562E-3</v>
       </c>
     </row>
@@ -43621,7 +43621,7 @@
         <v>783</v>
       </c>
       <c r="G504" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.7014975538690642E-4</v>
       </c>
     </row>
@@ -43645,7 +43645,7 @@
         <v>782</v>
       </c>
       <c r="G505" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.2599610390807765E-3</v>
       </c>
     </row>
@@ -43669,7 +43669,7 @@
         <v>781</v>
       </c>
       <c r="G506" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-4.0315860968564987E-4</v>
       </c>
     </row>
@@ -43693,7 +43693,7 @@
         <v>780</v>
       </c>
       <c r="G507" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.3121302179623937E-2</v>
       </c>
     </row>
@@ -43717,7 +43717,7 @@
         <v>779</v>
       </c>
       <c r="G508" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.3481368675608674E-2</v>
       </c>
     </row>
@@ -43741,7 +43741,7 @@
         <v>778</v>
       </c>
       <c r="G509" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.160661989676905E-3</v>
       </c>
     </row>
@@ -43765,7 +43765,7 @@
         <v>777</v>
       </c>
       <c r="G510" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.7463490787194011E-4</v>
       </c>
     </row>
@@ -43789,7 +43789,7 @@
         <v>776</v>
       </c>
       <c r="G511" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3872575878829174E-2</v>
       </c>
     </row>
@@ -43813,7 +43813,7 @@
         <v>775</v>
       </c>
       <c r="G512" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-6.3546177239320878E-3</v>
       </c>
     </row>
@@ -43837,7 +43837,7 @@
         <v>774</v>
       </c>
       <c r="G513" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1109385831900243E-2</v>
       </c>
     </row>
@@ -43861,7 +43861,7 @@
         <v>773</v>
       </c>
       <c r="G514" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8710058269253427E-3</v>
       </c>
     </row>
@@ -43885,7 +43885,7 @@
         <v>772</v>
       </c>
       <c r="G515" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7500626896538307E-2</v>
       </c>
     </row>
@@ -43909,7 +43909,7 @@
         <v>771</v>
       </c>
       <c r="G516" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.6521015933693768E-4</v>
       </c>
     </row>
@@ -43933,7 +43933,7 @@
         <v>770</v>
       </c>
       <c r="G517" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.0778512854160436E-3</v>
       </c>
     </row>
@@ -43957,7 +43957,7 @@
         <v>769</v>
       </c>
       <c r="G518" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.2181883550785422E-2</v>
       </c>
     </row>
@@ -43981,7 +43981,7 @@
         <v>768</v>
       </c>
       <c r="G519" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-7.5669882549445067E-4</v>
       </c>
     </row>
@@ -44005,7 +44005,7 @@
         <v>767</v>
       </c>
       <c r="G520" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.6263087321973013E-2</v>
       </c>
     </row>
@@ -44029,7 +44029,7 @@
         <v>766</v>
       </c>
       <c r="G521" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.3509256364242521E-3</v>
       </c>
     </row>
@@ -44053,7 +44053,7 @@
         <v>765</v>
       </c>
       <c r="G522" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.2054797637406409E-3</v>
       </c>
     </row>
@@ -44077,7 +44077,7 @@
         <v>764</v>
       </c>
       <c r="G523" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2585221058991625E-3</v>
       </c>
     </row>
@@ -44101,7 +44101,7 @@
         <v>763</v>
       </c>
       <c r="G524" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-2.1524679217820308E-3</v>
       </c>
     </row>
@@ -44125,7 +44125,7 @@
         <v>762</v>
       </c>
       <c r="G525" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.584969100288049E-3</v>
       </c>
     </row>
@@ -44149,7 +44149,7 @@
         <v>761</v>
       </c>
       <c r="G526" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3.2247013639391531E-3</v>
       </c>
     </row>
@@ -44173,7 +44173,7 @@
         <v>760</v>
       </c>
       <c r="G527" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-5.2435945077106139E-3</v>
       </c>
     </row>
@@ -44197,7 +44197,7 @@
         <v>759</v>
       </c>
       <c r="G528" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.7594877610712718E-3</v>
       </c>
     </row>
@@ -44221,7 +44221,7 @@
         <v>758</v>
       </c>
       <c r="G529" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.2963178571491252E-3</v>
       </c>
     </row>
@@ -44245,7 +44245,7 @@
         <v>757</v>
       </c>
       <c r="G530" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-6.100297831284851E-3</v>
       </c>
     </row>
@@ -44269,7 +44269,7 @@
         <v>756</v>
       </c>
       <c r="G531" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5068593880719803E-2</v>
       </c>
     </row>
@@ -44293,7 +44293,7 @@
         <v>755</v>
       </c>
       <c r="G532" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.1555423599015633E-3</v>
       </c>
     </row>
@@ -44317,7 +44317,7 @@
         <v>754</v>
       </c>
       <c r="G533" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.0799919317874496E-2</v>
       </c>
     </row>
@@ -44341,7 +44341,7 @@
         <v>753</v>
       </c>
       <c r="G534" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5237241345042341E-2</v>
       </c>
     </row>
@@ -44365,7 +44365,7 @@
         <v>752</v>
       </c>
       <c r="G535" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.2148062579597827E-3</v>
       </c>
     </row>
@@ -44389,7 +44389,7 @@
         <v>751</v>
       </c>
       <c r="G536" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-2.0222278482870393E-2</v>
       </c>
     </row>
@@ -44413,7 +44413,7 @@
         <v>750</v>
       </c>
       <c r="G537" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.2790057433002433E-2</v>
       </c>
     </row>
@@ -44437,7 +44437,7 @@
         <v>749</v>
       </c>
       <c r="G538" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3.6593221765285344E-3</v>
       </c>
     </row>
@@ -44461,7 +44461,7 @@
         <v>748</v>
       </c>
       <c r="G539" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.6759273451586516E-4</v>
       </c>
     </row>
@@ -44485,7 +44485,7 @@
         <v>747</v>
       </c>
       <c r="G540" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.8157712124983227E-3</v>
       </c>
     </row>
@@ -44509,7 +44509,7 @@
         <v>746</v>
       </c>
       <c r="G541" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.1739875372003059E-2</v>
       </c>
     </row>
@@ -44533,7 +44533,7 @@
         <v>745</v>
       </c>
       <c r="G542" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8414101391852622E-3</v>
       </c>
     </row>
@@ -44557,7 +44557,7 @@
         <v>744</v>
       </c>
       <c r="G543" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7892893275340827E-2</v>
       </c>
     </row>
@@ -44581,7 +44581,7 @@
         <v>743</v>
       </c>
       <c r="G544" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.3693832143704121E-3</v>
       </c>
     </row>
@@ -44605,7 +44605,7 @@
         <v>742</v>
       </c>
       <c r="G545" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.4400404437184839E-4</v>
       </c>
     </row>
@@ -44629,7 +44629,7 @@
         <v>741</v>
       </c>
       <c r="G546" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0038497149261749E-2</v>
       </c>
     </row>
@@ -44653,7 +44653,7 @@
         <v>740</v>
       </c>
       <c r="G547" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.8749061163899405E-2</v>
       </c>
     </row>
@@ -44677,7 +44677,7 @@
         <v>739</v>
       </c>
       <c r="G548" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.3864315477689662E-3</v>
       </c>
     </row>
@@ -44701,7 +44701,7 @@
         <v>738</v>
       </c>
       <c r="G549" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.1179984779299934E-2</v>
       </c>
     </row>
@@ -44725,7 +44725,7 @@
         <v>737</v>
       </c>
       <c r="G550" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.1533214972350159E-2</v>
       </c>
     </row>
@@ -44749,7 +44749,7 @@
         <v>736</v>
       </c>
       <c r="G551" s="9">
-        <f t="shared" ref="G551:G614" si="6">A551/D551-1</f>
+        <f t="shared" ref="G551:G614" si="9">A551/D551-1</f>
         <v>-6.2935613499257581E-3</v>
       </c>
     </row>
@@ -44773,7 +44773,7 @@
         <v>735</v>
       </c>
       <c r="G552" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.3309524721514272E-4</v>
       </c>
     </row>
@@ -44797,7 +44797,7 @@
         <v>734</v>
       </c>
       <c r="G553" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.4662747845344279E-2</v>
       </c>
     </row>
@@ -44821,7 +44821,7 @@
         <v>733</v>
       </c>
       <c r="G554" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.323679404575806E-2</v>
       </c>
     </row>
@@ -44845,7 +44845,7 @@
         <v>732</v>
       </c>
       <c r="G555" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.1520252123069081E-2</v>
       </c>
     </row>
@@ -44869,7 +44869,7 @@
         <v>731</v>
       </c>
       <c r="G556" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.5639957534063784E-2</v>
       </c>
     </row>
@@ -44893,7 +44893,7 @@
         <v>730</v>
       </c>
       <c r="G557" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-4.040609699409492E-2</v>
       </c>
     </row>
@@ -44917,7 +44917,7 @@
         <v>729</v>
       </c>
       <c r="G558" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.8134933994390154E-2</v>
       </c>
     </row>
@@ -44941,7 +44941,7 @@
         <v>728</v>
       </c>
       <c r="G559" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0300167419008632E-2</v>
       </c>
     </row>
@@ -44965,7 +44965,7 @@
         <v>727</v>
       </c>
       <c r="G560" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.0712925908602582E-3</v>
       </c>
     </row>
@@ -44989,7 +44989,7 @@
         <v>726</v>
       </c>
       <c r="G561" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-6.8629804171879139E-3</v>
       </c>
     </row>
@@ -45013,7 +45013,7 @@
         <v>725</v>
       </c>
       <c r="G562" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.8468390701972268E-3</v>
       </c>
     </row>
@@ -45037,7 +45037,7 @@
         <v>724</v>
       </c>
       <c r="G563" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.3039283101382702E-2</v>
       </c>
     </row>
@@ -45061,7 +45061,7 @@
         <v>723</v>
       </c>
       <c r="G564" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.9158693056652361E-3</v>
       </c>
     </row>
@@ -45085,7 +45085,7 @@
         <v>722</v>
       </c>
       <c r="G565" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-7.0129065047767059E-3</v>
       </c>
     </row>
@@ -45109,7 +45109,7 @@
         <v>721</v>
       </c>
       <c r="G566" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.5736301369862824E-2</v>
       </c>
     </row>
@@ -45133,7 +45133,7 @@
         <v>720</v>
       </c>
       <c r="G567" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.7226089054698588E-2</v>
       </c>
     </row>
@@ -45157,7 +45157,7 @@
         <v>719</v>
       </c>
       <c r="G568" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3.933289040342336E-2</v>
       </c>
     </row>
@@ -45181,7 +45181,7 @@
         <v>718</v>
       </c>
       <c r="G569" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.9172179222796188E-3</v>
       </c>
     </row>
@@ -45205,7 +45205,7 @@
         <v>717</v>
       </c>
       <c r="G570" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.2146799512580166E-3</v>
       </c>
     </row>
@@ -45229,7 +45229,7 @@
         <v>716</v>
       </c>
       <c r="G571" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.0436699533099669E-2</v>
       </c>
     </row>
@@ -45253,7 +45253,7 @@
         <v>715</v>
       </c>
       <c r="G572" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.1501939583097207E-2</v>
       </c>
     </row>
@@ -45277,7 +45277,7 @@
         <v>714</v>
       </c>
       <c r="G573" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7.1563083291104057E-4</v>
       </c>
     </row>
@@ -45301,7 +45301,7 @@
         <v>713</v>
       </c>
       <c r="G574" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.838603476662982E-3</v>
       </c>
     </row>
@@ -45325,7 +45325,7 @@
         <v>712</v>
       </c>
       <c r="G575" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-7.5591841294369022E-3</v>
       </c>
     </row>
@@ -45349,7 +45349,7 @@
         <v>711</v>
       </c>
       <c r="G576" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.2420031680870469E-2</v>
       </c>
     </row>
@@ -45373,7 +45373,7 @@
         <v>710</v>
       </c>
       <c r="G577" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2497917417868321E-2</v>
       </c>
     </row>
@@ -45397,7 +45397,7 @@
         <v>709</v>
       </c>
       <c r="G578" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.6908997529765268E-2</v>
       </c>
     </row>
@@ -45421,7 +45421,7 @@
         <v>708</v>
       </c>
       <c r="G579" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.8410508729761919E-2</v>
       </c>
     </row>
@@ -45445,7 +45445,7 @@
         <v>707</v>
       </c>
       <c r="G580" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.2315808932216203E-3</v>
       </c>
     </row>
@@ -45469,7 +45469,7 @@
         <v>706</v>
       </c>
       <c r="G581" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3.3793310502826523E-3</v>
       </c>
     </row>
@@ -45493,7 +45493,7 @@
         <v>705</v>
       </c>
       <c r="G582" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.6388426710694031E-3</v>
       </c>
     </row>
@@ -45517,7 +45517,7 @@
         <v>704</v>
       </c>
       <c r="G583" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.1941595774631053E-2</v>
       </c>
     </row>
@@ -45541,7 +45541,7 @@
         <v>703</v>
       </c>
       <c r="G584" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3.5729835695489376E-3</v>
       </c>
     </row>
@@ -45565,7 +45565,7 @@
         <v>702</v>
       </c>
       <c r="G585" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.3018178007386583E-2</v>
       </c>
     </row>
@@ -45589,7 +45589,7 @@
         <v>701</v>
       </c>
       <c r="G586" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.2863194539403136E-3</v>
       </c>
     </row>
@@ -45613,7 +45613,7 @@
         <v>700</v>
       </c>
       <c r="G587" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.4551332793427472E-2</v>
       </c>
     </row>
@@ -45637,7 +45637,7 @@
         <v>699</v>
       </c>
       <c r="G588" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-7.8783097022717685E-3</v>
       </c>
     </row>
@@ -45661,7 +45661,7 @@
         <v>698</v>
       </c>
       <c r="G589" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3076770032244722E-2</v>
       </c>
     </row>
@@ -45685,7 +45685,7 @@
         <v>697</v>
       </c>
       <c r="G590" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-7.2969817281894889E-3</v>
       </c>
     </row>
@@ -45709,7 +45709,7 @@
         <v>696</v>
       </c>
       <c r="G591" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.9985888993413479E-3</v>
       </c>
     </row>
@@ -45733,7 +45733,7 @@
         <v>695</v>
       </c>
       <c r="G592" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3.6182402134876668E-5</v>
       </c>
     </row>
@@ -45757,7 +45757,7 @@
         <v>694</v>
       </c>
       <c r="G593" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-8.435266159591559E-3</v>
       </c>
     </row>
@@ -45781,7 +45781,7 @@
         <v>693</v>
       </c>
       <c r="G594" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0085952243217289E-3</v>
       </c>
     </row>
@@ -45805,7 +45805,7 @@
         <v>692</v>
       </c>
       <c r="G595" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.5654494471070035E-2</v>
       </c>
     </row>
@@ -45829,7 +45829,7 @@
         <v>691</v>
       </c>
       <c r="G596" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.2241253151555442E-2</v>
       </c>
     </row>
@@ -45853,7 +45853,7 @@
         <v>690</v>
       </c>
       <c r="G597" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0190258670297325E-3</v>
       </c>
     </row>
@@ -45877,7 +45877,7 @@
         <v>689</v>
       </c>
       <c r="G598" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.8935871304737244E-3</v>
       </c>
     </row>
@@ -45901,7 +45901,7 @@
         <v>688</v>
       </c>
       <c r="G599" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.5106408229982335E-3</v>
       </c>
     </row>
@@ -45925,7 +45925,7 @@
         <v>687</v>
       </c>
       <c r="G600" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-7.7677336317383272E-4</v>
       </c>
     </row>
@@ -45949,7 +45949,7 @@
         <v>686</v>
       </c>
       <c r="G601" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -45973,7 +45973,7 @@
         <v>685</v>
       </c>
       <c r="G602" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-9.3686719262467966E-3</v>
       </c>
     </row>
@@ -45997,7 +45997,7 @@
         <v>684</v>
       </c>
       <c r="G603" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.4561059643868361E-3</v>
       </c>
     </row>
@@ -46021,7 +46021,7 @@
         <v>683</v>
       </c>
       <c r="G604" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.0210710967757386E-3</v>
       </c>
     </row>
@@ -46045,7 +46045,7 @@
         <v>682</v>
       </c>
       <c r="G605" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8.4151884979151159E-3</v>
       </c>
     </row>
@@ -46069,7 +46069,7 @@
         <v>681</v>
       </c>
       <c r="G606" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.269347807004706E-2</v>
       </c>
     </row>
@@ -46093,7 +46093,7 @@
         <v>680</v>
       </c>
       <c r="G607" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.9276707005964075E-3</v>
       </c>
     </row>
@@ -46117,7 +46117,7 @@
         <v>679</v>
       </c>
       <c r="G608" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.0425720290478955E-3</v>
       </c>
     </row>
@@ -46141,7 +46141,7 @@
         <v>678</v>
       </c>
       <c r="G609" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.5728514521535795E-3</v>
       </c>
     </row>
@@ -46165,7 +46165,7 @@
         <v>677</v>
       </c>
       <c r="G610" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.9225463932794349E-2</v>
       </c>
     </row>
@@ -46189,7 +46189,7 @@
         <v>676</v>
       </c>
       <c r="G611" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-3.4010361036020953E-3</v>
       </c>
     </row>
@@ -46213,7 +46213,7 @@
         <v>675</v>
       </c>
       <c r="G612" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4.5579312464327781E-3</v>
       </c>
     </row>
@@ -46237,7 +46237,7 @@
         <v>674</v>
       </c>
       <c r="G613" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-1.424046212872343E-2</v>
       </c>
     </row>
@@ -46261,7 +46261,7 @@
         <v>673</v>
       </c>
       <c r="G614" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-2.0297904430577329E-4</v>
       </c>
     </row>
@@ -46285,7 +46285,7 @@
         <v>672</v>
       </c>
       <c r="G615" s="9">
-        <f t="shared" ref="G615:G678" si="7">A615/D615-1</f>
+        <f t="shared" ref="G615:G678" si="10">A615/D615-1</f>
         <v>1.1836550345585284E-3</v>
       </c>
     </row>
@@ -46309,7 +46309,7 @@
         <v>671</v>
       </c>
       <c r="G616" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-5.1351393143640456E-3</v>
       </c>
     </row>
@@ -46333,7 +46333,7 @@
         <v>670</v>
       </c>
       <c r="G617" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2.2534881684171948E-3</v>
       </c>
     </row>
@@ -46357,7 +46357,7 @@
         <v>669</v>
       </c>
       <c r="G618" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-9.5850072714894763E-3</v>
       </c>
     </row>
@@ -46381,7 +46381,7 @@
         <v>668</v>
       </c>
       <c r="G619" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.3111449958791503E-3</v>
       </c>
     </row>
@@ -46405,7 +46405,7 @@
         <v>667</v>
       </c>
       <c r="G620" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.584292959009419E-3</v>
       </c>
     </row>
@@ -46429,7 +46429,7 @@
         <v>666</v>
       </c>
       <c r="G621" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.6788399625344841E-4</v>
       </c>
     </row>
@@ -46453,7 +46453,7 @@
         <v>665</v>
       </c>
       <c r="G622" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.7798289357046109E-3</v>
       </c>
     </row>
@@ -46477,7 +46477,7 @@
         <v>664</v>
       </c>
       <c r="G623" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.8296379962570235E-4</v>
       </c>
     </row>
@@ -46501,7 +46501,7 @@
         <v>663</v>
       </c>
       <c r="G624" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.3874425430902022E-5</v>
       </c>
     </row>
@@ -46525,7 +46525,7 @@
         <v>662</v>
       </c>
       <c r="G625" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4565392860821369E-3</v>
       </c>
     </row>
@@ -46549,7 +46549,7 @@
         <v>661</v>
       </c>
       <c r="G626" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.2386513374622616E-3</v>
       </c>
     </row>
@@ -46573,7 +46573,7 @@
         <v>660</v>
       </c>
       <c r="G627" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.6306873275906186E-2</v>
       </c>
     </row>
@@ -46597,7 +46597,7 @@
         <v>659</v>
       </c>
       <c r="G628" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.8741365975854016E-4</v>
       </c>
     </row>
@@ -46621,7 +46621,7 @@
         <v>658</v>
       </c>
       <c r="G629" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.6803679022912075E-3</v>
       </c>
     </row>
@@ -46645,7 +46645,7 @@
         <v>657</v>
       </c>
       <c r="G630" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.5586837402952227E-3</v>
       </c>
     </row>
@@ -46669,7 +46669,7 @@
         <v>656</v>
       </c>
       <c r="G631" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.8096214377970625E-3</v>
       </c>
     </row>
@@ -46693,7 +46693,7 @@
         <v>655</v>
       </c>
       <c r="G632" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.44172126773557E-4</v>
       </c>
     </row>
@@ -46717,7 +46717,7 @@
         <v>654</v>
       </c>
       <c r="G633" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.9295027672866514E-3</v>
       </c>
     </row>
@@ -46741,7 +46741,7 @@
         <v>653</v>
       </c>
       <c r="G634" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.0563604525952783E-4</v>
       </c>
     </row>
@@ -46765,7 +46765,7 @@
         <v>652</v>
       </c>
       <c r="G635" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.3042684230755182E-3</v>
       </c>
     </row>
@@ -46789,7 +46789,7 @@
         <v>651</v>
       </c>
       <c r="G636" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7841409998689661E-2</v>
       </c>
     </row>
@@ -46813,7 +46813,7 @@
         <v>650</v>
       </c>
       <c r="G637" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.3142285936595055E-2</v>
       </c>
     </row>
@@ -46837,7 +46837,7 @@
         <v>649</v>
       </c>
       <c r="G638" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.4679703041954362E-3</v>
       </c>
     </row>
@@ -46861,7 +46861,7 @@
         <v>648</v>
       </c>
       <c r="G639" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.2612909841547282E-2</v>
       </c>
     </row>
@@ -46885,7 +46885,7 @@
         <v>647</v>
       </c>
       <c r="G640" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.2142111112890586E-3</v>
       </c>
     </row>
@@ -46909,7 +46909,7 @@
         <v>646</v>
       </c>
       <c r="G641" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2.4983010824275453E-4</v>
       </c>
     </row>
@@ -46933,7 +46933,7 @@
         <v>645</v>
       </c>
       <c r="G642" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3983046008031019E-2</v>
       </c>
     </row>
@@ -46957,7 +46957,7 @@
         <v>644</v>
       </c>
       <c r="G643" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-4.4245969886478331E-3</v>
       </c>
     </row>
@@ -46981,7 +46981,7 @@
         <v>643</v>
       </c>
       <c r="G644" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.9168398631924681E-3</v>
       </c>
     </row>
@@ -47005,7 +47005,7 @@
         <v>642</v>
       </c>
       <c r="G645" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-8.0703797386872944E-3</v>
       </c>
     </row>
@@ -47029,7 +47029,7 @@
         <v>641</v>
       </c>
       <c r="G646" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-7.5339021958013008E-3</v>
       </c>
     </row>
@@ -47053,7 +47053,7 @@
         <v>640</v>
       </c>
       <c r="G647" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2.223097179068545E-3</v>
       </c>
     </row>
@@ -47077,7 +47077,7 @@
         <v>639</v>
       </c>
       <c r="G648" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2429587903943329E-2</v>
       </c>
     </row>
@@ -47101,7 +47101,7 @@
         <v>638</v>
       </c>
       <c r="G649" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.1347409744574053E-2</v>
       </c>
     </row>
@@ -47125,7 +47125,7 @@
         <v>637</v>
       </c>
       <c r="G650" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.8818402975724347E-3</v>
       </c>
     </row>
@@ -47149,7 +47149,7 @@
         <v>636</v>
       </c>
       <c r="G651" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.8676737119510678E-3</v>
       </c>
     </row>
@@ -47173,7 +47173,7 @@
         <v>635</v>
       </c>
       <c r="G652" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2.4168164418203464E-3</v>
       </c>
     </row>
@@ -47197,7 +47197,7 @@
         <v>634</v>
       </c>
       <c r="G653" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.6116893230716522E-3</v>
       </c>
     </row>
@@ -47221,7 +47221,7 @@
         <v>633</v>
       </c>
       <c r="G654" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-3.5836299251423176E-2</v>
       </c>
     </row>
@@ -47245,7 +47245,7 @@
         <v>632</v>
       </c>
       <c r="G655" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.395888693266123E-3</v>
       </c>
     </row>
@@ -47269,7 +47269,7 @@
         <v>631</v>
       </c>
       <c r="G656" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2.2026478836681962E-3</v>
       </c>
     </row>
@@ -47293,7 +47293,7 @@
         <v>630</v>
       </c>
       <c r="G657" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.4366779740858675E-3</v>
       </c>
     </row>
@@ -47317,7 +47317,7 @@
         <v>629</v>
       </c>
       <c r="G658" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.1486998994448494E-2</v>
       </c>
     </row>
@@ -47341,7 +47341,7 @@
         <v>628</v>
       </c>
       <c r="G659" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-7.4629163668462617E-3</v>
       </c>
     </row>
@@ -47365,7 +47365,7 @@
         <v>627</v>
       </c>
       <c r="G660" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1553757836263001E-2</v>
       </c>
     </row>
@@ -47389,7 +47389,7 @@
         <v>626</v>
       </c>
       <c r="G661" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-4.5521358800060252E-4</v>
       </c>
     </row>
@@ -47413,7 +47413,7 @@
         <v>625</v>
       </c>
       <c r="G662" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3698134654274163E-3</v>
       </c>
     </row>
@@ -47437,7 +47437,7 @@
         <v>624</v>
       </c>
       <c r="G663" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7.0062688420757802E-4</v>
       </c>
     </row>
@@ -47461,7 +47461,7 @@
         <v>623</v>
       </c>
       <c r="G664" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-1.537764516203266E-2</v>
       </c>
     </row>
@@ -47485,7 +47485,7 @@
         <v>622</v>
       </c>
       <c r="G665" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7902336294312482E-2</v>
       </c>
     </row>
@@ -47509,7 +47509,7 @@
         <v>621</v>
       </c>
       <c r="G666" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-3.256016186908961E-3</v>
       </c>
     </row>
@@ -47533,7 +47533,7 @@
         <v>620</v>
       </c>
       <c r="G667" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.1643210793208532E-4</v>
       </c>
     </row>
@@ -47557,7 +47557,7 @@
         <v>619</v>
       </c>
       <c r="G668" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2.9572010181273867E-2</v>
       </c>
     </row>
@@ -47581,7 +47581,7 @@
         <v>618</v>
       </c>
       <c r="G669" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.5150143607892694E-2</v>
       </c>
     </row>
@@ -47605,7 +47605,7 @@
         <v>617</v>
       </c>
       <c r="G670" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.6794548465695129E-4</v>
       </c>
     </row>
@@ -47629,7 +47629,7 @@
         <v>616</v>
       </c>
       <c r="G671" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8.4134194692526698E-3</v>
       </c>
     </row>
@@ -47653,7 +47653,7 @@
         <v>615</v>
       </c>
       <c r="G672" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2.141304243985731E-3</v>
       </c>
     </row>
@@ -47677,7 +47677,7 @@
         <v>614</v>
       </c>
       <c r="G673" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-2.3039709536916142E-3</v>
       </c>
     </row>
@@ -47701,7 +47701,7 @@
         <v>613</v>
       </c>
       <c r="G674" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-6.1722087174961304E-3</v>
       </c>
     </row>
@@ -47725,7 +47725,7 @@
         <v>612</v>
       </c>
       <c r="G675" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-9.639769129669129E-3</v>
       </c>
     </row>
@@ -47749,7 +47749,7 @@
         <v>611</v>
       </c>
       <c r="G676" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-3.6762774009683197E-3</v>
       </c>
     </row>
@@ -47773,7 +47773,7 @@
         <v>610</v>
       </c>
       <c r="G677" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1551915161675197E-2</v>
       </c>
     </row>
@@ -47797,7 +47797,7 @@
         <v>609</v>
       </c>
       <c r="G678" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.3912135781277044E-2</v>
       </c>
     </row>
@@ -47821,7 +47821,7 @@
         <v>608</v>
       </c>
       <c r="G679" s="9">
-        <f t="shared" ref="G679:G742" si="8">A679/D679-1</f>
+        <f t="shared" ref="G679:G742" si="11">A679/D679-1</f>
         <v>-1.2189675182046944E-2</v>
       </c>
     </row>
@@ -47845,7 +47845,7 @@
         <v>607</v>
       </c>
       <c r="G680" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.6027954036600409E-3</v>
       </c>
     </row>
@@ -47869,7 +47869,7 @@
         <v>606</v>
       </c>
       <c r="G681" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7168517895485014E-3</v>
       </c>
     </row>
@@ -47893,7 +47893,7 @@
         <v>605</v>
       </c>
       <c r="G682" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.5103971478898099E-3</v>
       </c>
     </row>
@@ -47917,7 +47917,7 @@
         <v>604</v>
       </c>
       <c r="G683" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-8.2729469441022996E-3</v>
       </c>
     </row>
@@ -47941,7 +47941,7 @@
         <v>603</v>
       </c>
       <c r="G684" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.9657889424899988E-3</v>
       </c>
     </row>
@@ -47965,7 +47965,7 @@
         <v>602</v>
       </c>
       <c r="G685" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.6206737375663636E-3</v>
       </c>
     </row>
@@ -47989,7 +47989,7 @@
         <v>601</v>
       </c>
       <c r="G686" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1.3539310192498544E-3</v>
       </c>
     </row>
@@ -48013,7 +48013,7 @@
         <v>600</v>
       </c>
       <c r="G687" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.715237312593155E-3</v>
       </c>
     </row>
@@ -48037,7 +48037,7 @@
         <v>599</v>
       </c>
       <c r="G688" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-4.1276654744658581E-3</v>
       </c>
     </row>
@@ -48061,7 +48061,7 @@
         <v>598</v>
       </c>
       <c r="G689" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1288717557936145E-2</v>
       </c>
     </row>
@@ -48085,7 +48085,7 @@
         <v>597</v>
       </c>
       <c r="G690" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0084216739583374E-2</v>
       </c>
     </row>
@@ -48109,7 +48109,7 @@
         <v>596</v>
       </c>
       <c r="G691" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.6281140931542275E-4</v>
       </c>
     </row>
@@ -48133,7 +48133,7 @@
         <v>595</v>
       </c>
       <c r="G692" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.019611302225611E-3</v>
       </c>
     </row>
@@ -48157,7 +48157,7 @@
         <v>594</v>
       </c>
       <c r="G693" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.4908937555041568E-4</v>
       </c>
     </row>
@@ -48181,7 +48181,7 @@
         <v>593</v>
       </c>
       <c r="G694" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-3.8682941602784515E-3</v>
       </c>
     </row>
@@ -48205,7 +48205,7 @@
         <v>592</v>
       </c>
       <c r="G695" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2650537076996997E-3</v>
       </c>
     </row>
@@ -48229,7 +48229,7 @@
         <v>591</v>
       </c>
       <c r="G696" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.2105420773455027E-3</v>
       </c>
     </row>
@@ -48253,7 +48253,7 @@
         <v>590</v>
       </c>
       <c r="G697" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-2.0430506123451653E-2</v>
       </c>
     </row>
@@ -48277,7 +48277,7 @@
         <v>589</v>
       </c>
       <c r="G698" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.9932767420406403E-3</v>
       </c>
     </row>
@@ -48301,7 +48301,7 @@
         <v>588</v>
       </c>
       <c r="G699" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.3340639841343886E-3</v>
       </c>
     </row>
@@ -48325,7 +48325,7 @@
         <v>587</v>
       </c>
       <c r="G700" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1.3824821358083828E-3</v>
       </c>
     </row>
@@ -48349,7 +48349,7 @@
         <v>586</v>
       </c>
       <c r="G701" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.865511370366546E-2</v>
       </c>
     </row>
@@ -48373,7 +48373,7 @@
         <v>585</v>
       </c>
       <c r="G702" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3399091648754746E-2</v>
       </c>
     </row>
@@ -48397,7 +48397,7 @@
         <v>584</v>
       </c>
       <c r="G703" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.8622026689997684E-2</v>
       </c>
     </row>
@@ -48421,7 +48421,7 @@
         <v>583</v>
       </c>
       <c r="G704" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.937780626101504E-2</v>
       </c>
     </row>
@@ -48445,7 +48445,7 @@
         <v>582</v>
       </c>
       <c r="G705" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1.1428647800303282E-2</v>
       </c>
     </row>
@@ -48469,7 +48469,7 @@
         <v>581</v>
       </c>
       <c r="G706" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.3199272239778939E-3</v>
       </c>
     </row>
@@ -48493,7 +48493,7 @@
         <v>580</v>
       </c>
       <c r="G707" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.0847993896331349E-3</v>
       </c>
     </row>
@@ -48517,7 +48517,7 @@
         <v>579</v>
       </c>
       <c r="G708" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1.3712486199127349E-2</v>
       </c>
     </row>
@@ -48541,7 +48541,7 @@
         <v>578</v>
       </c>
       <c r="G709" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1.1423629472525509E-2</v>
       </c>
     </row>
@@ -48565,7 +48565,7 @@
         <v>577</v>
       </c>
       <c r="G710" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.4332190618423732E-2</v>
       </c>
     </row>
@@ -48589,7 +48589,7 @@
         <v>576</v>
       </c>
       <c r="G711" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5931671246145251E-2</v>
       </c>
     </row>
@@ -48613,7 +48613,7 @@
         <v>575</v>
       </c>
       <c r="G712" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-6.0788170561810739E-3</v>
       </c>
     </row>
@@ -48637,7 +48637,7 @@
         <v>574</v>
       </c>
       <c r="G713" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7146283394053885E-3</v>
       </c>
     </row>
@@ -48661,7 +48661,7 @@
         <v>573</v>
       </c>
       <c r="G714" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-6.0555403996138679E-3</v>
       </c>
     </row>
@@ -48685,7 +48685,7 @@
         <v>572</v>
       </c>
       <c r="G715" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2779933601506421E-2</v>
       </c>
     </row>
@@ -48709,7 +48709,7 @@
         <v>571</v>
       </c>
       <c r="G716" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.1941896555017788E-3</v>
       </c>
     </row>
@@ -48733,7 +48733,7 @@
         <v>570</v>
       </c>
       <c r="G717" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.2656173624019438E-4</v>
       </c>
     </row>
@@ -48757,7 +48757,7 @@
         <v>569</v>
       </c>
       <c r="G718" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.9811425378210039E-4</v>
       </c>
     </row>
@@ -48781,7 +48781,7 @@
         <v>568</v>
       </c>
       <c r="G719" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.1942149277256497E-3</v>
       </c>
     </row>
@@ -48805,7 +48805,7 @@
         <v>567</v>
       </c>
       <c r="G720" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.8494595030529357E-3</v>
       </c>
     </row>
@@ -48829,7 +48829,7 @@
         <v>566</v>
       </c>
       <c r="G721" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.6674059030208426E-3</v>
       </c>
     </row>
@@ -48853,7 +48853,7 @@
         <v>565</v>
       </c>
       <c r="G722" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-3.5016345580841657E-3</v>
       </c>
     </row>
@@ -48877,7 +48877,7 @@
         <v>564</v>
       </c>
       <c r="G723" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.9016494707025977E-3</v>
       </c>
     </row>
@@ -48901,7 +48901,7 @@
         <v>563</v>
       </c>
       <c r="G724" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.9213848395992503E-3</v>
       </c>
     </row>
@@ -48925,7 +48925,7 @@
         <v>562</v>
       </c>
       <c r="G725" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1.9435966360039858E-2</v>
       </c>
     </row>
@@ -48949,7 +48949,7 @@
         <v>561</v>
       </c>
       <c r="G726" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1.05139402589427E-2</v>
       </c>
     </row>
@@ -48973,7 +48973,7 @@
         <v>560</v>
       </c>
       <c r="G727" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3729486135273472E-2</v>
       </c>
     </row>
@@ -48997,7 +48997,7 @@
         <v>559</v>
       </c>
       <c r="G728" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-3.4428888891313347E-2</v>
       </c>
     </row>
@@ -49021,7 +49021,7 @@
         <v>558</v>
       </c>
       <c r="G729" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.9518345503859518E-3</v>
       </c>
     </row>
@@ -49045,7 +49045,7 @@
         <v>557</v>
       </c>
       <c r="G730" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.1849170267819407E-2</v>
       </c>
     </row>
@@ -49069,7 +49069,7 @@
         <v>556</v>
       </c>
       <c r="G731" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.4604445860162203E-2</v>
       </c>
     </row>
@@ -49093,7 +49093,7 @@
         <v>555</v>
       </c>
       <c r="G732" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.8949103606630269E-2</v>
       </c>
     </row>
@@ -49117,7 +49117,7 @@
         <v>554</v>
       </c>
       <c r="G733" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-9.2114172697734809E-3</v>
       </c>
     </row>
@@ -49141,7 +49141,7 @@
         <v>553</v>
       </c>
       <c r="G734" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0897667893377871E-2</v>
       </c>
     </row>
@@ -49165,7 +49165,7 @@
         <v>552</v>
       </c>
       <c r="G735" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-7.002809570640478E-3</v>
       </c>
     </row>
@@ -49189,7 +49189,7 @@
         <v>551</v>
       </c>
       <c r="G736" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.9663029883528775E-3</v>
       </c>
     </row>
@@ -49213,7 +49213,7 @@
         <v>550</v>
       </c>
       <c r="G737" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-6.9892592639643203E-3</v>
       </c>
     </row>
@@ -49237,7 +49237,7 @@
         <v>549</v>
       </c>
       <c r="G738" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.8597095432046924E-3</v>
       </c>
     </row>
@@ -49261,7 +49261,7 @@
         <v>548</v>
       </c>
       <c r="G739" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.0863026474211601E-3</v>
       </c>
     </row>
@@ -49285,7 +49285,7 @@
         <v>547</v>
       </c>
       <c r="G740" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1419578578237388E-2</v>
       </c>
     </row>
@@ -49309,7 +49309,7 @@
         <v>546</v>
       </c>
       <c r="G741" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1.6353791967922193E-2</v>
       </c>
     </row>
@@ -49333,7 +49333,7 @@
         <v>545</v>
       </c>
       <c r="G742" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1.2250370441559966E-2</v>
       </c>
     </row>
@@ -49357,7 +49357,7 @@
         <v>544</v>
       </c>
       <c r="G743" s="9">
-        <f t="shared" ref="G743:G806" si="9">A743/D743-1</f>
+        <f t="shared" ref="G743:G806" si="12">A743/D743-1</f>
         <v>1.4486273629967794E-2</v>
       </c>
     </row>
@@ -49381,7 +49381,7 @@
         <v>543</v>
       </c>
       <c r="G744" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-7.1263751516176255E-3</v>
       </c>
     </row>
@@ -49405,7 +49405,7 @@
         <v>542</v>
       </c>
       <c r="G745" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.5931582171991532E-2</v>
       </c>
     </row>
@@ -49429,7 +49429,7 @@
         <v>541</v>
       </c>
       <c r="G746" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0766032409741388E-2</v>
       </c>
     </row>
@@ -49453,7 +49453,7 @@
         <v>540</v>
       </c>
       <c r="G747" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.2027074414313681E-3</v>
       </c>
     </row>
@@ -49477,7 +49477,7 @@
         <v>539</v>
       </c>
       <c r="G748" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.7632296019232996E-2</v>
       </c>
     </row>
@@ -49501,7 +49501,7 @@
         <v>538</v>
       </c>
       <c r="G749" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.9870633429860414E-3</v>
       </c>
     </row>
@@ -49525,7 +49525,7 @@
         <v>537</v>
       </c>
       <c r="G750" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4056670985120645E-2</v>
       </c>
     </row>
@@ -49549,7 +49549,7 @@
         <v>536</v>
       </c>
       <c r="G751" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-5.0147573127053979E-3</v>
       </c>
     </row>
@@ -49573,7 +49573,7 @@
         <v>535</v>
       </c>
       <c r="G752" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.2545017735497996E-3</v>
       </c>
     </row>
@@ -49597,7 +49597,7 @@
         <v>534</v>
       </c>
       <c r="G753" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.107863642239626E-2</v>
       </c>
     </row>
@@ -49621,7 +49621,7 @@
         <v>533</v>
       </c>
       <c r="G754" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.1170954762228513E-2</v>
       </c>
     </row>
@@ -49645,7 +49645,7 @@
         <v>532</v>
       </c>
       <c r="G755" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.2479319363669656E-3</v>
       </c>
     </row>
@@ -49669,7 +49669,7 @@
         <v>531</v>
       </c>
       <c r="G756" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.5135926568771225E-3</v>
       </c>
     </row>
@@ -49693,7 +49693,7 @@
         <v>530</v>
       </c>
       <c r="G757" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.1649519773044901E-3</v>
       </c>
     </row>
@@ -49717,7 +49717,7 @@
         <v>529</v>
       </c>
       <c r="G758" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.4164692368440246E-3</v>
       </c>
     </row>
@@ -49741,7 +49741,7 @@
         <v>528</v>
       </c>
       <c r="G759" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.2136959165808259E-3</v>
       </c>
     </row>
@@ -49765,7 +49765,7 @@
         <v>527</v>
       </c>
       <c r="G760" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.0030202052848658E-3</v>
       </c>
     </row>
@@ -49789,7 +49789,7 @@
         <v>526</v>
       </c>
       <c r="G761" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-9.621256717896931E-3</v>
       </c>
     </row>
@@ -49813,7 +49813,7 @@
         <v>525</v>
       </c>
       <c r="G762" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.9215601744932087E-2</v>
       </c>
     </row>
@@ -49837,7 +49837,7 @@
         <v>524</v>
       </c>
       <c r="G763" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5783588386679703E-3</v>
       </c>
     </row>
@@ -49861,7 +49861,7 @@
         <v>523</v>
       </c>
       <c r="G764" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.4628029482097293E-2</v>
       </c>
     </row>
@@ -49885,7 +49885,7 @@
         <v>522</v>
       </c>
       <c r="G765" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.1188504934485097E-2</v>
       </c>
     </row>
@@ -49909,7 +49909,7 @@
         <v>521</v>
       </c>
       <c r="G766" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-6.3363752933853768E-3</v>
       </c>
     </row>
@@ -49933,7 +49933,7 @@
         <v>520</v>
       </c>
       <c r="G767" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.1388810225240862E-2</v>
       </c>
     </row>
@@ -49957,7 +49957,7 @@
         <v>519</v>
       </c>
       <c r="G768" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.0874628961082387E-2</v>
       </c>
     </row>
@@ -49981,7 +49981,7 @@
         <v>518</v>
       </c>
       <c r="G769" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-6.2861459884713256E-3</v>
       </c>
     </row>
@@ -50005,7 +50005,7 @@
         <v>517</v>
       </c>
       <c r="G770" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.0852243773573744E-2</v>
       </c>
     </row>
@@ -50029,7 +50029,7 @@
         <v>516</v>
       </c>
       <c r="G771" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.2286443506090992E-2</v>
       </c>
     </row>
@@ -50053,7 +50053,7 @@
         <v>515</v>
       </c>
       <c r="G772" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.1683764507632652E-2</v>
       </c>
     </row>
@@ -50077,7 +50077,7 @@
         <v>514</v>
       </c>
       <c r="G773" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.524888326224084E-2</v>
       </c>
     </row>
@@ -50101,7 +50101,7 @@
         <v>513</v>
       </c>
       <c r="G774" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2777741869727244E-3</v>
       </c>
     </row>
@@ -50125,7 +50125,7 @@
         <v>512</v>
       </c>
       <c r="G775" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.4654229810303399E-2</v>
       </c>
     </row>
@@ -50149,7 +50149,7 @@
         <v>511</v>
       </c>
       <c r="G776" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.9225722255508142E-3</v>
       </c>
     </row>
@@ -50173,7 +50173,7 @@
         <v>510</v>
       </c>
       <c r="G777" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2442042868550551E-2</v>
       </c>
     </row>
@@ -50197,7 +50197,7 @@
         <v>509</v>
       </c>
       <c r="G778" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.5167870958323668E-3</v>
       </c>
     </row>
@@ -50221,7 +50221,7 @@
         <v>508</v>
       </c>
       <c r="G779" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.3087662887121319E-3</v>
       </c>
     </row>
@@ -50245,7 +50245,7 @@
         <v>507</v>
       </c>
       <c r="G780" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9.252984340889725E-3</v>
       </c>
     </row>
@@ -50269,7 +50269,7 @@
         <v>506</v>
       </c>
       <c r="G781" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.0691707366574672E-3</v>
       </c>
     </row>
@@ -50293,7 +50293,7 @@
         <v>505</v>
       </c>
       <c r="G782" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-4.7682160754758396E-3</v>
       </c>
     </row>
@@ -50317,7 +50317,7 @@
         <v>504</v>
       </c>
       <c r="G783" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.5262713007884194E-3</v>
       </c>
     </row>
@@ -50341,7 +50341,7 @@
         <v>503</v>
       </c>
       <c r="G784" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.8905844794345095E-2</v>
       </c>
     </row>
@@ -50365,7 +50365,7 @@
         <v>502</v>
       </c>
       <c r="G785" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.649666915186554E-2</v>
       </c>
     </row>
@@ -50389,7 +50389,7 @@
         <v>501</v>
       </c>
       <c r="G786" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.8418996390807907E-2</v>
       </c>
     </row>
@@ -50413,7 +50413,7 @@
         <v>500</v>
       </c>
       <c r="G787" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.3288716827668745E-2</v>
       </c>
     </row>
@@ -50437,7 +50437,7 @@
         <v>499</v>
       </c>
       <c r="G788" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.4743195550074417E-2</v>
       </c>
     </row>
@@ -50461,7 +50461,7 @@
         <v>498</v>
       </c>
       <c r="G789" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5948472242202083E-3</v>
       </c>
     </row>
@@ -50485,7 +50485,7 @@
         <v>497</v>
       </c>
       <c r="G790" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.1694743863354127E-2</v>
       </c>
     </row>
@@ -50509,7 +50509,7 @@
         <v>496</v>
       </c>
       <c r="G791" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.7544891859452516E-2</v>
       </c>
     </row>
@@ -50533,7 +50533,7 @@
         <v>495</v>
       </c>
       <c r="G792" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.5096589736622774E-2</v>
       </c>
     </row>
@@ -50557,7 +50557,7 @@
         <v>494</v>
       </c>
       <c r="G793" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.5821646740063153E-2</v>
       </c>
     </row>
@@ -50581,7 +50581,7 @@
         <v>493</v>
       </c>
       <c r="G794" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.1888592430665579E-3</v>
       </c>
     </row>
@@ -50605,7 +50605,7 @@
         <v>492</v>
       </c>
       <c r="G795" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.8536147400314302E-3</v>
       </c>
     </row>
@@ -50629,7 +50629,7 @@
         <v>491</v>
       </c>
       <c r="G796" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-4.0142851453550676E-3</v>
       </c>
     </row>
@@ -50653,7 +50653,7 @@
         <v>490</v>
       </c>
       <c r="G797" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2355912787777035E-2</v>
       </c>
     </row>
@@ -50677,7 +50677,7 @@
         <v>489</v>
       </c>
       <c r="G798" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.2952669606454146E-2</v>
       </c>
     </row>
@@ -50701,7 +50701,7 @@
         <v>488</v>
       </c>
       <c r="G799" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-1.1777134797321676E-3</v>
       </c>
     </row>
@@ -50725,7 +50725,7 @@
         <v>487</v>
       </c>
       <c r="G800" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.1572354904088487E-2</v>
       </c>
     </row>
@@ -50749,7 +50749,7 @@
         <v>486</v>
       </c>
       <c r="G801" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-9.9724657479112189E-3</v>
       </c>
     </row>
@@ -50773,7 +50773,7 @@
         <v>485</v>
       </c>
       <c r="G802" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0492841680959097E-2</v>
       </c>
     </row>
@@ -50797,7 +50797,7 @@
         <v>484</v>
       </c>
       <c r="G803" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.4588401796359802E-2</v>
       </c>
     </row>
@@ -50821,7 +50821,7 @@
         <v>483</v>
       </c>
       <c r="G804" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5493781573325371E-2</v>
       </c>
     </row>
@@ -50845,7 +50845,7 @@
         <v>482</v>
       </c>
       <c r="G805" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.3461125710537054E-2</v>
       </c>
     </row>
@@ -50869,7 +50869,7 @@
         <v>481</v>
       </c>
       <c r="G806" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.5512369119321994E-2</v>
       </c>
     </row>
@@ -50893,7 +50893,7 @@
         <v>480</v>
       </c>
       <c r="G807" s="9">
-        <f t="shared" ref="G807:G870" si="10">A807/D807-1</f>
+        <f t="shared" ref="G807:G870" si="13">A807/D807-1</f>
         <v>-1.6544330917556804E-2</v>
       </c>
     </row>
@@ -50917,7 +50917,7 @@
         <v>479</v>
       </c>
       <c r="G808" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.7270123520138903E-2</v>
       </c>
     </row>
@@ -50941,7 +50941,7 @@
         <v>478</v>
       </c>
       <c r="G809" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.3470003448857959E-2</v>
       </c>
     </row>
@@ -50965,7 +50965,7 @@
         <v>477</v>
       </c>
       <c r="G810" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-3.7265930266403569E-3</v>
       </c>
     </row>
@@ -50989,7 +50989,7 @@
         <v>476</v>
       </c>
       <c r="G811" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-2.0024435116209438E-2</v>
       </c>
     </row>
@@ -51013,7 +51013,7 @@
         <v>475</v>
       </c>
       <c r="G812" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2746105423426801E-2</v>
       </c>
     </row>
@@ -51037,7 +51037,7 @@
         <v>474</v>
       </c>
       <c r="G813" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.7924457104375957E-2</v>
       </c>
     </row>
@@ -51061,7 +51061,7 @@
         <v>473</v>
       </c>
       <c r="G814" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.1715670828262645E-2</v>
       </c>
     </row>
@@ -51085,7 +51085,7 @@
         <v>472</v>
       </c>
       <c r="G815" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.8986640649721553E-2</v>
       </c>
     </row>
@@ -51109,7 +51109,7 @@
         <v>471</v>
       </c>
       <c r="G816" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.3996238060957094E-3</v>
       </c>
     </row>
@@ -51133,7 +51133,7 @@
         <v>470</v>
       </c>
       <c r="G817" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.3560494676959678E-3</v>
       </c>
     </row>
@@ -51157,7 +51157,7 @@
         <v>469</v>
       </c>
       <c r="G818" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.6068486402935234E-2</v>
       </c>
     </row>
@@ -51181,7 +51181,7 @@
         <v>468</v>
       </c>
       <c r="G819" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.4114286940753118E-2</v>
       </c>
     </row>
@@ -51205,7 +51205,7 @@
         <v>467</v>
       </c>
       <c r="G820" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-2.3621015907098197E-3</v>
       </c>
     </row>
@@ -51229,7 +51229,7 @@
         <v>466</v>
       </c>
       <c r="G821" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.4949746914688644E-2</v>
       </c>
     </row>
@@ -51253,7 +51253,7 @@
         <v>465</v>
       </c>
       <c r="G822" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-3.2644059664793112E-2</v>
       </c>
     </row>
@@ -51277,7 +51277,7 @@
         <v>464</v>
       </c>
       <c r="G823" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-3.5206132067926443E-3</v>
       </c>
     </row>
@@ -51301,7 +51301,7 @@
         <v>463</v>
       </c>
       <c r="G824" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7.3425574064087673E-3</v>
       </c>
     </row>
@@ -51325,7 +51325,7 @@
         <v>462</v>
       </c>
       <c r="G825" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.3553963964377247E-2</v>
       </c>
     </row>
@@ -51349,7 +51349,7 @@
         <v>461</v>
       </c>
       <c r="G826" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.3430679084774919E-3</v>
       </c>
     </row>
@@ -51373,7 +51373,7 @@
         <v>460</v>
       </c>
       <c r="G827" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0904844538126346E-2</v>
       </c>
     </row>
@@ -51397,7 +51397,7 @@
         <v>459</v>
       </c>
       <c r="G828" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-8.8499885960791058E-4</v>
       </c>
     </row>
@@ -51421,7 +51421,7 @@
         <v>458</v>
       </c>
       <c r="G829" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.3810729977060721E-3</v>
       </c>
     </row>
@@ -51445,7 +51445,7 @@
         <v>457</v>
       </c>
       <c r="G830" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.0723804911666273E-2</v>
       </c>
     </row>
@@ -51469,7 +51469,7 @@
         <v>456</v>
       </c>
       <c r="G831" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.3064401152959961E-2</v>
       </c>
     </row>
@@ -51493,7 +51493,7 @@
         <v>455</v>
       </c>
       <c r="G832" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.1110114621145444E-2</v>
       </c>
     </row>
@@ -51517,7 +51517,7 @@
         <v>454</v>
       </c>
       <c r="G833" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.0831622795213436E-2</v>
       </c>
     </row>
@@ -51541,7 +51541,7 @@
         <v>453</v>
       </c>
       <c r="G834" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-2.5072232846791498E-2</v>
       </c>
     </row>
@@ -51565,7 +51565,7 @@
         <v>452</v>
       </c>
       <c r="G835" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.5884240578320004E-3</v>
       </c>
     </row>
@@ -51589,7 +51589,7 @@
         <v>451</v>
       </c>
       <c r="G836" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.1845919788295856E-2</v>
       </c>
     </row>
@@ -51613,7 +51613,7 @@
         <v>450</v>
       </c>
       <c r="G837" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-9.5534791248534923E-3</v>
       </c>
     </row>
@@ -51637,7 +51637,7 @@
         <v>449</v>
       </c>
       <c r="G838" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.7803492059985722E-3</v>
       </c>
     </row>
@@ -51661,7 +51661,7 @@
         <v>448</v>
       </c>
       <c r="G839" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-4.4762092456149927E-2</v>
       </c>
     </row>
@@ -51685,7 +51685,7 @@
         <v>447</v>
       </c>
       <c r="G840" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1813617302228074E-2</v>
       </c>
     </row>
@@ -51709,7 +51709,7 @@
         <v>446</v>
       </c>
       <c r="G841" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6989370808186965E-2</v>
       </c>
     </row>
@@ -51733,7 +51733,7 @@
         <v>445</v>
       </c>
       <c r="G842" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.073721615109402E-2</v>
       </c>
     </row>
@@ -51757,7 +51757,7 @@
         <v>444</v>
       </c>
       <c r="G843" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.3013866693962206E-2</v>
       </c>
     </row>
@@ -51781,7 +51781,7 @@
         <v>443</v>
       </c>
       <c r="G844" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.2092124972153617E-2</v>
       </c>
     </row>
@@ -51805,7 +51805,7 @@
         <v>442</v>
       </c>
       <c r="G845" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-7.059366790021615E-3</v>
       </c>
     </row>
@@ -51829,7 +51829,7 @@
         <v>441</v>
       </c>
       <c r="G846" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.3079376218649852E-3</v>
       </c>
     </row>
@@ -51853,7 +51853,7 @@
         <v>440</v>
       </c>
       <c r="G847" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.2017212935082657E-3</v>
       </c>
     </row>
@@ -51877,7 +51877,7 @@
         <v>439</v>
       </c>
       <c r="G848" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1667716705539011E-2</v>
       </c>
     </row>
@@ -51901,7 +51901,7 @@
         <v>438</v>
       </c>
       <c r="G849" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.0210428244062939E-2</v>
       </c>
     </row>
@@ -51925,7 +51925,7 @@
         <v>437</v>
       </c>
       <c r="G850" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.4064744083183034E-2</v>
       </c>
     </row>
@@ -51949,7 +51949,7 @@
         <v>436</v>
       </c>
       <c r="G851" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5535477925185948E-3</v>
       </c>
     </row>
@@ -51973,7 +51973,7 @@
         <v>435</v>
       </c>
       <c r="G852" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-9.812045615725018E-3</v>
       </c>
     </row>
@@ -51997,7 +51997,7 @@
         <v>434</v>
       </c>
       <c r="G853" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.3784493744961601E-3</v>
       </c>
     </row>
@@ -52021,7 +52021,7 @@
         <v>433</v>
       </c>
       <c r="G854" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5530463545689877E-2</v>
       </c>
     </row>
@@ -52045,7 +52045,7 @@
         <v>432</v>
       </c>
       <c r="G855" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-9.5243487516004643E-3</v>
       </c>
     </row>
@@ -52069,7 +52069,7 @@
         <v>431</v>
       </c>
       <c r="G856" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.4018073435251335E-3</v>
       </c>
     </row>
@@ -52093,7 +52093,7 @@
         <v>430</v>
       </c>
       <c r="G857" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-7.4983665134031874E-4</v>
       </c>
     </row>
@@ -52117,7 +52117,7 @@
         <v>429</v>
       </c>
       <c r="G858" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.7536067355435918E-3</v>
       </c>
     </row>
@@ -52141,7 +52141,7 @@
         <v>428</v>
       </c>
       <c r="G859" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1.3731998463036965E-2</v>
       </c>
     </row>
@@ -52165,7 +52165,7 @@
         <v>427</v>
       </c>
       <c r="G860" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.4136161777138518E-2</v>
       </c>
     </row>
@@ -52189,7 +52189,7 @@
         <v>426</v>
       </c>
       <c r="G861" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-3.5738949467350012E-2</v>
       </c>
     </row>
@@ -52213,7 +52213,7 @@
         <v>425</v>
       </c>
       <c r="G862" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.2827454447526048E-3</v>
       </c>
     </row>
@@ -52237,7 +52237,7 @@
         <v>424</v>
       </c>
       <c r="G863" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.8220722788175951E-3</v>
       </c>
     </row>
@@ -52261,7 +52261,7 @@
         <v>423</v>
       </c>
       <c r="G864" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.8255249801342206E-3</v>
       </c>
     </row>
@@ -52285,7 +52285,7 @@
         <v>422</v>
       </c>
       <c r="G865" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3257492912742919E-2</v>
       </c>
     </row>
@@ -52309,7 +52309,7 @@
         <v>421</v>
       </c>
       <c r="G866" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.1255750212040319E-3</v>
       </c>
     </row>
@@ -52333,7 +52333,7 @@
         <v>420</v>
       </c>
       <c r="G867" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.4987997848701315E-2</v>
       </c>
     </row>
@@ -52357,7 +52357,7 @@
         <v>419</v>
       </c>
       <c r="G868" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-2.848760709065723E-2</v>
       </c>
     </row>
@@ -52381,7 +52381,7 @@
         <v>418</v>
       </c>
       <c r="G869" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-6.4785655077413962E-3</v>
       </c>
     </row>
@@ -52405,7 +52405,7 @@
         <v>417</v>
       </c>
       <c r="G870" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.5995670856230344E-3</v>
       </c>
     </row>
@@ -52429,7 +52429,7 @@
         <v>416</v>
       </c>
       <c r="G871" s="9">
-        <f t="shared" ref="G871:G934" si="11">A871/D871-1</f>
+        <f t="shared" ref="G871:G934" si="14">A871/D871-1</f>
         <v>7.8893251074967363E-3</v>
       </c>
     </row>
@@ -52453,7 +52453,7 @@
         <v>415</v>
       </c>
       <c r="G872" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4.729130754682731E-3</v>
       </c>
     </row>
@@ -52477,7 +52477,7 @@
         <v>414</v>
       </c>
       <c r="G873" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.8955081724006959E-3</v>
       </c>
     </row>
@@ -52501,7 +52501,7 @@
         <v>413</v>
       </c>
       <c r="G874" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.7397725715291301E-3</v>
       </c>
     </row>
@@ -52525,7 +52525,7 @@
         <v>412</v>
       </c>
       <c r="G875" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.9350318281736758E-3</v>
       </c>
     </row>
@@ -52549,7 +52549,7 @@
         <v>411</v>
       </c>
       <c r="G876" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-8.4947249760363164E-3</v>
       </c>
     </row>
@@ -52573,7 +52573,7 @@
         <v>410</v>
       </c>
       <c r="G877" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.9744367091619779E-3</v>
       </c>
     </row>
@@ -52597,7 +52597,7 @@
         <v>409</v>
       </c>
       <c r="G878" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.4525190024840215E-2</v>
       </c>
     </row>
@@ -52621,7 +52621,7 @@
         <v>408</v>
       </c>
       <c r="G879" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8.4659728199909523E-3</v>
       </c>
     </row>
@@ -52645,7 +52645,7 @@
         <v>407</v>
       </c>
       <c r="G880" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.6231058448217279E-3</v>
       </c>
     </row>
@@ -52669,7 +52669,7 @@
         <v>406</v>
       </c>
       <c r="G881" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-3.1910893120873696E-2</v>
       </c>
     </row>
@@ -52693,7 +52693,7 @@
         <v>405</v>
       </c>
       <c r="G882" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-7.1364645677914895E-3</v>
       </c>
     </row>
@@ -52717,7 +52717,7 @@
         <v>404</v>
       </c>
       <c r="G883" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1829380494786434E-2</v>
       </c>
     </row>
@@ -52741,7 +52741,7 @@
         <v>403</v>
       </c>
       <c r="G884" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3423542046917536E-2</v>
       </c>
     </row>
@@ -52765,7 +52765,7 @@
         <v>402</v>
       </c>
       <c r="G885" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3130662106138669E-2</v>
       </c>
     </row>
@@ -52789,7 +52789,7 @@
         <v>401</v>
       </c>
       <c r="G886" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-8.7123050912712996E-3</v>
       </c>
     </row>
@@ -52813,7 +52813,7 @@
         <v>400</v>
       </c>
       <c r="G887" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.0552456141551647E-2</v>
       </c>
     </row>
@@ -52837,7 +52837,7 @@
         <v>399</v>
       </c>
       <c r="G888" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4.7801835082094124E-3</v>
       </c>
     </row>
@@ -52861,7 +52861,7 @@
         <v>398</v>
       </c>
       <c r="G889" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-5.2558904932349382E-3</v>
       </c>
     </row>
@@ -52885,7 +52885,7 @@
         <v>397</v>
       </c>
       <c r="G890" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-2.579048503747583E-2</v>
       </c>
     </row>
@@ -52909,7 +52909,7 @@
         <v>396</v>
       </c>
       <c r="G891" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.5637708583363441E-2</v>
       </c>
     </row>
@@ -52933,7 +52933,7 @@
         <v>395</v>
       </c>
       <c r="G892" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.6694109053492259E-3</v>
       </c>
     </row>
@@ -52957,7 +52957,7 @@
         <v>394</v>
       </c>
       <c r="G893" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-2.7664509525538894E-2</v>
       </c>
     </row>
@@ -52981,7 +52981,7 @@
         <v>393</v>
       </c>
       <c r="G894" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.2589506510239157E-2</v>
       </c>
     </row>
@@ -53005,7 +53005,7 @@
         <v>392</v>
       </c>
       <c r="G895" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.0796367775522961E-2</v>
       </c>
     </row>
@@ -53029,7 +53029,7 @@
         <v>391</v>
       </c>
       <c r="G896" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.2551674755990505E-2</v>
       </c>
     </row>
@@ -53053,7 +53053,7 @@
         <v>390</v>
       </c>
       <c r="G897" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.4586221606057381E-2</v>
       </c>
     </row>
@@ -53077,7 +53077,7 @@
         <v>389</v>
       </c>
       <c r="G898" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.1841486804073718E-2</v>
       </c>
     </row>
@@ -53101,7 +53101,7 @@
         <v>388</v>
       </c>
       <c r="G899" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-3.1600301778210493E-2</v>
       </c>
     </row>
@@ -53125,7 +53125,7 @@
         <v>387</v>
       </c>
       <c r="G900" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.1319388221652247E-4</v>
       </c>
     </row>
@@ -53149,7 +53149,7 @@
         <v>386</v>
       </c>
       <c r="G901" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-2.3624410642181237E-3</v>
       </c>
     </row>
@@ -53173,7 +53173,7 @@
         <v>385</v>
       </c>
       <c r="G902" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4.2382636906466153E-3</v>
       </c>
     </row>
@@ -53197,7 +53197,7 @@
         <v>384</v>
       </c>
       <c r="G903" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1448069446672759E-2</v>
       </c>
     </row>
@@ -53221,7 +53221,7 @@
         <v>383</v>
       </c>
       <c r="G904" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.9158381453565649E-3</v>
       </c>
     </row>
@@ -53245,7 +53245,7 @@
         <v>382</v>
       </c>
       <c r="G905" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-8.2981771519977654E-3</v>
       </c>
     </row>
@@ -53269,7 +53269,7 @@
         <v>381</v>
       </c>
       <c r="G906" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-3.3896427336942425E-3</v>
       </c>
     </row>
@@ -53293,7 +53293,7 @@
         <v>380</v>
       </c>
       <c r="G907" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8.1351452185074447E-3</v>
       </c>
     </row>
@@ -53317,7 +53317,7 @@
         <v>379</v>
       </c>
       <c r="G908" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.6601341262767355E-2</v>
       </c>
     </row>
@@ -53341,7 +53341,7 @@
         <v>378</v>
       </c>
       <c r="G909" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.608562439873289E-3</v>
       </c>
     </row>
@@ -53365,7 +53365,7 @@
         <v>377</v>
       </c>
       <c r="G910" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8.1047306607235914E-3</v>
       </c>
     </row>
@@ -53389,7 +53389,7 @@
         <v>376</v>
       </c>
       <c r="G911" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.732623138010263E-3</v>
       </c>
     </row>
@@ -53413,7 +53413,7 @@
         <v>375</v>
       </c>
       <c r="G912" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7675602496691534E-2</v>
       </c>
     </row>
@@ -53437,7 +53437,7 @@
         <v>374</v>
       </c>
       <c r="G913" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-2.0251500452079796E-3</v>
       </c>
     </row>
@@ -53461,7 +53461,7 @@
         <v>373</v>
       </c>
       <c r="G914" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.723538008304526E-2</v>
       </c>
     </row>
@@ -53485,7 +53485,7 @@
         <v>372</v>
       </c>
       <c r="G915" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-2.7558311016351977E-2</v>
       </c>
     </row>
@@ -53509,7 +53509,7 @@
         <v>371</v>
       </c>
       <c r="G916" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.0008865599227015E-4</v>
       </c>
     </row>
@@ -53533,7 +53533,7 @@
         <v>370</v>
       </c>
       <c r="G917" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.0900579033747526E-2</v>
       </c>
     </row>
@@ -53557,7 +53557,7 @@
         <v>369</v>
       </c>
       <c r="G918" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.145083060506848E-2</v>
       </c>
     </row>
@@ -53581,7 +53581,7 @@
         <v>368</v>
       </c>
       <c r="G919" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.7975522043582899E-3</v>
       </c>
     </row>
@@ -53605,7 +53605,7 @@
         <v>367</v>
       </c>
       <c r="G920" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.956942229164893E-2</v>
       </c>
     </row>
@@ -53629,7 +53629,7 @@
         <v>366</v>
       </c>
       <c r="G921" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-3.0461375777315225E-2</v>
       </c>
     </row>
@@ -53653,7 +53653,7 @@
         <v>365</v>
       </c>
       <c r="G922" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.5849652278231439E-3</v>
       </c>
     </row>
@@ -53677,7 +53677,7 @@
         <v>364</v>
       </c>
       <c r="G923" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.6560706445803994E-3</v>
       </c>
     </row>
@@ -53701,7 +53701,7 @@
         <v>363</v>
       </c>
       <c r="G924" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.4257166415270861E-2</v>
       </c>
     </row>
@@ -53725,7 +53725,7 @@
         <v>362</v>
       </c>
       <c r="G925" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.5161747237200327E-2</v>
       </c>
     </row>
@@ -53749,7 +53749,7 @@
         <v>361</v>
       </c>
       <c r="G926" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-5.5999092292851715E-2</v>
       </c>
     </row>
@@ -53773,7 +53773,7 @@
         <v>360</v>
       </c>
       <c r="G927" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-2.6147062515107233E-2</v>
       </c>
     </row>
@@ -53797,7 +53797,7 @@
         <v>359</v>
       </c>
       <c r="G928" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7600116203506655E-2</v>
       </c>
     </row>
@@ -53821,7 +53821,7 @@
         <v>358</v>
       </c>
       <c r="G929" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.3359827392000838E-2</v>
       </c>
     </row>
@@ -53845,7 +53845,7 @@
         <v>357</v>
       </c>
       <c r="G930" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-5.6061231538795386E-3</v>
       </c>
     </row>
@@ -53869,7 +53869,7 @@
         <v>356</v>
       </c>
       <c r="G931" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.4424066064377183E-2</v>
       </c>
     </row>
@@ -53893,7 +53893,7 @@
         <v>355</v>
       </c>
       <c r="G932" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5953524336805414E-2</v>
       </c>
     </row>
@@ -53917,7 +53917,7 @@
         <v>354</v>
       </c>
       <c r="G933" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4.4007262452072649E-3</v>
       </c>
     </row>
@@ -53941,7 +53941,7 @@
         <v>353</v>
       </c>
       <c r="G934" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.5588174775639341E-2</v>
       </c>
     </row>
@@ -53965,7 +53965,7 @@
         <v>352</v>
       </c>
       <c r="G935" s="9">
-        <f t="shared" ref="G935:G998" si="12">A935/D935-1</f>
+        <f t="shared" ref="G935:G998" si="15">A935/D935-1</f>
         <v>-1.4079494225073264E-3</v>
       </c>
     </row>
@@ -53989,7 +53989,7 @@
         <v>351</v>
       </c>
       <c r="G936" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1418144000680419E-2</v>
       </c>
     </row>
@@ -54013,7 +54013,7 @@
         <v>350</v>
       </c>
       <c r="G937" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.9615624799846261E-2</v>
       </c>
     </row>
@@ -54037,7 +54037,7 @@
         <v>349</v>
       </c>
       <c r="G938" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6275588181260403E-2</v>
       </c>
     </row>
@@ -54061,7 +54061,7 @@
         <v>348</v>
       </c>
       <c r="G939" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-9.7114830108838701E-3</v>
       </c>
     </row>
@@ -54085,7 +54085,7 @@
         <v>347</v>
       </c>
       <c r="G940" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.9075485781575594E-3</v>
       </c>
     </row>
@@ -54109,7 +54109,7 @@
         <v>346</v>
       </c>
       <c r="G941" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-2.0157738447467155E-3</v>
       </c>
     </row>
@@ -54133,7 +54133,7 @@
         <v>345</v>
       </c>
       <c r="G942" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-6.4970562536882381E-3</v>
       </c>
     </row>
@@ -54157,7 +54157,7 @@
         <v>344</v>
       </c>
       <c r="G943" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.865763295711421E-3</v>
       </c>
     </row>
@@ -54181,7 +54181,7 @@
         <v>343</v>
       </c>
       <c r="G944" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0663395117778807E-2</v>
       </c>
     </row>
@@ -54205,7 +54205,7 @@
         <v>342</v>
       </c>
       <c r="G945" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7.5756951838628073E-3</v>
       </c>
     </row>
@@ -54229,7 +54229,7 @@
         <v>341</v>
       </c>
       <c r="G946" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.1636401952299433E-2</v>
       </c>
     </row>
@@ -54253,7 +54253,7 @@
         <v>340</v>
       </c>
       <c r="G947" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-3.6107910043712499E-2</v>
       </c>
     </row>
@@ -54277,7 +54277,7 @@
         <v>339</v>
       </c>
       <c r="G948" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.1941287167731591E-3</v>
       </c>
     </row>
@@ -54301,7 +54301,7 @@
         <v>338</v>
       </c>
       <c r="G949" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-4.3828588758999532E-3</v>
       </c>
     </row>
@@ -54325,7 +54325,7 @@
         <v>337</v>
       </c>
       <c r="G950" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4111257822459589E-2</v>
       </c>
     </row>
@@ -54349,7 +54349,7 @@
         <v>336</v>
       </c>
       <c r="G951" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.0960835070059636E-2</v>
       </c>
     </row>
@@ -54373,7 +54373,7 @@
         <v>335</v>
       </c>
       <c r="G952" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6124158427681889E-2</v>
       </c>
     </row>
@@ -54397,7 +54397,7 @@
         <v>334</v>
       </c>
       <c r="G953" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.9930165742186201E-2</v>
       </c>
     </row>
@@ -54421,7 +54421,7 @@
         <v>333</v>
       </c>
       <c r="G954" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.7504073457113467E-2</v>
       </c>
     </row>
@@ -54445,7 +54445,7 @@
         <v>332</v>
       </c>
       <c r="G955" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.0582126521632929E-2</v>
       </c>
     </row>
@@ -54469,7 +54469,7 @@
         <v>331</v>
       </c>
       <c r="G956" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0537999945237519E-2</v>
       </c>
     </row>
@@ -54493,7 +54493,7 @@
         <v>330</v>
       </c>
       <c r="G957" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.1911634380468494E-2</v>
       </c>
     </row>
@@ -54517,7 +54517,7 @@
         <v>329</v>
       </c>
       <c r="G958" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-2.1893962530256661E-2</v>
       </c>
     </row>
@@ -54541,7 +54541,7 @@
         <v>328</v>
       </c>
       <c r="G959" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-4.5249221791401117E-2</v>
       </c>
     </row>
@@ -54565,7 +54565,7 @@
         <v>327</v>
       </c>
       <c r="G960" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3393114929385108E-2</v>
       </c>
     </row>
@@ -54589,7 +54589,7 @@
         <v>326</v>
       </c>
       <c r="G961" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.0141191320758636E-2</v>
       </c>
     </row>
@@ -54613,7 +54613,7 @@
         <v>325</v>
       </c>
       <c r="G962" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.317003207238221E-2</v>
       </c>
     </row>
@@ -54637,7 +54637,7 @@
         <v>324</v>
       </c>
       <c r="G963" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-2.08981811658282E-3</v>
       </c>
     </row>
@@ -54661,7 +54661,7 @@
         <v>323</v>
       </c>
       <c r="G964" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.730981470289608E-3</v>
       </c>
     </row>
@@ -54685,7 +54685,7 @@
         <v>322</v>
       </c>
       <c r="G965" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.8280638593514595E-2</v>
       </c>
     </row>
@@ -54709,7 +54709,7 @@
         <v>321</v>
       </c>
       <c r="G966" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.386047833081407E-2</v>
       </c>
     </row>
@@ -54733,7 +54733,7 @@
         <v>320</v>
       </c>
       <c r="G967" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.0547446479690645E-3</v>
       </c>
     </row>
@@ -54757,7 +54757,7 @@
         <v>319</v>
       </c>
       <c r="G968" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0704376854289155E-2</v>
       </c>
     </row>
@@ -54781,7 +54781,7 @@
         <v>318</v>
       </c>
       <c r="G969" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.1236770896033033E-2</v>
       </c>
     </row>
@@ -54805,7 +54805,7 @@
         <v>317</v>
       </c>
       <c r="G970" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.7419051169802358E-2</v>
       </c>
     </row>
@@ -54829,7 +54829,7 @@
         <v>316</v>
       </c>
       <c r="G971" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2796949414079162E-2</v>
       </c>
     </row>
@@ -54853,7 +54853,7 @@
         <v>315</v>
       </c>
       <c r="G972" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5743438574127522E-2</v>
       </c>
     </row>
@@ -54877,7 +54877,7 @@
         <v>314</v>
       </c>
       <c r="G973" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-4.2542664096955063E-3</v>
       </c>
     </row>
@@ -54901,7 +54901,7 @@
         <v>313</v>
       </c>
       <c r="G974" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.6531273101438537E-2</v>
       </c>
     </row>
@@ -54925,7 +54925,7 @@
         <v>312</v>
       </c>
       <c r="G975" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-6.2623216038348861E-4</v>
       </c>
     </row>
@@ -54949,7 +54949,7 @@
         <v>311</v>
       </c>
       <c r="G976" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9.1521548759496696E-3</v>
       </c>
     </row>
@@ -54973,7 +54973,7 @@
         <v>310</v>
       </c>
       <c r="G977" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.6600584985375431E-2</v>
       </c>
     </row>
@@ -54997,7 +54997,7 @@
         <v>309</v>
       </c>
       <c r="G978" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-2.6120882518023691E-3</v>
       </c>
     </row>
@@ -55021,7 +55021,7 @@
         <v>308</v>
       </c>
       <c r="G979" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.820218152272961E-3</v>
       </c>
     </row>
@@ -55045,7 +55045,7 @@
         <v>307</v>
       </c>
       <c r="G980" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.2094775857926843E-2</v>
       </c>
     </row>
@@ -55069,7 +55069,7 @@
         <v>306</v>
       </c>
       <c r="G981" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.7920538336781755E-2</v>
       </c>
     </row>
@@ -55093,7 +55093,7 @@
         <v>305</v>
       </c>
       <c r="G982" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.4197113796988745E-3</v>
       </c>
     </row>
@@ -55117,7 +55117,7 @@
         <v>304</v>
       </c>
       <c r="G983" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4.2916332015969783E-3</v>
       </c>
     </row>
@@ -55141,7 +55141,7 @@
         <v>303</v>
       </c>
       <c r="G984" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.3150382302340686E-2</v>
       </c>
     </row>
@@ -55165,7 +55165,7 @@
         <v>302</v>
       </c>
       <c r="G985" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.7972933881386211E-2</v>
       </c>
     </row>
@@ -55189,7 +55189,7 @@
         <v>301</v>
       </c>
       <c r="G986" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.6558041941407087E-2</v>
       </c>
     </row>
@@ -55213,7 +55213,7 @@
         <v>300</v>
       </c>
       <c r="G987" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.0260328911459791E-2</v>
       </c>
     </row>
@@ -55237,7 +55237,7 @@
         <v>299</v>
       </c>
       <c r="G988" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.1870729681038341E-3</v>
       </c>
     </row>
@@ -55261,7 +55261,7 @@
         <v>298</v>
       </c>
       <c r="G989" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.4472529717905247E-2</v>
       </c>
     </row>
@@ -55285,7 +55285,7 @@
         <v>297</v>
       </c>
       <c r="G990" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-7.6447929541904047E-3</v>
       </c>
     </row>
@@ -55309,7 +55309,7 @@
         <v>296</v>
       </c>
       <c r="G991" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-9.3957690252113313E-3</v>
       </c>
     </row>
@@ -55333,7 +55333,7 @@
         <v>295</v>
       </c>
       <c r="G992" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.0898388771447554E-2</v>
       </c>
     </row>
@@ -55357,7 +55357,7 @@
         <v>294</v>
       </c>
       <c r="G993" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.3480782241319673E-3</v>
       </c>
     </row>
@@ -55381,7 +55381,7 @@
         <v>293</v>
       </c>
       <c r="G994" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-3.1998545310533144E-3</v>
       </c>
     </row>
@@ -55405,7 +55405,7 @@
         <v>292</v>
       </c>
       <c r="G995" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.7502606689167033E-3</v>
       </c>
     </row>
@@ -55429,7 +55429,7 @@
         <v>291</v>
       </c>
       <c r="G996" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.322400498213061E-2</v>
       </c>
     </row>
@@ -55453,7 +55453,7 @@
         <v>290</v>
       </c>
       <c r="G997" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.293043298680967E-3</v>
       </c>
     </row>
@@ -55477,7 +55477,7 @@
         <v>289</v>
       </c>
       <c r="G998" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-1.748314363896708E-2</v>
       </c>
     </row>
@@ -55501,7 +55501,7 @@
         <v>288</v>
       </c>
       <c r="G999" s="9">
-        <f t="shared" ref="G999:G1062" si="13">A999/D999-1</f>
+        <f t="shared" ref="G999:G1062" si="16">A999/D999-1</f>
         <v>4.7919763392334502E-4</v>
       </c>
     </row>
@@ -55525,7 +55525,7 @@
         <v>287</v>
       </c>
       <c r="G1000" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.5868940612264848E-2</v>
       </c>
     </row>
@@ -55549,7 +55549,7 @@
         <v>286</v>
       </c>
       <c r="G1001" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.836761342112303E-2</v>
       </c>
     </row>
@@ -55573,7 +55573,7 @@
         <v>285</v>
       </c>
       <c r="G1002" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.7772959578752374E-3</v>
       </c>
     </row>
@@ -55597,7 +55597,7 @@
         <v>284</v>
       </c>
       <c r="G1003" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-8.7112540513780701E-3</v>
       </c>
     </row>
@@ -55621,7 +55621,7 @@
         <v>283</v>
       </c>
       <c r="G1004" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-7.380336124434006E-4</v>
       </c>
     </row>
@@ -55645,7 +55645,7 @@
         <v>282</v>
       </c>
       <c r="G1005" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1814123435740509E-3</v>
       </c>
     </row>
@@ -55669,7 +55669,7 @@
         <v>281</v>
       </c>
       <c r="G1006" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-4.057780650709164E-4</v>
       </c>
     </row>
@@ -55693,7 +55693,7 @@
         <v>280</v>
       </c>
       <c r="G1007" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.97245487151765E-3</v>
       </c>
     </row>
@@ -55717,7 +55717,7 @@
         <v>279</v>
       </c>
       <c r="G1008" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.4967838036229537E-3</v>
       </c>
     </row>
@@ -55741,7 +55741,7 @@
         <v>278</v>
       </c>
       <c r="G1009" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.0519677549643021E-2</v>
       </c>
     </row>
@@ -55765,7 +55765,7 @@
         <v>277</v>
       </c>
       <c r="G1010" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.3161026669004547E-2</v>
       </c>
     </row>
@@ -55789,7 +55789,7 @@
         <v>276</v>
       </c>
       <c r="G1011" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.0483470016019458E-3</v>
       </c>
     </row>
@@ -55813,7 +55813,7 @@
         <v>275</v>
       </c>
       <c r="G1012" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.7958471308836561E-3</v>
       </c>
     </row>
@@ -55837,7 +55837,7 @@
         <v>274</v>
       </c>
       <c r="G1013" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-6.1656196449794143E-3</v>
       </c>
     </row>
@@ -55861,7 +55861,7 @@
         <v>273</v>
       </c>
       <c r="G1014" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-7.4377565817692615E-3</v>
       </c>
     </row>
@@ -55885,7 +55885,7 @@
         <v>272</v>
       </c>
       <c r="G1015" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.3553012258363695E-2</v>
       </c>
     </row>
@@ -55909,7 +55909,7 @@
         <v>271</v>
       </c>
       <c r="G1016" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.305833239993115E-3</v>
       </c>
     </row>
@@ -55933,7 +55933,7 @@
         <v>270</v>
       </c>
       <c r="G1017" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-4.4765847058231278E-3</v>
       </c>
     </row>
@@ -55957,7 +55957,7 @@
         <v>269</v>
       </c>
       <c r="G1018" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.0000119761196533E-3</v>
       </c>
     </row>
@@ -55981,7 +55981,7 @@
         <v>268</v>
       </c>
       <c r="G1019" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.3023243021970128E-3</v>
       </c>
     </row>
@@ -56005,7 +56005,7 @@
         <v>267</v>
       </c>
       <c r="G1020" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.8455641203816153E-3</v>
       </c>
     </row>
@@ -56029,7 +56029,7 @@
         <v>266</v>
       </c>
       <c r="G1021" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.7680926174596934E-2</v>
       </c>
     </row>
@@ -56053,7 +56053,7 @@
         <v>265</v>
       </c>
       <c r="G1022" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-7.9566159000507009E-3</v>
       </c>
     </row>
@@ -56077,7 +56077,7 @@
         <v>264</v>
       </c>
       <c r="G1023" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.8690514572497383E-2</v>
       </c>
     </row>
@@ -56101,7 +56101,7 @@
         <v>263</v>
       </c>
       <c r="G1024" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-5.0351971380970806E-3</v>
       </c>
     </row>
@@ -56125,7 +56125,7 @@
         <v>262</v>
       </c>
       <c r="G1025" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-2.3320099002562378E-2</v>
       </c>
     </row>
@@ -56149,7 +56149,7 @@
         <v>261</v>
       </c>
       <c r="G1026" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.2290396943190118E-2</v>
       </c>
     </row>
@@ -56173,7 +56173,7 @@
         <v>260</v>
       </c>
       <c r="G1027" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-2.5315740353682337E-2</v>
       </c>
     </row>
@@ -56197,7 +56197,7 @@
         <v>259</v>
       </c>
       <c r="G1028" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.4776130026121805E-3</v>
       </c>
     </row>
@@ -56221,7 +56221,7 @@
         <v>258</v>
       </c>
       <c r="G1029" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.8735404231752351E-2</v>
       </c>
     </row>
@@ -56245,7 +56245,7 @@
         <v>257</v>
       </c>
       <c r="G1030" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.4798744848942169E-2</v>
       </c>
     </row>
@@ -56269,7 +56269,7 @@
         <v>256</v>
       </c>
       <c r="G1031" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.4158015238554542E-2</v>
       </c>
     </row>
@@ -56293,7 +56293,7 @@
         <v>255</v>
       </c>
       <c r="G1032" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.1080908338824136E-2</v>
       </c>
     </row>
@@ -56317,7 +56317,7 @@
         <v>254</v>
       </c>
       <c r="G1033" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4903519840880897E-3</v>
       </c>
     </row>
@@ -56341,7 +56341,7 @@
         <v>253</v>
       </c>
       <c r="G1034" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1830596632915746E-3</v>
       </c>
     </row>
@@ -56365,7 +56365,7 @@
         <v>252</v>
       </c>
       <c r="G1035" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.1884792783746212E-2</v>
       </c>
     </row>
@@ -56389,7 +56389,7 @@
         <v>251</v>
       </c>
       <c r="G1036" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3.4541225460893443E-3</v>
       </c>
     </row>
@@ -56413,7 +56413,7 @@
         <v>250</v>
       </c>
       <c r="G1037" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-2.9224558621066987E-2</v>
       </c>
     </row>
@@ -56437,7 +56437,7 @@
         <v>249</v>
       </c>
       <c r="G1038" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.4183920586353316E-2</v>
       </c>
     </row>
@@ -56461,7 +56461,7 @@
         <v>248</v>
       </c>
       <c r="G1039" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>7.2744129790325296E-4</v>
       </c>
     </row>
@@ -56485,7 +56485,7 @@
         <v>247</v>
       </c>
       <c r="G1040" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-8.2775568636064278E-3</v>
       </c>
     </row>
@@ -56509,7 +56509,7 @@
         <v>246</v>
       </c>
       <c r="G1041" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.9040396205709742E-2</v>
       </c>
     </row>
@@ -56533,7 +56533,7 @@
         <v>245</v>
       </c>
       <c r="G1042" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-9.2449083886965155E-3</v>
       </c>
     </row>
@@ -56557,7 +56557,7 @@
         <v>244</v>
       </c>
       <c r="G1043" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-3.2630239334091593E-3</v>
       </c>
     </row>
@@ -56581,7 +56581,7 @@
         <v>243</v>
       </c>
       <c r="G1044" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.8518474376545484E-3</v>
       </c>
     </row>
@@ -56605,7 +56605,7 @@
         <v>242</v>
       </c>
       <c r="G1045" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8.5297568342586061E-3</v>
       </c>
     </row>
@@ -56629,7 +56629,7 @@
         <v>241</v>
       </c>
       <c r="G1046" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.0598550050646258E-2</v>
       </c>
     </row>
@@ -56653,7 +56653,7 @@
         <v>240</v>
       </c>
       <c r="G1047" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.8284779238408877E-3</v>
       </c>
     </row>
@@ -56677,7 +56677,7 @@
         <v>239</v>
       </c>
       <c r="G1048" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-2.0072994083342399E-2</v>
       </c>
     </row>
@@ -56701,7 +56701,7 @@
         <v>238</v>
       </c>
       <c r="G1049" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-6.6183520175140398E-3</v>
       </c>
     </row>
@@ -56725,7 +56725,7 @@
         <v>237</v>
       </c>
       <c r="G1050" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.2191604893765584E-2</v>
       </c>
     </row>
@@ -56749,7 +56749,7 @@
         <v>236</v>
       </c>
       <c r="G1051" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-9.4176514017207946E-4</v>
       </c>
     </row>
@@ -56773,7 +56773,7 @@
         <v>235</v>
       </c>
       <c r="G1052" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0675731164816238E-2</v>
       </c>
     </row>
@@ -56797,7 +56797,7 @@
         <v>234</v>
       </c>
       <c r="G1053" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.4703886698171953E-3</v>
       </c>
     </row>
@@ -56821,7 +56821,7 @@
         <v>233</v>
       </c>
       <c r="G1054" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.4975322419027446E-2</v>
       </c>
     </row>
@@ -56845,7 +56845,7 @@
         <v>232</v>
       </c>
       <c r="G1055" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-3.6121173275068807E-3</v>
       </c>
     </row>
@@ -56869,7 +56869,7 @@
         <v>231</v>
       </c>
       <c r="G1056" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.9936943801250884E-3</v>
       </c>
     </row>
@@ -56893,7 +56893,7 @@
         <v>230</v>
       </c>
       <c r="G1057" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.1526178918378269E-2</v>
       </c>
     </row>
@@ -56917,7 +56917,7 @@
         <v>229</v>
       </c>
       <c r="G1058" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-5.8140634272437763E-3</v>
       </c>
     </row>
@@ -56941,7 +56941,7 @@
         <v>228</v>
       </c>
       <c r="G1059" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-6.8471298794484659E-3</v>
       </c>
     </row>
@@ -56965,7 +56965,7 @@
         <v>227</v>
       </c>
       <c r="G1060" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.4736730598429837E-2</v>
       </c>
     </row>
@@ -56989,7 +56989,7 @@
         <v>226</v>
       </c>
       <c r="G1061" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-7.116800660399103E-3</v>
       </c>
     </row>
@@ -57013,7 +57013,7 @@
         <v>225</v>
       </c>
       <c r="G1062" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.9211691094151995E-3</v>
       </c>
     </row>
@@ -57037,7 +57037,7 @@
         <v>224</v>
       </c>
       <c r="G1063" s="9">
-        <f t="shared" ref="G1063:G1126" si="14">A1063/D1063-1</f>
+        <f t="shared" ref="G1063:G1126" si="17">A1063/D1063-1</f>
         <v>1.3684129888514418E-2</v>
       </c>
     </row>
@@ -57061,7 +57061,7 @@
         <v>223</v>
       </c>
       <c r="G1064" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-2.6216481004390779E-3</v>
       </c>
     </row>
@@ -57085,7 +57085,7 @@
         <v>222</v>
       </c>
       <c r="G1065" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.4722233051343014E-2</v>
       </c>
     </row>
@@ -57109,7 +57109,7 @@
         <v>221</v>
       </c>
       <c r="G1066" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0511500509951865E-2</v>
       </c>
     </row>
@@ -57133,7 +57133,7 @@
         <v>220</v>
       </c>
       <c r="G1067" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.717999165971007E-2</v>
       </c>
     </row>
@@ -57157,7 +57157,7 @@
         <v>219</v>
       </c>
       <c r="G1068" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-2.6109073949120987E-4</v>
       </c>
     </row>
@@ -57181,7 +57181,7 @@
         <v>218</v>
       </c>
       <c r="G1069" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.9117289544058114E-2</v>
       </c>
     </row>
@@ -57205,7 +57205,7 @@
         <v>217</v>
       </c>
       <c r="G1070" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-7.1519415515567397E-3</v>
       </c>
     </row>
@@ -57229,7 +57229,7 @@
         <v>216</v>
       </c>
       <c r="G1071" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3.6642315211485865E-3</v>
       </c>
     </row>
@@ -57253,7 +57253,7 @@
         <v>215</v>
       </c>
       <c r="G1072" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.157499334945733E-2</v>
       </c>
     </row>
@@ -57277,7 +57277,7 @@
         <v>214</v>
       </c>
       <c r="G1073" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7.5292510496418608E-3</v>
       </c>
     </row>
@@ -57301,7 +57301,7 @@
         <v>213</v>
       </c>
       <c r="G1074" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-6.5919136161856073E-3</v>
       </c>
     </row>
@@ -57325,7 +57325,7 @@
         <v>212</v>
       </c>
       <c r="G1075" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-3.9718126435261958E-3</v>
       </c>
     </row>
@@ -57349,7 +57349,7 @@
         <v>211</v>
       </c>
       <c r="G1076" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-8.929751663470209E-3</v>
       </c>
     </row>
@@ -57373,7 +57373,7 @@
         <v>210</v>
       </c>
       <c r="G1077" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-2.3485103669796947E-3</v>
       </c>
     </row>
@@ -57397,7 +57397,7 @@
         <v>209</v>
       </c>
       <c r="G1078" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1498775530046634E-2</v>
       </c>
     </row>
@@ -57421,7 +57421,7 @@
         <v>208</v>
       </c>
       <c r="G1079" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2320107753590159E-2</v>
       </c>
     </row>
@@ -57445,7 +57445,7 @@
         <v>207</v>
       </c>
       <c r="G1080" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.5342632196339134E-2</v>
       </c>
     </row>
@@ -57469,7 +57469,7 @@
         <v>206</v>
       </c>
       <c r="G1081" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.4182883086346521E-2</v>
       </c>
     </row>
@@ -57493,7 +57493,7 @@
         <v>205</v>
       </c>
       <c r="G1082" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.1352910476452371E-2</v>
       </c>
     </row>
@@ -57517,7 +57517,7 @@
         <v>204</v>
       </c>
       <c r="G1083" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>5.9982705129939529E-3</v>
       </c>
     </row>
@@ -57541,7 +57541,7 @@
         <v>203</v>
       </c>
       <c r="G1084" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>5.4481745818424354E-3</v>
       </c>
     </row>
@@ -57565,7 +57565,7 @@
         <v>202</v>
       </c>
       <c r="G1085" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-6.5021534154907634E-4</v>
       </c>
     </row>
@@ -57589,7 +57589,7 @@
         <v>201</v>
       </c>
       <c r="G1086" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.6537940564413933E-3</v>
       </c>
     </row>
@@ -57613,7 +57613,7 @@
         <v>200</v>
       </c>
       <c r="G1087" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-3.7088547173529385E-3</v>
       </c>
     </row>
@@ -57637,7 +57637,7 @@
         <v>199</v>
       </c>
       <c r="G1088" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1240298156664164E-2</v>
       </c>
     </row>
@@ -57661,7 +57661,7 @@
         <v>198</v>
       </c>
       <c r="G1089" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.190876612639947E-4</v>
       </c>
     </row>
@@ -57685,7 +57685,7 @@
         <v>197</v>
       </c>
       <c r="G1090" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.2238127811129456E-3</v>
       </c>
     </row>
@@ -57709,7 +57709,7 @@
         <v>196</v>
       </c>
       <c r="G1091" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-5.8981371013910877E-4</v>
       </c>
     </row>
@@ -57733,7 +57733,7 @@
         <v>195</v>
       </c>
       <c r="G1092" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.0302355567943788E-3</v>
       </c>
     </row>
@@ -57757,7 +57757,7 @@
         <v>194</v>
       </c>
       <c r="G1093" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.3714191307887322E-2</v>
       </c>
     </row>
@@ -57781,7 +57781,7 @@
         <v>193</v>
       </c>
       <c r="G1094" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-6.1812367618706565E-3</v>
       </c>
     </row>
@@ -57805,7 +57805,7 @@
         <v>192</v>
       </c>
       <c r="G1095" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.2020828057263149E-3</v>
       </c>
     </row>
@@ -57829,7 +57829,7 @@
         <v>191</v>
       </c>
       <c r="G1096" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2138469469958446E-2</v>
       </c>
     </row>
@@ -57853,7 +57853,7 @@
         <v>190</v>
       </c>
       <c r="G1097" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.4506729946315966E-2</v>
       </c>
     </row>
@@ -57877,7 +57877,7 @@
         <v>189</v>
       </c>
       <c r="G1098" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2601643942627305E-2</v>
       </c>
     </row>
@@ -57901,7 +57901,7 @@
         <v>188</v>
       </c>
       <c r="G1099" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0753733433743307E-2</v>
       </c>
     </row>
@@ -57925,7 +57925,7 @@
         <v>187</v>
       </c>
       <c r="G1100" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7.0416338342442764E-3</v>
       </c>
     </row>
@@ -57949,7 +57949,7 @@
         <v>186</v>
       </c>
       <c r="G1101" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3479508528009054E-2</v>
       </c>
     </row>
@@ -57973,7 +57973,7 @@
         <v>185</v>
       </c>
       <c r="G1102" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.365884784213045E-2</v>
       </c>
     </row>
@@ -57997,7 +57997,7 @@
         <v>184</v>
       </c>
       <c r="G1103" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.6106777106061898E-2</v>
       </c>
     </row>
@@ -58021,7 +58021,7 @@
         <v>183</v>
       </c>
       <c r="G1104" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.7359881607759031E-2</v>
       </c>
     </row>
@@ -58045,7 +58045,7 @@
         <v>182</v>
       </c>
       <c r="G1105" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-8.908611618623552E-3</v>
       </c>
     </row>
@@ -58069,7 +58069,7 @@
         <v>181</v>
       </c>
       <c r="G1106" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3.9470795165725825E-3</v>
       </c>
     </row>
@@ -58093,7 +58093,7 @@
         <v>180</v>
       </c>
       <c r="G1107" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.5964417631941341E-2</v>
       </c>
     </row>
@@ -58117,7 +58117,7 @@
         <v>179</v>
       </c>
       <c r="G1108" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-6.1190433472430028E-3</v>
       </c>
     </row>
@@ -58141,7 +58141,7 @@
         <v>178</v>
       </c>
       <c r="G1109" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-5.816449759486586E-3</v>
       </c>
     </row>
@@ -58165,7 +58165,7 @@
         <v>177</v>
       </c>
       <c r="G1110" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8.3364375388670364E-3</v>
       </c>
     </row>
@@ -58189,7 +58189,7 @@
         <v>176</v>
       </c>
       <c r="G1111" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.1169427460566705E-4</v>
       </c>
     </row>
@@ -58213,7 +58213,7 @@
         <v>175</v>
       </c>
       <c r="G1112" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.8197551582794902E-2</v>
       </c>
     </row>
@@ -58237,7 +58237,7 @@
         <v>174</v>
       </c>
       <c r="G1113" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.8986226530936179E-2</v>
       </c>
     </row>
@@ -58261,7 +58261,7 @@
         <v>173</v>
       </c>
       <c r="G1114" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7.454796693510124E-3</v>
       </c>
     </row>
@@ -58285,7 +58285,7 @@
         <v>172</v>
       </c>
       <c r="G1115" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0191697547870415E-2</v>
       </c>
     </row>
@@ -58309,7 +58309,7 @@
         <v>171</v>
       </c>
       <c r="G1116" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0045213510028184E-3</v>
       </c>
     </row>
@@ -58333,7 +58333,7 @@
         <v>170</v>
       </c>
       <c r="G1117" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.0143349067553995E-3</v>
       </c>
     </row>
@@ -58357,7 +58357,7 @@
         <v>169</v>
       </c>
       <c r="G1118" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.5395585728602343E-2</v>
       </c>
     </row>
@@ -58381,7 +58381,7 @@
         <v>168</v>
       </c>
       <c r="G1119" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-2.1311544489669765E-2</v>
       </c>
     </row>
@@ -58405,7 +58405,7 @@
         <v>167</v>
       </c>
       <c r="G1120" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1269936201729891E-3</v>
       </c>
     </row>
@@ -58429,7 +58429,7 @@
         <v>166</v>
       </c>
       <c r="G1121" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.0737325731181246E-2</v>
       </c>
     </row>
@@ -58453,7 +58453,7 @@
         <v>165</v>
       </c>
       <c r="G1122" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-5.8198970426374119E-3</v>
       </c>
     </row>
@@ -58477,7 +58477,7 @@
         <v>164</v>
       </c>
       <c r="G1123" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.2830212681250619E-2</v>
       </c>
     </row>
@@ -58501,7 +58501,7 @@
         <v>163</v>
       </c>
       <c r="G1124" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7.683713574587081E-3</v>
       </c>
     </row>
@@ -58525,7 +58525,7 @@
         <v>162</v>
       </c>
       <c r="G1125" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-2.1888040806374853E-3</v>
       </c>
     </row>
@@ -58549,7 +58549,7 @@
         <v>161</v>
       </c>
       <c r="G1126" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6.2909822246728364E-3</v>
       </c>
     </row>
@@ -58573,7 +58573,7 @@
         <v>160</v>
       </c>
       <c r="G1127" s="9">
-        <f t="shared" ref="G1127:G1192" si="15">A1127/D1127-1</f>
+        <f t="shared" ref="G1127:G1192" si="18">A1127/D1127-1</f>
         <v>-3.3907088306206479E-4</v>
       </c>
     </row>
@@ -58597,7 +58597,7 @@
         <v>159</v>
       </c>
       <c r="G1128" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-2.0346549966068217E-3</v>
       </c>
     </row>
@@ -58621,7 +58621,7 @@
         <v>158</v>
       </c>
       <c r="G1129" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9.5853485849342057E-3</v>
       </c>
     </row>
@@ -58645,7 +58645,7 @@
         <v>157</v>
       </c>
       <c r="G1130" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8.4064121658133928E-3</v>
       </c>
     </row>
@@ -58669,7 +58669,7 @@
         <v>156</v>
       </c>
       <c r="G1131" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-8.4613475716666109E-4</v>
       </c>
     </row>
@@ -58693,7 +58693,7 @@
         <v>155</v>
       </c>
       <c r="G1132" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.8395026922616298E-3</v>
       </c>
     </row>
@@ -58717,7 +58717,7 @@
         <v>154</v>
       </c>
       <c r="G1133" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.4720932995421987E-2</v>
       </c>
     </row>
@@ -58741,7 +58741,7 @@
         <v>153</v>
       </c>
       <c r="G1134" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.4671086288287096E-3</v>
       </c>
     </row>
@@ -58765,7 +58765,7 @@
         <v>152</v>
       </c>
       <c r="G1135" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-9.6240518309369527E-3</v>
       </c>
     </row>
@@ -58789,7 +58789,7 @@
         <v>151</v>
       </c>
       <c r="G1136" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8.0003084073188013E-4</v>
       </c>
     </row>
@@ -58813,7 +58813,7 @@
         <v>150</v>
       </c>
       <c r="G1137" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.053852331504368E-2</v>
       </c>
     </row>
@@ -58837,7 +58837,7 @@
         <v>149</v>
       </c>
       <c r="G1138" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4926802627932334E-2</v>
       </c>
     </row>
@@ -58861,7 +58861,7 @@
         <v>148</v>
       </c>
       <c r="G1139" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.2014840482598599E-2</v>
       </c>
     </row>
@@ -58885,7 +58885,7 @@
         <v>147</v>
       </c>
       <c r="G1140" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2878017013309595E-2</v>
       </c>
     </row>
@@ -58909,7 +58909,7 @@
         <v>146</v>
       </c>
       <c r="G1141" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-3.8850435547905793E-3</v>
       </c>
     </row>
@@ -58933,7 +58933,7 @@
         <v>145</v>
       </c>
       <c r="G1142" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9.3585242083182862E-4</v>
       </c>
     </row>
@@ -58957,7 +58957,7 @@
         <v>144</v>
       </c>
       <c r="G1143" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.2498991688252303E-3</v>
       </c>
     </row>
@@ -58981,7 +58981,7 @@
         <v>143</v>
       </c>
       <c r="G1144" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-5.1339779201629021E-3</v>
       </c>
     </row>
@@ -59005,7 +59005,7 @@
         <v>142</v>
       </c>
       <c r="G1145" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1787038944347072E-2</v>
       </c>
     </row>
@@ -59029,7 +59029,7 @@
         <v>141</v>
       </c>
       <c r="G1146" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6.2410548887779083E-3</v>
       </c>
     </row>
@@ -59053,7 +59053,7 @@
         <v>140</v>
       </c>
       <c r="G1147" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-7.3533923108174415E-3</v>
       </c>
     </row>
@@ -59077,7 +59077,7 @@
         <v>139</v>
       </c>
       <c r="G1148" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.2817550533703592E-2</v>
       </c>
     </row>
@@ -59101,7 +59101,7 @@
         <v>138</v>
       </c>
       <c r="G1149" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3.2667694093762023E-3</v>
       </c>
     </row>
@@ -59125,7 +59125,7 @@
         <v>137</v>
       </c>
       <c r="G1150" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.5695540508792192E-3</v>
       </c>
     </row>
@@ -59149,7 +59149,7 @@
         <v>136</v>
       </c>
       <c r="G1151" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.8593373699335558E-2</v>
       </c>
     </row>
@@ -59173,7 +59173,7 @@
         <v>135</v>
       </c>
       <c r="G1152" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.6192284024656112E-2</v>
       </c>
     </row>
@@ -59197,7 +59197,7 @@
         <v>134</v>
       </c>
       <c r="G1153" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-3.7079522529401832E-3</v>
       </c>
     </row>
@@ -59221,7 +59221,7 @@
         <v>133</v>
       </c>
       <c r="G1154" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.7546120280641517E-4</v>
       </c>
     </row>
@@ -59245,7 +59245,7 @@
         <v>132</v>
       </c>
       <c r="G1155" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-6.6501756429466763E-3</v>
       </c>
     </row>
@@ -59269,7 +59269,7 @@
         <v>131</v>
       </c>
       <c r="G1156" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-5.8371879205121324E-4</v>
       </c>
     </row>
@@ -59293,7 +59293,7 @@
         <v>130</v>
       </c>
       <c r="G1157" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3.8938393377652147E-5</v>
       </c>
     </row>
@@ -59317,7 +59317,7 @@
         <v>129</v>
       </c>
       <c r="G1158" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3.5220407103819795E-4</v>
       </c>
     </row>
@@ -59341,7 +59341,7 @@
         <v>128</v>
       </c>
       <c r="G1159" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8.8850515843499345E-3</v>
       </c>
     </row>
@@ -59365,7 +59365,7 @@
         <v>127</v>
       </c>
       <c r="G1160" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0131182884620227E-2</v>
       </c>
     </row>
@@ -59389,7 +59389,7 @@
         <v>126</v>
       </c>
       <c r="G1161" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7.3307866862410975E-3</v>
       </c>
     </row>
@@ -59413,7 +59413,7 @@
         <v>125</v>
       </c>
       <c r="G1162" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-3.9754696955274227E-5</v>
       </c>
     </row>
@@ -59437,7 +59437,7 @@
         <v>124</v>
       </c>
       <c r="G1163" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.631205703478944E-2</v>
       </c>
     </row>
@@ -59461,7 +59461,7 @@
         <v>123</v>
       </c>
       <c r="G1164" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9.3254983743238373E-3</v>
       </c>
     </row>
@@ -59485,7 +59485,7 @@
         <v>122</v>
       </c>
       <c r="G1165" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.7422517507932334E-2</v>
       </c>
     </row>
@@ -59509,7 +59509,7 @@
         <v>121</v>
       </c>
       <c r="G1166" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.1554613667712599E-2</v>
       </c>
     </row>
@@ -59533,7 +59533,7 @@
         <v>120</v>
       </c>
       <c r="G1167" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.134393623573926E-3</v>
       </c>
     </row>
@@ -59557,7 +59557,7 @@
         <v>119</v>
       </c>
       <c r="G1168" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7.8536991455568916E-4</v>
       </c>
     </row>
@@ -59581,7 +59581,7 @@
         <v>118</v>
       </c>
       <c r="G1169" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.22822437656456E-3</v>
       </c>
     </row>
@@ -59605,7 +59605,7 @@
         <v>117</v>
       </c>
       <c r="G1170" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.4140988959107204E-2</v>
       </c>
     </row>
@@ -59629,7 +59629,7 @@
         <v>116</v>
       </c>
       <c r="G1171" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-2.2301093689967799E-2</v>
       </c>
     </row>
@@ -59653,7 +59653,7 @@
         <v>115</v>
       </c>
       <c r="G1172" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.6313775404194208E-3</v>
       </c>
     </row>
@@ -59677,7 +59677,7 @@
         <v>114</v>
       </c>
       <c r="G1173" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.407033103348776E-3</v>
       </c>
     </row>
@@ -59701,7 +59701,7 @@
         <v>113</v>
       </c>
       <c r="G1174" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2219211614382663E-2</v>
       </c>
     </row>
@@ -59725,7 +59725,7 @@
         <v>112</v>
       </c>
       <c r="G1175" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-5.4406855383661856E-3</v>
       </c>
     </row>
@@ -59749,7 +59749,7 @@
         <v>111</v>
       </c>
       <c r="G1176" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1709504989738662E-3</v>
       </c>
     </row>
@@ -59773,7 +59773,7 @@
         <v>110</v>
       </c>
       <c r="G1177" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-9.3361189788458976E-3</v>
       </c>
     </row>
@@ -59797,7 +59797,7 @@
         <v>109</v>
       </c>
       <c r="G1178" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1440078956497235E-2</v>
       </c>
     </row>
@@ -59821,7 +59821,7 @@
         <v>108</v>
       </c>
       <c r="G1179" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.2746479429436306E-4</v>
       </c>
     </row>
@@ -59845,7 +59845,7 @@
         <v>107</v>
       </c>
       <c r="G1180" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.60167692996529E-2</v>
       </c>
     </row>
@@ -59869,7 +59869,7 @@
         <v>106</v>
       </c>
       <c r="G1181" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9.6104049563709992E-3</v>
       </c>
     </row>
@@ -59893,7 +59893,7 @@
         <v>105</v>
       </c>
       <c r="G1182" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.7265095557860164E-4</v>
       </c>
     </row>
@@ -59917,7 +59917,7 @@
         <v>104</v>
       </c>
       <c r="G1183" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-3.9513283614470707E-3</v>
       </c>
     </row>
@@ -59941,7 +59941,7 @@
         <v>103</v>
       </c>
       <c r="G1184" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6100642424792477E-2</v>
       </c>
     </row>
@@ -59965,7 +59965,7 @@
         <v>102</v>
       </c>
       <c r="G1185" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-7.2404972065273077E-3</v>
       </c>
     </row>
@@ -59989,7 +59989,7 @@
         <v>101</v>
       </c>
       <c r="G1186" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0239083705683161E-2</v>
       </c>
     </row>
@@ -60013,7 +60013,7 @@
         <v>100</v>
       </c>
       <c r="G1187" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-6.746267100028458E-4</v>
       </c>
     </row>
@@ -60037,7 +60037,7 @@
         <v>99</v>
       </c>
       <c r="G1188" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9.6856880126774403E-3</v>
       </c>
     </row>
@@ -60061,7 +60061,7 @@
         <v>98</v>
       </c>
       <c r="G1189" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4.7449793764928749E-3</v>
       </c>
     </row>
@@ -60085,7 +60085,7 @@
         <v>97</v>
       </c>
       <c r="G1190" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-2.981687521669163E-3</v>
       </c>
     </row>
@@ -60109,7 +60109,7 @@
         <v>96</v>
       </c>
       <c r="G1191" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.289904312476331E-3</v>
       </c>
     </row>
@@ -60133,7 +60133,7 @@
         <v>95</v>
       </c>
       <c r="G1192" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4493913850700313E-2</v>
       </c>
     </row>

--- a/SYK_Model.xlsx
+++ b/SYK_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98097FA7-8411-4E89-993C-467FF10E5E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FBE40D-9ED5-47C4-A7DB-DAC9F2737DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="1620">
   <si>
     <t xml:space="preserve">Price </t>
   </si>
@@ -5755,15 +5755,18 @@
   <si>
     <t>https://stockanalysis.com/stocks/syk/employees/</t>
   </si>
+  <si>
+    <t>SYK has both debt and equity. Model could be delivering a lower NPV than the current trading price because Debt rate may be lower than equity rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -6130,10 +6133,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6199,16 +6203,6 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -6277,8 +6271,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
@@ -12710,7 +12717,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -12753,8 +12760,8 @@
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
       <xdr:row>200</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
@@ -14046,14 +14053,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -14080,7 +14088,7 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="81">
         <v>353.88</v>
       </c>
       <c r="D5" s="3">
@@ -14091,7 +14099,7 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="82">
         <v>382.16399999999999</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -14102,7 +14110,7 @@
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="83">
         <f>C5*C6</f>
         <v>135240.19631999999</v>
       </c>
@@ -14111,7 +14119,7 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="84">
         <f>3652+750+91</f>
         <v>4493</v>
       </c>
@@ -14123,7 +14131,7 @@
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="84">
         <f>1409+12188</f>
         <v>13597</v>
       </c>
@@ -14138,14 +14146,14 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="84">
         <f>C7-C8+C9</f>
         <v>144344.19631999999</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="R10" s="84" t="s">
+      <c r="R10" s="80" t="s">
         <v>1611</v>
       </c>
     </row>
@@ -14153,7 +14161,7 @@
       <c r="O11" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="R11" s="84" t="s">
+      <c r="R11" s="80" t="s">
         <v>1368</v>
       </c>
     </row>
@@ -14164,8 +14172,8 @@
       <c r="P12" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84" t="s">
+      <c r="R12" s="80"/>
+      <c r="S12" s="80" t="s">
         <v>1369</v>
       </c>
     </row>
@@ -14173,11 +14181,11 @@
       <c r="O13" s="2" t="s">
         <v>1587</v>
       </c>
-      <c r="R13" s="84" t="s">
+      <c r="R13" s="80" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15">
+    <row r="14" spans="1:19">
       <c r="B14" s="2" t="s">
         <v>1251</v>
       </c>
@@ -14187,10 +14195,10 @@
       <c r="O14" s="2" t="s">
         <v>1617</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="80" t="s">
         <v>1616</v>
       </c>
-      <c r="S14" s="84"/>
+      <c r="S14" s="80"/>
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="2" t="s">
@@ -14203,10 +14211,10 @@
         <v>1249</v>
       </c>
       <c r="Q15" s="6"/>
-      <c r="R15" s="84" t="s">
+      <c r="R15" s="80" t="s">
         <v>1598</v>
       </c>
-      <c r="S15" s="84"/>
+      <c r="S15" s="80"/>
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="2" t="s">
@@ -14218,10 +14226,10 @@
       <c r="O16" s="2" t="s">
         <v>1613</v>
       </c>
-      <c r="R16" s="84" t="s">
+      <c r="R16" s="80" t="s">
         <v>1589</v>
       </c>
-      <c r="S16" s="84"/>
+      <c r="S16" s="80"/>
     </row>
     <row r="17" spans="1:19">
       <c r="B17" s="2" t="s">
@@ -14233,10 +14241,10 @@
       <c r="O17" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="R17" s="84" t="s">
+      <c r="R17" s="80" t="s">
         <v>1591</v>
       </c>
-      <c r="S17" s="84"/>
+      <c r="S17" s="80"/>
     </row>
     <row r="18" spans="1:19" ht="15">
       <c r="B18" s="2" t="s">
@@ -14255,8 +14263,8 @@
       <c r="P18" s="2" t="s">
         <v>1592</v>
       </c>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84" t="s">
+      <c r="R18" s="80"/>
+      <c r="S18" s="80" t="s">
         <v>1597</v>
       </c>
     </row>
@@ -14267,7 +14275,7 @@
       <c r="O19" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="R19" s="84" t="s">
+      <c r="R19" s="80" t="s">
         <v>1594</v>
       </c>
     </row>
@@ -14281,13 +14289,13 @@
       <c r="J20" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="K20" s="84" t="s">
+      <c r="K20" s="80" t="s">
         <v>1600</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="R20" s="84" t="s">
+      <c r="R20" s="80" t="s">
         <v>1596</v>
       </c>
     </row>
@@ -14779,7 +14787,7 @@
       <c r="D122" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="E122" s="44" t="s">
+      <c r="E122" s="40" t="s">
         <v>1315</v>
       </c>
       <c r="F122" s="4" t="s">
@@ -14887,7 +14895,7 @@
       <c r="D134" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="E134" s="45" t="s">
+      <c r="E134" s="41" t="s">
         <v>1315</v>
       </c>
       <c r="F134" s="4" t="s">
@@ -14987,7 +14995,7 @@
       <c r="D146" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="E146" s="44" t="s">
+      <c r="E146" s="40" t="s">
         <v>1315</v>
       </c>
       <c r="F146" s="4" t="s">
@@ -15159,221 +15167,221 @@
       </c>
     </row>
     <row r="182" spans="1:26" ht="15">
-      <c r="B182" s="65" t="s">
+      <c r="B182" s="61" t="s">
         <v>1351</v>
       </c>
-      <c r="C182" s="66"/>
-      <c r="D182" s="66"/>
-      <c r="E182" s="66"/>
-      <c r="F182" s="66"/>
-      <c r="G182" s="65" t="s">
+      <c r="C182" s="62"/>
+      <c r="D182" s="62"/>
+      <c r="E182" s="62"/>
+      <c r="F182" s="62"/>
+      <c r="G182" s="61" t="s">
         <v>1352</v>
       </c>
-      <c r="H182" s="46"/>
-      <c r="I182" s="46"/>
-      <c r="J182" s="46"/>
-      <c r="K182" s="46"/>
-      <c r="L182" s="46"/>
-      <c r="M182" s="46"/>
-      <c r="N182" s="46"/>
-      <c r="O182" s="46"/>
-      <c r="P182" s="46"/>
-      <c r="Q182" s="46"/>
-      <c r="R182" s="46"/>
-      <c r="S182" s="46"/>
-      <c r="T182" s="46"/>
-      <c r="U182" s="46"/>
-      <c r="V182" s="46"/>
-      <c r="W182" s="46"/>
-      <c r="X182" s="46"/>
-      <c r="Y182" s="46"/>
-      <c r="Z182" s="47"/>
+      <c r="H182" s="42"/>
+      <c r="I182" s="42"/>
+      <c r="J182" s="42"/>
+      <c r="K182" s="42"/>
+      <c r="L182" s="42"/>
+      <c r="M182" s="42"/>
+      <c r="N182" s="42"/>
+      <c r="O182" s="42"/>
+      <c r="P182" s="42"/>
+      <c r="Q182" s="42"/>
+      <c r="R182" s="42"/>
+      <c r="S182" s="42"/>
+      <c r="T182" s="42"/>
+      <c r="U182" s="42"/>
+      <c r="V182" s="42"/>
+      <c r="W182" s="42"/>
+      <c r="X182" s="42"/>
+      <c r="Y182" s="42"/>
+      <c r="Z182" s="43"/>
     </row>
     <row r="183" spans="1:26" ht="15">
-      <c r="B183" s="56" t="s">
+      <c r="B183" s="52" t="s">
         <v>1354</v>
       </c>
-      <c r="C183" s="57"/>
-      <c r="D183" s="57"/>
-      <c r="E183" s="57"/>
-      <c r="F183" s="58"/>
-      <c r="G183" s="48" t="s">
+      <c r="C183" s="53"/>
+      <c r="D183" s="53"/>
+      <c r="E183" s="53"/>
+      <c r="F183" s="54"/>
+      <c r="G183" s="44" t="s">
         <v>1355</v>
       </c>
-      <c r="H183" s="48"/>
-      <c r="I183" s="48"/>
-      <c r="J183" s="48"/>
-      <c r="K183" s="48"/>
-      <c r="L183" s="48"/>
-      <c r="M183" s="48"/>
-      <c r="N183" s="48"/>
-      <c r="O183" s="48"/>
-      <c r="P183" s="48"/>
-      <c r="Q183" s="48"/>
-      <c r="R183" s="48"/>
-      <c r="S183" s="48"/>
-      <c r="T183" s="48"/>
-      <c r="U183" s="48"/>
-      <c r="V183" s="48"/>
-      <c r="W183" s="48"/>
-      <c r="X183" s="48"/>
-      <c r="Y183" s="48"/>
-      <c r="Z183" s="49"/>
+      <c r="H183" s="44"/>
+      <c r="I183" s="44"/>
+      <c r="J183" s="44"/>
+      <c r="K183" s="44"/>
+      <c r="L183" s="44"/>
+      <c r="M183" s="44"/>
+      <c r="N183" s="44"/>
+      <c r="O183" s="44"/>
+      <c r="P183" s="44"/>
+      <c r="Q183" s="44"/>
+      <c r="R183" s="44"/>
+      <c r="S183" s="44"/>
+      <c r="T183" s="44"/>
+      <c r="U183" s="44"/>
+      <c r="V183" s="44"/>
+      <c r="W183" s="44"/>
+      <c r="X183" s="44"/>
+      <c r="Y183" s="44"/>
+      <c r="Z183" s="45"/>
     </row>
     <row r="184" spans="1:26" ht="15">
-      <c r="B184" s="59" t="s">
+      <c r="B184" s="55" t="s">
         <v>1357</v>
       </c>
-      <c r="C184" s="64"/>
-      <c r="D184" s="64"/>
-      <c r="E184" s="64"/>
-      <c r="F184" s="60"/>
-      <c r="G184" s="50" t="s">
+      <c r="C184" s="60"/>
+      <c r="D184" s="60"/>
+      <c r="E184" s="60"/>
+      <c r="F184" s="56"/>
+      <c r="G184" s="46" t="s">
         <v>1356</v>
       </c>
-      <c r="H184" s="50"/>
-      <c r="I184" s="50"/>
-      <c r="J184" s="50"/>
-      <c r="K184" s="50"/>
-      <c r="L184" s="50"/>
-      <c r="M184" s="50"/>
-      <c r="N184" s="50"/>
-      <c r="O184" s="50"/>
-      <c r="P184" s="50"/>
-      <c r="Q184" s="50"/>
-      <c r="R184" s="50"/>
-      <c r="S184" s="50"/>
-      <c r="T184" s="50"/>
-      <c r="U184" s="50"/>
-      <c r="V184" s="50"/>
-      <c r="W184" s="50"/>
-      <c r="X184" s="50"/>
-      <c r="Y184" s="50"/>
-      <c r="Z184" s="51"/>
+      <c r="H184" s="46"/>
+      <c r="I184" s="46"/>
+      <c r="J184" s="46"/>
+      <c r="K184" s="46"/>
+      <c r="L184" s="46"/>
+      <c r="M184" s="46"/>
+      <c r="N184" s="46"/>
+      <c r="O184" s="46"/>
+      <c r="P184" s="46"/>
+      <c r="Q184" s="46"/>
+      <c r="R184" s="46"/>
+      <c r="S184" s="46"/>
+      <c r="T184" s="46"/>
+      <c r="U184" s="46"/>
+      <c r="V184" s="46"/>
+      <c r="W184" s="46"/>
+      <c r="X184" s="46"/>
+      <c r="Y184" s="46"/>
+      <c r="Z184" s="47"/>
     </row>
     <row r="185" spans="1:26" ht="15">
-      <c r="B185" s="59" t="s">
+      <c r="B185" s="55" t="s">
         <v>1353</v>
       </c>
-      <c r="C185" s="64"/>
-      <c r="D185" s="64"/>
-      <c r="E185" s="64"/>
-      <c r="F185" s="60"/>
-      <c r="G185" s="52" t="s">
+      <c r="C185" s="60"/>
+      <c r="D185" s="60"/>
+      <c r="E185" s="60"/>
+      <c r="F185" s="56"/>
+      <c r="G185" s="48" t="s">
         <v>1361</v>
       </c>
-      <c r="H185" s="52"/>
-      <c r="I185" s="52"/>
-      <c r="J185" s="52"/>
-      <c r="K185" s="52"/>
-      <c r="L185" s="52"/>
-      <c r="M185" s="52"/>
-      <c r="N185" s="52"/>
-      <c r="O185" s="52"/>
-      <c r="P185" s="52"/>
-      <c r="Q185" s="52"/>
-      <c r="R185" s="52"/>
-      <c r="S185" s="52"/>
-      <c r="T185" s="52"/>
-      <c r="U185" s="52"/>
-      <c r="V185" s="52"/>
-      <c r="W185" s="52"/>
-      <c r="X185" s="52"/>
-      <c r="Y185" s="52"/>
-      <c r="Z185" s="53"/>
+      <c r="H185" s="48"/>
+      <c r="I185" s="48"/>
+      <c r="J185" s="48"/>
+      <c r="K185" s="48"/>
+      <c r="L185" s="48"/>
+      <c r="M185" s="48"/>
+      <c r="N185" s="48"/>
+      <c r="O185" s="48"/>
+      <c r="P185" s="48"/>
+      <c r="Q185" s="48"/>
+      <c r="R185" s="48"/>
+      <c r="S185" s="48"/>
+      <c r="T185" s="48"/>
+      <c r="U185" s="48"/>
+      <c r="V185" s="48"/>
+      <c r="W185" s="48"/>
+      <c r="X185" s="48"/>
+      <c r="Y185" s="48"/>
+      <c r="Z185" s="49"/>
     </row>
     <row r="186" spans="1:26" ht="15">
-      <c r="B186" s="59" t="s">
+      <c r="B186" s="55" t="s">
         <v>1358</v>
       </c>
-      <c r="C186" s="64"/>
-      <c r="D186" s="64"/>
-      <c r="E186" s="64"/>
-      <c r="F186" s="60"/>
-      <c r="G186" s="50" t="s">
+      <c r="C186" s="60"/>
+      <c r="D186" s="60"/>
+      <c r="E186" s="60"/>
+      <c r="F186" s="56"/>
+      <c r="G186" s="46" t="s">
         <v>1362</v>
       </c>
-      <c r="H186" s="50"/>
-      <c r="I186" s="50"/>
-      <c r="J186" s="50"/>
-      <c r="K186" s="50"/>
-      <c r="L186" s="50"/>
-      <c r="M186" s="50"/>
-      <c r="N186" s="50"/>
-      <c r="O186" s="50"/>
-      <c r="P186" s="50"/>
-      <c r="Q186" s="50"/>
-      <c r="R186" s="50"/>
-      <c r="S186" s="50"/>
-      <c r="T186" s="50"/>
-      <c r="U186" s="50"/>
-      <c r="V186" s="50"/>
-      <c r="W186" s="50"/>
-      <c r="X186" s="50"/>
-      <c r="Y186" s="50"/>
-      <c r="Z186" s="51"/>
+      <c r="H186" s="46"/>
+      <c r="I186" s="46"/>
+      <c r="J186" s="46"/>
+      <c r="K186" s="46"/>
+      <c r="L186" s="46"/>
+      <c r="M186" s="46"/>
+      <c r="N186" s="46"/>
+      <c r="O186" s="46"/>
+      <c r="P186" s="46"/>
+      <c r="Q186" s="46"/>
+      <c r="R186" s="46"/>
+      <c r="S186" s="46"/>
+      <c r="T186" s="46"/>
+      <c r="U186" s="46"/>
+      <c r="V186" s="46"/>
+      <c r="W186" s="46"/>
+      <c r="X186" s="46"/>
+      <c r="Y186" s="46"/>
+      <c r="Z186" s="47"/>
     </row>
     <row r="187" spans="1:26" ht="15">
-      <c r="B187" s="59" t="s">
+      <c r="B187" s="55" t="s">
         <v>1359</v>
       </c>
-      <c r="C187" s="64"/>
-      <c r="D187" s="64"/>
-      <c r="E187" s="64"/>
-      <c r="F187" s="60"/>
-      <c r="G187" s="52" t="s">
+      <c r="C187" s="60"/>
+      <c r="D187" s="60"/>
+      <c r="E187" s="60"/>
+      <c r="F187" s="56"/>
+      <c r="G187" s="48" t="s">
         <v>1364</v>
       </c>
-      <c r="H187" s="52"/>
-      <c r="I187" s="52"/>
-      <c r="J187" s="52"/>
-      <c r="K187" s="52"/>
-      <c r="L187" s="52"/>
-      <c r="M187" s="52"/>
-      <c r="N187" s="52"/>
-      <c r="O187" s="52"/>
-      <c r="P187" s="52"/>
-      <c r="Q187" s="52"/>
-      <c r="R187" s="52"/>
-      <c r="S187" s="52"/>
-      <c r="T187" s="52"/>
-      <c r="U187" s="52"/>
-      <c r="V187" s="52"/>
-      <c r="W187" s="52"/>
-      <c r="X187" s="52"/>
-      <c r="Y187" s="52"/>
-      <c r="Z187" s="53"/>
+      <c r="H187" s="48"/>
+      <c r="I187" s="48"/>
+      <c r="J187" s="48"/>
+      <c r="K187" s="48"/>
+      <c r="L187" s="48"/>
+      <c r="M187" s="48"/>
+      <c r="N187" s="48"/>
+      <c r="O187" s="48"/>
+      <c r="P187" s="48"/>
+      <c r="Q187" s="48"/>
+      <c r="R187" s="48"/>
+      <c r="S187" s="48"/>
+      <c r="T187" s="48"/>
+      <c r="U187" s="48"/>
+      <c r="V187" s="48"/>
+      <c r="W187" s="48"/>
+      <c r="X187" s="48"/>
+      <c r="Y187" s="48"/>
+      <c r="Z187" s="49"/>
     </row>
     <row r="188" spans="1:26" ht="15">
-      <c r="B188" s="61" t="s">
+      <c r="B188" s="57" t="s">
         <v>1360</v>
       </c>
-      <c r="C188" s="62"/>
-      <c r="D188" s="62"/>
-      <c r="E188" s="62"/>
-      <c r="F188" s="63"/>
-      <c r="G188" s="54" t="s">
+      <c r="C188" s="58"/>
+      <c r="D188" s="58"/>
+      <c r="E188" s="58"/>
+      <c r="F188" s="59"/>
+      <c r="G188" s="50" t="s">
         <v>1365</v>
       </c>
-      <c r="H188" s="54"/>
-      <c r="I188" s="54"/>
-      <c r="J188" s="54"/>
-      <c r="K188" s="54"/>
-      <c r="L188" s="54"/>
-      <c r="M188" s="54"/>
-      <c r="N188" s="54"/>
-      <c r="O188" s="54"/>
-      <c r="P188" s="54"/>
-      <c r="Q188" s="54"/>
-      <c r="R188" s="54"/>
-      <c r="S188" s="54"/>
-      <c r="T188" s="54"/>
-      <c r="U188" s="54"/>
-      <c r="V188" s="54"/>
-      <c r="W188" s="54"/>
-      <c r="X188" s="54"/>
-      <c r="Y188" s="54"/>
-      <c r="Z188" s="55"/>
+      <c r="H188" s="50"/>
+      <c r="I188" s="50"/>
+      <c r="J188" s="50"/>
+      <c r="K188" s="50"/>
+      <c r="L188" s="50"/>
+      <c r="M188" s="50"/>
+      <c r="N188" s="50"/>
+      <c r="O188" s="50"/>
+      <c r="P188" s="50"/>
+      <c r="Q188" s="50"/>
+      <c r="R188" s="50"/>
+      <c r="S188" s="50"/>
+      <c r="T188" s="50"/>
+      <c r="U188" s="50"/>
+      <c r="V188" s="50"/>
+      <c r="W188" s="50"/>
+      <c r="X188" s="50"/>
+      <c r="Y188" s="50"/>
+      <c r="Z188" s="51"/>
     </row>
     <row r="190" spans="1:26" ht="15">
       <c r="B190" s="1" t="s">
@@ -15516,11 +15524,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78130D12-B16F-4BC5-8728-6B07C0E66DA0}">
   <dimension ref="B1:EQ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="CV51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CX9" sqref="CX9:DG9"/>
+      <selection pane="bottomRight" activeCell="DE73" sqref="DE73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -16152,43 +16160,43 @@
         <f>SUM(BM4:BP4)</f>
         <v>2834</v>
       </c>
-      <c r="CX4" s="71">
+      <c r="CX4" s="67">
         <f>CW4*(1+CX21)</f>
         <v>3145.7400000000002</v>
       </c>
-      <c r="CY4" s="71">
+      <c r="CY4" s="67">
         <f t="shared" ref="CY4:DG4" si="4">CX4*(1+CY21)</f>
         <v>3435.1480800000004</v>
       </c>
-      <c r="CZ4" s="71">
+      <c r="CZ4" s="67">
         <f t="shared" si="4"/>
         <v>3744.3114072000008</v>
       </c>
-      <c r="DA4" s="71">
+      <c r="DA4" s="67">
         <f t="shared" si="4"/>
         <v>4028.8790741472012</v>
       </c>
-      <c r="DB4" s="71">
+      <c r="DB4" s="67">
         <f t="shared" si="4"/>
         <v>4310.9006093375056</v>
       </c>
-      <c r="DC4" s="71">
+      <c r="DC4" s="67">
         <f t="shared" si="4"/>
         <v>4595.4200495537816</v>
       </c>
-      <c r="DD4" s="71">
+      <c r="DD4" s="67">
         <f t="shared" si="4"/>
         <v>4875.7406725765622</v>
       </c>
-      <c r="DE4" s="71">
+      <c r="DE4" s="67">
         <f t="shared" si="4"/>
         <v>5129.2791875505436</v>
       </c>
-      <c r="DF4" s="71">
+      <c r="DF4" s="67">
         <f t="shared" si="4"/>
         <v>5354.9674718027682</v>
       </c>
-      <c r="DG4" s="71">
+      <c r="DG4" s="67">
         <f t="shared" si="4"/>
         <v>5515.6164959568514</v>
       </c>
@@ -16331,43 +16339,43 @@
         <f t="shared" ref="CW5:CW8" si="5">SUM(BM5:BP5)</f>
         <v>3389</v>
       </c>
-      <c r="CX5" s="71">
+      <c r="CX5" s="67">
         <f>CW5*(1+CX22)</f>
         <v>3700.7880000000005</v>
       </c>
-      <c r="CY5" s="71">
+      <c r="CY5" s="67">
         <f t="shared" ref="CY5:DG8" si="6">CX5*(1+CY22)</f>
         <v>4118.9770440000002</v>
       </c>
-      <c r="CZ5" s="71">
+      <c r="CZ5" s="67">
         <f t="shared" si="6"/>
         <v>4477.328046828</v>
       </c>
-      <c r="DA5" s="71">
+      <c r="DA5" s="67">
         <f t="shared" si="6"/>
         <v>4848.9462747147236</v>
       </c>
-      <c r="DB5" s="71">
+      <c r="DB5" s="67">
         <f t="shared" si="6"/>
         <v>5236.8619766919019</v>
       </c>
-      <c r="DC5" s="71">
+      <c r="DC5" s="67">
         <f t="shared" si="6"/>
         <v>5645.3372108738704</v>
       </c>
-      <c r="DD5" s="71">
+      <c r="DD5" s="67">
         <f t="shared" si="6"/>
         <v>6074.3828389002847</v>
       </c>
-      <c r="DE5" s="71">
+      <c r="DE5" s="67">
         <f t="shared" si="6"/>
         <v>6523.8871689789057</v>
       </c>
-      <c r="DF5" s="71">
+      <c r="DF5" s="67">
         <f t="shared" si="6"/>
         <v>6993.607045145387</v>
       </c>
-      <c r="DG5" s="71">
+      <c r="DG5" s="67">
         <f t="shared" si="6"/>
         <v>7483.1595383055646</v>
       </c>
@@ -16511,43 +16519,43 @@
         <f t="shared" si="5"/>
         <v>3852</v>
       </c>
-      <c r="CX6" s="71">
+      <c r="CX6" s="67">
         <f>CW6*(1+CX23)</f>
         <v>4179.42</v>
       </c>
-      <c r="CY6" s="71">
+      <c r="CY6" s="67">
         <f t="shared" si="6"/>
         <v>4446.9028800000006</v>
       </c>
-      <c r="CZ6" s="71">
+      <c r="CZ6" s="67">
         <f t="shared" si="6"/>
         <v>4722.6108585600005</v>
       </c>
-      <c r="DA6" s="71">
+      <c r="DA6" s="67">
         <f t="shared" si="6"/>
         <v>5005.9675100736004</v>
       </c>
-      <c r="DB6" s="71">
+      <c r="DB6" s="67">
         <f t="shared" si="6"/>
         <v>5296.3136256578691</v>
       </c>
-      <c r="DC6" s="71">
+      <c r="DC6" s="67">
         <f t="shared" si="6"/>
         <v>5592.9071886947104</v>
       </c>
-      <c r="DD6" s="71">
+      <c r="DD6" s="67">
         <f t="shared" si="6"/>
         <v>5894.9241768842248</v>
       </c>
-      <c r="DE6" s="71">
+      <c r="DE6" s="67">
         <f t="shared" si="6"/>
         <v>6201.4602340822048</v>
       </c>
-      <c r="DF6" s="71">
+      <c r="DF6" s="67">
         <f t="shared" si="6"/>
         <v>6511.5332457863151</v>
       </c>
-      <c r="DG6" s="71">
+      <c r="DG6" s="67">
         <f t="shared" si="6"/>
         <v>6837.1099080756312</v>
       </c>
@@ -16691,43 +16699,43 @@
         <f t="shared" si="5"/>
         <v>1307</v>
       </c>
-      <c r="CX7" s="71">
+      <c r="CX7" s="67">
         <f>CW7*(1+CX24)</f>
         <v>2025.8500000000001</v>
       </c>
-      <c r="CY7" s="71">
+      <c r="CY7" s="67">
         <f t="shared" si="6"/>
         <v>2309.4690000000005</v>
       </c>
-      <c r="CZ7" s="71">
+      <c r="CZ7" s="67">
         <f t="shared" si="6"/>
         <v>2632.7946600000009</v>
       </c>
-      <c r="DA7" s="71">
+      <c r="DA7" s="67">
         <f t="shared" si="6"/>
         <v>2975.0579658000006</v>
       </c>
-      <c r="DB7" s="71">
+      <c r="DB7" s="67">
         <f t="shared" si="6"/>
         <v>3361.8155013540004</v>
       </c>
-      <c r="DC7" s="71">
+      <c r="DC7" s="67">
         <f t="shared" si="6"/>
         <v>3765.2333615164807</v>
       </c>
-      <c r="DD7" s="71">
+      <c r="DD7" s="67">
         <f t="shared" si="6"/>
         <v>4217.061364898459</v>
       </c>
-      <c r="DE7" s="71">
+      <c r="DE7" s="67">
         <f t="shared" si="6"/>
         <v>4680.9381150372901</v>
       </c>
-      <c r="DF7" s="71">
+      <c r="DF7" s="67">
         <f t="shared" si="6"/>
         <v>5195.8413076913921</v>
       </c>
-      <c r="DG7" s="71">
+      <c r="DG7" s="67">
         <f t="shared" si="6"/>
         <v>5715.425438460532</v>
       </c>
@@ -16870,43 +16878,43 @@
         <f t="shared" si="5"/>
         <v>2136</v>
       </c>
-      <c r="CX8" s="71">
+      <c r="CX8" s="67">
         <f>CW8*(1+CX25)</f>
         <v>2403</v>
       </c>
-      <c r="CY8" s="71">
+      <c r="CY8" s="67">
         <f t="shared" si="6"/>
         <v>2643.3</v>
       </c>
-      <c r="CZ8" s="71">
+      <c r="CZ8" s="67">
         <f t="shared" si="6"/>
         <v>2854.7640000000006</v>
       </c>
-      <c r="DA8" s="71">
+      <c r="DA8" s="67">
         <f t="shared" si="6"/>
         <v>3068.8713000000007</v>
       </c>
-      <c r="DB8" s="71">
+      <c r="DB8" s="67">
         <f t="shared" si="6"/>
         <v>3283.6922910000008</v>
       </c>
-      <c r="DC8" s="71">
+      <c r="DC8" s="67">
         <f t="shared" si="6"/>
         <v>3503.6996744970006</v>
       </c>
-      <c r="DD8" s="71">
+      <c r="DD8" s="67">
         <f t="shared" si="6"/>
         <v>3724.4327539903115</v>
       </c>
-      <c r="DE8" s="71">
+      <c r="DE8" s="67">
         <f t="shared" si="6"/>
         <v>3955.3475847377113</v>
       </c>
-      <c r="DF8" s="71">
+      <c r="DF8" s="67">
         <f t="shared" si="6"/>
         <v>4196.623787406711</v>
       </c>
-      <c r="DG8" s="71">
+      <c r="DG8" s="67">
         <f t="shared" si="6"/>
         <v>4616.2861661473826</v>
       </c>
@@ -17067,43 +17075,43 @@
         <f>SUM(CW4:CW8)</f>
         <v>13518</v>
       </c>
-      <c r="CX9" s="72">
+      <c r="CX9" s="68">
         <f>SUM(CX4:CX8)</f>
         <v>15454.798000000001</v>
       </c>
-      <c r="CY9" s="72">
+      <c r="CY9" s="68">
         <f t="shared" ref="CY9:DG9" si="9">SUM(CY4:CY8)</f>
         <v>16953.797004</v>
       </c>
-      <c r="CZ9" s="72">
+      <c r="CZ9" s="68">
         <f t="shared" si="9"/>
         <v>18431.808972588005</v>
       </c>
-      <c r="DA9" s="72">
+      <c r="DA9" s="68">
         <f t="shared" si="9"/>
         <v>19927.722124735526</v>
       </c>
-      <c r="DB9" s="72">
+      <c r="DB9" s="68">
         <f t="shared" si="9"/>
         <v>21489.584004041277</v>
       </c>
-      <c r="DC9" s="72">
+      <c r="DC9" s="68">
         <f t="shared" si="9"/>
         <v>23102.597485135848</v>
       </c>
-      <c r="DD9" s="72">
+      <c r="DD9" s="68">
         <f t="shared" si="9"/>
         <v>24786.541807249843</v>
       </c>
-      <c r="DE9" s="72">
+      <c r="DE9" s="68">
         <f t="shared" si="9"/>
         <v>26490.912290386656</v>
       </c>
-      <c r="DF9" s="72">
+      <c r="DF9" s="68">
         <f t="shared" si="9"/>
         <v>28252.572857832576</v>
       </c>
-      <c r="DG9" s="72">
+      <c r="DG9" s="68">
         <f t="shared" si="9"/>
         <v>30167.597546945963</v>
       </c>
@@ -17243,43 +17251,43 @@
       <c r="CW10" s="2">
         <v>2447</v>
       </c>
-      <c r="CX10" s="71">
+      <c r="CX10" s="67">
         <f>CW10*(1+CX27)</f>
         <v>2593.8200000000002</v>
       </c>
-      <c r="CY10" s="71">
+      <c r="CY10" s="67">
         <f t="shared" ref="CY10:DG10" si="11">CX10*(1+CY27)</f>
         <v>2775.3874000000005</v>
       </c>
-      <c r="CZ10" s="71">
+      <c r="CZ10" s="67">
         <f t="shared" si="11"/>
         <v>2891.9536708000005</v>
       </c>
-      <c r="DA10" s="71">
+      <c r="DA10" s="67">
         <f t="shared" si="11"/>
         <v>3007.6318176320005</v>
       </c>
-      <c r="DB10" s="71">
+      <c r="DB10" s="67">
         <f t="shared" si="11"/>
         <v>3127.9370903372806</v>
       </c>
-      <c r="DC10" s="71">
+      <c r="DC10" s="67">
         <f t="shared" si="11"/>
         <v>3253.054573950772</v>
       </c>
-      <c r="DD10" s="71">
+      <c r="DD10" s="67">
         <f t="shared" si="11"/>
         <v>3383.1767569088029</v>
       </c>
-      <c r="DE10" s="71">
+      <c r="DE10" s="67">
         <f t="shared" si="11"/>
         <v>3518.5038271851549</v>
       </c>
-      <c r="DF10" s="71">
+      <c r="DF10" s="67">
         <f t="shared" si="11"/>
         <v>3659.2439802725612</v>
       </c>
-      <c r="DG10" s="71">
+      <c r="DG10" s="67">
         <f t="shared" si="11"/>
         <v>3805.6137394834636</v>
       </c>
@@ -17419,43 +17427,43 @@
       <c r="CW11" s="2">
         <v>1704</v>
       </c>
-      <c r="CX11" s="71">
+      <c r="CX11" s="67">
         <f>CW11*(1+CX28)</f>
         <v>1848.84</v>
       </c>
-      <c r="CY11" s="71">
+      <c r="CY11" s="67">
         <f t="shared" ref="CY11:DG11" si="12">CX11*(1+CY28)</f>
         <v>1994.8983599999999</v>
       </c>
-      <c r="CZ11" s="71">
+      <c r="CZ11" s="67">
         <f t="shared" si="12"/>
         <v>2158.4800255200003</v>
       </c>
-      <c r="DA11" s="71">
+      <c r="DA11" s="67">
         <f t="shared" si="12"/>
         <v>2266.4040267960004</v>
       </c>
-      <c r="DB11" s="71">
+      <c r="DB11" s="67">
         <f t="shared" si="12"/>
         <v>2379.7242281358003</v>
       </c>
-      <c r="DC11" s="71">
+      <c r="DC11" s="67">
         <f t="shared" si="12"/>
         <v>2474.9131972612327</v>
       </c>
-      <c r="DD11" s="71">
+      <c r="DD11" s="67">
         <f t="shared" si="12"/>
         <v>2573.9097251516819</v>
       </c>
-      <c r="DE11" s="71">
+      <c r="DE11" s="67">
         <f t="shared" si="12"/>
         <v>2651.1270169062323</v>
       </c>
-      <c r="DF11" s="71">
+      <c r="DF11" s="67">
         <f t="shared" si="12"/>
         <v>2730.6608274134192</v>
       </c>
-      <c r="DG11" s="71">
+      <c r="DG11" s="67">
         <f t="shared" si="12"/>
         <v>2812.5806522358216</v>
       </c>
@@ -17595,43 +17603,43 @@
       <c r="CW12" s="2">
         <v>3507</v>
       </c>
-      <c r="CX12" s="71">
+      <c r="CX12" s="67">
         <f>CW12*(1+CX29)</f>
         <v>3878.7420000000002</v>
       </c>
-      <c r="CY12" s="71">
+      <c r="CY12" s="67">
         <f t="shared" ref="CY12:DG12" si="13">CX12*(1+CY29)</f>
         <v>4247.2224900000001</v>
       </c>
-      <c r="CZ12" s="71">
+      <c r="CZ12" s="67">
         <f t="shared" si="13"/>
         <v>4587.0002892000002</v>
       </c>
-      <c r="DA12" s="71">
+      <c r="DA12" s="67">
         <f t="shared" si="13"/>
         <v>4908.0903094440009</v>
       </c>
-      <c r="DB12" s="71">
+      <c r="DB12" s="67">
         <f t="shared" si="13"/>
         <v>5251.656631105081</v>
       </c>
-      <c r="DC12" s="71">
+      <c r="DC12" s="67">
         <f t="shared" si="13"/>
         <v>5619.2725952824367</v>
       </c>
-      <c r="DD12" s="71">
+      <c r="DD12" s="67">
         <f t="shared" si="13"/>
         <v>6001.3831317616423</v>
       </c>
-      <c r="DE12" s="71">
+      <c r="DE12" s="67">
         <f t="shared" si="13"/>
         <v>6391.4730353261484</v>
       </c>
-      <c r="DF12" s="71">
+      <c r="DF12" s="67">
         <f t="shared" si="13"/>
         <v>6806.9187826223479</v>
       </c>
-      <c r="DG12" s="71">
+      <c r="DG12" s="67">
         <f t="shared" si="13"/>
         <v>7235.7546659275558</v>
       </c>
@@ -17771,43 +17779,43 @@
       <c r="CW13" s="2">
         <v>707</v>
       </c>
-      <c r="CX13" s="71">
+      <c r="CX13" s="67">
         <f>CW13*(1+CX30)</f>
         <v>714.07</v>
       </c>
-      <c r="CY13" s="71">
+      <c r="CY13" s="67">
         <f t="shared" ref="CY13:DG13" si="14">CX13*(1+CY30)</f>
         <v>678.36649999999997</v>
       </c>
-      <c r="CZ13" s="71">
+      <c r="CZ13" s="67">
         <f t="shared" si="14"/>
         <v>664.79917</v>
       </c>
-      <c r="DA13" s="71">
+      <c r="DA13" s="67">
         <f t="shared" si="14"/>
         <v>658.15117829999997</v>
       </c>
-      <c r="DB13" s="71">
+      <c r="DB13" s="67">
         <f t="shared" si="14"/>
         <v>651.56966651699997</v>
       </c>
-      <c r="DC13" s="71">
+      <c r="DC13" s="67">
         <f t="shared" si="14"/>
         <v>645.05396985182995</v>
       </c>
-      <c r="DD13" s="71">
+      <c r="DD13" s="67">
         <f t="shared" si="14"/>
         <v>638.60343015331159</v>
       </c>
-      <c r="DE13" s="71">
+      <c r="DE13" s="67">
         <f t="shared" si="14"/>
         <v>632.21739585177852</v>
       </c>
-      <c r="DF13" s="71">
+      <c r="DF13" s="67">
         <f t="shared" si="14"/>
         <v>625.89522189326078</v>
       </c>
-      <c r="DG13" s="71">
+      <c r="DG13" s="67">
         <f t="shared" si="14"/>
         <v>619.63626967432822</v>
       </c>
@@ -17947,43 +17955,43 @@
       <c r="CW14" s="2">
         <v>712</v>
       </c>
-      <c r="CX14" s="71">
+      <c r="CX14" s="67">
         <f>CW14*(1+CX31)</f>
         <v>776.08</v>
       </c>
-      <c r="CY14" s="71">
+      <c r="CY14" s="67">
         <f t="shared" ref="CY14:DG14" si="15">CX14*(1+CY31)</f>
         <v>842.04679999999996</v>
       </c>
-      <c r="CZ14" s="71">
+      <c r="CZ14" s="67">
         <f t="shared" si="15"/>
         <v>900.99007600000004</v>
       </c>
-      <c r="DA14" s="71">
+      <c r="DA14" s="67">
         <f t="shared" si="15"/>
         <v>964.05938132000006</v>
       </c>
-      <c r="DB14" s="71">
+      <c r="DB14" s="67">
         <f t="shared" si="15"/>
         <v>1031.5435380124002</v>
       </c>
-      <c r="DC14" s="71">
+      <c r="DC14" s="67">
         <f t="shared" si="15"/>
         <v>1103.7515856732682</v>
       </c>
-      <c r="DD14" s="71">
+      <c r="DD14" s="67">
         <f t="shared" si="15"/>
         <v>1181.014196670397</v>
       </c>
-      <c r="DE14" s="71">
+      <c r="DE14" s="67">
         <f t="shared" si="15"/>
         <v>1263.685190437325</v>
       </c>
-      <c r="DF14" s="71">
+      <c r="DF14" s="67">
         <f t="shared" si="15"/>
         <v>1352.1431537679377</v>
       </c>
-      <c r="DG14" s="71">
+      <c r="DG14" s="67">
         <f t="shared" si="15"/>
         <v>1446.7931745316935</v>
       </c>
@@ -18144,43 +18152,43 @@
         <f>SUM(CW10:CW14)</f>
         <v>9077</v>
       </c>
-      <c r="CX15" s="72">
+      <c r="CX15" s="68">
         <f>SUM(CX10:CX14)</f>
         <v>9811.5519999999997</v>
       </c>
-      <c r="CY15" s="72">
+      <c r="CY15" s="68">
         <f>SUM(CY10:CY14)</f>
         <v>10537.921550000001</v>
       </c>
-      <c r="CZ15" s="72">
+      <c r="CZ15" s="68">
         <f t="shared" ref="CZ15:DG15" si="18">SUM(CZ10:CZ14)</f>
         <v>11203.223231520002</v>
       </c>
-      <c r="DA15" s="72">
+      <c r="DA15" s="68">
         <f t="shared" si="18"/>
         <v>11804.336713492003</v>
       </c>
-      <c r="DB15" s="72">
+      <c r="DB15" s="68">
         <f t="shared" si="18"/>
         <v>12442.431154107562</v>
       </c>
-      <c r="DC15" s="72">
+      <c r="DC15" s="68">
         <f t="shared" si="18"/>
         <v>13096.045922019539</v>
       </c>
-      <c r="DD15" s="72">
+      <c r="DD15" s="68">
         <f t="shared" si="18"/>
         <v>13778.087240645835</v>
       </c>
-      <c r="DE15" s="72">
+      <c r="DE15" s="68">
         <f t="shared" si="18"/>
         <v>14457.00646570664</v>
       </c>
-      <c r="DF15" s="72">
+      <c r="DF15" s="68">
         <f t="shared" si="18"/>
         <v>15174.861965969527</v>
       </c>
-      <c r="DG15" s="72">
+      <c r="DG15" s="68">
         <f t="shared" si="18"/>
         <v>15920.378501852863</v>
       </c>
@@ -18341,43 +18349,43 @@
         <f t="shared" si="20"/>
         <v>22595</v>
       </c>
-      <c r="CX16" s="72">
+      <c r="CX16" s="68">
         <f t="shared" si="20"/>
         <v>25266.35</v>
       </c>
-      <c r="CY16" s="72">
+      <c r="CY16" s="68">
         <f t="shared" si="20"/>
         <v>27491.718553999999</v>
       </c>
-      <c r="CZ16" s="72">
+      <c r="CZ16" s="68">
         <f t="shared" si="20"/>
         <v>29635.032204108007</v>
       </c>
-      <c r="DA16" s="72">
+      <c r="DA16" s="68">
         <f t="shared" si="20"/>
         <v>31732.058838227531</v>
       </c>
-      <c r="DB16" s="72">
+      <c r="DB16" s="68">
         <f t="shared" si="20"/>
         <v>33932.015158148839</v>
       </c>
-      <c r="DC16" s="72">
+      <c r="DC16" s="68">
         <f t="shared" si="20"/>
         <v>36198.643407155389</v>
       </c>
-      <c r="DD16" s="72">
+      <c r="DD16" s="68">
         <f t="shared" si="20"/>
         <v>38564.62904789568</v>
       </c>
-      <c r="DE16" s="72">
+      <c r="DE16" s="68">
         <f t="shared" si="20"/>
         <v>40947.918756093291</v>
       </c>
-      <c r="DF16" s="72">
+      <c r="DF16" s="68">
         <f t="shared" si="20"/>
         <v>43427.434823802105</v>
       </c>
-      <c r="DG16" s="72">
+      <c r="DG16" s="68">
         <f t="shared" si="20"/>
         <v>46087.976048798824</v>
       </c>
@@ -18594,43 +18602,43 @@
         <f t="shared" si="22"/>
         <v>0.59827395441469355</v>
       </c>
-      <c r="CX18" s="70">
+      <c r="CX18" s="66">
         <f t="shared" ref="CX18:DG18" si="23">CX9/CX16</f>
         <v>0.61167513313161581</v>
       </c>
-      <c r="CY18" s="70">
+      <c r="CY18" s="66">
         <f t="shared" si="23"/>
         <v>0.61668742063901461</v>
       </c>
-      <c r="CZ18" s="70">
+      <c r="CZ18" s="66">
         <f t="shared" si="23"/>
         <v>0.62196014654686249</v>
       </c>
-      <c r="DA18" s="70">
+      <c r="DA18" s="66">
         <f t="shared" si="23"/>
         <v>0.62799965884119213</v>
       </c>
-      <c r="DB18" s="70">
+      <c r="DB18" s="66">
         <f t="shared" si="23"/>
         <v>0.63331293186931492</v>
       </c>
-      <c r="DC18" s="70">
+      <c r="DC18" s="66">
         <f t="shared" si="23"/>
         <v>0.63821721784659902</v>
       </c>
-      <c r="DD18" s="70">
+      <c r="DD18" s="66">
         <f t="shared" si="23"/>
         <v>0.64272734936633202</v>
       </c>
-      <c r="DE18" s="70">
+      <c r="DE18" s="66">
         <f t="shared" si="23"/>
         <v>0.64694160521759492</v>
       </c>
-      <c r="DF18" s="70">
+      <c r="DF18" s="66">
         <f t="shared" si="23"/>
         <v>0.65056969108264362</v>
       </c>
-      <c r="DG18" s="70">
+      <c r="DG18" s="66">
         <f t="shared" si="23"/>
         <v>0.6545654665981413</v>
       </c>
@@ -18791,43 +18799,43 @@
         <f t="shared" si="25"/>
         <v>0.4017260455853065</v>
       </c>
-      <c r="CX19" s="70">
+      <c r="CX19" s="66">
         <f t="shared" ref="CX19:DG19" si="26">CX15/CX16</f>
         <v>0.38832486686838424</v>
       </c>
-      <c r="CY19" s="70">
+      <c r="CY19" s="66">
         <f t="shared" si="26"/>
         <v>0.38331257936098545</v>
       </c>
-      <c r="CZ19" s="70">
+      <c r="CZ19" s="66">
         <f t="shared" si="26"/>
         <v>0.37803985345313751</v>
       </c>
-      <c r="DA19" s="70">
+      <c r="DA19" s="66">
         <f t="shared" si="26"/>
         <v>0.37200034115880776</v>
       </c>
-      <c r="DB19" s="70">
+      <c r="DB19" s="66">
         <f t="shared" si="26"/>
         <v>0.36668706813068508</v>
       </c>
-      <c r="DC19" s="70">
+      <c r="DC19" s="66">
         <f t="shared" si="26"/>
         <v>0.36178278215340087</v>
       </c>
-      <c r="DD19" s="70">
+      <c r="DD19" s="66">
         <f t="shared" si="26"/>
         <v>0.35727265063366792</v>
       </c>
-      <c r="DE19" s="70">
+      <c r="DE19" s="66">
         <f t="shared" si="26"/>
         <v>0.35305839478240519</v>
       </c>
-      <c r="DF19" s="70">
+      <c r="DF19" s="66">
         <f t="shared" si="26"/>
         <v>0.34943030891735632</v>
       </c>
-      <c r="DG19" s="70">
+      <c r="DG19" s="66">
         <f t="shared" si="26"/>
         <v>0.34543453340185876</v>
       </c>
@@ -19029,34 +19037,34 @@
         <f t="shared" si="29"/>
         <v>0.11838989739542227</v>
       </c>
-      <c r="CX21" s="70">
+      <c r="CX21" s="66">
         <v>0.11</v>
       </c>
-      <c r="CY21" s="70">
+      <c r="CY21" s="66">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="CZ21" s="70">
+      <c r="CZ21" s="66">
         <v>0.09</v>
       </c>
-      <c r="DA21" s="70">
+      <c r="DA21" s="66">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="DB21" s="70">
+      <c r="DB21" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DC21" s="70">
+      <c r="DC21" s="66">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="DD21" s="70">
+      <c r="DD21" s="66">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="DE21" s="70">
+      <c r="DE21" s="66">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="DF21" s="70">
+      <c r="DF21" s="66">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="DG21" s="70">
+      <c r="DG21" s="66">
         <v>0.03</v>
       </c>
       <c r="DH21" s="25"/>
@@ -19200,34 +19208,34 @@
         <f t="shared" si="29"/>
         <v>0.10462842242503267</v>
       </c>
-      <c r="CX22" s="70">
+      <c r="CX22" s="66">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="CY22" s="70">
+      <c r="CY22" s="66">
         <v>0.113</v>
       </c>
-      <c r="CZ22" s="70">
+      <c r="CZ22" s="66">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="DA22" s="70">
+      <c r="DA22" s="66">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="DB22" s="70">
+      <c r="DB22" s="66">
         <v>0.08</v>
       </c>
-      <c r="DC22" s="70">
+      <c r="DC22" s="66">
         <v>7.8E-2</v>
       </c>
-      <c r="DD22" s="70">
+      <c r="DD22" s="66">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="DE22" s="70">
+      <c r="DE22" s="66">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="DF22" s="70">
+      <c r="DF22" s="66">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="DG22" s="70">
+      <c r="DG22" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="DH22" s="25"/>
@@ -19371,34 +19379,34 @@
         <f t="shared" si="29"/>
         <v>0.11361665221162176</v>
       </c>
-      <c r="CX23" s="70">
+      <c r="CX23" s="66">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="CY23" s="70">
+      <c r="CY23" s="66">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="CZ23" s="70">
+      <c r="CZ23" s="66">
         <v>6.2E-2</v>
       </c>
-      <c r="DA23" s="70">
+      <c r="DA23" s="66">
         <v>0.06</v>
       </c>
-      <c r="DB23" s="70">
+      <c r="DB23" s="66">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="DC23" s="70">
+      <c r="DC23" s="66">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="DD23" s="70">
+      <c r="DD23" s="66">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="DE23" s="70">
+      <c r="DE23" s="66">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="DF23" s="70">
+      <c r="DF23" s="66">
         <v>0.05</v>
       </c>
-      <c r="DG23" s="70">
+      <c r="DG23" s="66">
         <v>0.05</v>
       </c>
       <c r="DH23" s="25"/>
@@ -19580,34 +19588,34 @@
         <f t="shared" si="29"/>
         <v>6.6068515497553104E-2</v>
       </c>
-      <c r="CX24" s="70">
+      <c r="CX24" s="66">
         <v>0.55000000000000004</v>
       </c>
-      <c r="CY24" s="70">
+      <c r="CY24" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="CZ24" s="70">
+      <c r="CZ24" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="DA24" s="70">
+      <c r="DA24" s="66">
         <v>0.13</v>
       </c>
-      <c r="DB24" s="70">
+      <c r="DB24" s="66">
         <v>0.13</v>
       </c>
-      <c r="DC24" s="70">
+      <c r="DC24" s="66">
         <v>0.12</v>
       </c>
-      <c r="DD24" s="70">
+      <c r="DD24" s="66">
         <v>0.12</v>
       </c>
-      <c r="DE24" s="70">
+      <c r="DE24" s="66">
         <v>0.11</v>
       </c>
-      <c r="DF24" s="70">
+      <c r="DF24" s="66">
         <v>0.11</v>
       </c>
-      <c r="DG24" s="70">
+      <c r="DG24" s="66">
         <v>0.1</v>
       </c>
     </row>
@@ -19753,34 +19761,34 @@
         <f t="shared" si="29"/>
         <v>0.13859275053304909</v>
       </c>
-      <c r="CX25" s="70">
+      <c r="CX25" s="66">
         <v>0.125</v>
       </c>
-      <c r="CY25" s="70">
+      <c r="CY25" s="66">
         <v>0.1</v>
       </c>
-      <c r="CZ25" s="70">
+      <c r="CZ25" s="66">
         <v>0.08</v>
       </c>
-      <c r="DA25" s="70">
+      <c r="DA25" s="66">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="DB25" s="70">
+      <c r="DB25" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DC25" s="70">
+      <c r="DC25" s="66">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="DD25" s="70">
+      <c r="DD25" s="66">
         <v>6.3E-2</v>
       </c>
-      <c r="DE25" s="70">
+      <c r="DE25" s="66">
         <v>6.2E-2</v>
       </c>
-      <c r="DF25" s="70">
+      <c r="DF25" s="66">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="DG25" s="70">
+      <c r="DG25" s="66">
         <v>0.1</v>
       </c>
     </row>
@@ -19834,75 +19842,75 @@
       <c r="AT26" s="27"/>
       <c r="AU26" s="27"/>
       <c r="AV26" s="27"/>
-      <c r="AW26" s="79"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="79"/>
-      <c r="AZ26" s="79"/>
-      <c r="BA26" s="80">
+      <c r="AW26" s="75"/>
+      <c r="AX26" s="75"/>
+      <c r="AY26" s="75"/>
+      <c r="AZ26" s="75"/>
+      <c r="BA26" s="76">
         <f t="shared" ref="BA26:BP26" si="30">BA9/AW9-1</f>
         <v>4.0855106888361137E-2</v>
       </c>
-      <c r="BB26" s="80">
+      <c r="BB26" s="76">
         <f t="shared" si="30"/>
         <v>0.39338452451269945</v>
       </c>
-      <c r="BC26" s="80">
+      <c r="BC26" s="76">
         <f t="shared" si="30"/>
         <v>0.10906515580736542</v>
       </c>
-      <c r="BD26" s="80">
+      <c r="BD26" s="76">
         <f t="shared" si="30"/>
         <v>8.6455331412103709E-2</v>
       </c>
-      <c r="BE26" s="80">
+      <c r="BE26" s="76">
         <f t="shared" si="30"/>
         <v>0.10588772250114098</v>
       </c>
-      <c r="BF26" s="80">
+      <c r="BF26" s="76">
         <f t="shared" si="30"/>
         <v>8.0542602797795571E-2</v>
       </c>
-      <c r="BG26" s="80">
+      <c r="BG26" s="76">
         <f t="shared" si="30"/>
         <v>0.10174542358450411</v>
       </c>
-      <c r="BH26" s="80">
+      <c r="BH26" s="76">
         <f t="shared" si="30"/>
         <v>0.15611974232663894</v>
       </c>
-      <c r="BI26" s="80">
+      <c r="BI26" s="76">
         <f t="shared" si="30"/>
         <v>0.11019397441188605</v>
       </c>
-      <c r="BJ26" s="80">
+      <c r="BJ26" s="76">
         <f t="shared" si="30"/>
         <v>0.12200863083562186</v>
       </c>
-      <c r="BK26" s="80">
+      <c r="BK26" s="76">
         <f t="shared" si="30"/>
         <v>0.10471406491499224</v>
       </c>
-      <c r="BL26" s="80">
+      <c r="BL26" s="76">
         <f t="shared" si="30"/>
         <v>0.23041625696492951</v>
       </c>
-      <c r="BM26" s="80">
+      <c r="BM26" s="76">
         <f t="shared" si="30"/>
         <v>0.1513011152416357</v>
       </c>
-      <c r="BN26" s="80">
+      <c r="BN26" s="76">
         <f t="shared" si="30"/>
         <v>8.9860139860139965E-2</v>
       </c>
-      <c r="BO26" s="80">
+      <c r="BO26" s="76">
         <f t="shared" si="30"/>
         <v>0.12766701643931455</v>
       </c>
-      <c r="BP26" s="80">
+      <c r="BP26" s="76">
         <f t="shared" si="30"/>
         <v>8.6840703249866813E-2</v>
       </c>
-      <c r="BQ26" s="80">
+      <c r="BQ26" s="76">
         <f t="shared" ref="BQ26:BQ33" si="31">BQ9/BM9-1</f>
         <v>0.13367775266386817</v>
       </c>
@@ -19914,63 +19922,63 @@
       <c r="BW26" s="28"/>
       <c r="BX26" s="28"/>
       <c r="BY26" s="28"/>
-      <c r="CS26" s="80">
+      <c r="CS26" s="76">
         <f t="shared" ref="CS26:CV26" si="32">CS9/CR9-1</f>
         <v>-1.5339233038348055E-2</v>
       </c>
-      <c r="CT26" s="80">
+      <c r="CT26" s="76">
         <f t="shared" si="32"/>
         <v>0.14295985620131813</v>
       </c>
-      <c r="CU26" s="80">
+      <c r="CU26" s="76">
         <f t="shared" si="32"/>
         <v>0.14206332564478918</v>
       </c>
-      <c r="CV26" s="80">
+      <c r="CV26" s="76">
         <f t="shared" si="32"/>
         <v>0.11658863490314886</v>
       </c>
-      <c r="CW26" s="80">
+      <c r="CW26" s="76">
         <f>CW9/CV9-1</f>
         <v>0.1114034366521417</v>
       </c>
-      <c r="CX26" s="81">
+      <c r="CX26" s="77">
         <f>CX9/CW9-1</f>
         <v>0.14327548453913308</v>
       </c>
-      <c r="CY26" s="81">
+      <c r="CY26" s="77">
         <f t="shared" ref="CY26:DG26" si="33">CY9/CX9-1</f>
         <v>9.6992468228960238E-2</v>
       </c>
-      <c r="CZ26" s="81">
+      <c r="CZ26" s="77">
         <f t="shared" si="33"/>
         <v>8.7178817125113106E-2</v>
       </c>
-      <c r="DA26" s="81">
+      <c r="DA26" s="77">
         <f t="shared" si="33"/>
         <v>8.1159323774039782E-2</v>
       </c>
-      <c r="DB26" s="81">
+      <c r="DB26" s="77">
         <f t="shared" si="33"/>
         <v>7.8376337723370382E-2</v>
       </c>
-      <c r="DC26" s="81">
+      <c r="DC26" s="77">
         <f t="shared" si="33"/>
         <v>7.5060246898740912E-2</v>
       </c>
-      <c r="DD26" s="81">
+      <c r="DD26" s="77">
         <f t="shared" si="33"/>
         <v>7.2889826488014675E-2</v>
       </c>
-      <c r="DE26" s="81">
+      <c r="DE26" s="77">
         <f t="shared" si="33"/>
         <v>6.8761931228272344E-2</v>
       </c>
-      <c r="DF26" s="81">
+      <c r="DF26" s="77">
         <f t="shared" si="33"/>
         <v>6.6500562462139756E-2</v>
       </c>
-      <c r="DG26" s="81">
+      <c r="DG26" s="77">
         <f t="shared" si="33"/>
         <v>6.7782311322576616E-2</v>
       </c>
@@ -20107,34 +20115,34 @@
         <f t="shared" si="35"/>
         <v>7.6550813902331649E-2</v>
       </c>
-      <c r="CX27" s="70">
+      <c r="CX27" s="66">
         <v>0.06</v>
       </c>
-      <c r="CY27" s="70">
+      <c r="CY27" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="CZ27" s="70">
+      <c r="CZ27" s="66">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="DA27" s="70">
+      <c r="DA27" s="66">
         <v>0.04</v>
       </c>
-      <c r="DB27" s="70">
+      <c r="DB27" s="66">
         <v>0.04</v>
       </c>
-      <c r="DC27" s="70">
+      <c r="DC27" s="66">
         <v>0.04</v>
       </c>
-      <c r="DD27" s="70">
+      <c r="DD27" s="66">
         <v>0.04</v>
       </c>
-      <c r="DE27" s="70">
+      <c r="DE27" s="66">
         <v>0.04</v>
       </c>
-      <c r="DF27" s="70">
+      <c r="DF27" s="66">
         <v>0.04</v>
       </c>
-      <c r="DG27" s="70">
+      <c r="DG27" s="66">
         <v>0.04</v>
       </c>
     </row>
@@ -20234,34 +20242,34 @@
         <f t="shared" si="35"/>
         <v>0.10362694300518127</v>
       </c>
-      <c r="CX28" s="70">
+      <c r="CX28" s="66">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="CY28" s="70">
+      <c r="CY28" s="66">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="CZ28" s="70">
+      <c r="CZ28" s="66">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="DA28" s="70">
+      <c r="DA28" s="66">
         <v>0.05</v>
       </c>
-      <c r="DB28" s="70">
+      <c r="DB28" s="66">
         <v>0.05</v>
       </c>
-      <c r="DC28" s="70">
+      <c r="DC28" s="66">
         <v>0.04</v>
       </c>
-      <c r="DD28" s="70">
+      <c r="DD28" s="66">
         <v>0.04</v>
       </c>
-      <c r="DE28" s="70">
+      <c r="DE28" s="66">
         <v>0.03</v>
       </c>
-      <c r="DF28" s="70">
+      <c r="DF28" s="66">
         <v>0.03</v>
       </c>
-      <c r="DG28" s="70">
+      <c r="DG28" s="66">
         <v>0.03</v>
       </c>
     </row>
@@ -20361,34 +20369,34 @@
         <f t="shared" si="35"/>
         <v>0.11439466158245959</v>
       </c>
-      <c r="CX29" s="70">
+      <c r="CX29" s="66">
         <v>0.106</v>
       </c>
-      <c r="CY29" s="70">
+      <c r="CY29" s="66">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="CZ29" s="70">
+      <c r="CZ29" s="66">
         <v>0.08</v>
       </c>
-      <c r="DA29" s="70">
+      <c r="DA29" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DB29" s="70">
+      <c r="DB29" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DC29" s="70">
+      <c r="DC29" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DD29" s="70">
+      <c r="DD29" s="66">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="DE29" s="70">
+      <c r="DE29" s="66">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="DF29" s="70">
+      <c r="DF29" s="66">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="DG29" s="70">
+      <c r="DG29" s="66">
         <v>6.3E-2</v>
       </c>
     </row>
@@ -20488,34 +20496,34 @@
         <f t="shared" si="35"/>
         <v>-8.4151472650771941E-3</v>
       </c>
-      <c r="CX30" s="70">
+      <c r="CX30" s="66">
         <v>0.01</v>
       </c>
-      <c r="CY30" s="70">
+      <c r="CY30" s="66">
         <v>-0.05</v>
       </c>
-      <c r="CZ30" s="70">
+      <c r="CZ30" s="66">
         <v>-0.02</v>
       </c>
-      <c r="DA30" s="70">
+      <c r="DA30" s="66">
         <v>-0.01</v>
       </c>
-      <c r="DB30" s="70">
+      <c r="DB30" s="66">
         <v>-0.01</v>
       </c>
-      <c r="DC30" s="70">
+      <c r="DC30" s="66">
         <v>-0.01</v>
       </c>
-      <c r="DD30" s="70">
+      <c r="DD30" s="66">
         <v>-0.01</v>
       </c>
-      <c r="DE30" s="70">
+      <c r="DE30" s="66">
         <v>-0.01</v>
       </c>
-      <c r="DF30" s="70">
+      <c r="DF30" s="66">
         <v>-0.01</v>
       </c>
-      <c r="DG30" s="70">
+      <c r="DG30" s="66">
         <v>-0.01</v>
       </c>
     </row>
@@ -20615,34 +20623,34 @@
         <f t="shared" si="35"/>
         <v>8.2066869300911893E-2</v>
       </c>
-      <c r="CX31" s="70">
+      <c r="CX31" s="66">
         <v>0.09</v>
       </c>
-      <c r="CY31" s="70">
+      <c r="CY31" s="66">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="CZ31" s="70">
+      <c r="CZ31" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DA31" s="70">
+      <c r="DA31" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DB31" s="70">
+      <c r="DB31" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DC31" s="70">
+      <c r="DC31" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DD31" s="70">
+      <c r="DD31" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DE31" s="70">
+      <c r="DE31" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DF31" s="70">
+      <c r="DF31" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="DG31" s="70">
+      <c r="DG31" s="66">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -20650,75 +20658,75 @@
       <c r="B32" s="27" t="s">
         <v>1583</v>
       </c>
-      <c r="AW32" s="82"/>
-      <c r="AX32" s="82"/>
-      <c r="AY32" s="82"/>
-      <c r="AZ32" s="82"/>
-      <c r="BA32" s="80">
+      <c r="AW32" s="78"/>
+      <c r="AX32" s="78"/>
+      <c r="AY32" s="78"/>
+      <c r="AZ32" s="78"/>
+      <c r="BA32" s="76">
         <f t="shared" ref="BA32:BP32" si="36">BA15/AW15-1</f>
         <v>0.18813216453135539</v>
       </c>
-      <c r="BB32" s="80">
+      <c r="BB32" s="76">
         <f t="shared" si="36"/>
         <v>0.80672268907563027</v>
       </c>
-      <c r="BC32" s="80">
+      <c r="BC32" s="76">
         <f t="shared" si="36"/>
         <v>0.118591723285979</v>
       </c>
-      <c r="BD32" s="80">
+      <c r="BD32" s="76">
         <f t="shared" si="36"/>
         <v>0.12493180578286966</v>
       </c>
-      <c r="BE32" s="80">
+      <c r="BE32" s="76">
         <f t="shared" si="36"/>
         <v>5.1078320090805818E-2</v>
       </c>
-      <c r="BF32" s="80">
+      <c r="BF32" s="76">
         <f t="shared" si="36"/>
         <v>4.6511627906977715E-3</v>
       </c>
-      <c r="BG32" s="80">
+      <c r="BG32" s="76">
         <f t="shared" si="36"/>
         <v>4.417448923246825E-2</v>
       </c>
-      <c r="BH32" s="80">
+      <c r="BH32" s="76">
         <f t="shared" si="36"/>
         <v>4.3161978661493627E-2</v>
       </c>
-      <c r="BI32" s="80">
+      <c r="BI32" s="76">
         <f t="shared" si="36"/>
         <v>0.12742980561555073</v>
       </c>
-      <c r="BJ32" s="80">
+      <c r="BJ32" s="76">
         <f t="shared" si="36"/>
         <v>9.8765432098765427E-2</v>
       </c>
-      <c r="BK32" s="80">
+      <c r="BK32" s="76">
         <f t="shared" si="36"/>
         <v>8.4082496033844434E-2</v>
       </c>
-      <c r="BL32" s="80">
+      <c r="BL32" s="76">
         <f t="shared" si="36"/>
         <v>-4.1841004184100417E-2</v>
       </c>
-      <c r="BM32" s="80">
+      <c r="BM32" s="76">
         <f t="shared" si="36"/>
         <v>2.7777777777777679E-2</v>
       </c>
-      <c r="BN32" s="80">
+      <c r="BN32" s="76">
         <f t="shared" si="36"/>
         <v>7.9119850187265861E-2</v>
       </c>
-      <c r="BO32" s="80">
+      <c r="BO32" s="76">
         <f t="shared" si="36"/>
         <v>0.1073170731707318</v>
       </c>
-      <c r="BP32" s="80">
+      <c r="BP32" s="76">
         <f t="shared" si="36"/>
         <v>0.14313440077632222</v>
       </c>
-      <c r="BQ32" s="80">
+      <c r="BQ32" s="76">
         <f t="shared" si="31"/>
         <v>9.7390493942218104E-2</v>
       </c>
@@ -20730,63 +20738,63 @@
       <c r="BW32" s="28"/>
       <c r="BX32" s="28"/>
       <c r="BY32" s="28"/>
-      <c r="CS32" s="80">
+      <c r="CS32" s="76">
         <f t="shared" ref="CS32:CV32" si="37">CS15/CR15-1</f>
         <v>-6.2880324543610588E-2</v>
       </c>
-      <c r="CT32" s="80">
+      <c r="CT32" s="76">
         <f t="shared" si="37"/>
         <v>0.26040626040626047</v>
       </c>
-      <c r="CU32" s="80">
+      <c r="CU32" s="76">
         <f t="shared" si="37"/>
         <v>-1.8494055482166649E-3</v>
       </c>
-      <c r="CV32" s="80">
+      <c r="CV32" s="76">
         <f t="shared" si="37"/>
         <v>0.10309687665431455</v>
       </c>
-      <c r="CW32" s="80">
+      <c r="CW32" s="76">
         <f>CW15/CV15-1</f>
         <v>8.9022195560887862E-2</v>
       </c>
-      <c r="CX32" s="81">
+      <c r="CX32" s="77">
         <f>CX15/CW15-1</f>
         <v>8.0924534537842874E-2</v>
       </c>
-      <c r="CY32" s="81">
+      <c r="CY32" s="77">
         <f t="shared" ref="CY32:DG32" si="38">CY15/CX15-1</f>
         <v>7.4032074640179468E-2</v>
       </c>
-      <c r="CZ32" s="81">
+      <c r="CZ32" s="77">
         <f t="shared" si="38"/>
         <v>6.3134051469570851E-2</v>
       </c>
-      <c r="DA32" s="81">
+      <c r="DA32" s="77">
         <f t="shared" si="38"/>
         <v>5.3655405194532158E-2</v>
       </c>
-      <c r="DB32" s="81">
+      <c r="DB32" s="77">
         <f t="shared" si="38"/>
         <v>5.4055933518588617E-2</v>
       </c>
-      <c r="DC32" s="81">
+      <c r="DC32" s="77">
         <f t="shared" si="38"/>
         <v>5.2531113880923685E-2</v>
       </c>
-      <c r="DD32" s="81">
+      <c r="DD32" s="77">
         <f t="shared" si="38"/>
         <v>5.2079942502302856E-2</v>
       </c>
-      <c r="DE32" s="81">
+      <c r="DE32" s="77">
         <f t="shared" si="38"/>
         <v>4.9275288594339051E-2</v>
       </c>
-      <c r="DF32" s="81">
+      <c r="DF32" s="77">
         <f t="shared" si="38"/>
         <v>4.9654505029496088E-2</v>
       </c>
-      <c r="DG32" s="81">
+      <c r="DG32" s="77">
         <f t="shared" si="38"/>
         <v>4.9128389935618522E-2</v>
       </c>
@@ -20831,75 +20839,75 @@
       <c r="B33" s="27" t="s">
         <v>1182</v>
       </c>
-      <c r="AW33" s="82"/>
-      <c r="AX33" s="82"/>
-      <c r="AY33" s="82"/>
-      <c r="AZ33" s="82"/>
-      <c r="BA33" s="80">
+      <c r="AW33" s="78"/>
+      <c r="AX33" s="78"/>
+      <c r="AY33" s="78"/>
+      <c r="AZ33" s="78"/>
+      <c r="BA33" s="76">
         <f t="shared" ref="BA33:BP33" si="39">BA16/AW16-1</f>
         <v>0.1017279821627648</v>
       </c>
-      <c r="BB33" s="80">
+      <c r="BB33" s="76">
         <f t="shared" si="39"/>
         <v>0.55354558610709126</v>
       </c>
-      <c r="BC33" s="80">
+      <c r="BC33" s="76">
         <f t="shared" si="39"/>
         <v>0.11319240032111311</v>
       </c>
-      <c r="BD33" s="80">
+      <c r="BD33" s="76">
         <f t="shared" si="39"/>
         <v>0.10300328484279686</v>
       </c>
-      <c r="BE33" s="80">
+      <c r="BE33" s="76">
         <f t="shared" si="39"/>
         <v>8.1457121173792002E-2</v>
       </c>
-      <c r="BF33" s="80">
+      <c r="BF33" s="76">
         <f t="shared" si="39"/>
         <v>4.6343735444806633E-2</v>
       </c>
-      <c r="BG33" s="80">
+      <c r="BG33" s="76">
         <f t="shared" si="39"/>
         <v>7.6682692307692202E-2</v>
       </c>
-      <c r="BH33" s="80">
+      <c r="BH33" s="76">
         <f t="shared" si="39"/>
         <v>0.10657306955966805</v>
       </c>
-      <c r="BI33" s="80">
+      <c r="BI33" s="76">
         <f t="shared" si="39"/>
         <v>0.11766081871345024</v>
       </c>
-      <c r="BJ33" s="80">
+      <c r="BJ33" s="76">
         <f t="shared" si="39"/>
         <v>0.11195192521700426</v>
       </c>
-      <c r="BK33" s="80">
+      <c r="BK33" s="76">
         <f t="shared" si="39"/>
         <v>9.6003572225943357E-2</v>
       </c>
-      <c r="BL33" s="80">
+      <c r="BL33" s="76">
         <f t="shared" si="39"/>
         <v>0.1178392925797771</v>
       </c>
-      <c r="BM33" s="80">
+      <c r="BM33" s="76">
         <f t="shared" si="39"/>
         <v>9.7321054834658804E-2</v>
       </c>
-      <c r="BN33" s="80">
+      <c r="BN33" s="76">
         <f t="shared" si="39"/>
         <v>8.526821457165723E-2</v>
       </c>
-      <c r="BO33" s="80">
+      <c r="BO33" s="76">
         <f t="shared" si="39"/>
         <v>0.11916887349765726</v>
       </c>
-      <c r="BP33" s="80">
+      <c r="BP33" s="76">
         <f t="shared" si="39"/>
         <v>0.10679277730008607</v>
       </c>
-      <c r="BQ33" s="80">
+      <c r="BQ33" s="76">
         <f t="shared" si="31"/>
         <v>0.11882510013351144</v>
       </c>
@@ -20911,63 +20919,63 @@
       <c r="BW33" s="28"/>
       <c r="BX33" s="28"/>
       <c r="BY33" s="28"/>
-      <c r="CS33" s="80">
+      <c r="CS33" s="76">
         <f>CS16/CR16-1</f>
         <v>-3.5810266057511475E-2</v>
       </c>
-      <c r="CT33" s="80">
+      <c r="CT33" s="76">
         <f>CT16/CS16-1</f>
         <v>0.19211204794090997</v>
       </c>
-      <c r="CU33" s="80">
+      <c r="CU33" s="76">
         <f>CU16/CT16-1</f>
         <v>7.8384381575870909E-2</v>
       </c>
-      <c r="CV33" s="80">
+      <c r="CV33" s="76">
         <f>CV16/CU16-1</f>
         <v>0.11106293024012137</v>
       </c>
-      <c r="CW33" s="80">
+      <c r="CW33" s="76">
         <f>CW16/CV16-1</f>
         <v>0.1023026636745048</v>
       </c>
-      <c r="CX33" s="81">
+      <c r="CX33" s="77">
         <f>CX16/CW16-1</f>
         <v>0.11822748395662752</v>
       </c>
-      <c r="CY33" s="81">
+      <c r="CY33" s="77">
         <f t="shared" ref="CY33:DG33" si="40">CY16/CX16-1</f>
         <v>8.8076376445351157E-2</v>
       </c>
-      <c r="CZ33" s="81">
+      <c r="CZ33" s="77">
         <f t="shared" si="40"/>
         <v>7.7962155981556869E-2</v>
       </c>
-      <c r="DA33" s="81">
+      <c r="DA33" s="77">
         <f t="shared" si="40"/>
         <v>7.0761746424855776E-2</v>
       </c>
-      <c r="DB33" s="81">
+      <c r="DB33" s="77">
         <f t="shared" si="40"/>
         <v>6.9329139062071388E-2</v>
       </c>
-      <c r="DC33" s="81">
+      <c r="DC33" s="77">
         <f t="shared" si="40"/>
         <v>6.6799105164911277E-2</v>
       </c>
-      <c r="DD33" s="81">
+      <c r="DD33" s="77">
         <f t="shared" si="40"/>
         <v>6.5361168763374389E-2</v>
       </c>
-      <c r="DE33" s="81">
+      <c r="DE33" s="77">
         <f t="shared" si="40"/>
         <v>6.1799886762495815E-2</v>
       </c>
-      <c r="DF33" s="81">
+      <c r="DF33" s="77">
         <f t="shared" si="40"/>
         <v>6.0552920466558469E-2</v>
       </c>
-      <c r="DG33" s="81">
+      <c r="DG33" s="77">
         <f t="shared" si="40"/>
         <v>6.1264065809811585E-2</v>
       </c>
@@ -21103,7 +21111,7 @@
         <f t="shared" ref="CW35:CW36" si="45">SUM(BM35:BP35)</f>
         <v>16943</v>
       </c>
-      <c r="CY35" s="71"/>
+      <c r="CY35" s="67"/>
     </row>
     <row r="36" spans="2:147">
       <c r="B36" s="29" t="s">
@@ -22311,47 +22319,47 @@
       <c r="BY46" s="28">
         <v>6840</v>
       </c>
-      <c r="CH46" s="43">
+      <c r="CH46" s="39">
         <f>SUM(E46:H46)</f>
         <v>6723</v>
       </c>
-      <c r="CI46" s="43">
+      <c r="CI46" s="39">
         <f>SUM(I46:L46)</f>
         <v>7320</v>
       </c>
-      <c r="CJ46" s="43">
+      <c r="CJ46" s="39">
         <f>SUM(M46:P46)</f>
         <v>8307</v>
       </c>
-      <c r="CK46" s="43">
+      <c r="CK46" s="39">
         <f>SUM(Q46:T46)</f>
         <v>8657</v>
       </c>
-      <c r="CL46" s="43">
+      <c r="CL46" s="39">
         <f>SUM(U46:X46)</f>
         <v>9021</v>
       </c>
-      <c r="CM46" s="43">
+      <c r="CM46" s="39">
         <f>SUM(Y46:AB46)</f>
         <v>9675</v>
       </c>
-      <c r="CN46" s="43">
+      <c r="CN46" s="39">
         <f>SUM(AC46:AF46)</f>
         <v>9946</v>
       </c>
-      <c r="CO46" s="43">
+      <c r="CO46" s="39">
         <f>SUM(AG46:AJ46)</f>
         <v>11325</v>
       </c>
-      <c r="CP46" s="43">
+      <c r="CP46" s="39">
         <f>SUM(AK46:AN46)</f>
         <v>12444</v>
       </c>
-      <c r="CQ46" s="43">
+      <c r="CQ46" s="39">
         <f>SUM(AO46:AR46)</f>
         <v>13601</v>
       </c>
-      <c r="CR46" s="43">
+      <c r="CR46" s="39">
         <f>SUM(AS46:AV46)</f>
         <v>14884</v>
       </c>
@@ -22375,43 +22383,43 @@
         <f t="shared" ref="CW46:CW57" si="67">SUM(BM46:BP46)</f>
         <v>22595</v>
       </c>
-      <c r="CX46" s="72">
+      <c r="CX46" s="68">
         <f t="shared" ref="CX46:DG46" si="68">CX16</f>
         <v>25266.35</v>
       </c>
-      <c r="CY46" s="72">
+      <c r="CY46" s="68">
         <f t="shared" si="68"/>
         <v>27491.718553999999</v>
       </c>
-      <c r="CZ46" s="72">
+      <c r="CZ46" s="68">
         <f t="shared" si="68"/>
         <v>29635.032204108007</v>
       </c>
-      <c r="DA46" s="72">
+      <c r="DA46" s="68">
         <f t="shared" si="68"/>
         <v>31732.058838227531</v>
       </c>
-      <c r="DB46" s="72">
+      <c r="DB46" s="68">
         <f t="shared" si="68"/>
         <v>33932.015158148839</v>
       </c>
-      <c r="DC46" s="72">
+      <c r="DC46" s="68">
         <f t="shared" si="68"/>
         <v>36198.643407155389</v>
       </c>
-      <c r="DD46" s="72">
+      <c r="DD46" s="68">
         <f t="shared" si="68"/>
         <v>38564.62904789568</v>
       </c>
-      <c r="DE46" s="72">
+      <c r="DE46" s="68">
         <f t="shared" si="68"/>
         <v>40947.918756093291</v>
       </c>
-      <c r="DF46" s="72">
+      <c r="DF46" s="68">
         <f t="shared" si="68"/>
         <v>43427.434823802105</v>
       </c>
-      <c r="DG46" s="72">
+      <c r="DG46" s="68">
         <f t="shared" si="68"/>
         <v>46087.976048798824</v>
       </c>
@@ -22726,43 +22734,43 @@
         <f t="shared" si="67"/>
         <v>8155</v>
       </c>
-      <c r="CX47" s="71">
+      <c r="CX47" s="67">
         <f>CX46*(1-CX61)</f>
         <v>8944.2878999999994</v>
       </c>
-      <c r="CY47" s="71">
+      <c r="CY47" s="67">
         <f t="shared" ref="CY47:DG47" si="80">CY46*(1-CY61)</f>
         <v>9677.0849310079993</v>
       </c>
-      <c r="CZ47" s="71">
+      <c r="CZ47" s="67">
         <f t="shared" si="80"/>
         <v>10372.261271437801</v>
       </c>
-      <c r="DA47" s="71">
+      <c r="DA47" s="67">
         <f t="shared" si="80"/>
         <v>11042.75647570318</v>
       </c>
-      <c r="DB47" s="71">
+      <c r="DB47" s="67">
         <f t="shared" si="80"/>
         <v>11740.477244719497</v>
       </c>
-      <c r="DC47" s="71">
+      <c r="DC47" s="67">
         <f t="shared" si="80"/>
         <v>12452.333332061453</v>
       </c>
-      <c r="DD47" s="71">
+      <c r="DD47" s="67">
         <f t="shared" si="80"/>
         <v>13189.103134380321</v>
       </c>
-      <c r="DE47" s="71">
+      <c r="DE47" s="67">
         <f t="shared" si="80"/>
         <v>13922.292377071717</v>
       </c>
-      <c r="DF47" s="71">
+      <c r="DF47" s="67">
         <f t="shared" si="80"/>
         <v>14765.327840092714</v>
       </c>
-      <c r="DG47" s="71">
+      <c r="DG47" s="67">
         <f t="shared" si="80"/>
         <v>15669.9118565916</v>
       </c>
@@ -23103,43 +23111,43 @@
         <f t="shared" si="67"/>
         <v>14440</v>
       </c>
-      <c r="CX48" s="71">
+      <c r="CX48" s="67">
         <f>CX46-CX47</f>
         <v>16322.062099999999</v>
       </c>
-      <c r="CY48" s="71">
+      <c r="CY48" s="67">
         <f t="shared" ref="CY48:DG48" si="104">CY46-CY47</f>
         <v>17814.633622991998</v>
       </c>
-      <c r="CZ48" s="71">
+      <c r="CZ48" s="67">
         <f t="shared" si="104"/>
         <v>19262.770932670206</v>
       </c>
-      <c r="DA48" s="71">
+      <c r="DA48" s="67">
         <f t="shared" si="104"/>
         <v>20689.302362524351</v>
       </c>
-      <c r="DB48" s="71">
+      <c r="DB48" s="67">
         <f t="shared" si="104"/>
         <v>22191.53791342934</v>
       </c>
-      <c r="DC48" s="71">
+      <c r="DC48" s="67">
         <f t="shared" si="104"/>
         <v>23746.310075093934</v>
       </c>
-      <c r="DD48" s="71">
+      <c r="DD48" s="67">
         <f t="shared" si="104"/>
         <v>25375.525913515361</v>
       </c>
-      <c r="DE48" s="71">
+      <c r="DE48" s="67">
         <f t="shared" si="104"/>
         <v>27025.626379021574</v>
       </c>
-      <c r="DF48" s="71">
+      <c r="DF48" s="67">
         <f t="shared" si="104"/>
         <v>28662.106983709389</v>
       </c>
-      <c r="DG48" s="71">
+      <c r="DG48" s="67">
         <f t="shared" si="104"/>
         <v>30418.064192207225</v>
       </c>
@@ -23418,43 +23426,43 @@
         <f t="shared" si="67"/>
         <v>1466</v>
       </c>
-      <c r="CX49" s="71">
+      <c r="CX49" s="67">
         <f>CX46*CX62</f>
         <v>1718.1118000000001</v>
       </c>
-      <c r="CY49" s="71">
+      <c r="CY49" s="67">
         <f t="shared" ref="CY49:DG49" si="105">CY46*CY62</f>
         <v>1869.4368616720001</v>
       </c>
-      <c r="CZ49" s="71">
+      <c r="CZ49" s="67">
         <f t="shared" si="105"/>
         <v>2015.1821898793446</v>
       </c>
-      <c r="DA49" s="71">
+      <c r="DA49" s="67">
         <f t="shared" si="105"/>
         <v>2157.7800009994721</v>
       </c>
-      <c r="DB49" s="71">
+      <c r="DB49" s="67">
         <f t="shared" si="105"/>
         <v>2307.3770307541213</v>
       </c>
-      <c r="DC49" s="71">
+      <c r="DC49" s="67">
         <f t="shared" si="105"/>
         <v>2461.5077516865667</v>
       </c>
-      <c r="DD49" s="71">
+      <c r="DD49" s="67">
         <f t="shared" si="105"/>
         <v>2622.3947752569065</v>
       </c>
-      <c r="DE49" s="71">
+      <c r="DE49" s="67">
         <f t="shared" si="105"/>
         <v>2784.4584754143439</v>
       </c>
-      <c r="DF49" s="71">
+      <c r="DF49" s="67">
         <f t="shared" si="105"/>
         <v>2953.0655680185432</v>
       </c>
-      <c r="DG49" s="71">
+      <c r="DG49" s="67">
         <f t="shared" si="105"/>
         <v>3133.9823713183205</v>
       </c>
@@ -23733,43 +23741,43 @@
         <f t="shared" si="67"/>
         <v>7685</v>
       </c>
-      <c r="CX50" s="71">
+      <c r="CX50" s="67">
         <f>CX46*CX63</f>
         <v>8514.7599499999997</v>
       </c>
-      <c r="CY50" s="71">
+      <c r="CY50" s="67">
         <f t="shared" ref="CY50:DG50" si="106">CY46*CY63</f>
         <v>9182.2339970360008</v>
       </c>
-      <c r="CZ50" s="71">
+      <c r="CZ50" s="67">
         <f t="shared" si="106"/>
         <v>9838.8306917638583</v>
       </c>
-      <c r="DA50" s="71">
+      <c r="DA50" s="67">
         <f t="shared" si="106"/>
         <v>10471.579416615086</v>
       </c>
-      <c r="DB50" s="71">
+      <c r="DB50" s="67">
         <f t="shared" si="106"/>
         <v>11129.70097187282</v>
       </c>
-      <c r="DC50" s="71">
+      <c r="DC50" s="67">
         <f t="shared" si="106"/>
         <v>11836.956394139812</v>
       </c>
-      <c r="DD50" s="71">
+      <c r="DD50" s="67">
         <f t="shared" si="106"/>
         <v>12572.069069613992</v>
       </c>
-      <c r="DE50" s="71">
+      <c r="DE50" s="67">
         <f t="shared" si="106"/>
         <v>13308.07359573032</v>
       </c>
-      <c r="DF50" s="71">
+      <c r="DF50" s="67">
         <f t="shared" si="106"/>
         <v>14113.916317735684</v>
       </c>
-      <c r="DG50" s="71">
+      <c r="DG50" s="67">
         <f t="shared" si="106"/>
         <v>14978.592215859619</v>
       </c>
@@ -24048,43 +24056,43 @@
         <f t="shared" si="67"/>
         <v>623</v>
       </c>
-      <c r="CX51" s="71">
+      <c r="CX51" s="67">
         <f>CW51*(1.03)</f>
         <v>641.69000000000005</v>
       </c>
-      <c r="CY51" s="71">
+      <c r="CY51" s="67">
         <f t="shared" ref="CY51:DG51" si="107">CX51*(1.03)</f>
         <v>660.94070000000011</v>
       </c>
-      <c r="CZ51" s="71">
+      <c r="CZ51" s="67">
         <f t="shared" si="107"/>
         <v>680.76892100000009</v>
       </c>
-      <c r="DA51" s="71">
+      <c r="DA51" s="67">
         <f t="shared" si="107"/>
         <v>701.19198863000008</v>
       </c>
-      <c r="DB51" s="71">
+      <c r="DB51" s="67">
         <f t="shared" si="107"/>
         <v>722.2277482889001</v>
       </c>
-      <c r="DC51" s="71">
+      <c r="DC51" s="67">
         <f t="shared" si="107"/>
         <v>743.89458073756714</v>
       </c>
-      <c r="DD51" s="71">
+      <c r="DD51" s="67">
         <f t="shared" si="107"/>
         <v>766.21141815969418</v>
       </c>
-      <c r="DE51" s="71">
+      <c r="DE51" s="67">
         <f t="shared" si="107"/>
         <v>789.19776070448506</v>
       </c>
-      <c r="DF51" s="71">
+      <c r="DF51" s="67">
         <f t="shared" si="107"/>
         <v>812.87369352561961</v>
       </c>
-      <c r="DG51" s="71">
+      <c r="DG51" s="67">
         <f t="shared" si="107"/>
         <v>837.25990433138827</v>
       </c>
@@ -24363,43 +24371,43 @@
         <f t="shared" si="67"/>
         <v>977</v>
       </c>
-      <c r="CX52" s="71">
+      <c r="CX52" s="67">
         <f>500*(0.93)</f>
         <v>465</v>
       </c>
-      <c r="CY52" s="71">
+      <c r="CY52" s="67">
         <f>CX52*(1.03)</f>
         <v>478.95</v>
       </c>
-      <c r="CZ52" s="71">
+      <c r="CZ52" s="67">
         <f t="shared" ref="CZ52:DG52" si="108">CY52*(1.03)</f>
         <v>493.31850000000003</v>
       </c>
-      <c r="DA52" s="71">
+      <c r="DA52" s="67">
         <f t="shared" si="108"/>
         <v>508.11805500000003</v>
       </c>
-      <c r="DB52" s="71">
+      <c r="DB52" s="67">
         <f t="shared" si="108"/>
         <v>523.36159665000002</v>
       </c>
-      <c r="DC52" s="71">
+      <c r="DC52" s="67">
         <f t="shared" si="108"/>
         <v>539.06244454950001</v>
       </c>
-      <c r="DD52" s="71">
+      <c r="DD52" s="67">
         <f t="shared" si="108"/>
         <v>555.23431788598498</v>
       </c>
-      <c r="DE52" s="71">
+      <c r="DE52" s="67">
         <f t="shared" si="108"/>
         <v>571.89134742256454</v>
       </c>
-      <c r="DF52" s="71">
+      <c r="DF52" s="67">
         <f t="shared" si="108"/>
         <v>589.04808784524153</v>
       </c>
-      <c r="DG52" s="71">
+      <c r="DG52" s="67">
         <f t="shared" si="108"/>
         <v>606.71953048059879</v>
       </c>
@@ -24740,43 +24748,43 @@
         <f t="shared" si="67"/>
         <v>3689</v>
       </c>
-      <c r="CX53" s="71">
+      <c r="CX53" s="67">
         <f>CX48-SUM(CX49:CX52)</f>
         <v>4982.5003499999984</v>
       </c>
-      <c r="CY53" s="71">
+      <c r="CY53" s="67">
         <f t="shared" ref="CY53:DG53" si="131">CY48-SUM(CY49:CY52)</f>
         <v>5623.0720642839951</v>
       </c>
-      <c r="CZ53" s="71">
+      <c r="CZ53" s="67">
         <f t="shared" si="131"/>
         <v>6234.6706300270034</v>
       </c>
-      <c r="DA53" s="71">
+      <c r="DA53" s="67">
         <f t="shared" si="131"/>
         <v>6850.6329012797923</v>
       </c>
-      <c r="DB53" s="71">
+      <c r="DB53" s="67">
         <f t="shared" si="131"/>
         <v>7508.8705658634972</v>
       </c>
-      <c r="DC53" s="71">
+      <c r="DC53" s="67">
         <f t="shared" si="131"/>
         <v>8164.8889039804872</v>
       </c>
-      <c r="DD53" s="71">
+      <c r="DD53" s="67">
         <f t="shared" si="131"/>
         <v>8859.6163325987836</v>
       </c>
-      <c r="DE53" s="71">
+      <c r="DE53" s="67">
         <f t="shared" si="131"/>
         <v>9572.0051997498631</v>
       </c>
-      <c r="DF53" s="71">
+      <c r="DF53" s="67">
         <f t="shared" si="131"/>
         <v>10193.203316584302</v>
       </c>
-      <c r="DG53" s="71">
+      <c r="DG53" s="67">
         <f t="shared" si="131"/>
         <v>10861.510170217298</v>
       </c>
@@ -25055,45 +25063,45 @@
         <f t="shared" si="67"/>
         <v>-197</v>
       </c>
-      <c r="CX54" s="71">
+      <c r="CX54" s="67">
         <f>CW69*CZ72</f>
-        <v>328.68</v>
-      </c>
-      <c r="CY54" s="71">
+        <v>292.16000000000003</v>
+      </c>
+      <c r="CY54" s="67">
         <f t="shared" ref="CY54:DG54" si="132">CX54*(1.1)</f>
-        <v>361.54800000000006</v>
-      </c>
-      <c r="CZ54" s="71">
+        <v>321.37600000000003</v>
+      </c>
+      <c r="CZ54" s="67">
         <f t="shared" si="132"/>
-        <v>397.70280000000008</v>
-      </c>
-      <c r="DA54" s="71">
+        <v>353.51360000000005</v>
+      </c>
+      <c r="DA54" s="67">
         <f t="shared" si="132"/>
-        <v>437.47308000000015</v>
-      </c>
-      <c r="DB54" s="71">
+        <v>388.86496000000011</v>
+      </c>
+      <c r="DB54" s="67">
         <f t="shared" si="132"/>
-        <v>481.22038800000018</v>
-      </c>
-      <c r="DC54" s="71">
+        <v>427.75145600000013</v>
+      </c>
+      <c r="DC54" s="67">
         <f t="shared" si="132"/>
-        <v>529.34242680000023</v>
-      </c>
-      <c r="DD54" s="71">
+        <v>470.52660160000016</v>
+      </c>
+      <c r="DD54" s="67">
         <f t="shared" si="132"/>
-        <v>582.27666948000035</v>
-      </c>
-      <c r="DE54" s="71">
+        <v>517.57926176000024</v>
+      </c>
+      <c r="DE54" s="67">
         <f t="shared" si="132"/>
-        <v>640.50433642800044</v>
-      </c>
-      <c r="DF54" s="71">
+        <v>569.3371879360003</v>
+      </c>
+      <c r="DF54" s="67">
         <f t="shared" si="132"/>
-        <v>704.5547700708006</v>
-      </c>
-      <c r="DG54" s="71">
+        <v>626.27090672960037</v>
+      </c>
+      <c r="DG54" s="67">
         <f t="shared" si="132"/>
-        <v>775.01024707788076</v>
+        <v>688.89799740256046</v>
       </c>
     </row>
     <row r="55" spans="2:147">
@@ -25432,45 +25440,45 @@
         <f t="shared" si="67"/>
         <v>3492</v>
       </c>
-      <c r="CX55" s="71">
+      <c r="CX55" s="67">
         <f>CX53+CX54</f>
-        <v>5311.1803499999987</v>
-      </c>
-      <c r="CY55" s="71">
+        <v>5274.6603499999983</v>
+      </c>
+      <c r="CY55" s="67">
         <f t="shared" ref="CY55:DG55" si="155">CY53+CY54</f>
-        <v>5984.6200642839949</v>
-      </c>
-      <c r="CZ55" s="71">
+        <v>5944.4480642839953</v>
+      </c>
+      <c r="CZ55" s="67">
         <f t="shared" si="155"/>
-        <v>6632.3734300270035</v>
-      </c>
-      <c r="DA55" s="71">
+        <v>6588.1842300270037</v>
+      </c>
+      <c r="DA55" s="67">
         <f t="shared" si="155"/>
-        <v>7288.1059812797921</v>
-      </c>
-      <c r="DB55" s="71">
+        <v>7239.4978612797922</v>
+      </c>
+      <c r="DB55" s="67">
         <f t="shared" si="155"/>
-        <v>7990.0909538634969</v>
-      </c>
-      <c r="DC55" s="71">
+        <v>7936.6220218634971</v>
+      </c>
+      <c r="DC55" s="67">
         <f t="shared" si="155"/>
-        <v>8694.231330780487</v>
-      </c>
-      <c r="DD55" s="71">
+        <v>8635.4155055804877</v>
+      </c>
+      <c r="DD55" s="67">
         <f t="shared" si="155"/>
-        <v>9441.8930020787848</v>
-      </c>
-      <c r="DE55" s="71">
+        <v>9377.1955943587836</v>
+      </c>
+      <c r="DE55" s="67">
         <f t="shared" si="155"/>
-        <v>10212.509536177864</v>
-      </c>
-      <c r="DF55" s="71">
+        <v>10141.342387685863</v>
+      </c>
+      <c r="DF55" s="67">
         <f t="shared" si="155"/>
-        <v>10897.758086655103</v>
-      </c>
-      <c r="DG55" s="71">
+        <v>10819.474223313902</v>
+      </c>
+      <c r="DG55" s="67">
         <f t="shared" si="155"/>
-        <v>11636.520417295178</v>
+        <v>11550.408167619858</v>
       </c>
     </row>
     <row r="56" spans="2:147">
@@ -25747,45 +25755,45 @@
         <f t="shared" si="67"/>
         <v>499</v>
       </c>
-      <c r="CX56" s="71">
+      <c r="CX56" s="67">
         <f>CX55*CX65</f>
-        <v>743.56524899999988</v>
-      </c>
-      <c r="CY56" s="71">
+        <v>738.45244899999977</v>
+      </c>
+      <c r="CY56" s="67">
         <f t="shared" ref="CY56:DG56" si="156">CY55*CY65</f>
-        <v>837.84680899975933</v>
-      </c>
-      <c r="CZ56" s="71">
+        <v>832.2227289997594</v>
+      </c>
+      <c r="CZ56" s="67">
         <f t="shared" si="156"/>
-        <v>928.5322802037806</v>
-      </c>
-      <c r="DA56" s="71">
+        <v>922.34579220378055</v>
+      </c>
+      <c r="DA56" s="67">
         <f t="shared" si="156"/>
-        <v>1020.3348373791709</v>
-      </c>
-      <c r="DB56" s="71">
+        <v>1013.529700579171</v>
+      </c>
+      <c r="DB56" s="67">
         <f t="shared" si="156"/>
-        <v>1118.6127335408896</v>
-      </c>
-      <c r="DC56" s="71">
+        <v>1111.1270830608896</v>
+      </c>
+      <c r="DC56" s="67">
         <f t="shared" si="156"/>
-        <v>1217.1923863092684</v>
-      </c>
-      <c r="DD56" s="71">
+        <v>1208.9581707812683</v>
+      </c>
+      <c r="DD56" s="67">
         <f t="shared" si="156"/>
-        <v>1321.8650202910301</v>
-      </c>
-      <c r="DE56" s="71">
+        <v>1312.8073832102298</v>
+      </c>
+      <c r="DE56" s="67">
         <f t="shared" si="156"/>
-        <v>1429.751335064901</v>
-      </c>
-      <c r="DF56" s="71">
+        <v>1419.7879342760209</v>
+      </c>
+      <c r="DF56" s="67">
         <f t="shared" si="156"/>
-        <v>1525.6861321317147</v>
-      </c>
-      <c r="DG56" s="71">
+        <v>1514.7263912639464</v>
+      </c>
+      <c r="DG56" s="67">
         <f t="shared" si="156"/>
-        <v>1629.112858421325</v>
+        <v>1617.0571434667804</v>
       </c>
     </row>
     <row r="57" spans="2:147" s="1" customFormat="1" ht="15">
@@ -26084,47 +26092,47 @@
       <c r="BY57" s="28">
         <v>1030</v>
       </c>
-      <c r="CH57" s="43">
+      <c r="CH57" s="39">
         <f t="shared" si="69"/>
         <v>1106.9999999999998</v>
       </c>
-      <c r="CI57" s="43">
+      <c r="CI57" s="39">
         <f t="shared" si="70"/>
         <v>1272</v>
       </c>
-      <c r="CJ57" s="43">
+      <c r="CJ57" s="39">
         <f t="shared" si="71"/>
         <v>1345</v>
       </c>
-      <c r="CK57" s="43">
+      <c r="CK57" s="39">
         <f t="shared" si="72"/>
         <v>1298</v>
       </c>
-      <c r="CL57" s="43">
+      <c r="CL57" s="39">
         <f t="shared" si="73"/>
         <v>1006</v>
       </c>
-      <c r="CM57" s="43">
+      <c r="CM57" s="39">
         <f t="shared" si="74"/>
         <v>515</v>
       </c>
-      <c r="CN57" s="43">
+      <c r="CN57" s="39">
         <f t="shared" si="75"/>
         <v>1439</v>
       </c>
-      <c r="CO57" s="43">
+      <c r="CO57" s="39">
         <f t="shared" si="76"/>
         <v>1647</v>
       </c>
-      <c r="CP57" s="43">
+      <c r="CP57" s="39">
         <f t="shared" si="77"/>
         <v>1020</v>
       </c>
-      <c r="CQ57" s="43">
+      <c r="CQ57" s="39">
         <f t="shared" si="78"/>
         <v>3553</v>
       </c>
-      <c r="CR57" s="43">
+      <c r="CR57" s="39">
         <f t="shared" si="79"/>
         <v>2083</v>
       </c>
@@ -26148,189 +26156,189 @@
         <f t="shared" si="67"/>
         <v>2993</v>
       </c>
-      <c r="CX57" s="72">
+      <c r="CX57" s="68">
         <f>CX55-CX56</f>
-        <v>4567.6151009999985</v>
-      </c>
-      <c r="CY57" s="72">
+        <v>4536.2079009999989</v>
+      </c>
+      <c r="CY57" s="68">
         <f>CY55-CY56</f>
-        <v>5146.7732552842353</v>
-      </c>
-      <c r="CZ57" s="72">
+        <v>5112.2253352842363</v>
+      </c>
+      <c r="CZ57" s="68">
         <f>CZ55-CZ56</f>
-        <v>5703.8411498232226</v>
-      </c>
-      <c r="DA57" s="72">
+        <v>5665.8384378232231</v>
+      </c>
+      <c r="DA57" s="68">
         <f t="shared" ref="DA57:DG57" si="179">DA55-DA56</f>
-        <v>6267.7711439006216</v>
-      </c>
-      <c r="DB57" s="72">
+        <v>6225.9681607006214</v>
+      </c>
+      <c r="DB57" s="68">
         <f t="shared" si="179"/>
-        <v>6871.4782203226077</v>
-      </c>
-      <c r="DC57" s="72">
+        <v>6825.4949388026071</v>
+      </c>
+      <c r="DC57" s="68">
         <f t="shared" si="179"/>
-        <v>7477.0389444712182</v>
-      </c>
-      <c r="DD57" s="72">
+        <v>7426.4573347992191</v>
+      </c>
+      <c r="DD57" s="68">
         <f t="shared" si="179"/>
-        <v>8120.0279817877545</v>
-      </c>
-      <c r="DE57" s="72">
+        <v>8064.3882111485536</v>
+      </c>
+      <c r="DE57" s="68">
         <f t="shared" si="179"/>
-        <v>8782.7582011129634</v>
-      </c>
-      <c r="DF57" s="72">
+        <v>8721.5544534098426</v>
+      </c>
+      <c r="DF57" s="68">
         <f t="shared" si="179"/>
-        <v>9372.0719545233878</v>
-      </c>
-      <c r="DG57" s="72">
+        <v>9304.7478320499558</v>
+      </c>
+      <c r="DG57" s="68">
         <f t="shared" si="179"/>
-        <v>10007.407558873852</v>
-      </c>
-      <c r="DH57" s="72">
+        <v>9933.3510241530785</v>
+      </c>
+      <c r="DH57" s="68">
         <f>DG57*(1+$CZ$73)</f>
-        <v>10307.629785640069</v>
-      </c>
-      <c r="DI57" s="72">
+        <v>10281.018309998435</v>
+      </c>
+      <c r="DI57" s="68">
         <f t="shared" ref="DI57:EQ57" si="180">DH57*(1+$CZ$73)</f>
-        <v>10616.858679209272</v>
-      </c>
-      <c r="DJ57" s="72">
+        <v>10640.853950848379</v>
+      </c>
+      <c r="DJ57" s="68">
         <f t="shared" si="180"/>
-        <v>10935.36443958555</v>
-      </c>
-      <c r="DK57" s="72">
+        <v>11013.283839128071</v>
+      </c>
+      <c r="DK57" s="68">
         <f t="shared" si="180"/>
-        <v>11263.425372773117</v>
-      </c>
-      <c r="DL57" s="72">
+        <v>11398.748773497553</v>
+      </c>
+      <c r="DL57" s="68">
         <f t="shared" si="180"/>
-        <v>11601.328133956311</v>
-      </c>
-      <c r="DM57" s="72">
+        <v>11797.704980569966</v>
+      </c>
+      <c r="DM57" s="68">
         <f t="shared" si="180"/>
-        <v>11949.367977975</v>
-      </c>
-      <c r="DN57" s="72">
+        <v>12210.624654889914</v>
+      </c>
+      <c r="DN57" s="68">
         <f t="shared" si="180"/>
-        <v>12307.849017314251</v>
-      </c>
-      <c r="DO57" s="72">
+        <v>12637.99651781106</v>
+      </c>
+      <c r="DO57" s="68">
         <f t="shared" si="180"/>
-        <v>12677.084487833679</v>
-      </c>
-      <c r="DP57" s="72">
+        <v>13080.326395934446</v>
+      </c>
+      <c r="DP57" s="68">
         <f t="shared" si="180"/>
-        <v>13057.397022468691</v>
-      </c>
-      <c r="DQ57" s="72">
+        <v>13538.137819792151</v>
+      </c>
+      <c r="DQ57" s="68">
         <f t="shared" si="180"/>
-        <v>13449.118933142752</v>
-      </c>
-      <c r="DR57" s="72">
+        <v>14011.972643484876</v>
+      </c>
+      <c r="DR57" s="68">
         <f t="shared" si="180"/>
-        <v>13852.592501137035</v>
-      </c>
-      <c r="DS57" s="72">
+        <v>14502.391686006846</v>
+      </c>
+      <c r="DS57" s="68">
         <f t="shared" si="180"/>
-        <v>14268.170276171146</v>
-      </c>
-      <c r="DT57" s="72">
+        <v>15009.975395017083</v>
+      </c>
+      <c r="DT57" s="68">
         <f t="shared" si="180"/>
-        <v>14696.21538445628</v>
-      </c>
-      <c r="DU57" s="72">
+        <v>15535.32453384268</v>
+      </c>
+      <c r="DU57" s="68">
         <f t="shared" si="180"/>
-        <v>15137.101845989968</v>
-      </c>
-      <c r="DV57" s="72">
+        <v>16079.060892527174</v>
+      </c>
+      <c r="DV57" s="68">
         <f t="shared" si="180"/>
-        <v>15591.214901369667</v>
-      </c>
-      <c r="DW57" s="72">
+        <v>16641.828023765622</v>
+      </c>
+      <c r="DW57" s="68">
         <f t="shared" si="180"/>
-        <v>16058.951348410757</v>
-      </c>
-      <c r="DX57" s="72">
+        <v>17224.292004597417</v>
+      </c>
+      <c r="DX57" s="68">
         <f t="shared" si="180"/>
-        <v>16540.719888863081</v>
-      </c>
-      <c r="DY57" s="72">
+        <v>17827.142224758325</v>
+      </c>
+      <c r="DY57" s="68">
         <f t="shared" si="180"/>
-        <v>17036.941485528972</v>
-      </c>
-      <c r="DZ57" s="72">
+        <v>18451.092202624866</v>
+      </c>
+      <c r="DZ57" s="68">
         <f t="shared" si="180"/>
-        <v>17548.049730094841</v>
-      </c>
-      <c r="EA57" s="72">
+        <v>19096.880429716733</v>
+      </c>
+      <c r="EA57" s="68">
         <f t="shared" si="180"/>
-        <v>18074.491221997687</v>
-      </c>
-      <c r="EB57" s="72">
+        <v>19765.271244756819</v>
+      </c>
+      <c r="EB57" s="68">
         <f t="shared" si="180"/>
-        <v>18616.725958657618</v>
-      </c>
-      <c r="EC57" s="72">
+        <v>20457.055738323306</v>
+      </c>
+      <c r="EC57" s="68">
         <f t="shared" si="180"/>
-        <v>19175.227737417346</v>
-      </c>
-      <c r="ED57" s="72">
+        <v>21173.052689164619</v>
+      </c>
+      <c r="ED57" s="68">
         <f t="shared" si="180"/>
-        <v>19750.484569539869</v>
-      </c>
-      <c r="EE57" s="72">
+        <v>21914.10953328538</v>
+      </c>
+      <c r="EE57" s="68">
         <f t="shared" si="180"/>
-        <v>20342.999106626066</v>
-      </c>
-      <c r="EF57" s="72">
+        <v>22681.103366950367</v>
+      </c>
+      <c r="EF57" s="68">
         <f t="shared" si="180"/>
-        <v>20953.289079824848</v>
-      </c>
-      <c r="EG57" s="72">
+        <v>23474.941984793626</v>
+      </c>
+      <c r="EG57" s="68">
         <f t="shared" si="180"/>
-        <v>21581.887752219594</v>
-      </c>
-      <c r="EH57" s="72">
+        <v>24296.564954261401</v>
+      </c>
+      <c r="EH57" s="68">
         <f t="shared" si="180"/>
-        <v>22229.344384786182</v>
-      </c>
-      <c r="EI57" s="72">
+        <v>25146.94472766055</v>
+      </c>
+      <c r="EI57" s="68">
         <f t="shared" si="180"/>
-        <v>22896.224716329769</v>
-      </c>
-      <c r="EJ57" s="72">
+        <v>26027.087793128667</v>
+      </c>
+      <c r="EJ57" s="68">
         <f t="shared" si="180"/>
-        <v>23583.111457819661</v>
-      </c>
-      <c r="EK57" s="72">
+        <v>26938.035865888167</v>
+      </c>
+      <c r="EK57" s="68">
         <f t="shared" si="180"/>
-        <v>24290.604801554251</v>
-      </c>
-      <c r="EL57" s="72">
+        <v>27880.867121194249</v>
+      </c>
+      <c r="EL57" s="68">
         <f t="shared" si="180"/>
-        <v>25019.322945600878</v>
-      </c>
-      <c r="EM57" s="72">
+        <v>28856.697470436047</v>
+      </c>
+      <c r="EM57" s="68">
         <f t="shared" si="180"/>
-        <v>25769.902633968904</v>
-      </c>
-      <c r="EN57" s="72">
+        <v>29866.681881901306</v>
+      </c>
+      <c r="EN57" s="68">
         <f t="shared" si="180"/>
-        <v>26542.999712987974</v>
-      </c>
-      <c r="EO57" s="72">
+        <v>30912.015747767848</v>
+      </c>
+      <c r="EO57" s="68">
         <f t="shared" si="180"/>
-        <v>27339.289704377614</v>
-      </c>
-      <c r="EP57" s="72">
+        <v>31993.93629893972</v>
+      </c>
+      <c r="EP57" s="68">
         <f t="shared" si="180"/>
-        <v>28159.468395508942</v>
-      </c>
-      <c r="EQ57" s="72">
+        <v>33113.724069402604</v>
+      </c>
+      <c r="EQ57" s="68">
         <f t="shared" si="180"/>
-        <v>29004.252447374212</v>
+        <v>34272.704411831692</v>
       </c>
     </row>
     <row r="58" spans="2:147">
@@ -26487,16 +26495,16 @@
         <f>AVERAGE(BM58:BP58)</f>
         <v>381.35</v>
       </c>
-      <c r="CX58" s="71"/>
-      <c r="CY58" s="71"/>
-      <c r="CZ58" s="71"/>
-      <c r="DA58" s="71"/>
-      <c r="DB58" s="71"/>
-      <c r="DC58" s="71"/>
-      <c r="DD58" s="71"/>
-      <c r="DE58" s="71"/>
-      <c r="DF58" s="71"/>
-      <c r="DG58" s="71"/>
+      <c r="CX58" s="67"/>
+      <c r="CY58" s="67"/>
+      <c r="CZ58" s="67"/>
+      <c r="DA58" s="67"/>
+      <c r="DB58" s="67"/>
+      <c r="DC58" s="67"/>
+      <c r="DD58" s="67"/>
+      <c r="DE58" s="67"/>
+      <c r="DF58" s="67"/>
+      <c r="DG58" s="67"/>
     </row>
     <row r="59" spans="2:147">
       <c r="B59" s="2" t="s">
@@ -26702,16 +26710,16 @@
         <f>SUM(BM59:BP59)</f>
         <v>7.8494234560713272</v>
       </c>
-      <c r="CX59" s="73"/>
-      <c r="CY59" s="73"/>
-      <c r="CZ59" s="73"/>
-      <c r="DA59" s="73"/>
-      <c r="DB59" s="73"/>
-      <c r="DC59" s="73"/>
-      <c r="DD59" s="73"/>
-      <c r="DE59" s="73"/>
-      <c r="DF59" s="73"/>
-      <c r="DG59" s="73"/>
+      <c r="CX59" s="69"/>
+      <c r="CY59" s="69"/>
+      <c r="CZ59" s="69"/>
+      <c r="DA59" s="69"/>
+      <c r="DB59" s="69"/>
+      <c r="DC59" s="69"/>
+      <c r="DD59" s="69"/>
+      <c r="DE59" s="69"/>
+      <c r="DF59" s="69"/>
+      <c r="DG59" s="69"/>
     </row>
     <row r="60" spans="2:147">
       <c r="CX60" s="2"/>
@@ -27061,34 +27069,34 @@
         <f>CW48/CW46</f>
         <v>0.6390794423545032</v>
       </c>
-      <c r="CX61" s="70">
+      <c r="CX61" s="66">
         <v>0.64600000000000002</v>
       </c>
-      <c r="CY61" s="70">
+      <c r="CY61" s="66">
         <v>0.64800000000000002</v>
       </c>
-      <c r="CZ61" s="70">
+      <c r="CZ61" s="66">
         <v>0.65</v>
       </c>
-      <c r="DA61" s="70">
+      <c r="DA61" s="66">
         <v>0.65200000000000002</v>
       </c>
-      <c r="DB61" s="70">
+      <c r="DB61" s="66">
         <v>0.65400000000000003</v>
       </c>
-      <c r="DC61" s="70">
+      <c r="DC61" s="66">
         <v>0.65600000000000003</v>
       </c>
-      <c r="DD61" s="70">
+      <c r="DD61" s="66">
         <v>0.65800000000000003</v>
       </c>
-      <c r="DE61" s="70">
+      <c r="DE61" s="66">
         <v>0.66</v>
       </c>
-      <c r="DF61" s="70">
+      <c r="DF61" s="66">
         <v>0.66</v>
       </c>
-      <c r="DG61" s="70">
+      <c r="DG61" s="66">
         <v>0.66</v>
       </c>
     </row>
@@ -27428,34 +27436,34 @@
         <f>CW49/CW46</f>
         <v>6.4881610975879619E-2</v>
       </c>
-      <c r="CX62" s="70">
+      <c r="CX62" s="66">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="CY62" s="70">
+      <c r="CY62" s="66">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="CZ62" s="70">
+      <c r="CZ62" s="66">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="DA62" s="70">
+      <c r="DA62" s="66">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="DB62" s="70">
+      <c r="DB62" s="66">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="DC62" s="70">
+      <c r="DC62" s="66">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="DD62" s="70">
+      <c r="DD62" s="66">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="DE62" s="70">
+      <c r="DE62" s="66">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="DF62" s="70">
+      <c r="DF62" s="66">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="DG62" s="70">
+      <c r="DG62" s="66">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
@@ -27795,34 +27803,34 @@
         <f>CW50/CW46</f>
         <v>0.34011949546359815</v>
       </c>
-      <c r="CX63" s="70">
+      <c r="CX63" s="66">
         <v>0.33700000000000002</v>
       </c>
-      <c r="CY63" s="70">
+      <c r="CY63" s="66">
         <v>0.33400000000000002</v>
       </c>
-      <c r="CZ63" s="70">
+      <c r="CZ63" s="66">
         <v>0.33200000000000002</v>
       </c>
-      <c r="DA63" s="70">
+      <c r="DA63" s="66">
         <v>0.33</v>
       </c>
-      <c r="DB63" s="70">
+      <c r="DB63" s="66">
         <v>0.32800000000000001</v>
       </c>
-      <c r="DC63" s="70">
+      <c r="DC63" s="66">
         <v>0.32700000000000001</v>
       </c>
-      <c r="DD63" s="70">
+      <c r="DD63" s="66">
         <v>0.32600000000000001</v>
       </c>
-      <c r="DE63" s="70">
+      <c r="DE63" s="66">
         <v>0.32500000000000001</v>
       </c>
-      <c r="DF63" s="70">
+      <c r="DF63" s="66">
         <v>0.32500000000000001</v>
       </c>
-      <c r="DG63" s="70">
+      <c r="DG63" s="66">
         <v>0.32500000000000001</v>
       </c>
     </row>
@@ -28162,43 +28170,43 @@
         <f>CW53/CW46</f>
         <v>0.16326620933834921</v>
       </c>
-      <c r="CX64" s="70">
+      <c r="CX64" s="66">
         <f>CX53/CX46</f>
         <v>0.19719905526520445</v>
       </c>
-      <c r="CY64" s="70">
+      <c r="CY64" s="66">
         <f t="shared" ref="CY64:DG64" si="199">CY53/CY46</f>
         <v>0.20453694276110823</v>
       </c>
-      <c r="CZ64" s="70">
+      <c r="CZ64" s="66">
         <f t="shared" si="199"/>
         <v>0.21038177340542094</v>
       </c>
-      <c r="DA64" s="70">
+      <c r="DA64" s="66">
         <f t="shared" si="199"/>
         <v>0.21588995962111518</v>
       </c>
-      <c r="DB64" s="70">
+      <c r="DB64" s="66">
         <f t="shared" si="199"/>
         <v>0.22129161886986329</v>
       </c>
-      <c r="DC64" s="70">
+      <c r="DC64" s="66">
         <f t="shared" si="199"/>
         <v>0.2255578700047785</v>
       </c>
-      <c r="DD64" s="70">
+      <c r="DD64" s="66">
         <f t="shared" si="199"/>
         <v>0.22973425523153626</v>
       </c>
-      <c r="DE64" s="70">
+      <c r="DE64" s="66">
         <f t="shared" si="199"/>
         <v>0.23376048137551539</v>
       </c>
-      <c r="DF64" s="70">
+      <c r="DF64" s="66">
         <f t="shared" si="199"/>
         <v>0.23471806147291754</v>
       </c>
-      <c r="DG64" s="70">
+      <c r="DG64" s="66">
         <f t="shared" si="199"/>
         <v>0.23566906385120762</v>
       </c>
@@ -28539,34 +28547,34 @@
         <f>CW56/CW55</f>
         <v>0.14289805269186712</v>
       </c>
-      <c r="CX65" s="70">
+      <c r="CX65" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="CY65" s="70">
+      <c r="CY65" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="CZ65" s="70">
+      <c r="CZ65" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="DA65" s="70">
+      <c r="DA65" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="DB65" s="70">
+      <c r="DB65" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="DC65" s="70">
+      <c r="DC65" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="DD65" s="70">
+      <c r="DD65" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="DE65" s="70">
+      <c r="DE65" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="DF65" s="70">
+      <c r="DF65" s="66">
         <v>0.14000000000000001</v>
       </c>
-      <c r="DG65" s="70">
+      <c r="DG65" s="66">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -28906,45 +28914,45 @@
         <f>CW57/CW46</f>
         <v>0.13246293427749503</v>
       </c>
-      <c r="CX66" s="70">
+      <c r="CX66" s="66">
         <f>CX57/CX46</f>
-        <v>0.18077858895329157</v>
-      </c>
-      <c r="CY66" s="70">
+        <v>0.17953554435048985</v>
+      </c>
+      <c r="CY66" s="66">
         <f t="shared" ref="CY66:DG66" si="208">CY57/CY46</f>
-        <v>0.18721176870681255</v>
-      </c>
-      <c r="CZ66" s="70">
+        <v>0.18595510226989487</v>
+      </c>
+      <c r="CZ66" s="66">
         <f t="shared" si="208"/>
-        <v>0.1924695445086291</v>
-      </c>
-      <c r="DA66" s="70">
+        <v>0.19118718679974389</v>
+      </c>
+      <c r="DA66" s="66">
         <f t="shared" si="208"/>
-        <v>0.1975217295497339</v>
-      </c>
-      <c r="DB66" s="70">
+        <v>0.19620435574133668</v>
+      </c>
+      <c r="DB66" s="66">
         <f t="shared" si="208"/>
-        <v>0.20250722476387933</v>
-      </c>
-      <c r="DC66" s="70">
+        <v>0.20115206559323523</v>
+      </c>
+      <c r="DC66" s="66">
         <f t="shared" si="208"/>
-        <v>0.20655577780556361</v>
-      </c>
-      <c r="DD66" s="70">
+        <v>0.20515844340540207</v>
+      </c>
+      <c r="DD66" s="66">
         <f t="shared" si="208"/>
-        <v>0.21055636167802921</v>
-      </c>
-      <c r="DE66" s="70">
+        <v>0.20911359476926164</v>
+      </c>
+      <c r="DE66" s="66">
         <f t="shared" si="208"/>
-        <v>0.21448607079220691</v>
-      </c>
-      <c r="DF66" s="70">
+        <v>0.21299139781339982</v>
+      </c>
+      <c r="DF66" s="66">
         <f t="shared" si="208"/>
-        <v>0.21580993656541411</v>
-      </c>
-      <c r="DG66" s="70">
+        <v>0.21425966948778022</v>
+      </c>
+      <c r="DG66" s="66">
         <f t="shared" si="208"/>
-        <v>0.2171370586609796</v>
+        <v>0.2155302071333195</v>
       </c>
     </row>
     <row r="67" spans="2:111">
@@ -29106,16 +29114,16 @@
         <f t="shared" si="210"/>
         <v>-5.8256783627827047E-2</v>
       </c>
-      <c r="CX67" s="70"/>
-      <c r="CY67" s="70"/>
-      <c r="CZ67" s="70"/>
-      <c r="DA67" s="70"/>
-      <c r="DB67" s="70"/>
-      <c r="DC67" s="70"/>
-      <c r="DD67" s="70"/>
-      <c r="DE67" s="70"/>
-      <c r="DF67" s="70"/>
-      <c r="DG67" s="70"/>
+      <c r="CX67" s="66"/>
+      <c r="CY67" s="66"/>
+      <c r="CZ67" s="66"/>
+      <c r="DA67" s="66"/>
+      <c r="DB67" s="66"/>
+      <c r="DC67" s="66"/>
+      <c r="DD67" s="66"/>
+      <c r="DE67" s="66"/>
+      <c r="DF67" s="66"/>
+      <c r="DG67" s="66"/>
     </row>
     <row r="69" spans="2:111">
       <c r="B69" s="2" t="s">
@@ -29256,45 +29264,45 @@
         <f t="shared" ref="CW69:CW79" si="211">BP69</f>
         <v>3652</v>
       </c>
-      <c r="CX69" s="71">
+      <c r="CX69" s="67">
         <f>CW69+CX57</f>
-        <v>8219.6151009999994</v>
-      </c>
-      <c r="CY69" s="71">
+        <v>8188.2079009999989</v>
+      </c>
+      <c r="CY69" s="67">
         <f t="shared" ref="CY69:DG69" si="212">CX69+CY57</f>
-        <v>13366.388356284235</v>
-      </c>
-      <c r="CZ69" s="71">
+        <v>13300.433236284236</v>
+      </c>
+      <c r="CZ69" s="67">
         <f t="shared" si="212"/>
-        <v>19070.229506107458</v>
-      </c>
-      <c r="DA69" s="71">
+        <v>18966.271674107458</v>
+      </c>
+      <c r="DA69" s="67">
         <f t="shared" si="212"/>
-        <v>25338.000650008078</v>
-      </c>
-      <c r="DB69" s="71">
+        <v>25192.239834808079</v>
+      </c>
+      <c r="DB69" s="67">
         <f t="shared" si="212"/>
-        <v>32209.478870330684</v>
-      </c>
-      <c r="DC69" s="71">
+        <v>32017.734773610686</v>
+      </c>
+      <c r="DC69" s="67">
         <f t="shared" si="212"/>
-        <v>39686.517814801904</v>
-      </c>
-      <c r="DD69" s="71">
+        <v>39444.192108409901</v>
+      </c>
+      <c r="DD69" s="67">
         <f t="shared" si="212"/>
-        <v>47806.545796589657</v>
-      </c>
-      <c r="DE69" s="71">
+        <v>47508.580319558452</v>
+      </c>
+      <c r="DE69" s="67">
         <f t="shared" si="212"/>
-        <v>56589.30399770262</v>
-      </c>
-      <c r="DF69" s="71">
+        <v>56230.134772968297</v>
+      </c>
+      <c r="DF69" s="67">
         <f t="shared" si="212"/>
-        <v>65961.375952226008</v>
-      </c>
-      <c r="DG69" s="71">
+        <v>65534.882605018254</v>
+      </c>
+      <c r="DG69" s="67">
         <f t="shared" si="212"/>
-        <v>75968.783511099857</v>
+        <v>75468.233629171329</v>
       </c>
     </row>
     <row r="70" spans="2:111">
@@ -29626,11 +29634,11 @@
         <f t="shared" si="211"/>
         <v>3987</v>
       </c>
-      <c r="CY72" s="75" t="s">
+      <c r="CY72" s="71" t="s">
         <v>1568</v>
       </c>
-      <c r="CZ72" s="76">
-        <v>0.09</v>
+      <c r="CZ72" s="72">
+        <v>0.08</v>
       </c>
       <c r="DE72" s="25" t="s">
         <v>1567</v>
@@ -29730,11 +29738,14 @@
         <f t="shared" si="211"/>
         <v>4774</v>
       </c>
-      <c r="CY73" s="75" t="s">
+      <c r="CY73" s="71" t="s">
         <v>1569</v>
       </c>
-      <c r="CZ73" s="76">
-        <v>0.03</v>
+      <c r="CZ73" s="72">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="DE73" s="25" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="74" spans="2:111" ht="15" customHeight="1">
@@ -29831,10 +29842,10 @@
         <f t="shared" si="211"/>
         <v>1593</v>
       </c>
-      <c r="CY74" s="75" t="s">
+      <c r="CY74" s="71" t="s">
         <v>1570</v>
       </c>
-      <c r="CZ74" s="76">
+      <c r="CZ74" s="72">
         <v>4.3799999999999999E-2</v>
       </c>
     </row>
@@ -29932,12 +29943,12 @@
         <f t="shared" si="211"/>
         <v>3448</v>
       </c>
-      <c r="CY75" s="75" t="s">
+      <c r="CY75" s="71" t="s">
         <v>1571</v>
       </c>
-      <c r="CZ75" s="76">
-        <f>7%-CZ74</f>
-        <v>2.6200000000000008E-2</v>
+      <c r="CZ75" s="72">
+        <f>7.5%-CZ74</f>
+        <v>3.1199999999999999E-2</v>
       </c>
     </row>
     <row r="76" spans="2:111" ht="15" customHeight="1">
@@ -30034,10 +30045,10 @@
         <f t="shared" si="211"/>
         <v>15855</v>
       </c>
-      <c r="CY76" s="75" t="s">
+      <c r="CY76" s="71" t="s">
         <v>1572</v>
       </c>
-      <c r="CZ76" s="74">
+      <c r="CZ76" s="70">
         <v>0.94</v>
       </c>
     </row>
@@ -30135,12 +30146,12 @@
         <f t="shared" si="211"/>
         <v>4395</v>
       </c>
-      <c r="CY77" s="75" t="s">
+      <c r="CY77" s="71" t="s">
         <v>1573</v>
       </c>
-      <c r="CZ77" s="76">
+      <c r="CZ77" s="72">
         <f>+CZ74+(CZ75*CZ76)</f>
-        <v>6.8428000000000003E-2</v>
+        <v>7.3127999999999999E-2</v>
       </c>
     </row>
     <row r="78" spans="2:111" ht="15" customHeight="1">
@@ -30237,8 +30248,8 @@
         <f t="shared" si="211"/>
         <v>1742</v>
       </c>
-      <c r="CY78" s="75"/>
-      <c r="CZ78" s="74"/>
+      <c r="CY78" s="71"/>
+      <c r="CZ78" s="70"/>
     </row>
     <row r="79" spans="2:111" ht="15" customHeight="1">
       <c r="B79" s="2" t="s">
@@ -30334,12 +30345,12 @@
         <f t="shared" si="211"/>
         <v>2684</v>
       </c>
-      <c r="CY79" s="75" t="s">
+      <c r="CY79" s="71" t="s">
         <v>1574</v>
       </c>
-      <c r="CZ79" s="78">
+      <c r="CZ79" s="74">
         <f>NPV(CZ77,CX57:EQ57)</f>
-        <v>150202.47076447392</v>
+        <v>144251.00357966521</v>
       </c>
     </row>
     <row r="80" spans="2:111" ht="15" customHeight="1">
@@ -30458,21 +30469,21 @@
         <f t="shared" si="222"/>
         <v>42971</v>
       </c>
-      <c r="CY80" s="75" t="s">
+      <c r="CY80" s="71" t="s">
         <v>1208</v>
       </c>
-      <c r="CZ80" s="78">
+      <c r="CZ80" s="74">
         <f>Main!C6</f>
         <v>382.16399999999999</v>
       </c>
     </row>
     <row r="81" spans="2:105" ht="15" customHeight="1">
-      <c r="CY81" s="75" t="s">
+      <c r="CY81" s="71" t="s">
         <v>1575</v>
       </c>
-      <c r="CZ81" s="77">
+      <c r="CZ81" s="73">
         <f>CZ79/CZ80</f>
-        <v>393.0314492324602</v>
+        <v>377.45837802531167</v>
       </c>
     </row>
     <row r="82" spans="2:105" ht="15" customHeight="1">
@@ -30569,10 +30580,10 @@
         <f t="shared" ref="CW82:CW92" si="228">BP82</f>
         <v>1679</v>
       </c>
-      <c r="CY82" s="75" t="s">
+      <c r="CY82" s="71" t="s">
         <v>1576</v>
       </c>
-      <c r="CZ82" s="77">
+      <c r="CZ82" s="73">
         <v>380.92</v>
       </c>
     </row>
@@ -30670,16 +30681,16 @@
         <f t="shared" si="228"/>
         <v>1403</v>
       </c>
-      <c r="CY83" s="75" t="s">
+      <c r="CY83" s="71" t="s">
         <v>1577</v>
       </c>
-      <c r="CZ83" s="76">
+      <c r="CZ83" s="72">
         <f>CZ81/CZ82-1</f>
-        <v>3.1795256832038765E-2</v>
-      </c>
-      <c r="DA83" s="83" t="str">
+        <v>-9.0875301236174044E-3</v>
+      </c>
+      <c r="DA83" s="79" t="str">
         <f>IF(CZ83&gt;0,"Upside","Downside")</f>
-        <v>Upside</v>
+        <v>Downside</v>
       </c>
     </row>
     <row r="84" spans="2:105">
@@ -31889,7 +31900,7 @@
         <v>1.5803560156545891</v>
       </c>
       <c r="CW95" s="18">
-        <f t="shared" si="235"/>
+        <f>SUM(CW69:CW74)/SUM(CW82:CW87)</f>
         <v>1.9494485294117647</v>
       </c>
     </row>
@@ -32143,7 +32154,7 @@
         <v>0.37507890417876533</v>
       </c>
       <c r="CW97" s="18">
-        <f t="shared" si="241"/>
+        <f>CW69/SUM(CW82:CW87)</f>
         <v>0.47951680672268909</v>
       </c>
     </row>
@@ -32270,7 +32281,7 @@
         <v>0.51357987572659847</v>
       </c>
       <c r="CW98" s="18">
-        <f t="shared" si="244"/>
+        <f>CW46/CW80</f>
         <v>0.52581973889367251</v>
       </c>
     </row>
@@ -32377,28 +32388,28 @@
       <c r="CP99" s="26"/>
       <c r="CQ99" s="26"/>
       <c r="CR99" s="18">
-        <f t="shared" ref="CR99:CW99" si="246">CR47/AVERAGE(CO74:CR74)</f>
-        <v>6.8263157894736839</v>
+        <f>CR47/AVERAGE(CO73:CR73)</f>
+        <v>1.5807434491163925</v>
       </c>
       <c r="CS99" s="18">
-        <f t="shared" si="246"/>
-        <v>8.4839743589743595</v>
+        <f t="shared" ref="CR99:CV99" si="246">CS47/AVERAGE(CP73:CS73)</f>
+        <v>1.5625737898465171</v>
       </c>
       <c r="CT99" s="18">
         <f t="shared" si="246"/>
-        <v>9.6439790575916238</v>
+        <v>1.8255698711595638</v>
       </c>
       <c r="CU99" s="18">
         <f t="shared" si="246"/>
-        <v>10.190582128290693</v>
+        <v>1.9512957046503372</v>
       </c>
       <c r="CV99" s="18">
         <f t="shared" si="246"/>
-        <v>10.651395848246242</v>
+        <v>1.9020835996420811</v>
       </c>
       <c r="CW99" s="18">
-        <f t="shared" si="246"/>
-        <v>8.3662477558348289</v>
+        <f>CW47/AVERAGE(CT73:CW73)</f>
+        <v>1.9272125723738627</v>
       </c>
     </row>
     <row r="100" spans="2:101">
@@ -32524,7 +32535,7 @@
         <v>7.9299458809380635E-2</v>
       </c>
       <c r="CW100" s="16">
-        <f t="shared" si="249"/>
+        <f>CW57/CW80</f>
         <v>6.9651625514882132E-2</v>
       </c>
     </row>
@@ -33672,11 +33683,11 @@
       <c r="AI72" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="BK72" s="69"/>
-      <c r="BN72" s="67" t="s">
+      <c r="BK72" s="65"/>
+      <c r="BN72" s="63" t="s">
         <v>1508</v>
       </c>
-      <c r="BO72" s="68" t="s">
+      <c r="BO72" s="64" t="s">
         <v>1507</v>
       </c>
     </row>

--- a/SYK_Model.xlsx
+++ b/SYK_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FBE40D-9ED5-47C4-A7DB-DAC9F2737DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A04B3B-FA89-4F13-9A4F-1BF40F32B339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -5766,7 +5766,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -6277,10 +6277,10 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
@@ -14053,8 +14053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C10"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -15524,11 +15524,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78130D12-B16F-4BC5-8728-6B07C0E66DA0}">
   <dimension ref="B1:EQ108"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="CV51" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="CV39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DE73" sqref="DE73"/>
+      <selection pane="bottomRight" activeCell="B69" sqref="B69:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -31880,7 +31880,7 @@
       <c r="CP95" s="26"/>
       <c r="CQ95" s="26"/>
       <c r="CR95" s="18">
-        <f t="shared" ref="CR95:CW95" si="235">SUM(CR69:CR74)/SUM(CR82:CR87)</f>
+        <f t="shared" ref="CR95:CV95" si="235">SUM(CR69:CR74)/SUM(CR82:CR87)</f>
         <v>2.581818181818182</v>
       </c>
       <c r="CS95" s="18">
@@ -32134,7 +32134,7 @@
       <c r="CP97" s="26"/>
       <c r="CQ97" s="26"/>
       <c r="CR97" s="18">
-        <f t="shared" ref="CR97:CW97" si="241">CR69/SUM(CR82:CR87)</f>
+        <f t="shared" ref="CR97:CV97" si="241">CR69/SUM(CR82:CR87)</f>
         <v>0.98568181818181821</v>
       </c>
       <c r="CS97" s="18">
@@ -32261,7 +32261,7 @@
       <c r="CP98" s="26"/>
       <c r="CQ98" s="26"/>
       <c r="CR98" s="18">
-        <f t="shared" ref="CR98:CW98" si="244">CR46/CR80</f>
+        <f t="shared" ref="CR98:CV98" si="244">CR46/CR80</f>
         <v>0.49338681340537671</v>
       </c>
       <c r="CS98" s="18">
@@ -32392,7 +32392,7 @@
         <v>1.5807434491163925</v>
       </c>
       <c r="CS99" s="18">
-        <f t="shared" ref="CR99:CV99" si="246">CS47/AVERAGE(CP73:CS73)</f>
+        <f t="shared" ref="CS99:CV99" si="246">CS47/AVERAGE(CP73:CS73)</f>
         <v>1.5625737898465171</v>
       </c>
       <c r="CT99" s="18">
@@ -32515,7 +32515,7 @@
       <c r="CP100" s="26"/>
       <c r="CQ100" s="26"/>
       <c r="CR100" s="16">
-        <f t="shared" ref="CR100:CW100" si="249">CR57/CR80</f>
+        <f t="shared" ref="CR100:CV100" si="249">CR57/CR80</f>
         <v>6.9048960784963698E-2</v>
       </c>
       <c r="CS100" s="16">
@@ -33550,7 +33550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B64CFE4-27B0-47D1-98A8-2BD6EC88FF38}">
   <dimension ref="A1:GG1192"/>
   <sheetViews>
-    <sheetView topLeftCell="H211" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T219" sqref="T219"/>
     </sheetView>
   </sheetViews>

--- a/SYK_Model.xlsx
+++ b/SYK_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A04B3B-FA89-4F13-9A4F-1BF40F32B339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDAF0F9-34E1-4341-8D73-A46757A4CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -6420,6 +6420,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Notes | Quant Analysis'!$I$234</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Histogram Data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -15524,7 +15535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78130D12-B16F-4BC5-8728-6B07C0E66DA0}">
   <dimension ref="B1:EQ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="CV39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -33550,8 +33561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B64CFE4-27B0-47D1-98A8-2BD6EC88FF38}">
   <dimension ref="A1:GG1192"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T219" sqref="T219"/>
+    <sheetView tabSelected="1" topLeftCell="H182" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I241" sqref="I241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>

--- a/SYK_Model.xlsx
+++ b/SYK_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDAF0F9-34E1-4341-8D73-A46757A4CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550512D8-0F00-4BA1-9023-3375AC9A4327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15536,10 +15536,10 @@
   <dimension ref="B1:EQ108"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="CV39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="DM50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B69" sqref="B69:B70"/>
+      <selection pane="bottomRight" activeCell="DB84" sqref="DB84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -33561,8 +33561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B64CFE4-27B0-47D1-98A8-2BD6EC88FF38}">
   <dimension ref="A1:GG1192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H182" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I241" sqref="I241"/>
+    <sheetView tabSelected="1" topLeftCell="H102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R115" sqref="R115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>

--- a/SYK_Model.xlsx
+++ b/SYK_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550512D8-0F00-4BA1-9023-3375AC9A4327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E6CD58-BDDF-457D-A352-772D5FEF6163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SYK_Model.xlsx
+++ b/SYK_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E6CD58-BDDF-457D-A352-772D5FEF6163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8C1D85-F639-4772-AF17-16BC5CB76E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36975" yWindow="2010" windowWidth="14505" windowHeight="11055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -5551,9 +5551,6 @@
     <t>EU really was swinging hard at American tech firm's (both software and medical in 2022) … There is an understanding that non-monetary trade barriers do block out American enterprises from Euro markets</t>
   </si>
   <si>
-    <t>(these impressive operating incomes -- at least in aggregate -- have cooled off in recent quarters … I imagine management had some foresight of this bomb in operating effeciency/product mix which has since switched back to less profitable volume (MedSurg/neurotech))</t>
-  </si>
-  <si>
     <t>[LT goal in feeding models into Tableau… Data visualization + charting is sooo much better on that platform]</t>
   </si>
   <si>
@@ -5640,9 +5637,6 @@
   </si>
   <si>
     <t>Stryker IP Catalog</t>
-  </si>
-  <si>
-    <t>Thrombecotomy News</t>
   </si>
   <si>
     <t>https://evtoday.com/</t>
@@ -5757,6 +5751,12 @@
   </si>
   <si>
     <t>SYK has both debt and equity. Model could be delivering a lower NPV than the current trading price because Debt rate may be lower than equity rate</t>
+  </si>
+  <si>
+    <t>Thrombectomy News</t>
+  </si>
+  <si>
+    <t>(these impressive operating incomes -- at least in aggregate -- have cooled off in recent quarters … I imagine management had some foresight of this bomb in operating efficiency/product mix which has since switched back to less profitable volume (MedSurg/neurotech))</t>
   </si>
 </sst>
 </file>
@@ -14064,8 +14064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z223"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A213" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -14084,7 +14084,7 @@
     </row>
     <row r="2" spans="1:19" ht="15">
       <c r="A2" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -14150,7 +14150,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -14165,12 +14165,12 @@
         <v>1248</v>
       </c>
       <c r="R10" s="80" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="O11" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="R11" s="80" t="s">
         <v>1368</v>
@@ -14181,7 +14181,7 @@
         <v>1250</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="R12" s="80"/>
       <c r="S12" s="80" t="s">
@@ -14190,10 +14190,10 @@
     </row>
     <row r="13" spans="1:19">
       <c r="O13" s="2" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="R13" s="80" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -14204,10 +14204,10 @@
         <v>1247</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="R14" s="80" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="S14" s="80"/>
     </row>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="80" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="S15" s="80"/>
     </row>
@@ -14235,10 +14235,10 @@
         <v>1258</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="R16" s="80" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="S16" s="80"/>
     </row>
@@ -14250,16 +14250,16 @@
         <v>1259</v>
       </c>
       <c r="O17" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="R17" s="80" t="s">
         <v>1590</v>
-      </c>
-      <c r="R17" s="80" t="s">
-        <v>1591</v>
       </c>
       <c r="S17" s="80"/>
     </row>
     <row r="18" spans="1:19" ht="15">
       <c r="B18" s="2" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>1261</v>
@@ -14272,11 +14272,11 @@
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="2" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="R18" s="80"/>
       <c r="S18" s="80" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -14284,10 +14284,10 @@
         <v>1544</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>1593</v>
+        <v>1618</v>
       </c>
       <c r="R19" s="80" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -14298,16 +14298,16 @@
         <v>1260</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="K20" s="80" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="R20" s="80" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15">
@@ -19805,7 +19805,7 @@
     </row>
     <row r="26" spans="2:147" s="1" customFormat="1" ht="15">
       <c r="B26" s="27" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="32" spans="2:147" s="1" customFormat="1" ht="15">
       <c r="B32" s="27" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="AW32" s="78"/>
       <c r="AX32" s="78"/>
@@ -28968,7 +28968,7 @@
     </row>
     <row r="67" spans="2:111">
       <c r="B67" s="26" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -29646,13 +29646,13 @@
         <v>3987</v>
       </c>
       <c r="CY72" s="71" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="CZ72" s="72">
         <v>0.08</v>
       </c>
       <c r="DE72" s="25" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="73" spans="2:111" ht="15" customHeight="1">
@@ -29750,13 +29750,13 @@
         <v>4774</v>
       </c>
       <c r="CY73" s="71" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="CZ73" s="72">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="DE73" s="25" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="74" spans="2:111" ht="15" customHeight="1">
@@ -29854,7 +29854,7 @@
         <v>1593</v>
       </c>
       <c r="CY74" s="71" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="CZ74" s="72">
         <v>4.3799999999999999E-2</v>
@@ -29955,7 +29955,7 @@
         <v>3448</v>
       </c>
       <c r="CY75" s="71" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="CZ75" s="72">
         <f>7.5%-CZ74</f>
@@ -30057,7 +30057,7 @@
         <v>15855</v>
       </c>
       <c r="CY76" s="71" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="CZ76" s="70">
         <v>0.94</v>
@@ -30158,7 +30158,7 @@
         <v>4395</v>
       </c>
       <c r="CY77" s="71" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="CZ77" s="72">
         <f>+CZ74+(CZ75*CZ76)</f>
@@ -30357,7 +30357,7 @@
         <v>2684</v>
       </c>
       <c r="CY79" s="71" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="CZ79" s="74">
         <f>NPV(CZ77,CX57:EQ57)</f>
@@ -30490,7 +30490,7 @@
     </row>
     <row r="81" spans="2:105" ht="15" customHeight="1">
       <c r="CY81" s="71" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="CZ81" s="73">
         <f>CZ79/CZ80</f>
@@ -30592,7 +30592,7 @@
         <v>1679</v>
       </c>
       <c r="CY82" s="71" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="CZ82" s="73">
         <v>380.92</v>
@@ -30693,7 +30693,7 @@
         <v>1403</v>
       </c>
       <c r="CY83" s="71" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="CZ83" s="72">
         <f>CZ81/CZ82-1</f>
@@ -33561,8 +33561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B64CFE4-27B0-47D1-98A8-2BD6EC88FF38}">
   <dimension ref="A1:GG1192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R115" sqref="R115"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -33588,10 +33588,10 @@
     </row>
     <row r="2" spans="8:189" ht="15">
       <c r="H2" s="1" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>1277</v>
@@ -33660,7 +33660,7 @@
         <v>1488</v>
       </c>
       <c r="AH68" s="1" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="69" spans="8:94">
@@ -33668,7 +33668,7 @@
         <v>1533</v>
       </c>
       <c r="AI69" s="2" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="70" spans="8:94">
@@ -33676,7 +33676,7 @@
         <v>1517</v>
       </c>
       <c r="AI70" s="2" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="71" spans="8:94" ht="15">
@@ -33684,7 +33684,7 @@
         <v>9</v>
       </c>
       <c r="AH71" s="1" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="72" spans="8:94" ht="15">
@@ -33692,7 +33692,7 @@
         <v>1535</v>
       </c>
       <c r="AI72" s="2" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="BK72" s="65"/>
       <c r="BN72" s="63" t="s">
@@ -33707,7 +33707,7 @@
         <v>1518</v>
       </c>
       <c r="AI73" s="2" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="BK73" s="2" t="s">
         <v>1386</v>
@@ -33721,7 +33721,7 @@
         <v>1536</v>
       </c>
       <c r="AI74" s="2" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="75" spans="8:94">
@@ -33964,7 +33964,7 @@
     </row>
     <row r="101" spans="9:65" ht="15">
       <c r="J101" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="BK101" s="1" t="s">
         <v>1415</v>
@@ -34082,7 +34082,7 @@
         <v>1561</v>
       </c>
       <c r="BL114" s="2" t="s">
-        <v>1563</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="115" spans="8:64" ht="15">
@@ -34129,7 +34129,7 @@
     </row>
     <row r="122" spans="8:64">
       <c r="BK122" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="123" spans="8:64">
@@ -34169,7 +34169,7 @@
     </row>
     <row r="153" spans="8:35" ht="15">
       <c r="J153" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>1416</v>
@@ -35790,7 +35790,7 @@
       </c>
       <c r="L229" s="10"/>
       <c r="M229" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="230" spans="1:17" ht="15">
@@ -36485,7 +36485,7 @@
         <v>0</v>
       </c>
       <c r="AH246" s="2" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="247" spans="1:36" ht="15">
@@ -36532,7 +36532,7 @@
         <v>7</v>
       </c>
       <c r="AI247" s="2" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="248" spans="1:36" ht="15">
@@ -36582,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="AI248" s="2" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="249" spans="1:36" ht="15">
@@ -36630,7 +36630,7 @@
         <v>3</v>
       </c>
       <c r="AJ249" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="250" spans="1:36" ht="15">
@@ -36670,7 +36670,7 @@
         <v>3.6609587205509038</v>
       </c>
       <c r="AJ250" s="2" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="251" spans="1:36" ht="15">
